--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>Feature</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>wndow position</t>
-  </si>
-  <si>
-    <t>app</t>
   </si>
   <si>
     <t>quit</t>
@@ -498,28 +495,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -558,8 +534,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954936"/>
-          <c:h val="0.89627228525119984"/>
+          <c:w val="0.91978071330954958"/>
+          <c:h val="0.89627228525119973"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -619,7 +595,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +656,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,11 +787,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124252160"/>
-        <c:axId val="124253696"/>
+        <c:axId val="150466560"/>
+        <c:axId val="150468096"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="124252160"/>
+        <c:axId val="150466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124253696"/>
+        <c:crossAx val="150468096"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -858,7 +834,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124253696"/>
+        <c:axId val="150468096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124252160"/>
+        <c:crossAx val="150466560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -923,7 +899,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844436"/>
+          <c:y val="0.37277147487844442"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -990,7 +966,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1044,7 +1020,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.451045024812731E-2"/>
+          <c:x val="4.4510450248127324E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1107,17 +1083,17 @@
                   <c:v>0.12698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12698412698412698</c:v>
+                  <c:v>0.25806451612903225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124035840"/>
-        <c:axId val="124037376"/>
+        <c:axId val="150184704"/>
+        <c:axId val="150186240"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="124035840"/>
+        <c:axId val="150184704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,14 +1101,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="124037376"/>
+        <c:crossAx val="150186240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124037376"/>
+        <c:axId val="150186240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1175,7 +1151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124035840"/>
+        <c:crossAx val="150184704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1224,7 +1200,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1303,7 +1279,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,11 +1346,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124058240"/>
-        <c:axId val="124060032"/>
+        <c:axId val="150203008"/>
+        <c:axId val="150274432"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="124058240"/>
+        <c:axId val="150203008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124060032"/>
+        <c:crossAx val="150274432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1416,7 +1392,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124060032"/>
+        <c:axId val="150274432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124058240"/>
+        <c:crossAx val="150203008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1507,7 +1483,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001177" r="0.75000000000001177" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1965,10 +1941,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD56"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2034,7 +2010,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2070,7 +2046,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -2079,30 +2055,30 @@
         <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
       <c r="B17" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2111,17 +2087,17 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" s="6" customFormat="1">
+      <c r="B20" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>14</v>
@@ -2138,16 +2114,16 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="24" t="s">
-        <v>45</v>
+      <c r="B22" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2156,8 +2132,8 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="24" t="s">
-        <v>76</v>
+      <c r="B24" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2166,7 +2142,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2174,22 +2150,22 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" s="6" customFormat="1">
+      <c r="B27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" s="6" customFormat="1">
+      <c r="B28" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2198,25 +2174,25 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="20" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2224,22 +2200,22 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="22" t="s">
-        <v>53</v>
+      <c r="B34" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2256,7 +2232,7 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -2346,31 +2322,31 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="2:4" s="6" customFormat="1">
+      <c r="B47" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="20" t="s">
-        <v>72</v>
+      <c r="B49" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2378,8 +2354,8 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="23" t="s">
-        <v>74</v>
+      <c r="B50" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2387,12 +2363,8 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
@@ -2411,22 +2383,26 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:4" s="6" customFormat="1">
+      <c r="B57" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="22"/>
-      <c r="C57" s="7"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
@@ -2439,46 +2415,46 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="19"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" s="6" customFormat="1">
+      <c r="B64" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22" t="s">
-        <v>55</v>
+      <c r="B65" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -2513,21 +2489,21 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -2545,26 +2521,22 @@
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1">
+      <c r="B74" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
@@ -2573,13 +2545,17 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="3" t="s">
-        <v>27</v>
+      <c r="B78" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2588,7 +2564,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2597,195 +2573,186 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="81" spans="1:4" s="6" customFormat="1">
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
+    <row r="82" spans="1:4" s="6" customFormat="1">
       <c r="B82" s="22"/>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="7"/>
+    <row r="83" spans="1:4" s="6" customFormat="1">
+      <c r="B83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="3" t="s">
-        <v>25</v>
+    <row r="84" spans="1:4" s="6" customFormat="1">
+      <c r="B84" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="2:4" s="6" customFormat="1">
+    <row r="85" spans="1:4" s="6" customFormat="1">
       <c r="B85" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
+    <row r="86" spans="1:4" s="6" customFormat="1">
       <c r="B86" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="87" spans="1:4" s="6" customFormat="1">
+      <c r="B87" s="43"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="43"/>
+    <row r="88" spans="1:4" s="6" customFormat="1">
+      <c r="B88" s="21"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="21"/>
-      <c r="C89" s="4"/>
+    <row r="89" spans="1:4" s="6" customFormat="1">
+      <c r="B89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="3" t="s">
-        <v>19</v>
+    <row r="90" spans="1:4" s="6" customFormat="1">
+      <c r="B90" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
+    <row r="91" spans="1:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="92" spans="1:4" s="6" customFormat="1">
+      <c r="B92" s="22"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
+    <row r="93" spans="1:4" s="6" customFormat="1">
+      <c r="B93" s="19"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="19"/>
+    <row r="94" spans="1:4" s="6" customFormat="1">
+      <c r="B94" s="21"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="2:4" s="6" customFormat="1">
+    <row r="95" spans="1:4" s="6" customFormat="1">
       <c r="B95" s="21"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="21"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="3"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="6">
+        <f>COUNTIF(C5:C96,"y")</f>
+        <v>16</v>
+      </c>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="3"/>
       <c r="B98" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" s="6">
-        <f>COUNTIF(C5:C97,"y")</f>
-        <v>8</v>
+        <f>COUNTIF(C5:C96,"n")</f>
+        <v>46</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3"/>
       <c r="B99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="6">
-        <f>COUNTIF(C5:C97,"n")</f>
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="C99" s="7">
+        <f>COUNTIF(C5:C96,"TBD")</f>
+        <v>0</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="3"/>
       <c r="B100" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="7">
-        <f>COUNTIF(C5:C97,"TBD")</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <f>SUM(C97:C99)</f>
+        <v>62</v>
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" ht="18">
       <c r="A101" s="3"/>
-      <c r="B101" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <f>SUM(C98:C100)</f>
-        <v>63</v>
-      </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" ht="18">
+      <c r="B101" s="10"/>
+      <c r="C101" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="41">
+        <f>C97/(C98+C97 + C99)</f>
+        <v>0.25806451612903225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="3"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="41">
-        <f>C98/(C99+C98 + C100)</f>
-        <v>0.12698412698412698</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="3"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="3"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64851">
+  <conditionalFormatting sqref="C1:C3 C6:C64850">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2812,7 +2779,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3088,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -3101,10 +3068,10 @@
         <v>36</v>
       </c>
       <c r="B50" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -3113,11 +3080,11 @@
         <v>0</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.12698412698412698</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -3162,25 +3129,25 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.12698412698412698</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="39">
         <f>SUM(B54:D54)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="15">
+        <f>Features!C97</f>
+        <v>16</v>
+      </c>
+      <c r="C54" s="16">
         <f>Features!C98</f>
-        <v>8</v>
-      </c>
-      <c r="C54" s="16">
+        <v>46</v>
+      </c>
+      <c r="D54" s="17">
         <f>Features!C99</f>
-        <v>55</v>
-      </c>
-      <c r="D54" s="17">
-        <f>Features!C100</f>
         <v>0</v>
       </c>
       <c r="E54" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>Feature</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>3/19/17</t>
-  </si>
-  <si>
-    <t>3/20/17</t>
   </si>
   <si>
     <t>General</t>
@@ -279,6 +276,12 @@
   </si>
   <si>
     <t>format options</t>
+  </si>
+  <si>
+    <t>masks passwords</t>
+  </si>
+  <si>
+    <t>3/21/17</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -534,8 +537,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954958"/>
-          <c:h val="0.89627228525119973"/>
+          <c:w val="0.9197807133095498"/>
+          <c:h val="0.89627228525119962"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -577,7 +580,7 @@
                   <c:v>3/19/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/20/17</c:v>
+                  <c:v>3/21/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -595,7 +598,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,7 +641,7 @@
                   <c:v>3/19/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/20/17</c:v>
+                  <c:v>3/21/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -699,7 +702,7 @@
                   <c:v>3/19/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/20/17</c:v>
+                  <c:v>3/21/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -763,7 +766,7 @@
                   <c:v>3/19/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/20/17</c:v>
+                  <c:v>3/21/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -787,11 +790,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150466560"/>
-        <c:axId val="150468096"/>
+        <c:axId val="129232896"/>
+        <c:axId val="129234432"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="150466560"/>
+        <c:axId val="129232896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150468096"/>
+        <c:crossAx val="129234432"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -834,7 +837,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150468096"/>
+        <c:axId val="129234432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150466560"/>
+        <c:crossAx val="129232896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,7 +902,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844442"/>
+          <c:y val="0.37277147487844448"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -966,7 +969,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1020,7 +1023,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127324E-2"/>
+          <c:x val="4.4510450248127331E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1065,7 +1068,7 @@
                   <c:v>3/19/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/20/17</c:v>
+                  <c:v>3/21/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1083,17 +1086,17 @@
                   <c:v>0.12698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25806451612903225</c:v>
+                  <c:v>0.26984126984126983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150184704"/>
-        <c:axId val="150186240"/>
+        <c:axId val="128885504"/>
+        <c:axId val="128887040"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="150184704"/>
+        <c:axId val="128885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,14 +1104,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="150186240"/>
+        <c:crossAx val="128887040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150186240"/>
+        <c:axId val="128887040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1151,7 +1154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150184704"/>
+        <c:crossAx val="128885504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,7 +1203,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1261,7 +1264,7 @@
                   <c:v>3/19/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/20/17</c:v>
+                  <c:v>3/21/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1322,7 +1325,7 @@
                   <c:v>3/19/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3/20/17</c:v>
+                  <c:v>3/21/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1346,11 +1349,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150203008"/>
-        <c:axId val="150274432"/>
+        <c:axId val="128907904"/>
+        <c:axId val="129040768"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="150203008"/>
+        <c:axId val="128907904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150274432"/>
+        <c:crossAx val="129040768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1392,7 +1395,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150274432"/>
+        <c:axId val="129040768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150203008"/>
+        <c:crossAx val="128907904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,7 +1486,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001188" r="0.75000000000001188" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1941,10 +1944,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1980,14 +1983,14 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="B7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2010,7 +2013,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2018,41 +2021,41 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="B11" s="4"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1">
-      <c r="B13" s="22"/>
-      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" s="6" customFormat="1">
+      <c r="B15" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" s="6" customFormat="1">
-      <c r="B15" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
@@ -2060,8 +2063,8 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="23" t="s">
-        <v>41</v>
+      <c r="B16" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2</v>
@@ -2069,7 +2072,7 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2079,34 +2082,34 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" s="6" customFormat="1">
+      <c r="B19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="23" t="s">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" s="6" customFormat="1">
+      <c r="B20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2114,26 +2117,26 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" s="6" customFormat="1">
+      <c r="B23" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" s="6" customFormat="1">
+      <c r="B24" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2150,22 +2153,22 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="22"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="20" t="s">
-        <v>49</v>
+      <c r="B28" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2174,10 +2177,10 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2186,13 +2189,13 @@
         <v>50</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="20" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2200,31 +2203,31 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="22"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="20" t="s">
-        <v>58</v>
+      <c r="B34" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2232,8 +2235,8 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="23" t="s">
-        <v>60</v>
+      <c r="B36" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
       <c r="B38" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2260,7 +2263,7 @@
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -2269,7 +2272,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2287,7 +2290,7 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>14</v>
@@ -2296,7 +2299,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>14</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2314,7 +2317,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -2322,22 +2325,22 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="20" t="s">
-        <v>71</v>
+      <c r="B48" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2345,16 +2348,16 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="23" t="s">
-        <v>73</v>
+      <c r="B49" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -2363,8 +2366,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
@@ -2383,31 +2390,27 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4" s="6" customFormat="1">
+      <c r="B56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2415,46 +2418,46 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4" s="6" customFormat="1">
+      <c r="B63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" s="6" customFormat="1">
+      <c r="B64" s="22"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" s="6" customFormat="1">
+      <c r="B65" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -2472,7 +2475,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -2481,7 +2484,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -2489,22 +2492,22 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>56</v>
+      <c r="B71" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2521,22 +2524,26 @@
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="20"/>
-      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
@@ -2545,17 +2552,13 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="20"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2573,186 +2576,195 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="7"/>
+    <row r="81" spans="2:4" s="6" customFormat="1">
+      <c r="B81" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" s="6" customFormat="1">
+    <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="22"/>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" s="6" customFormat="1">
-      <c r="B83" s="3" t="s">
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="22"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" s="6" customFormat="1">
-      <c r="B84" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="6" customFormat="1">
+    <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" s="6" customFormat="1">
+    <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" s="6" customFormat="1">
-      <c r="B87" s="43"/>
-      <c r="C87" s="4"/>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" s="6" customFormat="1">
-      <c r="B88" s="21"/>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="43"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" s="6" customFormat="1">
-      <c r="B89" s="3" t="s">
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="21"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" s="6" customFormat="1">
-      <c r="B90" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" s="6" customFormat="1">
+    <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" s="6" customFormat="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="4"/>
+    <row r="92" spans="2:4" s="6" customFormat="1">
+      <c r="B92" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" s="6" customFormat="1">
-      <c r="B93" s="19"/>
+    <row r="93" spans="2:4" s="6" customFormat="1">
+      <c r="B93" s="22"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" s="6" customFormat="1">
-      <c r="B94" s="21"/>
+    <row r="94" spans="2:4" s="6" customFormat="1">
+      <c r="B94" s="19"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" s="6" customFormat="1">
+    <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="21"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="3"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="3"/>
+    <row r="96" spans="2:4" s="6" customFormat="1">
+      <c r="B96" s="21"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="3"/>
-      <c r="B97" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="6">
-        <f>COUNTIF(C5:C96,"y")</f>
-        <v>16</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="3"/>
       <c r="B98" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" s="6">
-        <f>COUNTIF(C5:C96,"n")</f>
-        <v>46</v>
+        <f>COUNTIF(C5:C97,"y")</f>
+        <v>17</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3"/>
       <c r="B99" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="7">
-        <f>COUNTIF(C5:C96,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C99" s="6">
+        <f>COUNTIF(C5:C97,"n")</f>
+        <v>46</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="3"/>
       <c r="B100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="7">
+        <f>COUNTIF(C5:C97,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3"/>
+      <c r="B101" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C100">
-        <f>SUM(C97:C99)</f>
-        <v>62</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" ht="18">
-      <c r="A101" s="3"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10" t="s">
+      <c r="C101">
+        <f>SUM(C98:C100)</f>
+        <v>63</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" ht="18">
+      <c r="A102" s="3"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="41">
-        <f>C97/(C98+C97 + C99)</f>
-        <v>0.25806451612903225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="3"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="41">
+        <f>C98/(C99+C98 + C100)</f>
+        <v>0.26984126984126983</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64850">
+  <conditionalFormatting sqref="C1:C3 C6:C64851">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2779,7 +2791,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3015,7 +3027,7 @@
       <c r="K47" s="32"/>
     </row>
     <row r="48" spans="1:11" s="6" customFormat="1">
-      <c r="A48" s="46">
+      <c r="A48" s="47">
         <v>43011</v>
       </c>
       <c r="B48" s="4">
@@ -3039,7 +3051,7 @@
       <c r="K48" s="32"/>
     </row>
     <row r="49" spans="1:11" s="6" customFormat="1">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="4">
@@ -3055,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -3064,11 +3076,11 @@
       <c r="K49" s="32"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="47" t="s">
-        <v>36</v>
+      <c r="A50" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="B50" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4">
         <v>46</v>
@@ -3080,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.25806451612903225</v>
+        <v>0.26984126984126983</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="45"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3099,7 +3111,7 @@
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="45"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3129,25 +3141,25 @@
       </c>
       <c r="G53" s="38">
         <f>MIN(G50)</f>
-        <v>0.25806451612903225</v>
+        <v>0.26984126984126983</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="39">
         <f>SUM(B54:D54)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="15">
-        <f>Features!C97</f>
-        <v>16</v>
+        <f>Features!C98</f>
+        <v>17</v>
       </c>
       <c r="C54" s="16">
-        <f>Features!C98</f>
+        <f>Features!C99</f>
         <v>46</v>
       </c>
       <c r="D54" s="17">
-        <f>Features!C99</f>
+        <f>Features!C100</f>
         <v>0</v>
       </c>
       <c r="E54" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>Feature</t>
   </si>
@@ -215,9 +215,6 @@
     <t>java time</t>
   </si>
   <si>
-    <t>linux time</t>
-  </si>
-  <si>
     <t>base64</t>
   </si>
   <si>
@@ -282,6 +279,15 @@
   </si>
   <si>
     <t>3/21/17</t>
+  </si>
+  <si>
+    <t>unix  time</t>
+  </si>
+  <si>
+    <t>3/27/17</t>
+  </si>
+  <si>
+    <t>0.00.03</t>
   </si>
 </sst>
 </file>
@@ -537,8 +543,8 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095498"/>
-          <c:h val="0.89627228525119962"/>
+          <c:w val="0.91978071330954991"/>
+          <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -570,9 +576,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -582,15 +588,18 @@
                 <c:pt idx="2">
                   <c:v>3/21/17</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3/27/17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$50</c:f>
+              <c:f>Progress!$B$48:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -599,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,9 +643,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -643,15 +655,18 @@
                 <c:pt idx="2">
                   <c:v>3/21/17</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3/27/17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -660,6 +675,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,9 +710,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -704,15 +722,18 @@
                 <c:pt idx="2">
                   <c:v>3/21/17</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3/27/17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -720,6 +741,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -753,9 +777,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$50</c:f>
+              <c:f>Progress!$A$47:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -768,15 +792,18 @@
                 <c:pt idx="3">
                   <c:v>3/21/17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>3/27/17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$50</c:f>
+              <c:f>Progress!$E$48:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -786,15 +813,18 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="129232896"/>
-        <c:axId val="129234432"/>
+        <c:axId val="152170496"/>
+        <c:axId val="152172032"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="129232896"/>
+        <c:axId val="152170496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129234432"/>
+        <c:crossAx val="152172032"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -837,7 +867,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="129234432"/>
+        <c:axId val="152172032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +909,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129232896"/>
+        <c:crossAx val="152170496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -902,7 +932,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844448"/>
+          <c:y val="0.37277147487844453"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -969,7 +999,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1023,7 +1053,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127331E-2"/>
+          <c:x val="4.4510450248127345E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1058,9 +1088,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1070,15 +1100,18 @@
                 <c:pt idx="2">
                   <c:v>3/21/17</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3/27/17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$50</c:f>
+              <c:f>Progress!$G$48:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1088,15 +1121,18 @@
                 <c:pt idx="2">
                   <c:v>0.26984126984126983</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128885504"/>
-        <c:axId val="128887040"/>
+        <c:axId val="132821760"/>
+        <c:axId val="132823296"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="128885504"/>
+        <c:axId val="132821760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,14 +1140,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="128887040"/>
+        <c:crossAx val="132823296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128887040"/>
+        <c:axId val="132823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1154,7 +1190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128885504"/>
+        <c:crossAx val="132821760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1203,7 +1239,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1254,9 +1290,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1266,15 +1302,18 @@
                 <c:pt idx="2">
                   <c:v>3/21/17</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3/27/17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1283,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,9 +1357,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1327,15 +1369,18 @@
                 <c:pt idx="2">
                   <c:v>3/21/17</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3/27/17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1345,15 +1390,18 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128907904"/>
-        <c:axId val="129040768"/>
+        <c:axId val="132840064"/>
+        <c:axId val="132845952"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="128907904"/>
+        <c:axId val="132840064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129040768"/>
+        <c:crossAx val="132845952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1395,7 +1443,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129040768"/>
+        <c:axId val="132845952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128907904"/>
+        <c:crossAx val="132840064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,7 +1534,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001199" r="0.75000000000001199" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1536,7 +1584,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1946,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2022,7 +2070,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2127,7 +2175,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
@@ -2136,7 +2184,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2204,7 +2252,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2230,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -2239,7 +2287,7 @@
         <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D36" s="4"/>
     </row>
@@ -2293,22 +2341,22 @@
         <v>64</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="23" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2317,7 +2365,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -2326,7 +2374,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -2340,7 +2388,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2349,7 +2397,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -2358,7 +2406,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2367,7 +2415,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2396,7 +2444,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2410,7 +2458,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2419,7 +2467,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2466,7 +2514,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -2475,7 +2523,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -2484,7 +2532,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -2493,7 +2541,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2539,7 +2587,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -2708,7 +2756,7 @@
       </c>
       <c r="C98" s="6">
         <f>COUNTIF(C5:C97,"y")</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -2719,7 +2767,7 @@
       </c>
       <c r="C99" s="6">
         <f>COUNTIF(C5:C97,"n")</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -2753,7 +2801,7 @@
       </c>
       <c r="D102" s="41">
         <f>C98/(C99+C98 + C100)</f>
-        <v>0.26984126984126983</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2786,12 +2834,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT864"/>
+  <dimension ref="A1:IT865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3067,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -3077,7 +3125,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="4">
         <v>17</v>
@@ -3092,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -3101,13 +3149,28 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="12"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="30"/>
+      <c r="A51" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="4">
+        <v>21</v>
+      </c>
+      <c r="C51" s="4">
+        <v>42</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="30">
+        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:11">
@@ -3116,84 +3179,84 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="31"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="30"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="38">
-        <f>MIN(G50)</f>
-        <v>0.26984126984126983</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="39">
-        <f>SUM(B54:D54)</f>
+      <c r="G54" s="38">
+        <f>MIN(G51)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="39">
+        <f>SUM(B55:D55)</f>
         <v>63</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B55" s="15">
         <f>Features!C98</f>
-        <v>17</v>
-      </c>
-      <c r="C54" s="16">
+        <v>21</v>
+      </c>
+      <c r="C55" s="16">
         <f>Features!C99</f>
-        <v>46</v>
-      </c>
-      <c r="D54" s="17">
+        <v>42</v>
+      </c>
+      <c r="D55" s="17">
         <f>Features!C100</f>
         <v>0</v>
       </c>
-      <c r="E54" s="18">
-        <f>MIN(E50)</f>
+      <c r="E55" s="18">
+        <f>MIN(E51)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="4"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -3203,7 +3266,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -3223,7 +3286,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -3243,7 +3306,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -3263,7 +3326,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3273,7 +3336,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3292,7 +3355,7 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
@@ -3303,7 +3366,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3434,7 +3497,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3443,7 +3506,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -3451,15 +3514,15 @@
       <c r="G82" s="30"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="4"/>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="4"/>
@@ -3633,7 +3696,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -3643,7 +3706,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3673,7 +3736,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -3713,7 +3776,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="21"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3723,7 +3786,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -3733,7 +3796,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3743,7 +3806,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3753,7 +3816,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3773,7 +3836,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -3833,7 +3896,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -3933,7 +3996,7 @@
     </row>
     <row r="131" spans="1:254" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -3983,7 +4046,7 @@
     </row>
     <row r="136" spans="1:254" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -4003,7 +4066,7 @@
     </row>
     <row r="138" spans="1:254" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -4042,284 +4105,284 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AC142" s="5"/>
-      <c r="AD142" s="5"/>
-      <c r="AE142" s="5"/>
-      <c r="AF142" s="5"/>
-      <c r="AG142" s="5"/>
-      <c r="AH142" s="5"/>
-      <c r="AI142" s="5"/>
-      <c r="AJ142" s="5"/>
-      <c r="AK142" s="5"/>
-      <c r="AL142" s="5"/>
-      <c r="AM142" s="5"/>
-      <c r="AN142" s="5"/>
-      <c r="AO142" s="5"/>
-      <c r="AP142" s="5"/>
-      <c r="AQ142" s="5"/>
-      <c r="AR142" s="5"/>
-      <c r="AS142" s="5"/>
-      <c r="AT142" s="5"/>
-      <c r="AU142" s="5"/>
-      <c r="AV142" s="5"/>
-      <c r="AW142" s="5"/>
-      <c r="AX142" s="5"/>
-      <c r="AY142" s="5"/>
-      <c r="AZ142" s="5"/>
-      <c r="BA142" s="5"/>
-      <c r="BB142" s="5"/>
-      <c r="BC142" s="5"/>
-      <c r="BD142" s="5"/>
-      <c r="BE142" s="5"/>
-      <c r="BF142" s="5"/>
-      <c r="BG142" s="5"/>
-      <c r="BH142" s="5"/>
-      <c r="BI142" s="5"/>
-      <c r="BJ142" s="5"/>
-      <c r="BK142" s="5"/>
-      <c r="BL142" s="5"/>
-      <c r="BM142" s="5"/>
-      <c r="BN142" s="5"/>
-      <c r="BO142" s="5"/>
-      <c r="BP142" s="5"/>
-      <c r="BQ142" s="5"/>
-      <c r="BR142" s="5"/>
-      <c r="BS142" s="5"/>
-      <c r="BT142" s="5"/>
-      <c r="BU142" s="5"/>
-      <c r="BV142" s="5"/>
-      <c r="BW142" s="5"/>
-      <c r="BX142" s="5"/>
-      <c r="BY142" s="5"/>
-      <c r="BZ142" s="5"/>
-      <c r="CA142" s="5"/>
-      <c r="CB142" s="5"/>
-      <c r="CC142" s="5"/>
-      <c r="CD142" s="5"/>
-      <c r="CE142" s="5"/>
-      <c r="CF142" s="5"/>
-      <c r="CG142" s="5"/>
-      <c r="CH142" s="5"/>
-      <c r="CI142" s="5"/>
-      <c r="CJ142" s="5"/>
-      <c r="CK142" s="5"/>
-      <c r="CL142" s="5"/>
-      <c r="CM142" s="5"/>
-      <c r="CN142" s="5"/>
-      <c r="CO142" s="5"/>
-      <c r="CP142" s="5"/>
-      <c r="CQ142" s="5"/>
-      <c r="CR142" s="5"/>
-      <c r="CS142" s="5"/>
-      <c r="CT142" s="5"/>
-      <c r="CU142" s="5"/>
-      <c r="CV142" s="5"/>
-      <c r="CW142" s="5"/>
-      <c r="CX142" s="5"/>
-      <c r="CY142" s="5"/>
-      <c r="CZ142" s="5"/>
-      <c r="DA142" s="5"/>
-      <c r="DB142" s="5"/>
-      <c r="DC142" s="5"/>
-      <c r="DD142" s="5"/>
-      <c r="DE142" s="5"/>
-      <c r="DF142" s="5"/>
-      <c r="DG142" s="5"/>
-      <c r="DH142" s="5"/>
-      <c r="DI142" s="5"/>
-      <c r="DJ142" s="5"/>
-      <c r="DK142" s="5"/>
-      <c r="DL142" s="5"/>
-      <c r="DM142" s="5"/>
-      <c r="DN142" s="5"/>
-      <c r="DO142" s="5"/>
-      <c r="DP142" s="5"/>
-      <c r="DQ142" s="5"/>
-      <c r="DR142" s="5"/>
-      <c r="DS142" s="5"/>
-      <c r="DT142" s="5"/>
-      <c r="DU142" s="5"/>
-      <c r="DV142" s="5"/>
-      <c r="DW142" s="5"/>
-      <c r="DX142" s="5"/>
-      <c r="DY142" s="5"/>
-      <c r="DZ142" s="5"/>
-      <c r="EA142" s="5"/>
-      <c r="EB142" s="5"/>
-      <c r="EC142" s="5"/>
-      <c r="ED142" s="5"/>
-      <c r="EE142" s="5"/>
-      <c r="EF142" s="5"/>
-      <c r="EG142" s="5"/>
-      <c r="EH142" s="5"/>
-      <c r="EI142" s="5"/>
-      <c r="EJ142" s="5"/>
-      <c r="EK142" s="5"/>
-      <c r="EL142" s="5"/>
-      <c r="EM142" s="5"/>
-      <c r="EN142" s="5"/>
-      <c r="EO142" s="5"/>
-      <c r="EP142" s="5"/>
-      <c r="EQ142" s="5"/>
-      <c r="ER142" s="5"/>
-      <c r="ES142" s="5"/>
-      <c r="ET142" s="5"/>
-      <c r="EU142" s="5"/>
-      <c r="EV142" s="5"/>
-      <c r="EW142" s="5"/>
-      <c r="EX142" s="5"/>
-      <c r="EY142" s="5"/>
-      <c r="EZ142" s="5"/>
-      <c r="FA142" s="5"/>
-      <c r="FB142" s="5"/>
-      <c r="FC142" s="5"/>
-      <c r="FD142" s="5"/>
-      <c r="FE142" s="5"/>
-      <c r="FF142" s="5"/>
-      <c r="FG142" s="5"/>
-      <c r="FH142" s="5"/>
-      <c r="FI142" s="5"/>
-      <c r="FJ142" s="5"/>
-      <c r="FK142" s="5"/>
-      <c r="FL142" s="5"/>
-      <c r="FM142" s="5"/>
-      <c r="FN142" s="5"/>
-      <c r="FO142" s="5"/>
-      <c r="FP142" s="5"/>
-      <c r="FQ142" s="5"/>
-      <c r="FR142" s="5"/>
-      <c r="FS142" s="5"/>
-      <c r="FT142" s="5"/>
-      <c r="FU142" s="5"/>
-      <c r="FV142" s="5"/>
-      <c r="FW142" s="5"/>
-      <c r="FX142" s="5"/>
-      <c r="FY142" s="5"/>
-      <c r="FZ142" s="5"/>
-      <c r="GA142" s="5"/>
-      <c r="GB142" s="5"/>
-      <c r="GC142" s="5"/>
-      <c r="GD142" s="5"/>
-      <c r="GE142" s="5"/>
-      <c r="GF142" s="5"/>
-      <c r="GG142" s="5"/>
-      <c r="GH142" s="5"/>
-      <c r="GI142" s="5"/>
-      <c r="GJ142" s="5"/>
-      <c r="GK142" s="5"/>
-      <c r="GL142" s="5"/>
-      <c r="GM142" s="5"/>
-      <c r="GN142" s="5"/>
-      <c r="GO142" s="5"/>
-      <c r="GP142" s="5"/>
-      <c r="GQ142" s="5"/>
-      <c r="GR142" s="5"/>
-      <c r="GS142" s="5"/>
-      <c r="GT142" s="5"/>
-      <c r="GU142" s="5"/>
-      <c r="GV142" s="5"/>
-      <c r="GW142" s="5"/>
-      <c r="GX142" s="5"/>
-      <c r="GY142" s="5"/>
-      <c r="GZ142" s="5"/>
-      <c r="HA142" s="5"/>
-      <c r="HB142" s="5"/>
-      <c r="HC142" s="5"/>
-      <c r="HD142" s="5"/>
-      <c r="HE142" s="5"/>
-      <c r="HF142" s="5"/>
-      <c r="HG142" s="5"/>
-      <c r="HH142" s="5"/>
-      <c r="HI142" s="5"/>
-      <c r="HJ142" s="5"/>
-      <c r="HK142" s="5"/>
-      <c r="HL142" s="5"/>
-      <c r="HM142" s="5"/>
-      <c r="HN142" s="5"/>
-      <c r="HO142" s="5"/>
-      <c r="HP142" s="5"/>
-      <c r="HQ142" s="5"/>
-      <c r="HR142" s="5"/>
-      <c r="HS142" s="5"/>
-      <c r="HT142" s="5"/>
-      <c r="HU142" s="5"/>
-      <c r="HV142" s="5"/>
-      <c r="HW142" s="5"/>
-      <c r="HX142" s="5"/>
-      <c r="HY142" s="5"/>
-      <c r="HZ142" s="5"/>
-      <c r="IA142" s="5"/>
-      <c r="IB142" s="5"/>
-      <c r="IC142" s="5"/>
-      <c r="ID142" s="5"/>
-      <c r="IE142" s="5"/>
-      <c r="IF142" s="5"/>
-      <c r="IG142" s="5"/>
-      <c r="IH142" s="5"/>
-      <c r="II142" s="5"/>
-      <c r="IJ142" s="5"/>
-      <c r="IK142" s="5"/>
-      <c r="IL142" s="5"/>
-      <c r="IM142" s="5"/>
-      <c r="IN142" s="5"/>
-      <c r="IO142" s="5"/>
-      <c r="IP142" s="5"/>
-      <c r="IQ142" s="5"/>
-      <c r="IR142" s="5"/>
-      <c r="IS142" s="5"/>
-      <c r="IT142" s="5"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:254">
-      <c r="A144" s="7"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="7"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+      <c r="AN143" s="5"/>
+      <c r="AO143" s="5"/>
+      <c r="AP143" s="5"/>
+      <c r="AQ143" s="5"/>
+      <c r="AR143" s="5"/>
+      <c r="AS143" s="5"/>
+      <c r="AT143" s="5"/>
+      <c r="AU143" s="5"/>
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5"/>
+      <c r="BA143" s="5"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+      <c r="BG143" s="5"/>
+      <c r="BH143" s="5"/>
+      <c r="BI143" s="5"/>
+      <c r="BJ143" s="5"/>
+      <c r="BK143" s="5"/>
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+      <c r="BN143" s="5"/>
+      <c r="BO143" s="5"/>
+      <c r="BP143" s="5"/>
+      <c r="BQ143" s="5"/>
+      <c r="BR143" s="5"/>
+      <c r="BS143" s="5"/>
+      <c r="BT143" s="5"/>
+      <c r="BU143" s="5"/>
+      <c r="BV143" s="5"/>
+      <c r="BW143" s="5"/>
+      <c r="BX143" s="5"/>
+      <c r="BY143" s="5"/>
+      <c r="BZ143" s="5"/>
+      <c r="CA143" s="5"/>
+      <c r="CB143" s="5"/>
+      <c r="CC143" s="5"/>
+      <c r="CD143" s="5"/>
+      <c r="CE143" s="5"/>
+      <c r="CF143" s="5"/>
+      <c r="CG143" s="5"/>
+      <c r="CH143" s="5"/>
+      <c r="CI143" s="5"/>
+      <c r="CJ143" s="5"/>
+      <c r="CK143" s="5"/>
+      <c r="CL143" s="5"/>
+      <c r="CM143" s="5"/>
+      <c r="CN143" s="5"/>
+      <c r="CO143" s="5"/>
+      <c r="CP143" s="5"/>
+      <c r="CQ143" s="5"/>
+      <c r="CR143" s="5"/>
+      <c r="CS143" s="5"/>
+      <c r="CT143" s="5"/>
+      <c r="CU143" s="5"/>
+      <c r="CV143" s="5"/>
+      <c r="CW143" s="5"/>
+      <c r="CX143" s="5"/>
+      <c r="CY143" s="5"/>
+      <c r="CZ143" s="5"/>
+      <c r="DA143" s="5"/>
+      <c r="DB143" s="5"/>
+      <c r="DC143" s="5"/>
+      <c r="DD143" s="5"/>
+      <c r="DE143" s="5"/>
+      <c r="DF143" s="5"/>
+      <c r="DG143" s="5"/>
+      <c r="DH143" s="5"/>
+      <c r="DI143" s="5"/>
+      <c r="DJ143" s="5"/>
+      <c r="DK143" s="5"/>
+      <c r="DL143" s="5"/>
+      <c r="DM143" s="5"/>
+      <c r="DN143" s="5"/>
+      <c r="DO143" s="5"/>
+      <c r="DP143" s="5"/>
+      <c r="DQ143" s="5"/>
+      <c r="DR143" s="5"/>
+      <c r="DS143" s="5"/>
+      <c r="DT143" s="5"/>
+      <c r="DU143" s="5"/>
+      <c r="DV143" s="5"/>
+      <c r="DW143" s="5"/>
+      <c r="DX143" s="5"/>
+      <c r="DY143" s="5"/>
+      <c r="DZ143" s="5"/>
+      <c r="EA143" s="5"/>
+      <c r="EB143" s="5"/>
+      <c r="EC143" s="5"/>
+      <c r="ED143" s="5"/>
+      <c r="EE143" s="5"/>
+      <c r="EF143" s="5"/>
+      <c r="EG143" s="5"/>
+      <c r="EH143" s="5"/>
+      <c r="EI143" s="5"/>
+      <c r="EJ143" s="5"/>
+      <c r="EK143" s="5"/>
+      <c r="EL143" s="5"/>
+      <c r="EM143" s="5"/>
+      <c r="EN143" s="5"/>
+      <c r="EO143" s="5"/>
+      <c r="EP143" s="5"/>
+      <c r="EQ143" s="5"/>
+      <c r="ER143" s="5"/>
+      <c r="ES143" s="5"/>
+      <c r="ET143" s="5"/>
+      <c r="EU143" s="5"/>
+      <c r="EV143" s="5"/>
+      <c r="EW143" s="5"/>
+      <c r="EX143" s="5"/>
+      <c r="EY143" s="5"/>
+      <c r="EZ143" s="5"/>
+      <c r="FA143" s="5"/>
+      <c r="FB143" s="5"/>
+      <c r="FC143" s="5"/>
+      <c r="FD143" s="5"/>
+      <c r="FE143" s="5"/>
+      <c r="FF143" s="5"/>
+      <c r="FG143" s="5"/>
+      <c r="FH143" s="5"/>
+      <c r="FI143" s="5"/>
+      <c r="FJ143" s="5"/>
+      <c r="FK143" s="5"/>
+      <c r="FL143" s="5"/>
+      <c r="FM143" s="5"/>
+      <c r="FN143" s="5"/>
+      <c r="FO143" s="5"/>
+      <c r="FP143" s="5"/>
+      <c r="FQ143" s="5"/>
+      <c r="FR143" s="5"/>
+      <c r="FS143" s="5"/>
+      <c r="FT143" s="5"/>
+      <c r="FU143" s="5"/>
+      <c r="FV143" s="5"/>
+      <c r="FW143" s="5"/>
+      <c r="FX143" s="5"/>
+      <c r="FY143" s="5"/>
+      <c r="FZ143" s="5"/>
+      <c r="GA143" s="5"/>
+      <c r="GB143" s="5"/>
+      <c r="GC143" s="5"/>
+      <c r="GD143" s="5"/>
+      <c r="GE143" s="5"/>
+      <c r="GF143" s="5"/>
+      <c r="GG143" s="5"/>
+      <c r="GH143" s="5"/>
+      <c r="GI143" s="5"/>
+      <c r="GJ143" s="5"/>
+      <c r="GK143" s="5"/>
+      <c r="GL143" s="5"/>
+      <c r="GM143" s="5"/>
+      <c r="GN143" s="5"/>
+      <c r="GO143" s="5"/>
+      <c r="GP143" s="5"/>
+      <c r="GQ143" s="5"/>
+      <c r="GR143" s="5"/>
+      <c r="GS143" s="5"/>
+      <c r="GT143" s="5"/>
+      <c r="GU143" s="5"/>
+      <c r="GV143" s="5"/>
+      <c r="GW143" s="5"/>
+      <c r="GX143" s="5"/>
+      <c r="GY143" s="5"/>
+      <c r="GZ143" s="5"/>
+      <c r="HA143" s="5"/>
+      <c r="HB143" s="5"/>
+      <c r="HC143" s="5"/>
+      <c r="HD143" s="5"/>
+      <c r="HE143" s="5"/>
+      <c r="HF143" s="5"/>
+      <c r="HG143" s="5"/>
+      <c r="HH143" s="5"/>
+      <c r="HI143" s="5"/>
+      <c r="HJ143" s="5"/>
+      <c r="HK143" s="5"/>
+      <c r="HL143" s="5"/>
+      <c r="HM143" s="5"/>
+      <c r="HN143" s="5"/>
+      <c r="HO143" s="5"/>
+      <c r="HP143" s="5"/>
+      <c r="HQ143" s="5"/>
+      <c r="HR143" s="5"/>
+      <c r="HS143" s="5"/>
+      <c r="HT143" s="5"/>
+      <c r="HU143" s="5"/>
+      <c r="HV143" s="5"/>
+      <c r="HW143" s="5"/>
+      <c r="HX143" s="5"/>
+      <c r="HY143" s="5"/>
+      <c r="HZ143" s="5"/>
+      <c r="IA143" s="5"/>
+      <c r="IB143" s="5"/>
+      <c r="IC143" s="5"/>
+      <c r="ID143" s="5"/>
+      <c r="IE143" s="5"/>
+      <c r="IF143" s="5"/>
+      <c r="IG143" s="5"/>
+      <c r="IH143" s="5"/>
+      <c r="II143" s="5"/>
+      <c r="IJ143" s="5"/>
+      <c r="IK143" s="5"/>
+      <c r="IL143" s="5"/>
+      <c r="IM143" s="5"/>
+      <c r="IN143" s="5"/>
+      <c r="IO143" s="5"/>
+      <c r="IP143" s="5"/>
+      <c r="IQ143" s="5"/>
+      <c r="IR143" s="5"/>
+      <c r="IS143" s="5"/>
+      <c r="IT143" s="5"/>
+    </row>
+    <row r="144" spans="1:254" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -4329,7 +4392,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -4339,7 +4402,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -4350,7 +4413,7 @@
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -4390,7 +4453,7 @@
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -4399,7 +4462,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -4419,7 +4482,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -4429,7 +4492,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -4449,7 +4512,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -4469,7 +4532,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -4488,10 +4551,8 @@
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B162" s="7"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -4500,7 +4561,9 @@
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="7"/>
+      <c r="A163" s="45">
+        <v>43011</v>
+      </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -4511,7 +4574,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -4531,7 +4594,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -4571,7 +4634,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="6"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -4581,8 +4644,8 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -4591,7 +4654,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="19"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -4661,7 +4724,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -4671,7 +4734,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -4681,7 +4744,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="21"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -4701,7 +4764,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -4742,7 +4805,7 @@
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
       <c r="B187" s="19"/>
-      <c r="C187" s="7"/>
+      <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -4751,7 +4814,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -4771,7 +4834,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -4831,7 +4894,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="21"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -4871,7 +4934,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -4881,7 +4944,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="6"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -4891,7 +4954,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -4901,7 +4964,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="19"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -4951,7 +5014,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="21"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -4961,7 +5024,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5011,7 +5074,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="21"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -5071,7 +5134,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -5081,7 +5144,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="6"/>
+      <c r="B221" s="4"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -5091,8 +5154,8 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -5101,7 +5164,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="19"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -5111,7 +5174,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5121,7 +5184,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="7"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -5161,7 +5224,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5171,7 +5234,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5181,7 +5244,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="23"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5201,7 +5264,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="23"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -5241,7 +5304,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5251,7 +5314,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5301,7 +5364,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -5311,8 +5374,8 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -5321,7 +5384,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -5331,7 +5394,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -5341,7 +5404,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="23"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -5391,8 +5454,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -5401,7 +5464,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="23"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -5411,7 +5474,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="24"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -5439,9 +5502,9 @@
       <c r="G256" s="30"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8" ht="11.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="25"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -5449,9 +5512,9 @@
       <c r="G257" s="30"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="11.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -5491,7 +5554,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -5521,7 +5584,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -5531,7 +5594,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -5539,15 +5602,15 @@
       <c r="G266" s="30"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" s="2" customFormat="1">
-      <c r="A267" s="4"/>
+    <row r="267" spans="1:8">
+      <c r="A267" s="7"/>
       <c r="B267" s="24"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="34"/>
-      <c r="H267" s="4"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="7"/>
     </row>
     <row r="268" spans="1:8" s="2" customFormat="1">
       <c r="A268" s="4"/>
@@ -5559,19 +5622,19 @@
       <c r="G268" s="34"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="7"/>
+    <row r="269" spans="1:8" s="2" customFormat="1">
+      <c r="A269" s="4"/>
       <c r="B269" s="24"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="7"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -5581,7 +5644,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -5611,7 +5674,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -5621,7 +5684,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -5641,7 +5704,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="20"/>
+      <c r="B277" s="7"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -5661,7 +5724,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -5692,7 +5755,7 @@
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
+      <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -5701,7 +5764,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="6"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -5711,7 +5774,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -5791,7 +5854,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -5801,8 +5864,8 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -5811,7 +5874,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="19"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -5841,7 +5904,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -5901,7 +5964,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="19"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -5921,7 +5984,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="21"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -5931,8 +5994,8 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="B306" s="21"/>
+      <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
@@ -5941,7 +6004,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="6"/>
+      <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -5949,15 +6012,15 @@
       <c r="G307" s="30"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8" s="2" customFormat="1">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="34"/>
-      <c r="H308" s="4"/>
+    <row r="308" spans="1:8">
+      <c r="A308" s="7"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="30"/>
+      <c r="H308" s="7"/>
     </row>
     <row r="309" spans="1:8" s="2" customFormat="1">
       <c r="A309" s="4"/>
@@ -5981,7 +6044,7 @@
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
-      <c r="B311" s="19"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="9"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -6031,8 +6094,8 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="26"/>
-      <c r="C316" s="4"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="9"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -6081,7 +6144,7 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="21"/>
+      <c r="B321" s="26"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -6131,7 +6194,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="19"/>
+      <c r="B326" s="21"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -6141,7 +6204,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="21"/>
+      <c r="B327" s="19"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -6151,7 +6214,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -6159,20 +6222,20 @@
       <c r="G328" s="34"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="7"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="7"/>
+    <row r="329" spans="1:8" s="2" customFormat="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="34"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
@@ -6241,7 +6304,7 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="7"/>
       <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -6252,7 +6315,7 @@
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="7"/>
+      <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -6261,7 +6324,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="6"/>
+      <c r="B339" s="4"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -6271,7 +6334,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -6281,7 +6344,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="22"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6291,7 +6354,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="22"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -6331,7 +6394,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6341,7 +6404,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6351,7 +6414,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="20"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -6381,7 +6444,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="22"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -6391,7 +6454,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="20"/>
+      <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -6411,7 +6474,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="22"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -6421,7 +6484,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6431,7 +6494,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6441,7 +6504,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -6471,7 +6534,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -6481,7 +6544,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="27"/>
+      <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -6491,7 +6554,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="27"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -6501,8 +6564,8 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
-      <c r="C363" s="4"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
@@ -6511,7 +6574,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="4"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -6541,7 +6604,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -6571,7 +6634,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -6591,8 +6654,8 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
-      <c r="C372" s="7"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -6601,7 +6664,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="6"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -6611,7 +6674,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -6671,7 +6734,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -6681,7 +6744,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -6702,7 +6765,7 @@
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -6711,7 +6774,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="20"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -6722,7 +6785,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="20"/>
-      <c r="C385" s="7"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -6731,7 +6794,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="27"/>
+      <c r="B386" s="20"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -6741,7 +6804,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="22"/>
+      <c r="B387" s="27"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -6791,7 +6854,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="22"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -6801,7 +6864,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="6"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -6811,7 +6874,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -6821,7 +6884,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="20"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -6831,7 +6894,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="22"/>
+      <c r="B396" s="20"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -6851,7 +6914,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -6891,7 +6954,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="20"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -6901,7 +6964,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -6921,7 +6984,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="22"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -6931,7 +6994,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="22"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -6941,7 +7004,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="6"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -6951,7 +7014,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -6971,7 +7034,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -6981,7 +7044,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -6991,7 +7054,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="20"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7011,7 +7074,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7021,7 +7084,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7031,7 +7094,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7081,7 +7144,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -7091,7 +7154,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -7151,7 +7214,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -7161,7 +7224,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -7181,7 +7244,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -7191,7 +7254,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -7211,7 +7274,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="4"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -7241,7 +7304,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -7251,8 +7314,8 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
-      <c r="C438" s="4"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
@@ -7302,7 +7365,7 @@
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
-      <c r="C443" s="7"/>
+      <c r="C443" s="4"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -7311,7 +7374,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -7321,8 +7384,8 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="4"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -7362,7 +7425,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="4"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -7371,7 +7434,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -7381,7 +7444,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="22"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -7441,7 +7504,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
+      <c r="B457" s="22"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -7451,7 +7514,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="7"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -7461,7 +7524,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="22"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -7490,8 +7553,8 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="6"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="7"/>
+      <c r="B462" s="22"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -7500,7 +7563,7 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="7"/>
+      <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
@@ -7541,7 +7604,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="28"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -7571,7 +7634,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="28"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -7581,7 +7644,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -7591,7 +7654,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -7601,21 +7664,21 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="29"/>
-      <c r="C473" s="30"/>
+      <c r="B473" s="7"/>
+      <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="29"/>
+      <c r="F473" s="7"/>
       <c r="G473" s="30"/>
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
-      <c r="C474" s="7"/>
+      <c r="B474" s="29"/>
+      <c r="C474" s="30"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="7"/>
+      <c r="F474" s="29"/>
       <c r="G474" s="30"/>
       <c r="H474" s="7"/>
     </row>
@@ -11519,6 +11582,16 @@
       <c r="G864" s="30"/>
       <c r="H864" s="7"/>
     </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="7"/>
+      <c r="B865" s="7"/>
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+      <c r="E865" s="7"/>
+      <c r="F865" s="7"/>
+      <c r="G865" s="30"/>
+      <c r="H865" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>Feature</t>
   </si>
@@ -284,10 +284,25 @@
     <t>unix  time</t>
   </si>
   <si>
-    <t>3/27/17</t>
+    <t>0.00.03</t>
   </si>
   <si>
-    <t>0.00.03</t>
+    <t>3/28/17</t>
+  </si>
+  <si>
+    <t>base64 encoded string</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>horizontal split</t>
+  </si>
+  <si>
+    <t>vertical split</t>
   </si>
 </sst>
 </file>
@@ -543,7 +558,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330954991"/>
+          <c:w val="0.91978071330955002"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -589,7 +604,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/27/17</c:v>
+                  <c:v>3/28/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -610,7 +625,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,7 +671,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/27/17</c:v>
+                  <c:v>3/28/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -677,7 +692,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +738,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/27/17</c:v>
+                  <c:v>3/28/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -793,7 +808,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3/27/17</c:v>
+                  <c:v>3/28/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -820,11 +835,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152170496"/>
-        <c:axId val="152172032"/>
+        <c:axId val="126545920"/>
+        <c:axId val="126547456"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="152170496"/>
+        <c:axId val="126545920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152172032"/>
+        <c:crossAx val="126547456"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -867,7 +882,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152172032"/>
+        <c:axId val="126547456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152170496"/>
+        <c:crossAx val="126545920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,7 +947,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844453"/>
+          <c:y val="0.37277147487844464"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -999,7 +1014,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1053,7 +1068,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127345E-2"/>
+          <c:x val="4.4510450248127373E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1101,7 +1116,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/27/17</c:v>
+                  <c:v>3/28/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1122,17 +1137,17 @@
                   <c:v>0.26984126984126983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132821760"/>
-        <c:axId val="132823296"/>
+        <c:axId val="126337792"/>
+        <c:axId val="126339328"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="132821760"/>
+        <c:axId val="126337792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,14 +1155,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="132823296"/>
+        <c:crossAx val="126339328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132823296"/>
+        <c:axId val="126339328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1190,7 +1205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132821760"/>
+        <c:crossAx val="126337792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1254,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1303,7 +1318,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/27/17</c:v>
+                  <c:v>3/28/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1324,7 +1339,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,7 +1385,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/27/17</c:v>
+                  <c:v>3/28/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1397,11 +1412,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="132840064"/>
-        <c:axId val="132845952"/>
+        <c:axId val="126356096"/>
+        <c:axId val="126357888"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="132840064"/>
+        <c:axId val="126356096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132845952"/>
+        <c:crossAx val="126357888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1443,7 +1458,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132845952"/>
+        <c:axId val="126357888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132840064"/>
+        <c:crossAx val="126356096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,7 +1549,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000121" r="0.7500000000000121" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1992,10 +2007,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2175,7 +2190,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
@@ -2184,7 +2199,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2192,8 +2207,8 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="22" t="s">
-        <v>44</v>
+      <c r="B25" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2201,8 +2216,8 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="22" t="s">
-        <v>47</v>
+      <c r="B26" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2210,31 +2225,35 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22" t="s">
-        <v>46</v>
+      <c r="B28" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="20" t="s">
-        <v>48</v>
+      <c r="B29" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="20" t="s">
-        <v>50</v>
+      <c r="B30" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2242,17 +2261,13 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="20" t="s">
-        <v>83</v>
+      <c r="B32" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>2</v>
@@ -2260,22 +2275,26 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="22" t="s">
-        <v>51</v>
+      <c r="B34" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2284,7 +2303,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2292,44 +2311,40 @@
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="23" t="s">
-        <v>60</v>
+      <c r="B38" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="23" t="s">
-        <v>61</v>
+      <c r="B39" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="23" t="s">
-        <v>62</v>
+      <c r="B40" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2338,25 +2353,25 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="23" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2365,7 +2380,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -2374,21 +2389,25 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="22" t="s">
-        <v>68</v>
+      <c r="B48" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2396,8 +2415,8 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="20" t="s">
-        <v>69</v>
+      <c r="B49" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -2406,7 +2425,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -2414,8 +2433,8 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="20" t="s">
-        <v>70</v>
+      <c r="B51" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -2428,23 +2447,35 @@
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="22"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="3" t="s">
-        <v>74</v>
+      <c r="B56" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2457,21 +2488,13 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
@@ -2480,18 +2503,22 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="19"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="3" t="s">
-        <v>52</v>
+      <c r="B63" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2499,40 +2526,32 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="20" t="s">
-        <v>77</v>
+      <c r="B68" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>14</v>
@@ -2540,22 +2559,22 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22" t="s">
-        <v>54</v>
+      <c r="B71" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2564,7 +2583,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2573,7 +2592,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -2581,32 +2600,40 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="22"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20"/>
-      <c r="C76" s="7"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="3" t="s">
-        <v>27</v>
+      <c r="B78" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2614,17 +2641,13 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="22" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -2632,27 +2655,27 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="3" t="s">
-        <v>25</v>
+      <c r="B84" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2661,7 +2684,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2670,7 +2693,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -2678,27 +2701,27 @@
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="22"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="43"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="21"/>
-      <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="3" t="s">
-        <v>19</v>
+      <c r="B90" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -2707,7 +2730,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -2716,7 +2739,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -2724,95 +2747,132 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="19"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="21"/>
-      <c r="C95" s="4"/>
+      <c r="B95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="21"/>
-      <c r="C96" s="4"/>
+      <c r="B96" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="3"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="3"/>
-      <c r="B98" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="6">
-        <f>COUNTIF(C5:C97,"y")</f>
+    <row r="97" spans="1:4" s="6" customFormat="1">
+      <c r="B97" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="3"/>
-      <c r="B99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="6">
-        <f>COUNTIF(C5:C97,"n")</f>
-        <v>42</v>
-      </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="3"/>
-      <c r="B100" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="7">
-        <f>COUNTIF(C5:C97,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="3"/>
-      <c r="B101" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <f>SUM(C98:C100)</f>
-        <v>63</v>
-      </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" ht="18">
+      <c r="C97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" s="6" customFormat="1">
+      <c r="B98" s="22"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" s="6" customFormat="1">
+      <c r="B99" s="19"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" s="6" customFormat="1">
+      <c r="B100" s="21"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" s="6" customFormat="1">
+      <c r="B101" s="21"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="3"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="41">
-        <f>C98/(C99+C98 + C100)</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="3"/>
+      <c r="B103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="6">
+        <f>COUNTIF(C5:C102,"y")</f>
+        <v>24</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3"/>
+      <c r="B104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="6">
+        <f>COUNTIF(C5:C102,"n")</f>
+        <v>44</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3"/>
+      <c r="B105" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="7">
+        <f>COUNTIF(C5:C102,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3"/>
+      <c r="B106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <f>SUM(C103:C105)</f>
+        <v>68</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" ht="18">
+      <c r="A107" s="3"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="41">
+        <f>C103/(C104+C103 + C105)</f>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64851">
+  <conditionalFormatting sqref="C1:C3 C6:C64856">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2839,7 +2899,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3150,13 +3210,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C51" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -3165,11 +3225,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" s="30">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.33333333333333331</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -3214,25 +3274,25 @@
       </c>
       <c r="G54" s="38">
         <f>MIN(G51)</f>
-        <v>0.33333333333333331</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="39">
         <f>SUM(B55:D55)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B55" s="15">
-        <f>Features!C98</f>
-        <v>21</v>
+        <f>Features!C103</f>
+        <v>24</v>
       </c>
       <c r="C55" s="16">
-        <f>Features!C99</f>
-        <v>42</v>
+        <f>Features!C104</f>
+        <v>44</v>
       </c>
       <c r="D55" s="17">
-        <f>Features!C100</f>
+        <f>Features!C105</f>
         <v>0</v>
       </c>
       <c r="E55" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="94">
   <si>
     <t>Feature</t>
   </si>
@@ -209,9 +209,6 @@
     <t>hex to utf8</t>
   </si>
   <si>
-    <t>hex to ascii</t>
-  </si>
-  <si>
     <t>java time</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>0.00.03</t>
   </si>
   <si>
-    <t>3/28/17</t>
-  </si>
-  <si>
     <t>base64 encoded string</t>
   </si>
   <si>
@@ -303,6 +297,9 @@
   </si>
   <si>
     <t>vertical split</t>
+  </si>
+  <si>
+    <t>3/29/17</t>
   </si>
 </sst>
 </file>
@@ -558,7 +555,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955002"/>
+          <c:w val="0.91978071330955014"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -604,7 +601,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/28/17</c:v>
+                  <c:v>3/29/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -625,7 +622,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,7 +668,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/28/17</c:v>
+                  <c:v>3/29/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,7 +689,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +735,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/28/17</c:v>
+                  <c:v>3/29/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,7 +805,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3/28/17</c:v>
+                  <c:v>3/29/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -835,11 +832,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126545920"/>
-        <c:axId val="126547456"/>
+        <c:axId val="133689344"/>
+        <c:axId val="133690880"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="126545920"/>
+        <c:axId val="133689344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126547456"/>
+        <c:crossAx val="133690880"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -882,7 +879,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126547456"/>
+        <c:axId val="133690880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126545920"/>
+        <c:crossAx val="133689344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -947,7 +944,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844464"/>
+          <c:y val="0.37277147487844475"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1014,7 +1011,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1068,7 +1065,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127373E-2"/>
+          <c:x val="4.4510450248127387E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1116,7 +1113,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/28/17</c:v>
+                  <c:v>3/29/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1137,17 +1134,17 @@
                   <c:v>0.26984126984126983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.37313432835820898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126337792"/>
-        <c:axId val="126339328"/>
+        <c:axId val="133477120"/>
+        <c:axId val="133478656"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="126337792"/>
+        <c:axId val="133477120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,14 +1152,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126339328"/>
+        <c:crossAx val="133478656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126339328"/>
+        <c:axId val="133478656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1205,7 +1202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126337792"/>
+        <c:crossAx val="133477120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,7 +1251,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1318,7 +1315,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/28/17</c:v>
+                  <c:v>3/29/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1339,7 +1336,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1382,7 @@
                   <c:v>3/21/17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3/28/17</c:v>
+                  <c:v>3/29/17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1412,11 +1409,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126356096"/>
-        <c:axId val="126357888"/>
+        <c:axId val="133495424"/>
+        <c:axId val="133497216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="126356096"/>
+        <c:axId val="133495424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126357888"/>
+        <c:crossAx val="133497216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1458,7 +1455,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126357888"/>
+        <c:axId val="133497216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126356096"/>
+        <c:crossAx val="133495424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,7 +1546,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001221" r="0.75000000000001221" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2007,10 +2004,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2190,7 +2187,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
@@ -2199,7 +2196,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2208,7 +2205,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2303,7 +2300,7 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2374,7 +2371,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -2383,13 +2380,13 @@
         <v>63</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="23" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="23" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2407,7 +2404,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2416,10 +2413,10 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4"/>
     </row>
@@ -2433,21 +2430,21 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" s="6" customFormat="1">
+      <c r="B52" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -2456,17 +2453,17 @@
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4" s="6" customFormat="1">
+      <c r="B55" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2474,12 +2471,8 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
@@ -2498,22 +2491,26 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" s="6" customFormat="1">
+      <c r="B62" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
@@ -2526,46 +2523,46 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="19"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1">
+      <c r="B69" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="7"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22" t="s">
-        <v>53</v>
+      <c r="B70" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -2600,22 +2597,22 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22" t="s">
-        <v>54</v>
+      <c r="B76" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -2624,7 +2621,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -2632,26 +2629,22 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1">
+      <c r="B79" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
@@ -2660,13 +2653,17 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="3" t="s">
-        <v>27</v>
+      <c r="B83" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2684,7 +2681,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2692,12 +2689,8 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
@@ -2706,13 +2699,17 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="3" t="s">
-        <v>25</v>
+      <c r="B89" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -2730,7 +2727,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -2738,27 +2735,27 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="43"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="21"/>
-      <c r="C94" s="4"/>
+      <c r="B94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="3" t="s">
-        <v>19</v>
+      <c r="B95" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -2767,7 +2764,7 @@
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -2775,21 +2772,17 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1">
-      <c r="B97" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1">
-      <c r="B98" s="22"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1">
-      <c r="B99" s="19"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
@@ -2798,81 +2791,76 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" s="6" customFormat="1">
-      <c r="B101" s="21"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="3"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="3"/>
+      <c r="B102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="6">
+        <f>COUNTIF(C5:C101,"y")</f>
+        <v>25</v>
+      </c>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3"/>
       <c r="B103" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" s="6">
-        <f>COUNTIF(C5:C102,"y")</f>
-        <v>24</v>
+        <f>COUNTIF(C5:C101,"n")</f>
+        <v>42</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="3"/>
       <c r="B104" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="6">
-        <f>COUNTIF(C5:C102,"n")</f>
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C104" s="7">
+        <f>COUNTIF(C5:C101,"TBD")</f>
+        <v>0</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="3"/>
       <c r="B105" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="7">
-        <f>COUNTIF(C5:C102,"TBD")</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <f>SUM(C102:C104)</f>
+        <v>67</v>
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="18">
       <c r="A106" s="3"/>
-      <c r="B106" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106">
-        <f>SUM(C103:C105)</f>
-        <v>68</v>
-      </c>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" ht="18">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="41">
+        <f>C102/(C103+C102 + C104)</f>
+        <v>0.37313432835820898</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="3"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="41">
-        <f>C103/(C104+C103 + C105)</f>
-        <v>0.35294117647058826</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="3"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="3"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64856">
+  <conditionalFormatting sqref="C1:C3 C6:C64855">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3175,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -3185,7 +3173,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="4">
         <v>17</v>
@@ -3200,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -3210,13 +3198,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="46" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B51" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -3225,11 +3213,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" s="30">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.35294117647058826</v>
+        <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -3274,25 +3262,25 @@
       </c>
       <c r="G54" s="38">
         <f>MIN(G51)</f>
-        <v>0.35294117647058826</v>
+        <v>0.37313432835820898</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="39">
         <f>SUM(B55:D55)</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="15">
+        <f>Features!C102</f>
+        <v>25</v>
+      </c>
+      <c r="C55" s="16">
         <f>Features!C103</f>
-        <v>24</v>
-      </c>
-      <c r="C55" s="16">
+        <v>42</v>
+      </c>
+      <c r="D55" s="17">
         <f>Features!C104</f>
-        <v>44</v>
-      </c>
-      <c r="D55" s="17">
-        <f>Features!C105</f>
         <v>0</v>
       </c>
       <c r="E55" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>Feature</t>
   </si>
@@ -284,9 +284,6 @@
     <t>0.00.03</t>
   </si>
   <si>
-    <t>base64 encoded string</t>
-  </si>
-  <si>
     <t>view</t>
   </si>
   <si>
@@ -300,6 +297,18 @@
   </si>
   <si>
     <t>3/29/17</t>
+  </si>
+  <si>
+    <t>0.00.04</t>
+  </si>
+  <si>
+    <t>hex to ascii</t>
+  </si>
+  <si>
+    <t>base64 utf8</t>
+  </si>
+  <si>
+    <t>base64 ascii</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955014"/>
+          <c:w val="0.91978071330955025"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -588,9 +597,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -603,15 +612,18 @@
                 <c:pt idx="3">
                   <c:v>3/29/17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>04-02-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$51</c:f>
+              <c:f>Progress!$B$48:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -623,6 +635,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,9 +670,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -670,15 +685,18 @@
                 <c:pt idx="3">
                   <c:v>3/29/17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>04-02-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -689,6 +707,9 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
@@ -722,9 +743,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -737,15 +758,18 @@
                 <c:pt idx="3">
                   <c:v>3/29/17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>04-02-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -756,6 +780,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -789,9 +816,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$51</c:f>
+              <c:f>Progress!$A$47:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -807,15 +834,18 @@
                 <c:pt idx="4">
                   <c:v>3/29/17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>04-02-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$51</c:f>
+              <c:f>Progress!$E$48:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -828,15 +858,18 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133689344"/>
-        <c:axId val="133690880"/>
+        <c:axId val="141357056"/>
+        <c:axId val="141358592"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133689344"/>
+        <c:axId val="141357056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133690880"/>
+        <c:crossAx val="141358592"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -879,7 +912,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133690880"/>
+        <c:axId val="141358592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133689344"/>
+        <c:crossAx val="141357056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,7 +977,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844475"/>
+          <c:y val="0.37277147487844486"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1011,7 +1044,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1065,7 +1098,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127387E-2"/>
+          <c:x val="4.4510450248127408E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1100,9 +1133,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1115,15 +1148,18 @@
                 <c:pt idx="3">
                   <c:v>3/29/17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>04-02-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$51</c:f>
+              <c:f>Progress!$G$48:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1136,15 +1172,18 @@
                 <c:pt idx="3">
                   <c:v>0.37313432835820898</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39130434782608697</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133477120"/>
-        <c:axId val="133478656"/>
+        <c:axId val="140882688"/>
+        <c:axId val="140884224"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="133477120"/>
+        <c:axId val="140882688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,14 +1191,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="133478656"/>
+        <c:crossAx val="140884224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133478656"/>
+        <c:axId val="140884224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1202,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133477120"/>
+        <c:crossAx val="140882688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1251,7 +1290,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1302,9 +1341,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1317,15 +1356,18 @@
                 <c:pt idx="3">
                   <c:v>3/29/17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>04-02-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1336,6 +1378,9 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
@@ -1369,9 +1414,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1384,15 +1429,18 @@
                 <c:pt idx="3">
                   <c:v>3/29/17</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>04-02-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1405,15 +1453,18 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133495424"/>
-        <c:axId val="133497216"/>
+        <c:axId val="140900992"/>
+        <c:axId val="140902784"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="133495424"/>
+        <c:axId val="140900992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133497216"/>
+        <c:crossAx val="140902784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1506,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133497216"/>
+        <c:axId val="140902784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133495424"/>
+        <c:crossAx val="140900992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,7 +1597,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001232" r="0.75000000000001232" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1596,7 +1647,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2004,10 +2055,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2187,7 +2238,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
@@ -2196,7 +2247,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2205,7 +2256,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2214,7 +2265,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2377,7 +2428,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="23" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2386,7 +2437,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="23" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2395,7 +2446,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="23" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2404,7 +2455,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2413,71 +2464,79 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" s="6" customFormat="1">
+      <c r="B51" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" s="6" customFormat="1">
+      <c r="B52" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22" t="s">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="22"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" s="6" customFormat="1">
+      <c r="B54" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4" s="6" customFormat="1">
+      <c r="B56" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:4" s="6" customFormat="1">
+      <c r="B57" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="22"/>
-      <c r="C57" s="7"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
@@ -2491,12 +2550,8 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
@@ -2505,8 +2560,8 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22" t="s">
-        <v>80</v>
+      <c r="B62" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -2514,46 +2569,46 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" s="6" customFormat="1">
+      <c r="B64" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" s="6" customFormat="1">
+      <c r="B65" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1">
+      <c r="B69" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2561,17 +2616,13 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>75</v>
+      <c r="B71" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2580,7 +2631,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2589,7 +2640,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -2597,13 +2648,17 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22" t="s">
-        <v>54</v>
+      <c r="B75" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -2611,17 +2666,13 @@
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20" t="s">
-        <v>56</v>
+      <c r="B77" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -2629,13 +2680,17 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22" t="s">
-        <v>83</v>
+      <c r="B79" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2643,36 +2698,32 @@
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="20"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2681,7 +2732,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2689,36 +2740,36 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="22"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="22"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -2727,7 +2778,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -2735,36 +2786,36 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="43"/>
-      <c r="C92" s="4"/>
+      <c r="B92" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="21"/>
-      <c r="C93" s="4"/>
+      <c r="B93" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="43"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" s="6" customFormat="1">
+      <c r="B95" s="21"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" s="6" customFormat="1">
+      <c r="B96" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22" t="s">
-        <v>21</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -2772,95 +2823,113 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="4"/>
+      <c r="B97" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1">
-      <c r="B98" s="19"/>
-      <c r="C98" s="4"/>
+      <c r="B98" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1">
-      <c r="B99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1">
-      <c r="B100" s="21"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="3"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="3"/>
-      <c r="B102" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="6">
-        <f>COUNTIF(C5:C101,"y")</f>
-        <v>25</v>
-      </c>
-      <c r="D102" s="2"/>
+    <row r="101" spans="1:4" s="6" customFormat="1">
+      <c r="B101" s="21"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" s="6" customFormat="1">
+      <c r="B102" s="21"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3"/>
-      <c r="B103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="6">
-        <f>COUNTIF(C5:C101,"n")</f>
-        <v>42</v>
-      </c>
-      <c r="D103" s="2"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="3"/>
       <c r="B104" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="7">
-        <f>COUNTIF(C5:C101,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C104" s="6">
+        <f>COUNTIF(C5:C103,"y")</f>
+        <v>27</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="3"/>
       <c r="B105" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105">
-        <f>SUM(C102:C104)</f>
-        <v>67</v>
+        <v>7</v>
+      </c>
+      <c r="C105" s="6">
+        <f>COUNTIF(C5:C103,"n")</f>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="18">
+    <row r="106" spans="1:4">
       <c r="A106" s="3"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="41">
-        <f>C102/(C103+C102 + C104)</f>
-        <v>0.37313432835820898</v>
-      </c>
+      <c r="B106" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="7">
+        <f>COUNTIF(C5:C103,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="3"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <f>SUM(C104:C106)</f>
+        <v>69</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" ht="18">
+      <c r="A108" s="3"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="41">
+        <f>C104/(C105+C104 + C106)</f>
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64855">
+  <conditionalFormatting sqref="C1:C3 C6:C64857">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2882,12 +2951,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT865"/>
+  <dimension ref="A1:IT866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3198,7 +3267,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="4">
         <v>25</v>
@@ -3222,13 +3291,28 @@
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="12"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="30"/>
+      <c r="A52" s="46">
+        <v>42770</v>
+      </c>
+      <c r="B52" s="4">
+        <v>27</v>
+      </c>
+      <c r="C52" s="4">
+        <v>42</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="30">
+        <f t="shared" ref="G52" si="3">B52/SUM(B52:E52)</f>
+        <v>0.39130434782608697</v>
+      </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:11">
@@ -3237,84 +3321,84 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="31"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="30"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E55" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="38">
-        <f>MIN(G51)</f>
-        <v>0.37313432835820898</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="39">
-        <f>SUM(B55:D55)</f>
-        <v>67</v>
-      </c>
-      <c r="B55" s="15">
-        <f>Features!C102</f>
-        <v>25</v>
-      </c>
-      <c r="C55" s="16">
-        <f>Features!C103</f>
+      <c r="G55" s="38">
+        <f>MIN(G52)</f>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="39">
+        <f>SUM(B56:D56)</f>
+        <v>69</v>
+      </c>
+      <c r="B56" s="15">
+        <f>Features!C104</f>
+        <v>27</v>
+      </c>
+      <c r="C56" s="16">
+        <f>Features!C105</f>
         <v>42</v>
       </c>
-      <c r="D55" s="17">
-        <f>Features!C104</f>
+      <c r="D56" s="17">
+        <f>Features!C106</f>
         <v>0</v>
       </c>
-      <c r="E55" s="18">
-        <f>MIN(E51)</f>
+      <c r="E56" s="18">
+        <f>MIN(E52)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
-      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
+      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -3324,7 +3408,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -3344,7 +3428,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -3364,7 +3448,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3384,7 +3468,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="7"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3394,7 +3478,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3413,7 +3497,7 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="7"/>
+      <c r="A68" s="4"/>
       <c r="B68" s="20"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
@@ -3424,7 +3508,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3555,7 +3639,7 @@
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -3564,7 +3648,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -3572,15 +3656,15 @@
       <c r="G83" s="30"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="4"/>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" s="2" customFormat="1">
       <c r="A85" s="4"/>
@@ -3754,7 +3838,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3764,7 +3848,7 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -3794,7 +3878,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -3834,7 +3918,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="21"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -3844,7 +3928,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3854,7 +3938,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3864,7 +3948,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3874,7 +3958,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -3894,7 +3978,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -3954,7 +4038,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4054,7 +4138,7 @@
     </row>
     <row r="132" spans="1:254" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -4104,7 +4188,7 @@
     </row>
     <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="19"/>
+      <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -4124,7 +4208,7 @@
     </row>
     <row r="139" spans="1:254" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -4163,284 +4247,284 @@
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="U143" s="5"/>
-      <c r="V143" s="5"/>
-      <c r="W143" s="5"/>
-      <c r="X143" s="5"/>
-      <c r="Y143" s="5"/>
-      <c r="Z143" s="5"/>
-      <c r="AA143" s="5"/>
-      <c r="AB143" s="5"/>
-      <c r="AC143" s="5"/>
-      <c r="AD143" s="5"/>
-      <c r="AE143" s="5"/>
-      <c r="AF143" s="5"/>
-      <c r="AG143" s="5"/>
-      <c r="AH143" s="5"/>
-      <c r="AI143" s="5"/>
-      <c r="AJ143" s="5"/>
-      <c r="AK143" s="5"/>
-      <c r="AL143" s="5"/>
-      <c r="AM143" s="5"/>
-      <c r="AN143" s="5"/>
-      <c r="AO143" s="5"/>
-      <c r="AP143" s="5"/>
-      <c r="AQ143" s="5"/>
-      <c r="AR143" s="5"/>
-      <c r="AS143" s="5"/>
-      <c r="AT143" s="5"/>
-      <c r="AU143" s="5"/>
-      <c r="AV143" s="5"/>
-      <c r="AW143" s="5"/>
-      <c r="AX143" s="5"/>
-      <c r="AY143" s="5"/>
-      <c r="AZ143" s="5"/>
-      <c r="BA143" s="5"/>
-      <c r="BB143" s="5"/>
-      <c r="BC143" s="5"/>
-      <c r="BD143" s="5"/>
-      <c r="BE143" s="5"/>
-      <c r="BF143" s="5"/>
-      <c r="BG143" s="5"/>
-      <c r="BH143" s="5"/>
-      <c r="BI143" s="5"/>
-      <c r="BJ143" s="5"/>
-      <c r="BK143" s="5"/>
-      <c r="BL143" s="5"/>
-      <c r="BM143" s="5"/>
-      <c r="BN143" s="5"/>
-      <c r="BO143" s="5"/>
-      <c r="BP143" s="5"/>
-      <c r="BQ143" s="5"/>
-      <c r="BR143" s="5"/>
-      <c r="BS143" s="5"/>
-      <c r="BT143" s="5"/>
-      <c r="BU143" s="5"/>
-      <c r="BV143" s="5"/>
-      <c r="BW143" s="5"/>
-      <c r="BX143" s="5"/>
-      <c r="BY143" s="5"/>
-      <c r="BZ143" s="5"/>
-      <c r="CA143" s="5"/>
-      <c r="CB143" s="5"/>
-      <c r="CC143" s="5"/>
-      <c r="CD143" s="5"/>
-      <c r="CE143" s="5"/>
-      <c r="CF143" s="5"/>
-      <c r="CG143" s="5"/>
-      <c r="CH143" s="5"/>
-      <c r="CI143" s="5"/>
-      <c r="CJ143" s="5"/>
-      <c r="CK143" s="5"/>
-      <c r="CL143" s="5"/>
-      <c r="CM143" s="5"/>
-      <c r="CN143" s="5"/>
-      <c r="CO143" s="5"/>
-      <c r="CP143" s="5"/>
-      <c r="CQ143" s="5"/>
-      <c r="CR143" s="5"/>
-      <c r="CS143" s="5"/>
-      <c r="CT143" s="5"/>
-      <c r="CU143" s="5"/>
-      <c r="CV143" s="5"/>
-      <c r="CW143" s="5"/>
-      <c r="CX143" s="5"/>
-      <c r="CY143" s="5"/>
-      <c r="CZ143" s="5"/>
-      <c r="DA143" s="5"/>
-      <c r="DB143" s="5"/>
-      <c r="DC143" s="5"/>
-      <c r="DD143" s="5"/>
-      <c r="DE143" s="5"/>
-      <c r="DF143" s="5"/>
-      <c r="DG143" s="5"/>
-      <c r="DH143" s="5"/>
-      <c r="DI143" s="5"/>
-      <c r="DJ143" s="5"/>
-      <c r="DK143" s="5"/>
-      <c r="DL143" s="5"/>
-      <c r="DM143" s="5"/>
-      <c r="DN143" s="5"/>
-      <c r="DO143" s="5"/>
-      <c r="DP143" s="5"/>
-      <c r="DQ143" s="5"/>
-      <c r="DR143" s="5"/>
-      <c r="DS143" s="5"/>
-      <c r="DT143" s="5"/>
-      <c r="DU143" s="5"/>
-      <c r="DV143" s="5"/>
-      <c r="DW143" s="5"/>
-      <c r="DX143" s="5"/>
-      <c r="DY143" s="5"/>
-      <c r="DZ143" s="5"/>
-      <c r="EA143" s="5"/>
-      <c r="EB143" s="5"/>
-      <c r="EC143" s="5"/>
-      <c r="ED143" s="5"/>
-      <c r="EE143" s="5"/>
-      <c r="EF143" s="5"/>
-      <c r="EG143" s="5"/>
-      <c r="EH143" s="5"/>
-      <c r="EI143" s="5"/>
-      <c r="EJ143" s="5"/>
-      <c r="EK143" s="5"/>
-      <c r="EL143" s="5"/>
-      <c r="EM143" s="5"/>
-      <c r="EN143" s="5"/>
-      <c r="EO143" s="5"/>
-      <c r="EP143" s="5"/>
-      <c r="EQ143" s="5"/>
-      <c r="ER143" s="5"/>
-      <c r="ES143" s="5"/>
-      <c r="ET143" s="5"/>
-      <c r="EU143" s="5"/>
-      <c r="EV143" s="5"/>
-      <c r="EW143" s="5"/>
-      <c r="EX143" s="5"/>
-      <c r="EY143" s="5"/>
-      <c r="EZ143" s="5"/>
-      <c r="FA143" s="5"/>
-      <c r="FB143" s="5"/>
-      <c r="FC143" s="5"/>
-      <c r="FD143" s="5"/>
-      <c r="FE143" s="5"/>
-      <c r="FF143" s="5"/>
-      <c r="FG143" s="5"/>
-      <c r="FH143" s="5"/>
-      <c r="FI143" s="5"/>
-      <c r="FJ143" s="5"/>
-      <c r="FK143" s="5"/>
-      <c r="FL143" s="5"/>
-      <c r="FM143" s="5"/>
-      <c r="FN143" s="5"/>
-      <c r="FO143" s="5"/>
-      <c r="FP143" s="5"/>
-      <c r="FQ143" s="5"/>
-      <c r="FR143" s="5"/>
-      <c r="FS143" s="5"/>
-      <c r="FT143" s="5"/>
-      <c r="FU143" s="5"/>
-      <c r="FV143" s="5"/>
-      <c r="FW143" s="5"/>
-      <c r="FX143" s="5"/>
-      <c r="FY143" s="5"/>
-      <c r="FZ143" s="5"/>
-      <c r="GA143" s="5"/>
-      <c r="GB143" s="5"/>
-      <c r="GC143" s="5"/>
-      <c r="GD143" s="5"/>
-      <c r="GE143" s="5"/>
-      <c r="GF143" s="5"/>
-      <c r="GG143" s="5"/>
-      <c r="GH143" s="5"/>
-      <c r="GI143" s="5"/>
-      <c r="GJ143" s="5"/>
-      <c r="GK143" s="5"/>
-      <c r="GL143" s="5"/>
-      <c r="GM143" s="5"/>
-      <c r="GN143" s="5"/>
-      <c r="GO143" s="5"/>
-      <c r="GP143" s="5"/>
-      <c r="GQ143" s="5"/>
-      <c r="GR143" s="5"/>
-      <c r="GS143" s="5"/>
-      <c r="GT143" s="5"/>
-      <c r="GU143" s="5"/>
-      <c r="GV143" s="5"/>
-      <c r="GW143" s="5"/>
-      <c r="GX143" s="5"/>
-      <c r="GY143" s="5"/>
-      <c r="GZ143" s="5"/>
-      <c r="HA143" s="5"/>
-      <c r="HB143" s="5"/>
-      <c r="HC143" s="5"/>
-      <c r="HD143" s="5"/>
-      <c r="HE143" s="5"/>
-      <c r="HF143" s="5"/>
-      <c r="HG143" s="5"/>
-      <c r="HH143" s="5"/>
-      <c r="HI143" s="5"/>
-      <c r="HJ143" s="5"/>
-      <c r="HK143" s="5"/>
-      <c r="HL143" s="5"/>
-      <c r="HM143" s="5"/>
-      <c r="HN143" s="5"/>
-      <c r="HO143" s="5"/>
-      <c r="HP143" s="5"/>
-      <c r="HQ143" s="5"/>
-      <c r="HR143" s="5"/>
-      <c r="HS143" s="5"/>
-      <c r="HT143" s="5"/>
-      <c r="HU143" s="5"/>
-      <c r="HV143" s="5"/>
-      <c r="HW143" s="5"/>
-      <c r="HX143" s="5"/>
-      <c r="HY143" s="5"/>
-      <c r="HZ143" s="5"/>
-      <c r="IA143" s="5"/>
-      <c r="IB143" s="5"/>
-      <c r="IC143" s="5"/>
-      <c r="ID143" s="5"/>
-      <c r="IE143" s="5"/>
-      <c r="IF143" s="5"/>
-      <c r="IG143" s="5"/>
-      <c r="IH143" s="5"/>
-      <c r="II143" s="5"/>
-      <c r="IJ143" s="5"/>
-      <c r="IK143" s="5"/>
-      <c r="IL143" s="5"/>
-      <c r="IM143" s="5"/>
-      <c r="IN143" s="5"/>
-      <c r="IO143" s="5"/>
-      <c r="IP143" s="5"/>
-      <c r="IQ143" s="5"/>
-      <c r="IR143" s="5"/>
-      <c r="IS143" s="5"/>
-      <c r="IT143" s="5"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:254" s="2" customFormat="1">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="7"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="7"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+      <c r="AJ144" s="5"/>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="5"/>
+      <c r="AN144" s="5"/>
+      <c r="AO144" s="5"/>
+      <c r="AP144" s="5"/>
+      <c r="AQ144" s="5"/>
+      <c r="AR144" s="5"/>
+      <c r="AS144" s="5"/>
+      <c r="AT144" s="5"/>
+      <c r="AU144" s="5"/>
+      <c r="AV144" s="5"/>
+      <c r="AW144" s="5"/>
+      <c r="AX144" s="5"/>
+      <c r="AY144" s="5"/>
+      <c r="AZ144" s="5"/>
+      <c r="BA144" s="5"/>
+      <c r="BB144" s="5"/>
+      <c r="BC144" s="5"/>
+      <c r="BD144" s="5"/>
+      <c r="BE144" s="5"/>
+      <c r="BF144" s="5"/>
+      <c r="BG144" s="5"/>
+      <c r="BH144" s="5"/>
+      <c r="BI144" s="5"/>
+      <c r="BJ144" s="5"/>
+      <c r="BK144" s="5"/>
+      <c r="BL144" s="5"/>
+      <c r="BM144" s="5"/>
+      <c r="BN144" s="5"/>
+      <c r="BO144" s="5"/>
+      <c r="BP144" s="5"/>
+      <c r="BQ144" s="5"/>
+      <c r="BR144" s="5"/>
+      <c r="BS144" s="5"/>
+      <c r="BT144" s="5"/>
+      <c r="BU144" s="5"/>
+      <c r="BV144" s="5"/>
+      <c r="BW144" s="5"/>
+      <c r="BX144" s="5"/>
+      <c r="BY144" s="5"/>
+      <c r="BZ144" s="5"/>
+      <c r="CA144" s="5"/>
+      <c r="CB144" s="5"/>
+      <c r="CC144" s="5"/>
+      <c r="CD144" s="5"/>
+      <c r="CE144" s="5"/>
+      <c r="CF144" s="5"/>
+      <c r="CG144" s="5"/>
+      <c r="CH144" s="5"/>
+      <c r="CI144" s="5"/>
+      <c r="CJ144" s="5"/>
+      <c r="CK144" s="5"/>
+      <c r="CL144" s="5"/>
+      <c r="CM144" s="5"/>
+      <c r="CN144" s="5"/>
+      <c r="CO144" s="5"/>
+      <c r="CP144" s="5"/>
+      <c r="CQ144" s="5"/>
+      <c r="CR144" s="5"/>
+      <c r="CS144" s="5"/>
+      <c r="CT144" s="5"/>
+      <c r="CU144" s="5"/>
+      <c r="CV144" s="5"/>
+      <c r="CW144" s="5"/>
+      <c r="CX144" s="5"/>
+      <c r="CY144" s="5"/>
+      <c r="CZ144" s="5"/>
+      <c r="DA144" s="5"/>
+      <c r="DB144" s="5"/>
+      <c r="DC144" s="5"/>
+      <c r="DD144" s="5"/>
+      <c r="DE144" s="5"/>
+      <c r="DF144" s="5"/>
+      <c r="DG144" s="5"/>
+      <c r="DH144" s="5"/>
+      <c r="DI144" s="5"/>
+      <c r="DJ144" s="5"/>
+      <c r="DK144" s="5"/>
+      <c r="DL144" s="5"/>
+      <c r="DM144" s="5"/>
+      <c r="DN144" s="5"/>
+      <c r="DO144" s="5"/>
+      <c r="DP144" s="5"/>
+      <c r="DQ144" s="5"/>
+      <c r="DR144" s="5"/>
+      <c r="DS144" s="5"/>
+      <c r="DT144" s="5"/>
+      <c r="DU144" s="5"/>
+      <c r="DV144" s="5"/>
+      <c r="DW144" s="5"/>
+      <c r="DX144" s="5"/>
+      <c r="DY144" s="5"/>
+      <c r="DZ144" s="5"/>
+      <c r="EA144" s="5"/>
+      <c r="EB144" s="5"/>
+      <c r="EC144" s="5"/>
+      <c r="ED144" s="5"/>
+      <c r="EE144" s="5"/>
+      <c r="EF144" s="5"/>
+      <c r="EG144" s="5"/>
+      <c r="EH144" s="5"/>
+      <c r="EI144" s="5"/>
+      <c r="EJ144" s="5"/>
+      <c r="EK144" s="5"/>
+      <c r="EL144" s="5"/>
+      <c r="EM144" s="5"/>
+      <c r="EN144" s="5"/>
+      <c r="EO144" s="5"/>
+      <c r="EP144" s="5"/>
+      <c r="EQ144" s="5"/>
+      <c r="ER144" s="5"/>
+      <c r="ES144" s="5"/>
+      <c r="ET144" s="5"/>
+      <c r="EU144" s="5"/>
+      <c r="EV144" s="5"/>
+      <c r="EW144" s="5"/>
+      <c r="EX144" s="5"/>
+      <c r="EY144" s="5"/>
+      <c r="EZ144" s="5"/>
+      <c r="FA144" s="5"/>
+      <c r="FB144" s="5"/>
+      <c r="FC144" s="5"/>
+      <c r="FD144" s="5"/>
+      <c r="FE144" s="5"/>
+      <c r="FF144" s="5"/>
+      <c r="FG144" s="5"/>
+      <c r="FH144" s="5"/>
+      <c r="FI144" s="5"/>
+      <c r="FJ144" s="5"/>
+      <c r="FK144" s="5"/>
+      <c r="FL144" s="5"/>
+      <c r="FM144" s="5"/>
+      <c r="FN144" s="5"/>
+      <c r="FO144" s="5"/>
+      <c r="FP144" s="5"/>
+      <c r="FQ144" s="5"/>
+      <c r="FR144" s="5"/>
+      <c r="FS144" s="5"/>
+      <c r="FT144" s="5"/>
+      <c r="FU144" s="5"/>
+      <c r="FV144" s="5"/>
+      <c r="FW144" s="5"/>
+      <c r="FX144" s="5"/>
+      <c r="FY144" s="5"/>
+      <c r="FZ144" s="5"/>
+      <c r="GA144" s="5"/>
+      <c r="GB144" s="5"/>
+      <c r="GC144" s="5"/>
+      <c r="GD144" s="5"/>
+      <c r="GE144" s="5"/>
+      <c r="GF144" s="5"/>
+      <c r="GG144" s="5"/>
+      <c r="GH144" s="5"/>
+      <c r="GI144" s="5"/>
+      <c r="GJ144" s="5"/>
+      <c r="GK144" s="5"/>
+      <c r="GL144" s="5"/>
+      <c r="GM144" s="5"/>
+      <c r="GN144" s="5"/>
+      <c r="GO144" s="5"/>
+      <c r="GP144" s="5"/>
+      <c r="GQ144" s="5"/>
+      <c r="GR144" s="5"/>
+      <c r="GS144" s="5"/>
+      <c r="GT144" s="5"/>
+      <c r="GU144" s="5"/>
+      <c r="GV144" s="5"/>
+      <c r="GW144" s="5"/>
+      <c r="GX144" s="5"/>
+      <c r="GY144" s="5"/>
+      <c r="GZ144" s="5"/>
+      <c r="HA144" s="5"/>
+      <c r="HB144" s="5"/>
+      <c r="HC144" s="5"/>
+      <c r="HD144" s="5"/>
+      <c r="HE144" s="5"/>
+      <c r="HF144" s="5"/>
+      <c r="HG144" s="5"/>
+      <c r="HH144" s="5"/>
+      <c r="HI144" s="5"/>
+      <c r="HJ144" s="5"/>
+      <c r="HK144" s="5"/>
+      <c r="HL144" s="5"/>
+      <c r="HM144" s="5"/>
+      <c r="HN144" s="5"/>
+      <c r="HO144" s="5"/>
+      <c r="HP144" s="5"/>
+      <c r="HQ144" s="5"/>
+      <c r="HR144" s="5"/>
+      <c r="HS144" s="5"/>
+      <c r="HT144" s="5"/>
+      <c r="HU144" s="5"/>
+      <c r="HV144" s="5"/>
+      <c r="HW144" s="5"/>
+      <c r="HX144" s="5"/>
+      <c r="HY144" s="5"/>
+      <c r="HZ144" s="5"/>
+      <c r="IA144" s="5"/>
+      <c r="IB144" s="5"/>
+      <c r="IC144" s="5"/>
+      <c r="ID144" s="5"/>
+      <c r="IE144" s="5"/>
+      <c r="IF144" s="5"/>
+      <c r="IG144" s="5"/>
+      <c r="IH144" s="5"/>
+      <c r="II144" s="5"/>
+      <c r="IJ144" s="5"/>
+      <c r="IK144" s="5"/>
+      <c r="IL144" s="5"/>
+      <c r="IM144" s="5"/>
+      <c r="IN144" s="5"/>
+      <c r="IO144" s="5"/>
+      <c r="IP144" s="5"/>
+      <c r="IQ144" s="5"/>
+      <c r="IR144" s="5"/>
+      <c r="IS144" s="5"/>
+      <c r="IT144" s="5"/>
+    </row>
+    <row r="145" spans="1:8" s="2" customFormat="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="6"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -4450,7 +4534,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -4460,7 +4544,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -4471,7 +4555,7 @@
     <row r="149" spans="1:8">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
@@ -4511,7 +4595,7 @@
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -4520,7 +4604,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -4540,7 +4624,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -4550,7 +4634,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -4570,7 +4654,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -4590,7 +4674,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -4609,10 +4693,8 @@
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B163" s="7"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -4621,7 +4703,9 @@
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="7"/>
+      <c r="A164" s="45">
+        <v>43011</v>
+      </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -4632,7 +4716,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -4652,7 +4736,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -4692,7 +4776,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="6"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -4702,8 +4786,8 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -4712,7 +4796,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="19"/>
+      <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -4782,7 +4866,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="4"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -4792,7 +4876,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -4802,7 +4886,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="21"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -4822,7 +4906,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -4863,7 +4947,7 @@
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
       <c r="B188" s="19"/>
-      <c r="C188" s="7"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -4872,7 +4956,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -4892,7 +4976,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="4"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -4952,7 +5036,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="21"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -4992,7 +5076,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -5002,7 +5086,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -5012,7 +5096,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="6"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -5022,7 +5106,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="19"/>
+      <c r="B204" s="4"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -5072,7 +5156,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="21"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5082,7 +5166,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -5132,7 +5216,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="21"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -5192,7 +5276,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -5202,7 +5286,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="6"/>
+      <c r="B222" s="4"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -5212,8 +5296,8 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
@@ -5222,7 +5306,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="19"/>
+      <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5232,7 +5316,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -5242,7 +5326,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="7"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -5282,7 +5366,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5292,7 +5376,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="7"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5302,7 +5386,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="23"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5322,7 +5406,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="23"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -5362,7 +5446,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5372,7 +5456,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="7"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -5422,7 +5506,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -5432,8 +5516,8 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="7"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
@@ -5442,7 +5526,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -5452,7 +5536,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -5462,7 +5546,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="23"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -5512,8 +5596,8 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="4"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -5522,7 +5606,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="23"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -5532,7 +5616,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="24"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -5560,9 +5644,9 @@
       <c r="G257" s="30"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8" ht="11.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="25"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -5570,9 +5654,9 @@
       <c r="G258" s="30"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" ht="11.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -5612,7 +5696,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -5642,7 +5726,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -5652,7 +5736,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -5660,15 +5744,15 @@
       <c r="G267" s="30"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8" s="2" customFormat="1">
-      <c r="A268" s="4"/>
+    <row r="268" spans="1:8">
+      <c r="A268" s="7"/>
       <c r="B268" s="24"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="34"/>
-      <c r="H268" s="4"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="30"/>
+      <c r="H268" s="7"/>
     </row>
     <row r="269" spans="1:8" s="2" customFormat="1">
       <c r="A269" s="4"/>
@@ -5680,19 +5764,19 @@
       <c r="G269" s="34"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="7"/>
+    <row r="270" spans="1:8" s="2" customFormat="1">
+      <c r="A270" s="4"/>
       <c r="B270" s="24"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="30"/>
-      <c r="H270" s="7"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="4"/>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -5702,7 +5786,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -5732,7 +5816,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="22"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -5742,7 +5826,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="22"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -5762,7 +5846,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="20"/>
+      <c r="B278" s="7"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -5782,7 +5866,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -5813,7 +5897,7 @@
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
+      <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
@@ -5822,7 +5906,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="6"/>
+      <c r="B284" s="7"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -5832,7 +5916,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="6"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -5912,7 +5996,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="6"/>
+      <c r="B293" s="7"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -5922,8 +6006,8 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
@@ -5932,7 +6016,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="19"/>
+      <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -5962,7 +6046,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="4"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -6022,7 +6106,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="19"/>
+      <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -6042,7 +6126,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="21"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -6052,8 +6136,8 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
-      <c r="C307" s="7"/>
+      <c r="B307" s="21"/>
+      <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
@@ -6062,7 +6146,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="6"/>
+      <c r="B308" s="7"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -6070,15 +6154,15 @@
       <c r="G308" s="30"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="1:8" s="2" customFormat="1">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="34"/>
-      <c r="H309" s="4"/>
+    <row r="309" spans="1:8">
+      <c r="A309" s="7"/>
+      <c r="B309" s="6"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" s="30"/>
+      <c r="H309" s="7"/>
     </row>
     <row r="310" spans="1:8" s="2" customFormat="1">
       <c r="A310" s="4"/>
@@ -6102,7 +6186,7 @@
     </row>
     <row r="312" spans="1:8" s="2" customFormat="1">
       <c r="A312" s="4"/>
-      <c r="B312" s="19"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="9"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -6152,8 +6236,8 @@
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
-      <c r="B317" s="26"/>
-      <c r="C317" s="4"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="9"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -6202,7 +6286,7 @@
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="21"/>
+      <c r="B322" s="26"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -6252,7 +6336,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="19"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -6262,7 +6346,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="21"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -6272,7 +6356,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -6280,20 +6364,20 @@
       <c r="G329" s="34"/>
       <c r="H329" s="4"/>
     </row>
-    <row r="330" spans="1:8">
-      <c r="A330" s="7"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="7"/>
-      <c r="E330" s="7"/>
-      <c r="F330" s="7"/>
-      <c r="G330" s="30"/>
-      <c r="H330" s="7"/>
+    <row r="330" spans="1:8" s="2" customFormat="1">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+      <c r="G330" s="34"/>
+      <c r="H330" s="4"/>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="7"/>
-      <c r="B331" s="7"/>
-      <c r="C331" s="4"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
@@ -6362,7 +6446,7 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="4"/>
+      <c r="B338" s="7"/>
       <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -6373,7 +6457,7 @@
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="7"/>
+      <c r="C339" s="4"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
@@ -6382,7 +6466,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="6"/>
+      <c r="B340" s="4"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -6392,7 +6476,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="6"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6402,7 +6486,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="22"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -6412,7 +6496,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="22"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -6452,7 +6536,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="6"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6462,7 +6546,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -6472,7 +6556,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="20"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -6502,7 +6586,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="22"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -6512,7 +6596,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="20"/>
+      <c r="B353" s="22"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -6532,7 +6616,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6542,7 +6626,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6552,7 +6636,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -6562,7 +6646,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -6592,7 +6676,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -6602,7 +6686,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="27"/>
+      <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -6612,7 +6696,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="27"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -6622,8 +6706,8 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
-      <c r="C364" s="4"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
@@ -6632,7 +6716,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="20"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="4"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -6662,7 +6746,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="4"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -6692,7 +6776,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="20"/>
+      <c r="B371" s="7"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -6712,8 +6796,8 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
-      <c r="C373" s="7"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
@@ -6722,7 +6806,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="6"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -6732,7 +6816,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="6"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -6792,7 +6876,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="6"/>
+      <c r="B381" s="7"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -6802,7 +6886,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -6823,7 +6907,7 @@
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
-      <c r="C384" s="4"/>
+      <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -6832,7 +6916,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="20"/>
+      <c r="B385" s="7"/>
       <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -6843,7 +6927,7 @@
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
       <c r="B386" s="20"/>
-      <c r="C386" s="7"/>
+      <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
@@ -6852,7 +6936,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="27"/>
+      <c r="B387" s="20"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -6862,7 +6946,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="22"/>
+      <c r="B388" s="27"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -6912,7 +6996,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="22"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -6922,7 +7006,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="6"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -6932,7 +7016,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="6"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -6942,7 +7026,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="20"/>
+      <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -6952,7 +7036,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="22"/>
+      <c r="B397" s="20"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -6972,7 +7056,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="20"/>
+      <c r="B399" s="22"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -7012,7 +7096,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="20"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7022,7 +7106,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="20"/>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7042,7 +7126,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="22"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7052,7 +7136,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="22"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7062,7 +7146,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="6"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -7072,7 +7156,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="6"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7092,7 +7176,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7102,7 +7186,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7112,7 +7196,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="20"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7132,7 +7216,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="20"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7142,7 +7226,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7152,7 +7236,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -7202,7 +7286,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -7212,7 +7296,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -7272,7 +7356,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -7282,7 +7366,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -7302,7 +7386,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -7312,7 +7396,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="4"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -7332,7 +7416,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="4"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -7362,7 +7446,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -7372,8 +7456,8 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
-      <c r="C439" s="4"/>
+      <c r="B439" s="6"/>
+      <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
@@ -7423,7 +7507,7 @@
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
-      <c r="C444" s="7"/>
+      <c r="C444" s="4"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -7432,7 +7516,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="7"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -7442,8 +7526,8 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
-      <c r="C446" s="4"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -7483,7 +7567,7 @@
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
-      <c r="C450" s="7"/>
+      <c r="C450" s="4"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -7492,7 +7576,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="7"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -7502,7 +7586,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="22"/>
+      <c r="B452" s="6"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -7562,7 +7646,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
+      <c r="B458" s="22"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -7572,7 +7656,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="7"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -7582,7 +7666,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="22"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -7611,8 +7695,8 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="6"/>
-      <c r="B463" s="7"/>
+      <c r="A463" s="7"/>
+      <c r="B463" s="22"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -7621,7 +7705,7 @@
       <c r="H463" s="7"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="7"/>
+      <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
@@ -7662,7 +7746,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="28"/>
+      <c r="B468" s="7"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -7692,7 +7776,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="28"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -7702,7 +7786,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="28"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -7712,7 +7796,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
+      <c r="B473" s="28"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -7722,21 +7806,21 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="29"/>
-      <c r="C474" s="30"/>
+      <c r="B474" s="7"/>
+      <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="29"/>
+      <c r="F474" s="7"/>
       <c r="G474" s="30"/>
       <c r="H474" s="7"/>
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
-      <c r="C475" s="7"/>
+      <c r="B475" s="29"/>
+      <c r="C475" s="30"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
-      <c r="F475" s="7"/>
+      <c r="F475" s="29"/>
       <c r="G475" s="30"/>
       <c r="H475" s="7"/>
     </row>
@@ -11640,6 +11724,16 @@
       <c r="G865" s="30"/>
       <c r="H865" s="7"/>
     </row>
+    <row r="866" spans="1:8">
+      <c r="A866" s="7"/>
+      <c r="B866" s="7"/>
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+      <c r="E866" s="7"/>
+      <c r="F866" s="7"/>
+      <c r="G866" s="30"/>
+      <c r="H866" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>Feature</t>
   </si>
@@ -287,15 +287,6 @@
     <t>view</t>
   </si>
   <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>horizontal split</t>
-  </si>
-  <si>
-    <t>vertical split</t>
-  </si>
-  <si>
     <t>3/29/17</t>
   </si>
   <si>
@@ -309,6 +300,12 @@
   </si>
   <si>
     <t>base64 ascii</t>
+  </si>
+  <si>
+    <t>0.00.05</t>
+  </si>
+  <si>
+    <t>detail pane on side</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955025"/>
+          <c:w val="0.91978071330955036"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -597,9 +594,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -615,15 +612,18 @@
                 <c:pt idx="4">
                   <c:v>04-02-17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>04-12-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$52</c:f>
+              <c:f>Progress!$B$48:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -638,6 +638,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,9 +673,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -688,15 +691,18 @@
                 <c:pt idx="4">
                   <c:v>04-02-17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>04-12-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -711,6 +717,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,9 +752,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -761,15 +770,18 @@
                 <c:pt idx="4">
                   <c:v>04-02-17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>04-12-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -783,6 +795,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -816,9 +831,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$52</c:f>
+              <c:f>Progress!$A$47:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -837,15 +852,18 @@
                 <c:pt idx="5">
                   <c:v>04-02-17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>04-12-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$52</c:f>
+              <c:f>Progress!$E$48:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -861,15 +879,18 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141357056"/>
-        <c:axId val="141358592"/>
+        <c:axId val="155049344"/>
+        <c:axId val="154735744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="141357056"/>
+        <c:axId val="155049344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141358592"/>
+        <c:crossAx val="154735744"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -912,7 +933,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141358592"/>
+        <c:axId val="154735744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141357056"/>
+        <c:crossAx val="155049344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -977,7 +998,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844486"/>
+          <c:y val="0.37277147487844492"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1044,7 +1065,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1098,7 +1119,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127408E-2"/>
+          <c:x val="4.4510450248127421E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1133,9 +1154,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1151,15 +1172,18 @@
                 <c:pt idx="4">
                   <c:v>04-02-17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>04-12-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$52</c:f>
+              <c:f>Progress!$G$48:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1175,15 +1199,18 @@
                 <c:pt idx="4">
                   <c:v>0.39130434782608697</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43283582089552236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="140882688"/>
-        <c:axId val="140884224"/>
+        <c:axId val="154771840"/>
+        <c:axId val="154773376"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="140882688"/>
+        <c:axId val="154771840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,14 +1218,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="140884224"/>
+        <c:crossAx val="154773376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140884224"/>
+        <c:axId val="154773376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1241,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140882688"/>
+        <c:crossAx val="154771840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1290,7 +1317,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,9 +1368,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1359,15 +1386,18 @@
                 <c:pt idx="4">
                   <c:v>04-02-17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>04-12-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1382,6 +1412,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,9 +1447,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1432,15 +1465,18 @@
                 <c:pt idx="4">
                   <c:v>04-02-17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>04-12-17</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1456,15 +1492,18 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="140900992"/>
-        <c:axId val="140902784"/>
+        <c:axId val="154794240"/>
+        <c:axId val="154796032"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="140900992"/>
+        <c:axId val="154794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140902784"/>
+        <c:crossAx val="154796032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1506,7 +1545,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140902784"/>
+        <c:axId val="154796032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140900992"/>
+        <c:crossAx val="154794240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,7 +1636,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1647,7 +1686,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2055,10 +2094,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2223,7 +2262,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -2247,25 +2286,25 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="24" t="s">
-        <v>90</v>
+      <c r="B25" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="24" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2273,17 +2312,17 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="23" t="s">
-        <v>71</v>
+      <c r="B27" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="24" t="s">
-        <v>72</v>
+      <c r="B28" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2291,40 +2330,40 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" s="6" customFormat="1">
+      <c r="B31" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="2:4" s="6" customFormat="1">
+      <c r="B32" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2333,25 +2372,21 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="20" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="20" t="s">
-        <v>82</v>
+      <c r="B36" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2359,13 +2394,17 @@
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22" t="s">
-        <v>51</v>
+      <c r="B38" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2373,26 +2412,26 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="20" t="s">
-        <v>57</v>
+      <c r="B39" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="20" t="s">
-        <v>58</v>
+      <c r="B40" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2401,25 +2440,25 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="23" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -2428,7 +2467,7 @@
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2437,7 +2476,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2446,7 +2485,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2455,7 +2494,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2464,79 +2503,71 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" s="6" customFormat="1">
+      <c r="B51" s="22"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" s="6" customFormat="1">
+      <c r="B52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" s="6" customFormat="1">
+      <c r="B54" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
@@ -2550,8 +2581,12 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
@@ -2560,8 +2595,8 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="3" t="s">
-        <v>73</v>
+      <c r="B62" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -2569,46 +2604,46 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" s="6" customFormat="1">
+      <c r="B65" s="19"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" s="6" customFormat="1">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="2:4" s="6" customFormat="1">
+      <c r="B67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="3" t="s">
-        <v>52</v>
+      <c r="B69" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2616,13 +2651,17 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22" t="s">
-        <v>53</v>
+      <c r="B71" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2631,7 +2670,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2640,7 +2679,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -2648,17 +2687,13 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="20" t="s">
-        <v>77</v>
+      <c r="B75" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -2666,13 +2701,17 @@
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22" t="s">
-        <v>54</v>
+      <c r="B77" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -2680,17 +2719,13 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="20" t="s">
-        <v>56</v>
+      <c r="B79" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2698,32 +2733,36 @@
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1">
+      <c r="B82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20"/>
-      <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="20"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="3" t="s">
-        <v>27</v>
+      <c r="B84" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2732,7 +2771,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2740,36 +2779,36 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="22"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="3" t="s">
-        <v>25</v>
+      <c r="B90" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -2778,7 +2817,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -2786,36 +2825,36 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="43"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" s="6" customFormat="1">
+      <c r="B93" s="21"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="2:4" s="6" customFormat="1">
+      <c r="B94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="7" t="s">
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" s="6" customFormat="1">
+      <c r="B95" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="43"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="21"/>
-      <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="3" t="s">
-        <v>19</v>
+      <c r="B96" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -2823,113 +2862,95 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1">
-      <c r="B97" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1">
-      <c r="B98" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1">
-      <c r="B99" s="22"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1">
-      <c r="B100" s="19"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" s="6" customFormat="1">
-      <c r="B101" s="21"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" s="6" customFormat="1">
-      <c r="B102" s="21"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3"/>
+      <c r="B102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="6">
+        <f>COUNTIF(C5:C101,"y")</f>
+        <v>29</v>
+      </c>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="3"/>
+      <c r="B103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="6">
+        <f>COUNTIF(C5:C101,"n")</f>
+        <v>38</v>
+      </c>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="3"/>
       <c r="B104" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="6">
-        <f>COUNTIF(C5:C103,"y")</f>
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="C104" s="7">
+        <f>COUNTIF(C5:C101,"TBD")</f>
+        <v>0</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="3"/>
       <c r="B105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="6">
-        <f>COUNTIF(C5:C103,"n")</f>
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <f>SUM(C102:C104)</f>
+        <v>67</v>
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="18">
       <c r="A106" s="3"/>
-      <c r="B106" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="7">
-        <f>COUNTIF(C5:C103,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="2"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="41">
+        <f>C102/(C103+C102 + C104)</f>
+        <v>0.43283582089552236</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="3"/>
-      <c r="B107" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107">
-        <f>SUM(C104:C106)</f>
-        <v>69</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" ht="18">
-      <c r="A108" s="3"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="41">
-        <f>C104/(C105+C104 + C106)</f>
-        <v>0.39130434782608697</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="3"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="3"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64857">
+  <conditionalFormatting sqref="C1:C3 C6:C64855">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2951,12 +2972,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT866"/>
+  <dimension ref="A1:IT867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3267,7 +3288,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B51" s="4">
         <v>25</v>
@@ -3285,7 +3306,7 @@
         <v>87</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -3307,22 +3328,37 @@
         <v>0</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G52" s="30">
-        <f t="shared" ref="G52" si="3">B52/SUM(B52:E52)</f>
+        <f t="shared" si="2"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="12"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="30"/>
+      <c r="A53" s="46">
+        <v>43073</v>
+      </c>
+      <c r="B53" s="4">
+        <v>29</v>
+      </c>
+      <c r="C53" s="4">
+        <v>38</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="30">
+        <f t="shared" ref="G53" si="3">B53/SUM(B53:E53)</f>
+        <v>0.43283582089552236</v>
+      </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
@@ -3331,84 +3367,84 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="31"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="30"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F56" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="38">
-        <f>MIN(G52)</f>
-        <v>0.39130434782608697</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="39">
-        <f>SUM(B56:D56)</f>
-        <v>69</v>
-      </c>
-      <c r="B56" s="15">
+      <c r="G56" s="38">
+        <f>MIN(G53)</f>
+        <v>0.43283582089552236</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="39">
+        <f>SUM(B57:D57)</f>
+        <v>67</v>
+      </c>
+      <c r="B57" s="15">
+        <f>Features!C102</f>
+        <v>29</v>
+      </c>
+      <c r="C57" s="16">
+        <f>Features!C103</f>
+        <v>38</v>
+      </c>
+      <c r="D57" s="17">
         <f>Features!C104</f>
-        <v>27</v>
-      </c>
-      <c r="C56" s="16">
-        <f>Features!C105</f>
-        <v>42</v>
-      </c>
-      <c r="D56" s="17">
-        <f>Features!C106</f>
         <v>0</v>
       </c>
-      <c r="E56" s="18">
-        <f>MIN(E52)</f>
+      <c r="E57" s="18">
+        <f>MIN(E53)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
-      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
+      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -3418,7 +3454,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -3438,7 +3474,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -3458,7 +3494,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3478,7 +3514,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3488,7 +3524,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3507,7 +3543,7 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7"/>
+      <c r="A69" s="4"/>
       <c r="B69" s="20"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
@@ -3518,7 +3554,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3649,7 +3685,7 @@
     <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -3658,7 +3694,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -3666,15 +3702,15 @@
       <c r="G84" s="30"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="4"/>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="4"/>
@@ -3848,7 +3884,7 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1">
       <c r="A103" s="4"/>
-      <c r="B103" s="6"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -3858,7 +3894,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -3888,7 +3924,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -3928,7 +3964,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="21"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3938,7 +3974,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3948,7 +3984,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3958,7 +3994,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -3968,7 +4004,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -3988,7 +4024,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4048,7 +4084,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4106,7 +4142,7 @@
       <c r="G128" s="34"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:254" s="2" customFormat="1">
+    <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
       <c r="B129" s="19"/>
       <c r="C129" s="4"/>
@@ -4116,7 +4152,7 @@
       <c r="G129" s="34"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:254" s="2" customFormat="1">
+    <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
       <c r="B130" s="19"/>
       <c r="C130" s="4"/>
@@ -4126,7 +4162,7 @@
       <c r="G130" s="34"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:254" s="2" customFormat="1">
+    <row r="131" spans="1:8" s="2" customFormat="1">
       <c r="A131" s="4"/>
       <c r="B131" s="19"/>
       <c r="C131" s="4"/>
@@ -4136,7 +4172,7 @@
       <c r="G131" s="34"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:254" s="2" customFormat="1">
+    <row r="132" spans="1:8" s="2" customFormat="1">
       <c r="A132" s="4"/>
       <c r="B132" s="19"/>
       <c r="C132" s="4"/>
@@ -4146,9 +4182,9 @@
       <c r="G132" s="34"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:254" s="2" customFormat="1">
+    <row r="133" spans="1:8" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -4156,7 +4192,7 @@
       <c r="G133" s="34"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:254" s="2" customFormat="1">
+    <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4166,7 +4202,7 @@
       <c r="G134" s="34"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:254" s="2" customFormat="1">
+    <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4176,7 +4212,7 @@
       <c r="G135" s="34"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:254" s="2" customFormat="1">
+    <row r="136" spans="1:8" s="2" customFormat="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4186,7 +4222,7 @@
       <c r="G136" s="34"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:254" s="2" customFormat="1">
+    <row r="137" spans="1:8" s="2" customFormat="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4196,9 +4232,9 @@
       <c r="G137" s="34"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:254" s="2" customFormat="1">
+    <row r="138" spans="1:8" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="19"/>
+      <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -4206,7 +4242,7 @@
       <c r="G138" s="34"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:254" s="2" customFormat="1">
+    <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
       <c r="B139" s="19"/>
       <c r="C139" s="4"/>
@@ -4216,9 +4252,9 @@
       <c r="G139" s="34"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:254" s="2" customFormat="1">
+    <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -4226,7 +4262,7 @@
       <c r="G140" s="34"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:254" s="2" customFormat="1">
+    <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4236,7 +4272,7 @@
       <c r="G141" s="34"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:254" s="2" customFormat="1">
+    <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4246,7 +4282,7 @@
       <c r="G142" s="34"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:254" s="2" customFormat="1">
+    <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4256,285 +4292,285 @@
       <c r="G143" s="34"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:254" s="2" customFormat="1">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
-      <c r="Z144" s="5"/>
-      <c r="AA144" s="5"/>
-      <c r="AB144" s="5"/>
-      <c r="AC144" s="5"/>
-      <c r="AD144" s="5"/>
-      <c r="AE144" s="5"/>
-      <c r="AF144" s="5"/>
-      <c r="AG144" s="5"/>
-      <c r="AH144" s="5"/>
-      <c r="AI144" s="5"/>
-      <c r="AJ144" s="5"/>
-      <c r="AK144" s="5"/>
-      <c r="AL144" s="5"/>
-      <c r="AM144" s="5"/>
-      <c r="AN144" s="5"/>
-      <c r="AO144" s="5"/>
-      <c r="AP144" s="5"/>
-      <c r="AQ144" s="5"/>
-      <c r="AR144" s="5"/>
-      <c r="AS144" s="5"/>
-      <c r="AT144" s="5"/>
-      <c r="AU144" s="5"/>
-      <c r="AV144" s="5"/>
-      <c r="AW144" s="5"/>
-      <c r="AX144" s="5"/>
-      <c r="AY144" s="5"/>
-      <c r="AZ144" s="5"/>
-      <c r="BA144" s="5"/>
-      <c r="BB144" s="5"/>
-      <c r="BC144" s="5"/>
-      <c r="BD144" s="5"/>
-      <c r="BE144" s="5"/>
-      <c r="BF144" s="5"/>
-      <c r="BG144" s="5"/>
-      <c r="BH144" s="5"/>
-      <c r="BI144" s="5"/>
-      <c r="BJ144" s="5"/>
-      <c r="BK144" s="5"/>
-      <c r="BL144" s="5"/>
-      <c r="BM144" s="5"/>
-      <c r="BN144" s="5"/>
-      <c r="BO144" s="5"/>
-      <c r="BP144" s="5"/>
-      <c r="BQ144" s="5"/>
-      <c r="BR144" s="5"/>
-      <c r="BS144" s="5"/>
-      <c r="BT144" s="5"/>
-      <c r="BU144" s="5"/>
-      <c r="BV144" s="5"/>
-      <c r="BW144" s="5"/>
-      <c r="BX144" s="5"/>
-      <c r="BY144" s="5"/>
-      <c r="BZ144" s="5"/>
-      <c r="CA144" s="5"/>
-      <c r="CB144" s="5"/>
-      <c r="CC144" s="5"/>
-      <c r="CD144" s="5"/>
-      <c r="CE144" s="5"/>
-      <c r="CF144" s="5"/>
-      <c r="CG144" s="5"/>
-      <c r="CH144" s="5"/>
-      <c r="CI144" s="5"/>
-      <c r="CJ144" s="5"/>
-      <c r="CK144" s="5"/>
-      <c r="CL144" s="5"/>
-      <c r="CM144" s="5"/>
-      <c r="CN144" s="5"/>
-      <c r="CO144" s="5"/>
-      <c r="CP144" s="5"/>
-      <c r="CQ144" s="5"/>
-      <c r="CR144" s="5"/>
-      <c r="CS144" s="5"/>
-      <c r="CT144" s="5"/>
-      <c r="CU144" s="5"/>
-      <c r="CV144" s="5"/>
-      <c r="CW144" s="5"/>
-      <c r="CX144" s="5"/>
-      <c r="CY144" s="5"/>
-      <c r="CZ144" s="5"/>
-      <c r="DA144" s="5"/>
-      <c r="DB144" s="5"/>
-      <c r="DC144" s="5"/>
-      <c r="DD144" s="5"/>
-      <c r="DE144" s="5"/>
-      <c r="DF144" s="5"/>
-      <c r="DG144" s="5"/>
-      <c r="DH144" s="5"/>
-      <c r="DI144" s="5"/>
-      <c r="DJ144" s="5"/>
-      <c r="DK144" s="5"/>
-      <c r="DL144" s="5"/>
-      <c r="DM144" s="5"/>
-      <c r="DN144" s="5"/>
-      <c r="DO144" s="5"/>
-      <c r="DP144" s="5"/>
-      <c r="DQ144" s="5"/>
-      <c r="DR144" s="5"/>
-      <c r="DS144" s="5"/>
-      <c r="DT144" s="5"/>
-      <c r="DU144" s="5"/>
-      <c r="DV144" s="5"/>
-      <c r="DW144" s="5"/>
-      <c r="DX144" s="5"/>
-      <c r="DY144" s="5"/>
-      <c r="DZ144" s="5"/>
-      <c r="EA144" s="5"/>
-      <c r="EB144" s="5"/>
-      <c r="EC144" s="5"/>
-      <c r="ED144" s="5"/>
-      <c r="EE144" s="5"/>
-      <c r="EF144" s="5"/>
-      <c r="EG144" s="5"/>
-      <c r="EH144" s="5"/>
-      <c r="EI144" s="5"/>
-      <c r="EJ144" s="5"/>
-      <c r="EK144" s="5"/>
-      <c r="EL144" s="5"/>
-      <c r="EM144" s="5"/>
-      <c r="EN144" s="5"/>
-      <c r="EO144" s="5"/>
-      <c r="EP144" s="5"/>
-      <c r="EQ144" s="5"/>
-      <c r="ER144" s="5"/>
-      <c r="ES144" s="5"/>
-      <c r="ET144" s="5"/>
-      <c r="EU144" s="5"/>
-      <c r="EV144" s="5"/>
-      <c r="EW144" s="5"/>
-      <c r="EX144" s="5"/>
-      <c r="EY144" s="5"/>
-      <c r="EZ144" s="5"/>
-      <c r="FA144" s="5"/>
-      <c r="FB144" s="5"/>
-      <c r="FC144" s="5"/>
-      <c r="FD144" s="5"/>
-      <c r="FE144" s="5"/>
-      <c r="FF144" s="5"/>
-      <c r="FG144" s="5"/>
-      <c r="FH144" s="5"/>
-      <c r="FI144" s="5"/>
-      <c r="FJ144" s="5"/>
-      <c r="FK144" s="5"/>
-      <c r="FL144" s="5"/>
-      <c r="FM144" s="5"/>
-      <c r="FN144" s="5"/>
-      <c r="FO144" s="5"/>
-      <c r="FP144" s="5"/>
-      <c r="FQ144" s="5"/>
-      <c r="FR144" s="5"/>
-      <c r="FS144" s="5"/>
-      <c r="FT144" s="5"/>
-      <c r="FU144" s="5"/>
-      <c r="FV144" s="5"/>
-      <c r="FW144" s="5"/>
-      <c r="FX144" s="5"/>
-      <c r="FY144" s="5"/>
-      <c r="FZ144" s="5"/>
-      <c r="GA144" s="5"/>
-      <c r="GB144" s="5"/>
-      <c r="GC144" s="5"/>
-      <c r="GD144" s="5"/>
-      <c r="GE144" s="5"/>
-      <c r="GF144" s="5"/>
-      <c r="GG144" s="5"/>
-      <c r="GH144" s="5"/>
-      <c r="GI144" s="5"/>
-      <c r="GJ144" s="5"/>
-      <c r="GK144" s="5"/>
-      <c r="GL144" s="5"/>
-      <c r="GM144" s="5"/>
-      <c r="GN144" s="5"/>
-      <c r="GO144" s="5"/>
-      <c r="GP144" s="5"/>
-      <c r="GQ144" s="5"/>
-      <c r="GR144" s="5"/>
-      <c r="GS144" s="5"/>
-      <c r="GT144" s="5"/>
-      <c r="GU144" s="5"/>
-      <c r="GV144" s="5"/>
-      <c r="GW144" s="5"/>
-      <c r="GX144" s="5"/>
-      <c r="GY144" s="5"/>
-      <c r="GZ144" s="5"/>
-      <c r="HA144" s="5"/>
-      <c r="HB144" s="5"/>
-      <c r="HC144" s="5"/>
-      <c r="HD144" s="5"/>
-      <c r="HE144" s="5"/>
-      <c r="HF144" s="5"/>
-      <c r="HG144" s="5"/>
-      <c r="HH144" s="5"/>
-      <c r="HI144" s="5"/>
-      <c r="HJ144" s="5"/>
-      <c r="HK144" s="5"/>
-      <c r="HL144" s="5"/>
-      <c r="HM144" s="5"/>
-      <c r="HN144" s="5"/>
-      <c r="HO144" s="5"/>
-      <c r="HP144" s="5"/>
-      <c r="HQ144" s="5"/>
-      <c r="HR144" s="5"/>
-      <c r="HS144" s="5"/>
-      <c r="HT144" s="5"/>
-      <c r="HU144" s="5"/>
-      <c r="HV144" s="5"/>
-      <c r="HW144" s="5"/>
-      <c r="HX144" s="5"/>
-      <c r="HY144" s="5"/>
-      <c r="HZ144" s="5"/>
-      <c r="IA144" s="5"/>
-      <c r="IB144" s="5"/>
-      <c r="IC144" s="5"/>
-      <c r="ID144" s="5"/>
-      <c r="IE144" s="5"/>
-      <c r="IF144" s="5"/>
-      <c r="IG144" s="5"/>
-      <c r="IH144" s="5"/>
-      <c r="II144" s="5"/>
-      <c r="IJ144" s="5"/>
-      <c r="IK144" s="5"/>
-      <c r="IL144" s="5"/>
-      <c r="IM144" s="5"/>
-      <c r="IN144" s="5"/>
-      <c r="IO144" s="5"/>
-      <c r="IP144" s="5"/>
-      <c r="IQ144" s="5"/>
-      <c r="IR144" s="5"/>
-      <c r="IS144" s="5"/>
-      <c r="IT144" s="5"/>
-    </row>
-    <row r="145" spans="1:8" s="2" customFormat="1">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="7"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8">
+    <row r="144" spans="1:8" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:254" s="2" customFormat="1">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5"/>
+      <c r="AM145" s="5"/>
+      <c r="AN145" s="5"/>
+      <c r="AO145" s="5"/>
+      <c r="AP145" s="5"/>
+      <c r="AQ145" s="5"/>
+      <c r="AR145" s="5"/>
+      <c r="AS145" s="5"/>
+      <c r="AT145" s="5"/>
+      <c r="AU145" s="5"/>
+      <c r="AV145" s="5"/>
+      <c r="AW145" s="5"/>
+      <c r="AX145" s="5"/>
+      <c r="AY145" s="5"/>
+      <c r="AZ145" s="5"/>
+      <c r="BA145" s="5"/>
+      <c r="BB145" s="5"/>
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
+      <c r="BF145" s="5"/>
+      <c r="BG145" s="5"/>
+      <c r="BH145" s="5"/>
+      <c r="BI145" s="5"/>
+      <c r="BJ145" s="5"/>
+      <c r="BK145" s="5"/>
+      <c r="BL145" s="5"/>
+      <c r="BM145" s="5"/>
+      <c r="BN145" s="5"/>
+      <c r="BO145" s="5"/>
+      <c r="BP145" s="5"/>
+      <c r="BQ145" s="5"/>
+      <c r="BR145" s="5"/>
+      <c r="BS145" s="5"/>
+      <c r="BT145" s="5"/>
+      <c r="BU145" s="5"/>
+      <c r="BV145" s="5"/>
+      <c r="BW145" s="5"/>
+      <c r="BX145" s="5"/>
+      <c r="BY145" s="5"/>
+      <c r="BZ145" s="5"/>
+      <c r="CA145" s="5"/>
+      <c r="CB145" s="5"/>
+      <c r="CC145" s="5"/>
+      <c r="CD145" s="5"/>
+      <c r="CE145" s="5"/>
+      <c r="CF145" s="5"/>
+      <c r="CG145" s="5"/>
+      <c r="CH145" s="5"/>
+      <c r="CI145" s="5"/>
+      <c r="CJ145" s="5"/>
+      <c r="CK145" s="5"/>
+      <c r="CL145" s="5"/>
+      <c r="CM145" s="5"/>
+      <c r="CN145" s="5"/>
+      <c r="CO145" s="5"/>
+      <c r="CP145" s="5"/>
+      <c r="CQ145" s="5"/>
+      <c r="CR145" s="5"/>
+      <c r="CS145" s="5"/>
+      <c r="CT145" s="5"/>
+      <c r="CU145" s="5"/>
+      <c r="CV145" s="5"/>
+      <c r="CW145" s="5"/>
+      <c r="CX145" s="5"/>
+      <c r="CY145" s="5"/>
+      <c r="CZ145" s="5"/>
+      <c r="DA145" s="5"/>
+      <c r="DB145" s="5"/>
+      <c r="DC145" s="5"/>
+      <c r="DD145" s="5"/>
+      <c r="DE145" s="5"/>
+      <c r="DF145" s="5"/>
+      <c r="DG145" s="5"/>
+      <c r="DH145" s="5"/>
+      <c r="DI145" s="5"/>
+      <c r="DJ145" s="5"/>
+      <c r="DK145" s="5"/>
+      <c r="DL145" s="5"/>
+      <c r="DM145" s="5"/>
+      <c r="DN145" s="5"/>
+      <c r="DO145" s="5"/>
+      <c r="DP145" s="5"/>
+      <c r="DQ145" s="5"/>
+      <c r="DR145" s="5"/>
+      <c r="DS145" s="5"/>
+      <c r="DT145" s="5"/>
+      <c r="DU145" s="5"/>
+      <c r="DV145" s="5"/>
+      <c r="DW145" s="5"/>
+      <c r="DX145" s="5"/>
+      <c r="DY145" s="5"/>
+      <c r="DZ145" s="5"/>
+      <c r="EA145" s="5"/>
+      <c r="EB145" s="5"/>
+      <c r="EC145" s="5"/>
+      <c r="ED145" s="5"/>
+      <c r="EE145" s="5"/>
+      <c r="EF145" s="5"/>
+      <c r="EG145" s="5"/>
+      <c r="EH145" s="5"/>
+      <c r="EI145" s="5"/>
+      <c r="EJ145" s="5"/>
+      <c r="EK145" s="5"/>
+      <c r="EL145" s="5"/>
+      <c r="EM145" s="5"/>
+      <c r="EN145" s="5"/>
+      <c r="EO145" s="5"/>
+      <c r="EP145" s="5"/>
+      <c r="EQ145" s="5"/>
+      <c r="ER145" s="5"/>
+      <c r="ES145" s="5"/>
+      <c r="ET145" s="5"/>
+      <c r="EU145" s="5"/>
+      <c r="EV145" s="5"/>
+      <c r="EW145" s="5"/>
+      <c r="EX145" s="5"/>
+      <c r="EY145" s="5"/>
+      <c r="EZ145" s="5"/>
+      <c r="FA145" s="5"/>
+      <c r="FB145" s="5"/>
+      <c r="FC145" s="5"/>
+      <c r="FD145" s="5"/>
+      <c r="FE145" s="5"/>
+      <c r="FF145" s="5"/>
+      <c r="FG145" s="5"/>
+      <c r="FH145" s="5"/>
+      <c r="FI145" s="5"/>
+      <c r="FJ145" s="5"/>
+      <c r="FK145" s="5"/>
+      <c r="FL145" s="5"/>
+      <c r="FM145" s="5"/>
+      <c r="FN145" s="5"/>
+      <c r="FO145" s="5"/>
+      <c r="FP145" s="5"/>
+      <c r="FQ145" s="5"/>
+      <c r="FR145" s="5"/>
+      <c r="FS145" s="5"/>
+      <c r="FT145" s="5"/>
+      <c r="FU145" s="5"/>
+      <c r="FV145" s="5"/>
+      <c r="FW145" s="5"/>
+      <c r="FX145" s="5"/>
+      <c r="FY145" s="5"/>
+      <c r="FZ145" s="5"/>
+      <c r="GA145" s="5"/>
+      <c r="GB145" s="5"/>
+      <c r="GC145" s="5"/>
+      <c r="GD145" s="5"/>
+      <c r="GE145" s="5"/>
+      <c r="GF145" s="5"/>
+      <c r="GG145" s="5"/>
+      <c r="GH145" s="5"/>
+      <c r="GI145" s="5"/>
+      <c r="GJ145" s="5"/>
+      <c r="GK145" s="5"/>
+      <c r="GL145" s="5"/>
+      <c r="GM145" s="5"/>
+      <c r="GN145" s="5"/>
+      <c r="GO145" s="5"/>
+      <c r="GP145" s="5"/>
+      <c r="GQ145" s="5"/>
+      <c r="GR145" s="5"/>
+      <c r="GS145" s="5"/>
+      <c r="GT145" s="5"/>
+      <c r="GU145" s="5"/>
+      <c r="GV145" s="5"/>
+      <c r="GW145" s="5"/>
+      <c r="GX145" s="5"/>
+      <c r="GY145" s="5"/>
+      <c r="GZ145" s="5"/>
+      <c r="HA145" s="5"/>
+      <c r="HB145" s="5"/>
+      <c r="HC145" s="5"/>
+      <c r="HD145" s="5"/>
+      <c r="HE145" s="5"/>
+      <c r="HF145" s="5"/>
+      <c r="HG145" s="5"/>
+      <c r="HH145" s="5"/>
+      <c r="HI145" s="5"/>
+      <c r="HJ145" s="5"/>
+      <c r="HK145" s="5"/>
+      <c r="HL145" s="5"/>
+      <c r="HM145" s="5"/>
+      <c r="HN145" s="5"/>
+      <c r="HO145" s="5"/>
+      <c r="HP145" s="5"/>
+      <c r="HQ145" s="5"/>
+      <c r="HR145" s="5"/>
+      <c r="HS145" s="5"/>
+      <c r="HT145" s="5"/>
+      <c r="HU145" s="5"/>
+      <c r="HV145" s="5"/>
+      <c r="HW145" s="5"/>
+      <c r="HX145" s="5"/>
+      <c r="HY145" s="5"/>
+      <c r="HZ145" s="5"/>
+      <c r="IA145" s="5"/>
+      <c r="IB145" s="5"/>
+      <c r="IC145" s="5"/>
+      <c r="ID145" s="5"/>
+      <c r="IE145" s="5"/>
+      <c r="IF145" s="5"/>
+      <c r="IG145" s="5"/>
+      <c r="IH145" s="5"/>
+      <c r="II145" s="5"/>
+      <c r="IJ145" s="5"/>
+      <c r="IK145" s="5"/>
+      <c r="IL145" s="5"/>
+      <c r="IM145" s="5"/>
+      <c r="IN145" s="5"/>
+      <c r="IO145" s="5"/>
+      <c r="IP145" s="5"/>
+      <c r="IQ145" s="5"/>
+      <c r="IR145" s="5"/>
+      <c r="IS145" s="5"/>
+      <c r="IT145" s="5"/>
+    </row>
+    <row r="146" spans="1:254" s="2" customFormat="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:254">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -4542,9 +4578,9 @@
       <c r="G147" s="30"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:254">
       <c r="A148" s="7"/>
-      <c r="B148" s="20"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -4552,9 +4588,9 @@
       <c r="G148" s="30"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -4562,17 +4598,17 @@
       <c r="G149" s="30"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:254">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="30"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:254">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="4"/>
@@ -4582,7 +4618,7 @@
       <c r="G151" s="30"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:254">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="4"/>
@@ -4592,7 +4628,7 @@
       <c r="G152" s="30"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:254">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="4"/>
@@ -4602,19 +4638,19 @@
       <c r="G153" s="30"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:254">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="30"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -4622,7 +4658,7 @@
       <c r="G155" s="30"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="22"/>
       <c r="C156" s="7"/>
@@ -4632,9 +4668,9 @@
       <c r="G156" s="30"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -4642,9 +4678,9 @@
       <c r="G157" s="30"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -4652,7 +4688,7 @@
       <c r="G158" s="30"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:254">
       <c r="A159" s="7"/>
       <c r="B159" s="20"/>
       <c r="C159" s="7"/>
@@ -4662,9 +4698,9 @@
       <c r="G159" s="30"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -4684,7 +4720,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -4703,10 +4739,8 @@
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B164" s="7"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -4715,7 +4749,9 @@
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="7"/>
+      <c r="A165" s="45">
+        <v>43011</v>
+      </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -4726,7 +4762,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -4746,7 +4782,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -4786,7 +4822,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="6"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -4796,8 +4832,8 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -4806,7 +4842,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="19"/>
+      <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -4876,7 +4912,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -4886,7 +4922,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="19"/>
+      <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -4896,7 +4932,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="21"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -4916,7 +4952,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -4957,7 +4993,7 @@
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
       <c r="B189" s="19"/>
-      <c r="C189" s="7"/>
+      <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -4966,7 +5002,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="4"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -4986,7 +5022,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="4"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -5046,7 +5082,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="21"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -5086,7 +5122,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -5096,7 +5132,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="6"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -5106,7 +5142,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -5116,7 +5152,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="19"/>
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -5166,7 +5202,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="21"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -5176,7 +5212,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -5226,7 +5262,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="21"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -5286,7 +5322,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -5296,7 +5332,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="6"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -5306,8 +5342,8 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
@@ -5316,7 +5352,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="19"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -5326,7 +5362,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -5336,7 +5372,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="7"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -5376,7 +5412,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5386,7 +5422,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="7"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5396,7 +5432,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="23"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -5416,7 +5452,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="23"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -5456,7 +5492,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -5466,7 +5502,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="7"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -5516,7 +5552,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -5526,8 +5562,8 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
@@ -5536,7 +5572,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -5546,7 +5582,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -5556,7 +5592,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="23"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -5606,8 +5642,8 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="4"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -5616,7 +5652,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="23"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -5626,7 +5662,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="24"/>
+      <c r="B256" s="23"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -5654,9 +5690,9 @@
       <c r="G258" s="30"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8" ht="11.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="25"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -5664,9 +5700,9 @@
       <c r="G259" s="30"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" ht="11.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="25"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -5706,7 +5742,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -5736,7 +5772,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="23"/>
+      <c r="B267" s="24"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -5746,7 +5782,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -5754,15 +5790,15 @@
       <c r="G268" s="30"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="1:8" s="2" customFormat="1">
-      <c r="A269" s="4"/>
+    <row r="269" spans="1:8">
+      <c r="A269" s="7"/>
       <c r="B269" s="24"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
-      <c r="G269" s="34"/>
-      <c r="H269" s="4"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="7"/>
     </row>
     <row r="270" spans="1:8" s="2" customFormat="1">
       <c r="A270" s="4"/>
@@ -5774,19 +5810,19 @@
       <c r="G270" s="34"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="7"/>
+    <row r="271" spans="1:8" s="2" customFormat="1">
+      <c r="A271" s="4"/>
       <c r="B271" s="24"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="7"/>
-      <c r="F271" s="7"/>
-      <c r="G271" s="30"/>
-      <c r="H271" s="7"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
+      <c r="G271" s="34"/>
+      <c r="H271" s="4"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="23"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -5796,7 +5832,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -5826,7 +5862,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="22"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -5836,7 +5872,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -5856,7 +5892,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="20"/>
+      <c r="B279" s="7"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -5876,7 +5912,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -5907,7 +5943,7 @@
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
+      <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
@@ -5916,7 +5952,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="6"/>
+      <c r="B285" s="7"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -5926,7 +5962,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="6"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -6006,7 +6042,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="6"/>
+      <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -6016,8 +6052,8 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
@@ -6026,7 +6062,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="19"/>
+      <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -6056,7 +6092,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="4"/>
+      <c r="B299" s="19"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -6116,7 +6152,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="19"/>
+      <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -6136,7 +6172,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="21"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -6146,8 +6182,8 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="7"/>
+      <c r="B308" s="21"/>
+      <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
@@ -6156,7 +6192,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="6"/>
+      <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -6164,15 +6200,15 @@
       <c r="G309" s="30"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="1:8" s="2" customFormat="1">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
-      <c r="G310" s="34"/>
-      <c r="H310" s="4"/>
+    <row r="310" spans="1:8">
+      <c r="A310" s="7"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="30"/>
+      <c r="H310" s="7"/>
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
@@ -6196,7 +6232,7 @@
     </row>
     <row r="313" spans="1:8" s="2" customFormat="1">
       <c r="A313" s="4"/>
-      <c r="B313" s="19"/>
+      <c r="B313" s="4"/>
       <c r="C313" s="9"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -6246,8 +6282,8 @@
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
-      <c r="B318" s="26"/>
-      <c r="C318" s="4"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="9"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -6296,7 +6332,7 @@
     </row>
     <row r="323" spans="1:8" s="2" customFormat="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="21"/>
+      <c r="B323" s="26"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -6346,7 +6382,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="19"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -6356,7 +6392,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="21"/>
+      <c r="B329" s="19"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -6366,7 +6402,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -6374,20 +6410,20 @@
       <c r="G330" s="34"/>
       <c r="H330" s="4"/>
     </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="7"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="7"/>
-      <c r="D331" s="7"/>
-      <c r="E331" s="7"/>
-      <c r="F331" s="7"/>
-      <c r="G331" s="30"/>
-      <c r="H331" s="7"/>
+    <row r="331" spans="1:8" s="2" customFormat="1">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="34"/>
+      <c r="H331" s="4"/>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
-      <c r="C332" s="4"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
@@ -6456,7 +6492,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="4"/>
+      <c r="B339" s="7"/>
       <c r="C339" s="4"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -6467,7 +6503,7 @@
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="7"/>
+      <c r="C340" s="4"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
@@ -6476,7 +6512,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="6"/>
+      <c r="B341" s="4"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6486,7 +6522,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -6496,7 +6532,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="22"/>
+      <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -6506,7 +6542,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="22"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -6546,7 +6582,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="6"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -6556,7 +6592,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -6566,7 +6602,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="20"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -6596,7 +6632,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -6606,7 +6642,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -6626,7 +6662,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6636,7 +6672,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -6646,7 +6682,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -6656,7 +6692,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -6686,7 +6722,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -6696,7 +6732,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="27"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -6706,7 +6742,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="22"/>
+      <c r="B364" s="27"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -6716,8 +6752,8 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
-      <c r="C365" s="4"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
@@ -6726,7 +6762,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="20"/>
+      <c r="B366" s="7"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -6756,7 +6792,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -6786,7 +6822,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="20"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -6806,8 +6842,8 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
-      <c r="C374" s="7"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
@@ -6816,7 +6852,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="6"/>
+      <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -6826,7 +6862,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="6"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -6886,7 +6922,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="6"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -6896,7 +6932,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -6917,7 +6953,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
-      <c r="C385" s="4"/>
+      <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -6926,7 +6962,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="20"/>
+      <c r="B386" s="7"/>
       <c r="C386" s="4"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -6937,7 +6973,7 @@
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
       <c r="B387" s="20"/>
-      <c r="C387" s="7"/>
+      <c r="C387" s="4"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
@@ -6946,7 +6982,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="27"/>
+      <c r="B388" s="20"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -6956,7 +6992,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="22"/>
+      <c r="B389" s="27"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -7006,7 +7042,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="22"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -7016,7 +7052,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="6"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7026,7 +7062,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="6"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -7036,7 +7072,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="20"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7046,7 +7082,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="22"/>
+      <c r="B398" s="20"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7066,7 +7102,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="20"/>
+      <c r="B400" s="22"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -7106,7 +7142,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7116,7 +7152,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="20"/>
+      <c r="B405" s="7"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7136,7 +7172,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="22"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7146,7 +7182,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="22"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -7156,7 +7192,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="6"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7166,7 +7202,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7186,7 +7222,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7196,7 +7232,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7206,7 +7242,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="20"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7226,7 +7262,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="20"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7236,7 +7272,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="6"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -7246,7 +7282,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -7296,7 +7332,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="6"/>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -7306,7 +7342,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -7366,7 +7402,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -7376,7 +7412,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -7396,7 +7432,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -7406,7 +7442,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="4"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -7426,7 +7462,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="4"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -7456,7 +7492,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="7"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -7466,8 +7502,8 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
-      <c r="C440" s="4"/>
+      <c r="B440" s="6"/>
+      <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
@@ -7517,7 +7553,7 @@
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
-      <c r="C445" s="7"/>
+      <c r="C445" s="4"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -7526,7 +7562,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -7536,8 +7572,8 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
-      <c r="C447" s="4"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -7577,7 +7613,7 @@
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
-      <c r="C451" s="7"/>
+      <c r="C451" s="4"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -7586,7 +7622,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="7"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -7596,7 +7632,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="22"/>
+      <c r="B453" s="6"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -7656,7 +7692,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="7"/>
+      <c r="B459" s="22"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -7666,7 +7702,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="6"/>
+      <c r="B460" s="7"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -7676,7 +7712,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="22"/>
+      <c r="B461" s="6"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -7705,8 +7741,8 @@
       <c r="H463" s="7"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="6"/>
-      <c r="B464" s="7"/>
+      <c r="A464" s="7"/>
+      <c r="B464" s="22"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -7715,7 +7751,7 @@
       <c r="H464" s="7"/>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="7"/>
+      <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
@@ -7756,7 +7792,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="28"/>
+      <c r="B469" s="7"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -7786,7 +7822,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="28"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -7796,7 +7832,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="28"/>
+      <c r="B473" s="7"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -7806,7 +7842,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="28"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -7816,21 +7852,21 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="29"/>
-      <c r="C475" s="30"/>
+      <c r="B475" s="7"/>
+      <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
-      <c r="F475" s="29"/>
+      <c r="F475" s="7"/>
       <c r="G475" s="30"/>
       <c r="H475" s="7"/>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
-      <c r="C476" s="7"/>
+      <c r="B476" s="29"/>
+      <c r="C476" s="30"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
-      <c r="F476" s="7"/>
+      <c r="F476" s="29"/>
       <c r="G476" s="30"/>
       <c r="H476" s="7"/>
     </row>
@@ -11734,6 +11770,16 @@
       <c r="G866" s="30"/>
       <c r="H866" s="7"/>
     </row>
+    <row r="867" spans="1:8">
+      <c r="A867" s="7"/>
+      <c r="B867" s="7"/>
+      <c r="C867" s="7"/>
+      <c r="D867" s="7"/>
+      <c r="E867" s="7"/>
+      <c r="F867" s="7"/>
+      <c r="G867" s="30"/>
+      <c r="H867" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>Feature</t>
   </si>
@@ -307,6 +307,24 @@
   <si>
     <t>detail pane on side</t>
   </si>
+  <si>
+    <t>04-29-2017</t>
+  </si>
+  <si>
+    <t>0.00.06</t>
+  </si>
+  <si>
+    <t>select all</t>
+  </si>
+  <si>
+    <t>show only if contains a valid json</t>
+  </si>
+  <si>
+    <t>parses json</t>
+  </si>
+  <si>
+    <t>parses xml</t>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +579,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955036"/>
+          <c:w val="0.91978071330955058"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -594,9 +612,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -615,15 +633,18 @@
                 <c:pt idx="5">
                   <c:v>04-12-17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>04-29-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$53</c:f>
+              <c:f>Progress!$B$48:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -641,6 +662,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,9 +697,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -694,15 +718,18 @@
                 <c:pt idx="5">
                   <c:v>04-12-17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>04-29-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$53</c:f>
+              <c:f>Progress!$C$48:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -720,6 +747,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,9 +782,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -773,15 +803,18 @@
                 <c:pt idx="5">
                   <c:v>04-12-17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>04-29-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$53</c:f>
+              <c:f>Progress!$D$48:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -798,6 +831,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -831,9 +867,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$53</c:f>
+              <c:f>Progress!$A$47:$A$54</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -855,15 +891,18 @@
                 <c:pt idx="6">
                   <c:v>04-12-17</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>04-29-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$53</c:f>
+              <c:f>Progress!$E$48:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -882,15 +921,18 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155049344"/>
-        <c:axId val="154735744"/>
+        <c:axId val="154333184"/>
+        <c:axId val="154334720"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="155049344"/>
+        <c:axId val="154333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154735744"/>
+        <c:crossAx val="154334720"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -933,7 +975,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="154735744"/>
+        <c:axId val="154334720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155049344"/>
+        <c:crossAx val="154333184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -998,7 +1040,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844492"/>
+          <c:y val="0.37277147487844497"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1065,7 +1107,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1119,7 +1161,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127421E-2"/>
+          <c:x val="4.4510450248127428E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1154,9 +1196,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1175,15 +1217,18 @@
                 <c:pt idx="5">
                   <c:v>04-12-17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>04-29-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$53</c:f>
+              <c:f>Progress!$G$48:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1202,15 +1247,18 @@
                 <c:pt idx="5">
                   <c:v>0.43283582089552236</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43661971830985913</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154771840"/>
-        <c:axId val="154773376"/>
+        <c:axId val="153985792"/>
+        <c:axId val="153987328"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="154771840"/>
+        <c:axId val="153985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,14 +1266,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="154773376"/>
+        <c:crossAx val="153987328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154773376"/>
+        <c:axId val="153987328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1268,7 +1316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154771840"/>
+        <c:crossAx val="153985792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1317,7 +1365,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1368,9 +1416,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1389,15 +1437,18 @@
                 <c:pt idx="5">
                   <c:v>04-12-17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>04-29-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$53</c:f>
+              <c:f>Progress!$C$48:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1415,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,9 +1501,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$54</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1468,15 +1522,18 @@
                 <c:pt idx="5">
                   <c:v>04-12-17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>04-29-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$53</c:f>
+              <c:f>Progress!$D$48:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1495,15 +1552,18 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154794240"/>
-        <c:axId val="154796032"/>
+        <c:axId val="154008192"/>
+        <c:axId val="154009984"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="154794240"/>
+        <c:axId val="154008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154796032"/>
+        <c:crossAx val="154009984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1605,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154796032"/>
+        <c:axId val="154009984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154794240"/>
+        <c:crossAx val="154008192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,7 +1696,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1686,7 +1746,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2094,10 +2154,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2163,7 +2223,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2172,7 +2232,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2180,50 +2240,46 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
-      <c r="B13" s="3" t="s">
-        <v>20</v>
+      <c r="B13" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="B14" s="22"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
-      <c r="B15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="23" t="s">
-        <v>40</v>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>2</v>
@@ -2231,26 +2287,22 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" s="6" customFormat="1">
+      <c r="B19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="23" t="s">
-        <v>33</v>
+      <c r="B20" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
@@ -2258,8 +2310,8 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="24" t="s">
-        <v>42</v>
+      <c r="B21" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
@@ -2268,25 +2320,25 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" s="6" customFormat="1">
+      <c r="B23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="24" t="s">
-        <v>95</v>
+      <c r="B24" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>2</v>
@@ -2294,8 +2346,8 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="23" t="s">
-        <v>71</v>
+      <c r="B25" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>2</v>
@@ -2304,7 +2356,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="24" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2312,31 +2364,35 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22" t="s">
-        <v>44</v>
+      <c r="B27" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22" t="s">
-        <v>47</v>
+      <c r="B28" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="22"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="22" t="s">
-        <v>46</v>
+      <c r="B30" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2344,17 +2400,17 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="20" t="s">
-        <v>48</v>
+      <c r="B31" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="20" t="s">
-        <v>50</v>
+      <c r="B32" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2362,31 +2418,31 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="20" t="s">
-        <v>49</v>
+      <c r="B33" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4" s="6" customFormat="1">
+      <c r="B34" s="22"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4" s="6" customFormat="1">
+      <c r="B35" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="7"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="22" t="s">
-        <v>51</v>
+      <c r="B36" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -2395,16 +2451,16 @@
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
       <c r="B38" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>2</v>
@@ -2412,35 +2468,31 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="23" t="s">
-        <v>59</v>
+      <c r="B39" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="23" t="s">
-        <v>61</v>
+      <c r="B41" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="23" t="s">
-        <v>62</v>
+      <c r="B42" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2448,8 +2500,8 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="23" t="s">
-        <v>91</v>
+      <c r="B43" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2458,34 +2510,34 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="23" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="23" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2494,7 +2546,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2503,30 +2555,34 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22" t="s">
-        <v>67</v>
+      <c r="B52" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>2</v>
@@ -2534,8 +2590,8 @@
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="20" t="s">
-        <v>68</v>
+      <c r="B53" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -2544,7 +2600,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2552,8 +2608,8 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>69</v>
+      <c r="B55" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2566,23 +2622,35 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="22"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="3" t="s">
-        <v>73</v>
+      <c r="B60" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -2595,21 +2663,13 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
@@ -2618,18 +2678,22 @@
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="3" t="s">
-        <v>52</v>
+      <c r="B67" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -2637,40 +2701,32 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="20" t="s">
-        <v>76</v>
+      <c r="B72" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2678,22 +2734,22 @@
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1">
+      <c r="B74" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22" t="s">
-        <v>54</v>
+      <c r="B75" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -2702,7 +2758,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -2711,7 +2767,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="20" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -2719,32 +2775,40 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1">
+      <c r="B80" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20"/>
-      <c r="C80" s="7"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="3" t="s">
-        <v>27</v>
+      <c r="B82" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -2752,17 +2816,13 @@
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="22" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2770,17 +2830,17 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
@@ -2789,54 +2849,46 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="22"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="22"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="20"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1">
+      <c r="B91" s="20"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="2:4" s="6" customFormat="1">
+      <c r="B92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="7" t="s">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" s="6" customFormat="1">
+      <c r="B93" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="43"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="21"/>
-      <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="3" t="s">
-        <v>19</v>
+      <c r="B94" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -2845,7 +2897,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -2853,104 +2905,178 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1">
       <c r="B97" s="22"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1">
-      <c r="B98" s="19"/>
-      <c r="C98" s="4"/>
+      <c r="B98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1">
-      <c r="B99" s="21"/>
-      <c r="C99" s="4"/>
+      <c r="B99" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1">
-      <c r="B100" s="21"/>
-      <c r="C100" s="4"/>
+      <c r="B100" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="3"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="3"/>
-      <c r="B102" s="8" t="s">
+    <row r="101" spans="1:4" s="6" customFormat="1">
+      <c r="B101" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" s="6" customFormat="1">
+      <c r="B102" s="43"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" s="6" customFormat="1">
+      <c r="B103" s="21"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" s="6" customFormat="1">
+      <c r="B104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" s="6" customFormat="1">
+      <c r="B105" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" s="6" customFormat="1">
+      <c r="B106" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" s="6" customFormat="1">
+      <c r="B107" s="22"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" s="6" customFormat="1">
+      <c r="B108" s="19"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" s="6" customFormat="1">
+      <c r="B109" s="21"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" s="6" customFormat="1">
+      <c r="B110" s="21"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3"/>
+      <c r="B112" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="6">
-        <f>COUNTIF(C5:C101,"y")</f>
-        <v>29</v>
-      </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="3"/>
-      <c r="B103" s="8" t="s">
+      <c r="C112" s="6">
+        <f>COUNTIF(C5:C111,"y")</f>
+        <v>31</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3"/>
+      <c r="B113" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="6">
-        <f>COUNTIF(C5:C101,"n")</f>
-        <v>38</v>
-      </c>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="3"/>
-      <c r="B104" s="8" t="s">
+      <c r="C113" s="6">
+        <f>COUNTIF(C5:C111,"n")</f>
+        <v>40</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3"/>
+      <c r="B114" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="7">
-        <f>COUNTIF(C5:C101,"TBD")</f>
+      <c r="C114" s="7">
+        <f>COUNTIF(C5:C111,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="3"/>
-      <c r="B105" s="8" t="s">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3"/>
+      <c r="B115" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C105">
-        <f>SUM(C102:C104)</f>
-        <v>67</v>
-      </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" ht="18">
-      <c r="A106" s="3"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10" t="s">
+      <c r="C115">
+        <f>SUM(C112:C114)</f>
+        <v>71</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" ht="18">
+      <c r="A116" s="3"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="41">
-        <f>C102/(C103+C102 + C104)</f>
-        <v>0.43283582089552236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="3"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="3"/>
+      <c r="D116" s="41">
+        <f>C112/(C113+C112 + C114)</f>
+        <v>0.43661971830985913</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64855">
+  <conditionalFormatting sqref="C1:C3 C6:C64865">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -2972,12 +3098,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT867"/>
+  <dimension ref="A1:IT868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3306,7 +3432,7 @@
         <v>87</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G53" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -3356,19 +3482,34 @@
         <v>94</v>
       </c>
       <c r="G53" s="30">
-        <f t="shared" ref="G53" si="3">B53/SUM(B53:E53)</f>
+        <f t="shared" si="2"/>
         <v>0.43283582089552236</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="12"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="30"/>
+      <c r="A54" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="4">
+        <v>31</v>
+      </c>
+      <c r="C54" s="4">
+        <v>40</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="30">
+        <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
+        <v>0.43661971830985913</v>
+      </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:11">
@@ -3377,84 +3518,84 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="31"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="30"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D57" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="38">
-        <f>MIN(G53)</f>
-        <v>0.43283582089552236</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="39">
-        <f>SUM(B57:D57)</f>
-        <v>67</v>
-      </c>
-      <c r="B57" s="15">
-        <f>Features!C102</f>
-        <v>29</v>
-      </c>
-      <c r="C57" s="16">
-        <f>Features!C103</f>
-        <v>38</v>
-      </c>
-      <c r="D57" s="17">
-        <f>Features!C104</f>
+      <c r="G57" s="38">
+        <f>MIN(G54)</f>
+        <v>0.43661971830985913</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="39">
+        <f>SUM(B58:D58)</f>
+        <v>71</v>
+      </c>
+      <c r="B58" s="15">
+        <f>Features!C112</f>
+        <v>31</v>
+      </c>
+      <c r="C58" s="16">
+        <f>Features!C113</f>
+        <v>40</v>
+      </c>
+      <c r="D58" s="17">
+        <f>Features!C114</f>
         <v>0</v>
       </c>
-      <c r="E57" s="18">
-        <f>MIN(E53)</f>
+      <c r="E58" s="18">
+        <f>MIN(E54)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
-      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
+      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -3464,7 +3605,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -3484,7 +3625,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3504,7 +3645,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3524,7 +3665,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3534,7 +3675,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3553,7 +3694,7 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="7"/>
+      <c r="A70" s="4"/>
       <c r="B70" s="20"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
@@ -3564,7 +3705,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3695,7 +3836,7 @@
     <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -3704,7 +3845,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -3712,15 +3853,15 @@
       <c r="G85" s="30"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="4"/>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" s="2" customFormat="1">
       <c r="A87" s="4"/>
@@ -3894,7 +4035,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="6"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -3904,7 +4045,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -3934,7 +4075,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -3974,7 +4115,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="21"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3984,7 +4125,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3994,7 +4135,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4004,7 +4145,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4014,7 +4155,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4034,7 +4175,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4094,7 +4235,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -4194,7 +4335,7 @@
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1">
       <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -4244,7 +4385,7 @@
     </row>
     <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="19"/>
+      <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -4264,7 +4405,7 @@
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -4303,284 +4444,284 @@
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:254" s="2" customFormat="1">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-      <c r="AA145" s="5"/>
-      <c r="AB145" s="5"/>
-      <c r="AC145" s="5"/>
-      <c r="AD145" s="5"/>
-      <c r="AE145" s="5"/>
-      <c r="AF145" s="5"/>
-      <c r="AG145" s="5"/>
-      <c r="AH145" s="5"/>
-      <c r="AI145" s="5"/>
-      <c r="AJ145" s="5"/>
-      <c r="AK145" s="5"/>
-      <c r="AL145" s="5"/>
-      <c r="AM145" s="5"/>
-      <c r="AN145" s="5"/>
-      <c r="AO145" s="5"/>
-      <c r="AP145" s="5"/>
-      <c r="AQ145" s="5"/>
-      <c r="AR145" s="5"/>
-      <c r="AS145" s="5"/>
-      <c r="AT145" s="5"/>
-      <c r="AU145" s="5"/>
-      <c r="AV145" s="5"/>
-      <c r="AW145" s="5"/>
-      <c r="AX145" s="5"/>
-      <c r="AY145" s="5"/>
-      <c r="AZ145" s="5"/>
-      <c r="BA145" s="5"/>
-      <c r="BB145" s="5"/>
-      <c r="BC145" s="5"/>
-      <c r="BD145" s="5"/>
-      <c r="BE145" s="5"/>
-      <c r="BF145" s="5"/>
-      <c r="BG145" s="5"/>
-      <c r="BH145" s="5"/>
-      <c r="BI145" s="5"/>
-      <c r="BJ145" s="5"/>
-      <c r="BK145" s="5"/>
-      <c r="BL145" s="5"/>
-      <c r="BM145" s="5"/>
-      <c r="BN145" s="5"/>
-      <c r="BO145" s="5"/>
-      <c r="BP145" s="5"/>
-      <c r="BQ145" s="5"/>
-      <c r="BR145" s="5"/>
-      <c r="BS145" s="5"/>
-      <c r="BT145" s="5"/>
-      <c r="BU145" s="5"/>
-      <c r="BV145" s="5"/>
-      <c r="BW145" s="5"/>
-      <c r="BX145" s="5"/>
-      <c r="BY145" s="5"/>
-      <c r="BZ145" s="5"/>
-      <c r="CA145" s="5"/>
-      <c r="CB145" s="5"/>
-      <c r="CC145" s="5"/>
-      <c r="CD145" s="5"/>
-      <c r="CE145" s="5"/>
-      <c r="CF145" s="5"/>
-      <c r="CG145" s="5"/>
-      <c r="CH145" s="5"/>
-      <c r="CI145" s="5"/>
-      <c r="CJ145" s="5"/>
-      <c r="CK145" s="5"/>
-      <c r="CL145" s="5"/>
-      <c r="CM145" s="5"/>
-      <c r="CN145" s="5"/>
-      <c r="CO145" s="5"/>
-      <c r="CP145" s="5"/>
-      <c r="CQ145" s="5"/>
-      <c r="CR145" s="5"/>
-      <c r="CS145" s="5"/>
-      <c r="CT145" s="5"/>
-      <c r="CU145" s="5"/>
-      <c r="CV145" s="5"/>
-      <c r="CW145" s="5"/>
-      <c r="CX145" s="5"/>
-      <c r="CY145" s="5"/>
-      <c r="CZ145" s="5"/>
-      <c r="DA145" s="5"/>
-      <c r="DB145" s="5"/>
-      <c r="DC145" s="5"/>
-      <c r="DD145" s="5"/>
-      <c r="DE145" s="5"/>
-      <c r="DF145" s="5"/>
-      <c r="DG145" s="5"/>
-      <c r="DH145" s="5"/>
-      <c r="DI145" s="5"/>
-      <c r="DJ145" s="5"/>
-      <c r="DK145" s="5"/>
-      <c r="DL145" s="5"/>
-      <c r="DM145" s="5"/>
-      <c r="DN145" s="5"/>
-      <c r="DO145" s="5"/>
-      <c r="DP145" s="5"/>
-      <c r="DQ145" s="5"/>
-      <c r="DR145" s="5"/>
-      <c r="DS145" s="5"/>
-      <c r="DT145" s="5"/>
-      <c r="DU145" s="5"/>
-      <c r="DV145" s="5"/>
-      <c r="DW145" s="5"/>
-      <c r="DX145" s="5"/>
-      <c r="DY145" s="5"/>
-      <c r="DZ145" s="5"/>
-      <c r="EA145" s="5"/>
-      <c r="EB145" s="5"/>
-      <c r="EC145" s="5"/>
-      <c r="ED145" s="5"/>
-      <c r="EE145" s="5"/>
-      <c r="EF145" s="5"/>
-      <c r="EG145" s="5"/>
-      <c r="EH145" s="5"/>
-      <c r="EI145" s="5"/>
-      <c r="EJ145" s="5"/>
-      <c r="EK145" s="5"/>
-      <c r="EL145" s="5"/>
-      <c r="EM145" s="5"/>
-      <c r="EN145" s="5"/>
-      <c r="EO145" s="5"/>
-      <c r="EP145" s="5"/>
-      <c r="EQ145" s="5"/>
-      <c r="ER145" s="5"/>
-      <c r="ES145" s="5"/>
-      <c r="ET145" s="5"/>
-      <c r="EU145" s="5"/>
-      <c r="EV145" s="5"/>
-      <c r="EW145" s="5"/>
-      <c r="EX145" s="5"/>
-      <c r="EY145" s="5"/>
-      <c r="EZ145" s="5"/>
-      <c r="FA145" s="5"/>
-      <c r="FB145" s="5"/>
-      <c r="FC145" s="5"/>
-      <c r="FD145" s="5"/>
-      <c r="FE145" s="5"/>
-      <c r="FF145" s="5"/>
-      <c r="FG145" s="5"/>
-      <c r="FH145" s="5"/>
-      <c r="FI145" s="5"/>
-      <c r="FJ145" s="5"/>
-      <c r="FK145" s="5"/>
-      <c r="FL145" s="5"/>
-      <c r="FM145" s="5"/>
-      <c r="FN145" s="5"/>
-      <c r="FO145" s="5"/>
-      <c r="FP145" s="5"/>
-      <c r="FQ145" s="5"/>
-      <c r="FR145" s="5"/>
-      <c r="FS145" s="5"/>
-      <c r="FT145" s="5"/>
-      <c r="FU145" s="5"/>
-      <c r="FV145" s="5"/>
-      <c r="FW145" s="5"/>
-      <c r="FX145" s="5"/>
-      <c r="FY145" s="5"/>
-      <c r="FZ145" s="5"/>
-      <c r="GA145" s="5"/>
-      <c r="GB145" s="5"/>
-      <c r="GC145" s="5"/>
-      <c r="GD145" s="5"/>
-      <c r="GE145" s="5"/>
-      <c r="GF145" s="5"/>
-      <c r="GG145" s="5"/>
-      <c r="GH145" s="5"/>
-      <c r="GI145" s="5"/>
-      <c r="GJ145" s="5"/>
-      <c r="GK145" s="5"/>
-      <c r="GL145" s="5"/>
-      <c r="GM145" s="5"/>
-      <c r="GN145" s="5"/>
-      <c r="GO145" s="5"/>
-      <c r="GP145" s="5"/>
-      <c r="GQ145" s="5"/>
-      <c r="GR145" s="5"/>
-      <c r="GS145" s="5"/>
-      <c r="GT145" s="5"/>
-      <c r="GU145" s="5"/>
-      <c r="GV145" s="5"/>
-      <c r="GW145" s="5"/>
-      <c r="GX145" s="5"/>
-      <c r="GY145" s="5"/>
-      <c r="GZ145" s="5"/>
-      <c r="HA145" s="5"/>
-      <c r="HB145" s="5"/>
-      <c r="HC145" s="5"/>
-      <c r="HD145" s="5"/>
-      <c r="HE145" s="5"/>
-      <c r="HF145" s="5"/>
-      <c r="HG145" s="5"/>
-      <c r="HH145" s="5"/>
-      <c r="HI145" s="5"/>
-      <c r="HJ145" s="5"/>
-      <c r="HK145" s="5"/>
-      <c r="HL145" s="5"/>
-      <c r="HM145" s="5"/>
-      <c r="HN145" s="5"/>
-      <c r="HO145" s="5"/>
-      <c r="HP145" s="5"/>
-      <c r="HQ145" s="5"/>
-      <c r="HR145" s="5"/>
-      <c r="HS145" s="5"/>
-      <c r="HT145" s="5"/>
-      <c r="HU145" s="5"/>
-      <c r="HV145" s="5"/>
-      <c r="HW145" s="5"/>
-      <c r="HX145" s="5"/>
-      <c r="HY145" s="5"/>
-      <c r="HZ145" s="5"/>
-      <c r="IA145" s="5"/>
-      <c r="IB145" s="5"/>
-      <c r="IC145" s="5"/>
-      <c r="ID145" s="5"/>
-      <c r="IE145" s="5"/>
-      <c r="IF145" s="5"/>
-      <c r="IG145" s="5"/>
-      <c r="IH145" s="5"/>
-      <c r="II145" s="5"/>
-      <c r="IJ145" s="5"/>
-      <c r="IK145" s="5"/>
-      <c r="IL145" s="5"/>
-      <c r="IM145" s="5"/>
-      <c r="IN145" s="5"/>
-      <c r="IO145" s="5"/>
-      <c r="IP145" s="5"/>
-      <c r="IQ145" s="5"/>
-      <c r="IR145" s="5"/>
-      <c r="IS145" s="5"/>
-      <c r="IT145" s="5"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:254">
-      <c r="A147" s="7"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="7"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+      <c r="AJ146" s="5"/>
+      <c r="AK146" s="5"/>
+      <c r="AL146" s="5"/>
+      <c r="AM146" s="5"/>
+      <c r="AN146" s="5"/>
+      <c r="AO146" s="5"/>
+      <c r="AP146" s="5"/>
+      <c r="AQ146" s="5"/>
+      <c r="AR146" s="5"/>
+      <c r="AS146" s="5"/>
+      <c r="AT146" s="5"/>
+      <c r="AU146" s="5"/>
+      <c r="AV146" s="5"/>
+      <c r="AW146" s="5"/>
+      <c r="AX146" s="5"/>
+      <c r="AY146" s="5"/>
+      <c r="AZ146" s="5"/>
+      <c r="BA146" s="5"/>
+      <c r="BB146" s="5"/>
+      <c r="BC146" s="5"/>
+      <c r="BD146" s="5"/>
+      <c r="BE146" s="5"/>
+      <c r="BF146" s="5"/>
+      <c r="BG146" s="5"/>
+      <c r="BH146" s="5"/>
+      <c r="BI146" s="5"/>
+      <c r="BJ146" s="5"/>
+      <c r="BK146" s="5"/>
+      <c r="BL146" s="5"/>
+      <c r="BM146" s="5"/>
+      <c r="BN146" s="5"/>
+      <c r="BO146" s="5"/>
+      <c r="BP146" s="5"/>
+      <c r="BQ146" s="5"/>
+      <c r="BR146" s="5"/>
+      <c r="BS146" s="5"/>
+      <c r="BT146" s="5"/>
+      <c r="BU146" s="5"/>
+      <c r="BV146" s="5"/>
+      <c r="BW146" s="5"/>
+      <c r="BX146" s="5"/>
+      <c r="BY146" s="5"/>
+      <c r="BZ146" s="5"/>
+      <c r="CA146" s="5"/>
+      <c r="CB146" s="5"/>
+      <c r="CC146" s="5"/>
+      <c r="CD146" s="5"/>
+      <c r="CE146" s="5"/>
+      <c r="CF146" s="5"/>
+      <c r="CG146" s="5"/>
+      <c r="CH146" s="5"/>
+      <c r="CI146" s="5"/>
+      <c r="CJ146" s="5"/>
+      <c r="CK146" s="5"/>
+      <c r="CL146" s="5"/>
+      <c r="CM146" s="5"/>
+      <c r="CN146" s="5"/>
+      <c r="CO146" s="5"/>
+      <c r="CP146" s="5"/>
+      <c r="CQ146" s="5"/>
+      <c r="CR146" s="5"/>
+      <c r="CS146" s="5"/>
+      <c r="CT146" s="5"/>
+      <c r="CU146" s="5"/>
+      <c r="CV146" s="5"/>
+      <c r="CW146" s="5"/>
+      <c r="CX146" s="5"/>
+      <c r="CY146" s="5"/>
+      <c r="CZ146" s="5"/>
+      <c r="DA146" s="5"/>
+      <c r="DB146" s="5"/>
+      <c r="DC146" s="5"/>
+      <c r="DD146" s="5"/>
+      <c r="DE146" s="5"/>
+      <c r="DF146" s="5"/>
+      <c r="DG146" s="5"/>
+      <c r="DH146" s="5"/>
+      <c r="DI146" s="5"/>
+      <c r="DJ146" s="5"/>
+      <c r="DK146" s="5"/>
+      <c r="DL146" s="5"/>
+      <c r="DM146" s="5"/>
+      <c r="DN146" s="5"/>
+      <c r="DO146" s="5"/>
+      <c r="DP146" s="5"/>
+      <c r="DQ146" s="5"/>
+      <c r="DR146" s="5"/>
+      <c r="DS146" s="5"/>
+      <c r="DT146" s="5"/>
+      <c r="DU146" s="5"/>
+      <c r="DV146" s="5"/>
+      <c r="DW146" s="5"/>
+      <c r="DX146" s="5"/>
+      <c r="DY146" s="5"/>
+      <c r="DZ146" s="5"/>
+      <c r="EA146" s="5"/>
+      <c r="EB146" s="5"/>
+      <c r="EC146" s="5"/>
+      <c r="ED146" s="5"/>
+      <c r="EE146" s="5"/>
+      <c r="EF146" s="5"/>
+      <c r="EG146" s="5"/>
+      <c r="EH146" s="5"/>
+      <c r="EI146" s="5"/>
+      <c r="EJ146" s="5"/>
+      <c r="EK146" s="5"/>
+      <c r="EL146" s="5"/>
+      <c r="EM146" s="5"/>
+      <c r="EN146" s="5"/>
+      <c r="EO146" s="5"/>
+      <c r="EP146" s="5"/>
+      <c r="EQ146" s="5"/>
+      <c r="ER146" s="5"/>
+      <c r="ES146" s="5"/>
+      <c r="ET146" s="5"/>
+      <c r="EU146" s="5"/>
+      <c r="EV146" s="5"/>
+      <c r="EW146" s="5"/>
+      <c r="EX146" s="5"/>
+      <c r="EY146" s="5"/>
+      <c r="EZ146" s="5"/>
+      <c r="FA146" s="5"/>
+      <c r="FB146" s="5"/>
+      <c r="FC146" s="5"/>
+      <c r="FD146" s="5"/>
+      <c r="FE146" s="5"/>
+      <c r="FF146" s="5"/>
+      <c r="FG146" s="5"/>
+      <c r="FH146" s="5"/>
+      <c r="FI146" s="5"/>
+      <c r="FJ146" s="5"/>
+      <c r="FK146" s="5"/>
+      <c r="FL146" s="5"/>
+      <c r="FM146" s="5"/>
+      <c r="FN146" s="5"/>
+      <c r="FO146" s="5"/>
+      <c r="FP146" s="5"/>
+      <c r="FQ146" s="5"/>
+      <c r="FR146" s="5"/>
+      <c r="FS146" s="5"/>
+      <c r="FT146" s="5"/>
+      <c r="FU146" s="5"/>
+      <c r="FV146" s="5"/>
+      <c r="FW146" s="5"/>
+      <c r="FX146" s="5"/>
+      <c r="FY146" s="5"/>
+      <c r="FZ146" s="5"/>
+      <c r="GA146" s="5"/>
+      <c r="GB146" s="5"/>
+      <c r="GC146" s="5"/>
+      <c r="GD146" s="5"/>
+      <c r="GE146" s="5"/>
+      <c r="GF146" s="5"/>
+      <c r="GG146" s="5"/>
+      <c r="GH146" s="5"/>
+      <c r="GI146" s="5"/>
+      <c r="GJ146" s="5"/>
+      <c r="GK146" s="5"/>
+      <c r="GL146" s="5"/>
+      <c r="GM146" s="5"/>
+      <c r="GN146" s="5"/>
+      <c r="GO146" s="5"/>
+      <c r="GP146" s="5"/>
+      <c r="GQ146" s="5"/>
+      <c r="GR146" s="5"/>
+      <c r="GS146" s="5"/>
+      <c r="GT146" s="5"/>
+      <c r="GU146" s="5"/>
+      <c r="GV146" s="5"/>
+      <c r="GW146" s="5"/>
+      <c r="GX146" s="5"/>
+      <c r="GY146" s="5"/>
+      <c r="GZ146" s="5"/>
+      <c r="HA146" s="5"/>
+      <c r="HB146" s="5"/>
+      <c r="HC146" s="5"/>
+      <c r="HD146" s="5"/>
+      <c r="HE146" s="5"/>
+      <c r="HF146" s="5"/>
+      <c r="HG146" s="5"/>
+      <c r="HH146" s="5"/>
+      <c r="HI146" s="5"/>
+      <c r="HJ146" s="5"/>
+      <c r="HK146" s="5"/>
+      <c r="HL146" s="5"/>
+      <c r="HM146" s="5"/>
+      <c r="HN146" s="5"/>
+      <c r="HO146" s="5"/>
+      <c r="HP146" s="5"/>
+      <c r="HQ146" s="5"/>
+      <c r="HR146" s="5"/>
+      <c r="HS146" s="5"/>
+      <c r="HT146" s="5"/>
+      <c r="HU146" s="5"/>
+      <c r="HV146" s="5"/>
+      <c r="HW146" s="5"/>
+      <c r="HX146" s="5"/>
+      <c r="HY146" s="5"/>
+      <c r="HZ146" s="5"/>
+      <c r="IA146" s="5"/>
+      <c r="IB146" s="5"/>
+      <c r="IC146" s="5"/>
+      <c r="ID146" s="5"/>
+      <c r="IE146" s="5"/>
+      <c r="IF146" s="5"/>
+      <c r="IG146" s="5"/>
+      <c r="IH146" s="5"/>
+      <c r="II146" s="5"/>
+      <c r="IJ146" s="5"/>
+      <c r="IK146" s="5"/>
+      <c r="IL146" s="5"/>
+      <c r="IM146" s="5"/>
+      <c r="IN146" s="5"/>
+      <c r="IO146" s="5"/>
+      <c r="IP146" s="5"/>
+      <c r="IQ146" s="5"/>
+      <c r="IR146" s="5"/>
+      <c r="IS146" s="5"/>
+      <c r="IT146" s="5"/>
+    </row>
+    <row r="147" spans="1:254" s="2" customFormat="1">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:254">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -4590,7 +4731,7 @@
     </row>
     <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="20"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -4600,7 +4741,7 @@
     </row>
     <row r="150" spans="1:254">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -4611,7 +4752,7 @@
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
@@ -4651,7 +4792,7 @@
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
+      <c r="C155" s="4"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -4660,7 +4801,7 @@
     </row>
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
-      <c r="B156" s="22"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -4680,7 +4821,7 @@
     </row>
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -4690,7 +4831,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -4710,7 +4851,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -4730,7 +4871,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -4749,10 +4890,8 @@
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B165" s="7"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -4761,7 +4900,9 @@
       <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="7"/>
+      <c r="A166" s="45">
+        <v>43011</v>
+      </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -4772,7 +4913,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -4792,7 +4933,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -4832,7 +4973,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="6"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -4842,8 +4983,8 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
@@ -4852,7 +4993,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="19"/>
+      <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -4922,7 +5063,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="4"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -4932,7 +5073,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -4942,7 +5083,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="21"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -4962,7 +5103,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="19"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -5003,7 +5144,7 @@
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
       <c r="B190" s="19"/>
-      <c r="C190" s="7"/>
+      <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -5012,7 +5153,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -5032,7 +5173,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="19"/>
+      <c r="B193" s="4"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -5092,7 +5233,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="21"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -5132,7 +5273,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -5142,7 +5283,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="6"/>
+      <c r="B204" s="4"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -5152,7 +5293,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="6"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -5162,7 +5303,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="19"/>
+      <c r="B206" s="4"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -5212,7 +5353,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="21"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -5222,7 +5363,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="19"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -5272,7 +5413,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="21"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -5332,7 +5473,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="4"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -5342,7 +5483,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="6"/>
+      <c r="B224" s="4"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5352,8 +5493,8 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
@@ -5362,7 +5503,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="19"/>
+      <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -5372,7 +5513,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -5382,7 +5523,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="20"/>
+      <c r="B228" s="7"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5422,7 +5563,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5432,7 +5573,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="7"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -5442,7 +5583,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="23"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -5462,7 +5603,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="23"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -5502,7 +5643,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -5512,7 +5653,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="7"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -5562,7 +5703,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -5572,8 +5713,8 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="7"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
@@ -5582,7 +5723,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -5592,7 +5733,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="20"/>
+      <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -5602,7 +5743,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="23"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -5652,8 +5793,8 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="4"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
@@ -5662,7 +5803,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="23"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -5672,7 +5813,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="24"/>
+      <c r="B257" s="23"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -5700,9 +5841,9 @@
       <c r="G259" s="30"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8" ht="11.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="25"/>
+      <c r="B260" s="24"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -5710,9 +5851,9 @@
       <c r="G260" s="30"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" ht="11.25">
       <c r="A261" s="7"/>
-      <c r="B261" s="23"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -5752,7 +5893,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -5782,7 +5923,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="23"/>
+      <c r="B268" s="24"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -5792,7 +5933,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -5800,15 +5941,15 @@
       <c r="G269" s="30"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="1:8" s="2" customFormat="1">
-      <c r="A270" s="4"/>
+    <row r="270" spans="1:8">
+      <c r="A270" s="7"/>
       <c r="B270" s="24"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
-      <c r="G270" s="34"/>
-      <c r="H270" s="4"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="30"/>
+      <c r="H270" s="7"/>
     </row>
     <row r="271" spans="1:8" s="2" customFormat="1">
       <c r="A271" s="4"/>
@@ -5820,19 +5961,19 @@
       <c r="G271" s="34"/>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="7"/>
+    <row r="272" spans="1:8" s="2" customFormat="1">
+      <c r="A272" s="4"/>
       <c r="B272" s="24"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="7"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="30"/>
-      <c r="H272" s="7"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+      <c r="G272" s="34"/>
+      <c r="H272" s="4"/>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="23"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -5842,7 +5983,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -5872,7 +6013,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="22"/>
+      <c r="B277" s="24"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -5882,7 +6023,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -5902,7 +6043,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="20"/>
+      <c r="B280" s="7"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -5922,7 +6063,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -5953,7 +6094,7 @@
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
-      <c r="C285" s="7"/>
+      <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
@@ -5962,7 +6103,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="6"/>
+      <c r="B286" s="7"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -5972,7 +6113,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="6"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -6052,7 +6193,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="6"/>
+      <c r="B295" s="7"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -6062,8 +6203,8 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
@@ -6072,7 +6213,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="19"/>
+      <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -6102,7 +6243,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="4"/>
+      <c r="B300" s="19"/>
       <c r="C300" s="4"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -6162,7 +6303,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="19"/>
+      <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -6182,7 +6323,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="21"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -6192,8 +6333,8 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="7"/>
-      <c r="C309" s="7"/>
+      <c r="B309" s="21"/>
+      <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
@@ -6202,7 +6343,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="6"/>
+      <c r="B310" s="7"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -6210,15 +6351,15 @@
       <c r="G310" s="30"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="1:8" s="2" customFormat="1">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
-      <c r="G311" s="34"/>
-      <c r="H311" s="4"/>
+    <row r="311" spans="1:8">
+      <c r="A311" s="7"/>
+      <c r="B311" s="6"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" s="30"/>
+      <c r="H311" s="7"/>
     </row>
     <row r="312" spans="1:8" s="2" customFormat="1">
       <c r="A312" s="4"/>
@@ -6242,7 +6383,7 @@
     </row>
     <row r="314" spans="1:8" s="2" customFormat="1">
       <c r="A314" s="4"/>
-      <c r="B314" s="19"/>
+      <c r="B314" s="4"/>
       <c r="C314" s="9"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -6292,8 +6433,8 @@
     </row>
     <row r="319" spans="1:8" s="2" customFormat="1">
       <c r="A319" s="4"/>
-      <c r="B319" s="26"/>
-      <c r="C319" s="4"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="9"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -6342,7 +6483,7 @@
     </row>
     <row r="324" spans="1:8" s="2" customFormat="1">
       <c r="A324" s="4"/>
-      <c r="B324" s="21"/>
+      <c r="B324" s="26"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -6392,7 +6533,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="19"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -6402,7 +6543,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="21"/>
+      <c r="B330" s="19"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -6412,7 +6553,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -6420,20 +6561,20 @@
       <c r="G331" s="34"/>
       <c r="H331" s="4"/>
     </row>
-    <row r="332" spans="1:8">
-      <c r="A332" s="7"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="7"/>
-      <c r="D332" s="7"/>
-      <c r="E332" s="7"/>
-      <c r="F332" s="7"/>
-      <c r="G332" s="30"/>
-      <c r="H332" s="7"/>
+    <row r="332" spans="1:8" s="2" customFormat="1">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+      <c r="G332" s="34"/>
+      <c r="H332" s="4"/>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="7"/>
-      <c r="B333" s="7"/>
-      <c r="C333" s="4"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
@@ -6502,7 +6643,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="4"/>
+      <c r="B340" s="7"/>
       <c r="C340" s="4"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -6513,7 +6654,7 @@
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="7"/>
+      <c r="C341" s="4"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
@@ -6522,7 +6663,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="6"/>
+      <c r="B342" s="4"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -6532,7 +6673,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="6"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -6542,7 +6683,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="22"/>
+      <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -6552,7 +6693,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="B345" s="22"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -6592,7 +6733,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="6"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -6602,7 +6743,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="6"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -6612,7 +6753,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="20"/>
+      <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -6642,7 +6783,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="22"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -6652,7 +6793,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6672,7 +6813,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -6682,7 +6823,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -6692,7 +6833,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="22"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -6702,7 +6843,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="20"/>
+      <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -6732,7 +6873,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -6742,7 +6883,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="27"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -6752,7 +6893,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="22"/>
+      <c r="B365" s="27"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -6762,8 +6903,8 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
-      <c r="C366" s="4"/>
+      <c r="B366" s="22"/>
+      <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
@@ -6772,7 +6913,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="20"/>
+      <c r="B367" s="7"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -6802,7 +6943,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="20"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -6832,7 +6973,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="20"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -6852,8 +6993,8 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
-      <c r="C375" s="7"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="4"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
@@ -6862,7 +7003,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="6"/>
+      <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -6872,7 +7013,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="B377" s="6"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -6932,7 +7073,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="6"/>
+      <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -6942,7 +7083,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="6"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -6963,7 +7104,7 @@
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
-      <c r="C386" s="4"/>
+      <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
@@ -6972,7 +7113,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="20"/>
+      <c r="B387" s="7"/>
       <c r="C387" s="4"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -6983,7 +7124,7 @@
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
       <c r="B388" s="20"/>
-      <c r="C388" s="7"/>
+      <c r="C388" s="4"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
@@ -6992,7 +7133,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="27"/>
+      <c r="B389" s="20"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -7002,7 +7143,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="22"/>
+      <c r="B390" s="27"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -7052,7 +7193,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="22"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7062,7 +7203,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="6"/>
+      <c r="B396" s="7"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -7072,7 +7213,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="6"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7082,7 +7223,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="20"/>
+      <c r="B398" s="7"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7092,7 +7233,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="22"/>
+      <c r="B399" s="20"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -7112,7 +7253,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="20"/>
+      <c r="B401" s="22"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7152,7 +7293,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7162,7 +7303,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="20"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7182,7 +7323,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="22"/>
+      <c r="B408" s="20"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -7192,7 +7333,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="22"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7202,7 +7343,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7212,7 +7353,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7232,7 +7373,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="6"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7242,7 +7383,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="6"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7252,7 +7393,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="20"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7272,7 +7413,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="20"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -7282,7 +7423,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -7292,7 +7433,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -7342,7 +7483,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -7352,7 +7493,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -7412,7 +7553,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -7422,7 +7563,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -7442,7 +7583,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -7452,7 +7593,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="4"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -7472,7 +7613,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="4"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -7502,7 +7643,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="7"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -7512,8 +7653,8 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
-      <c r="C441" s="4"/>
+      <c r="B441" s="6"/>
+      <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
@@ -7563,7 +7704,7 @@
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
-      <c r="C446" s="7"/>
+      <c r="C446" s="4"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -7572,7 +7713,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="6"/>
+      <c r="B447" s="7"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -7582,8 +7723,8 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
-      <c r="C448" s="4"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -7623,7 +7764,7 @@
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
-      <c r="C452" s="7"/>
+      <c r="C452" s="4"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
@@ -7632,7 +7773,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="7"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -7642,7 +7783,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="22"/>
+      <c r="B454" s="6"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -7702,7 +7843,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
+      <c r="B460" s="22"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -7712,7 +7853,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="7"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -7722,7 +7863,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="22"/>
+      <c r="B462" s="6"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -7751,8 +7892,8 @@
       <c r="H464" s="7"/>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="6"/>
-      <c r="B465" s="7"/>
+      <c r="A465" s="7"/>
+      <c r="B465" s="22"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -7761,7 +7902,7 @@
       <c r="H465" s="7"/>
     </row>
     <row r="466" spans="1:8">
-      <c r="A466" s="7"/>
+      <c r="A466" s="6"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
@@ -7802,7 +7943,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="28"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -7832,7 +7973,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
+      <c r="B473" s="28"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -7842,7 +7983,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="28"/>
+      <c r="B474" s="7"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -7852,7 +7993,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
+      <c r="B475" s="28"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -7862,21 +8003,21 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="29"/>
-      <c r="C476" s="30"/>
+      <c r="B476" s="7"/>
+      <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
-      <c r="F476" s="29"/>
+      <c r="F476" s="7"/>
       <c r="G476" s="30"/>
       <c r="H476" s="7"/>
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
-      <c r="C477" s="7"/>
+      <c r="B477" s="29"/>
+      <c r="C477" s="30"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
-      <c r="F477" s="7"/>
+      <c r="F477" s="29"/>
       <c r="G477" s="30"/>
       <c r="H477" s="7"/>
     </row>
@@ -11780,6 +11921,16 @@
       <c r="G867" s="30"/>
       <c r="H867" s="7"/>
     </row>
+    <row r="868" spans="1:8">
+      <c r="A868" s="7"/>
+      <c r="B868" s="7"/>
+      <c r="C868" s="7"/>
+      <c r="D868" s="7"/>
+      <c r="E868" s="7"/>
+      <c r="F868" s="7"/>
+      <c r="G868" s="30"/>
+      <c r="H868" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>Feature</t>
   </si>
@@ -325,6 +325,12 @@
   <si>
     <t>parses xml</t>
   </si>
+  <si>
+    <t>04-30-2017</t>
+  </si>
+  <si>
+    <t>0.00.07</t>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +585,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955058"/>
+          <c:w val="0.9197807133095508"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -612,9 +618,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -636,15 +642,18 @@
                 <c:pt idx="6">
                   <c:v>04-29-2017</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>04-30-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$54</c:f>
+              <c:f>Progress!$B$48:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -664,6 +673,9 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -697,9 +709,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -721,15 +733,18 @@
                 <c:pt idx="6">
                   <c:v>04-29-2017</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>04-30-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$54</c:f>
+              <c:f>Progress!$C$48:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -749,6 +764,9 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -782,9 +800,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -806,15 +824,18 @@
                 <c:pt idx="6">
                   <c:v>04-29-2017</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>04-30-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$54</c:f>
+              <c:f>Progress!$D$48:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -834,6 +855,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -867,9 +891,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$54</c:f>
+              <c:f>Progress!$A$47:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -894,15 +918,18 @@
                 <c:pt idx="7">
                   <c:v>04-29-2017</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>04-30-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$54</c:f>
+              <c:f>Progress!$E$48:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -924,15 +951,18 @@
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154333184"/>
-        <c:axId val="154334720"/>
+        <c:axId val="125754752"/>
+        <c:axId val="125506688"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="154333184"/>
+        <c:axId val="125754752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154334720"/>
+        <c:crossAx val="125506688"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -975,7 +1005,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="154334720"/>
+        <c:axId val="125506688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154333184"/>
+        <c:crossAx val="125754752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,7 +1070,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844497"/>
+          <c:y val="0.37277147487844503"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1107,7 +1137,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001277" r="0.75000000000001277" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1161,7 +1191,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127428E-2"/>
+          <c:x val="4.4510450248127442E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1196,9 +1226,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1220,15 +1250,18 @@
                 <c:pt idx="6">
                   <c:v>04-29-2017</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>04-30-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$54</c:f>
+              <c:f>Progress!$G$48:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1250,15 +1283,18 @@
                 <c:pt idx="6">
                   <c:v>0.43661971830985913</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43661971830985913</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153985792"/>
-        <c:axId val="153987328"/>
+        <c:axId val="125542784"/>
+        <c:axId val="125544320"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="153985792"/>
+        <c:axId val="125542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,14 +1302,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="153987328"/>
+        <c:crossAx val="125544320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153987328"/>
+        <c:axId val="125544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1316,7 +1352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153985792"/>
+        <c:crossAx val="125542784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1365,7 +1401,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001277" r="0.75000000000001277" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1416,9 +1452,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1440,15 +1476,18 @@
                 <c:pt idx="6">
                   <c:v>04-29-2017</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>04-30-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$54</c:f>
+              <c:f>Progress!$C$48:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1468,6 +1507,9 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -1501,9 +1543,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1525,15 +1567,18 @@
                 <c:pt idx="6">
                   <c:v>04-29-2017</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>04-30-2017</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$54</c:f>
+              <c:f>Progress!$D$48:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1555,15 +1600,18 @@
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154008192"/>
-        <c:axId val="154009984"/>
+        <c:axId val="125565184"/>
+        <c:axId val="125566976"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="154008192"/>
+        <c:axId val="125565184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154009984"/>
+        <c:crossAx val="125566976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1653,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154009984"/>
+        <c:axId val="125566976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154008192"/>
+        <c:crossAx val="125565184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1696,7 +1744,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001277" r="0.75000000000001277" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1746,7 +1794,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2156,7 +2204,7 @@
   </sheetPr>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3098,12 +3146,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT868"/>
+  <dimension ref="A1:IT869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3432,7 +3480,7 @@
         <v>87</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G53" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G54" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -3507,19 +3555,34 @@
         <v>97</v>
       </c>
       <c r="G54" s="30">
-        <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
+        <f t="shared" si="2"/>
         <v>0.43661971830985913</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="12"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="30"/>
+      <c r="A55" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="4">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4">
+        <v>40</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="30">
+        <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
+        <v>0.43661971830985913</v>
+      </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:11">
@@ -3528,84 +3591,84 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="31"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F58" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="38">
-        <f>MIN(G54)</f>
+      <c r="G58" s="38">
+        <f>MIN(G55)</f>
         <v>0.43661971830985913</v>
       </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="39">
-        <f>SUM(B58:D58)</f>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="39">
+        <f>SUM(B59:D59)</f>
         <v>71</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B59" s="15">
         <f>Features!C112</f>
         <v>31</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C59" s="16">
         <f>Features!C113</f>
         <v>40</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <f>Features!C114</f>
         <v>0</v>
       </c>
-      <c r="E58" s="18">
-        <f>MIN(E54)</f>
+      <c r="E59" s="18">
+        <f>MIN(E55)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
-      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
+      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -3615,7 +3678,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -3635,7 +3698,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3655,7 +3718,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3675,7 +3738,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3685,7 +3748,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3704,7 +3767,7 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="20"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
@@ -3715,7 +3778,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -3846,7 +3909,7 @@
     <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -3855,7 +3918,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -3863,15 +3926,15 @@
       <c r="G86" s="30"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="4"/>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="4"/>
@@ -4045,7 +4108,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="6"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -4055,7 +4118,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4085,7 +4148,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4125,7 +4188,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="21"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4135,7 +4198,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4145,7 +4208,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="6"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4155,7 +4218,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4165,7 +4228,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4185,7 +4248,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4245,7 +4308,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -4345,7 +4408,7 @@
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -4395,7 +4458,7 @@
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="19"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -4415,7 +4478,7 @@
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -4454,284 +4517,284 @@
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
-      <c r="Z146" s="5"/>
-      <c r="AA146" s="5"/>
-      <c r="AB146" s="5"/>
-      <c r="AC146" s="5"/>
-      <c r="AD146" s="5"/>
-      <c r="AE146" s="5"/>
-      <c r="AF146" s="5"/>
-      <c r="AG146" s="5"/>
-      <c r="AH146" s="5"/>
-      <c r="AI146" s="5"/>
-      <c r="AJ146" s="5"/>
-      <c r="AK146" s="5"/>
-      <c r="AL146" s="5"/>
-      <c r="AM146" s="5"/>
-      <c r="AN146" s="5"/>
-      <c r="AO146" s="5"/>
-      <c r="AP146" s="5"/>
-      <c r="AQ146" s="5"/>
-      <c r="AR146" s="5"/>
-      <c r="AS146" s="5"/>
-      <c r="AT146" s="5"/>
-      <c r="AU146" s="5"/>
-      <c r="AV146" s="5"/>
-      <c r="AW146" s="5"/>
-      <c r="AX146" s="5"/>
-      <c r="AY146" s="5"/>
-      <c r="AZ146" s="5"/>
-      <c r="BA146" s="5"/>
-      <c r="BB146" s="5"/>
-      <c r="BC146" s="5"/>
-      <c r="BD146" s="5"/>
-      <c r="BE146" s="5"/>
-      <c r="BF146" s="5"/>
-      <c r="BG146" s="5"/>
-      <c r="BH146" s="5"/>
-      <c r="BI146" s="5"/>
-      <c r="BJ146" s="5"/>
-      <c r="BK146" s="5"/>
-      <c r="BL146" s="5"/>
-      <c r="BM146" s="5"/>
-      <c r="BN146" s="5"/>
-      <c r="BO146" s="5"/>
-      <c r="BP146" s="5"/>
-      <c r="BQ146" s="5"/>
-      <c r="BR146" s="5"/>
-      <c r="BS146" s="5"/>
-      <c r="BT146" s="5"/>
-      <c r="BU146" s="5"/>
-      <c r="BV146" s="5"/>
-      <c r="BW146" s="5"/>
-      <c r="BX146" s="5"/>
-      <c r="BY146" s="5"/>
-      <c r="BZ146" s="5"/>
-      <c r="CA146" s="5"/>
-      <c r="CB146" s="5"/>
-      <c r="CC146" s="5"/>
-      <c r="CD146" s="5"/>
-      <c r="CE146" s="5"/>
-      <c r="CF146" s="5"/>
-      <c r="CG146" s="5"/>
-      <c r="CH146" s="5"/>
-      <c r="CI146" s="5"/>
-      <c r="CJ146" s="5"/>
-      <c r="CK146" s="5"/>
-      <c r="CL146" s="5"/>
-      <c r="CM146" s="5"/>
-      <c r="CN146" s="5"/>
-      <c r="CO146" s="5"/>
-      <c r="CP146" s="5"/>
-      <c r="CQ146" s="5"/>
-      <c r="CR146" s="5"/>
-      <c r="CS146" s="5"/>
-      <c r="CT146" s="5"/>
-      <c r="CU146" s="5"/>
-      <c r="CV146" s="5"/>
-      <c r="CW146" s="5"/>
-      <c r="CX146" s="5"/>
-      <c r="CY146" s="5"/>
-      <c r="CZ146" s="5"/>
-      <c r="DA146" s="5"/>
-      <c r="DB146" s="5"/>
-      <c r="DC146" s="5"/>
-      <c r="DD146" s="5"/>
-      <c r="DE146" s="5"/>
-      <c r="DF146" s="5"/>
-      <c r="DG146" s="5"/>
-      <c r="DH146" s="5"/>
-      <c r="DI146" s="5"/>
-      <c r="DJ146" s="5"/>
-      <c r="DK146" s="5"/>
-      <c r="DL146" s="5"/>
-      <c r="DM146" s="5"/>
-      <c r="DN146" s="5"/>
-      <c r="DO146" s="5"/>
-      <c r="DP146" s="5"/>
-      <c r="DQ146" s="5"/>
-      <c r="DR146" s="5"/>
-      <c r="DS146" s="5"/>
-      <c r="DT146" s="5"/>
-      <c r="DU146" s="5"/>
-      <c r="DV146" s="5"/>
-      <c r="DW146" s="5"/>
-      <c r="DX146" s="5"/>
-      <c r="DY146" s="5"/>
-      <c r="DZ146" s="5"/>
-      <c r="EA146" s="5"/>
-      <c r="EB146" s="5"/>
-      <c r="EC146" s="5"/>
-      <c r="ED146" s="5"/>
-      <c r="EE146" s="5"/>
-      <c r="EF146" s="5"/>
-      <c r="EG146" s="5"/>
-      <c r="EH146" s="5"/>
-      <c r="EI146" s="5"/>
-      <c r="EJ146" s="5"/>
-      <c r="EK146" s="5"/>
-      <c r="EL146" s="5"/>
-      <c r="EM146" s="5"/>
-      <c r="EN146" s="5"/>
-      <c r="EO146" s="5"/>
-      <c r="EP146" s="5"/>
-      <c r="EQ146" s="5"/>
-      <c r="ER146" s="5"/>
-      <c r="ES146" s="5"/>
-      <c r="ET146" s="5"/>
-      <c r="EU146" s="5"/>
-      <c r="EV146" s="5"/>
-      <c r="EW146" s="5"/>
-      <c r="EX146" s="5"/>
-      <c r="EY146" s="5"/>
-      <c r="EZ146" s="5"/>
-      <c r="FA146" s="5"/>
-      <c r="FB146" s="5"/>
-      <c r="FC146" s="5"/>
-      <c r="FD146" s="5"/>
-      <c r="FE146" s="5"/>
-      <c r="FF146" s="5"/>
-      <c r="FG146" s="5"/>
-      <c r="FH146" s="5"/>
-      <c r="FI146" s="5"/>
-      <c r="FJ146" s="5"/>
-      <c r="FK146" s="5"/>
-      <c r="FL146" s="5"/>
-      <c r="FM146" s="5"/>
-      <c r="FN146" s="5"/>
-      <c r="FO146" s="5"/>
-      <c r="FP146" s="5"/>
-      <c r="FQ146" s="5"/>
-      <c r="FR146" s="5"/>
-      <c r="FS146" s="5"/>
-      <c r="FT146" s="5"/>
-      <c r="FU146" s="5"/>
-      <c r="FV146" s="5"/>
-      <c r="FW146" s="5"/>
-      <c r="FX146" s="5"/>
-      <c r="FY146" s="5"/>
-      <c r="FZ146" s="5"/>
-      <c r="GA146" s="5"/>
-      <c r="GB146" s="5"/>
-      <c r="GC146" s="5"/>
-      <c r="GD146" s="5"/>
-      <c r="GE146" s="5"/>
-      <c r="GF146" s="5"/>
-      <c r="GG146" s="5"/>
-      <c r="GH146" s="5"/>
-      <c r="GI146" s="5"/>
-      <c r="GJ146" s="5"/>
-      <c r="GK146" s="5"/>
-      <c r="GL146" s="5"/>
-      <c r="GM146" s="5"/>
-      <c r="GN146" s="5"/>
-      <c r="GO146" s="5"/>
-      <c r="GP146" s="5"/>
-      <c r="GQ146" s="5"/>
-      <c r="GR146" s="5"/>
-      <c r="GS146" s="5"/>
-      <c r="GT146" s="5"/>
-      <c r="GU146" s="5"/>
-      <c r="GV146" s="5"/>
-      <c r="GW146" s="5"/>
-      <c r="GX146" s="5"/>
-      <c r="GY146" s="5"/>
-      <c r="GZ146" s="5"/>
-      <c r="HA146" s="5"/>
-      <c r="HB146" s="5"/>
-      <c r="HC146" s="5"/>
-      <c r="HD146" s="5"/>
-      <c r="HE146" s="5"/>
-      <c r="HF146" s="5"/>
-      <c r="HG146" s="5"/>
-      <c r="HH146" s="5"/>
-      <c r="HI146" s="5"/>
-      <c r="HJ146" s="5"/>
-      <c r="HK146" s="5"/>
-      <c r="HL146" s="5"/>
-      <c r="HM146" s="5"/>
-      <c r="HN146" s="5"/>
-      <c r="HO146" s="5"/>
-      <c r="HP146" s="5"/>
-      <c r="HQ146" s="5"/>
-      <c r="HR146" s="5"/>
-      <c r="HS146" s="5"/>
-      <c r="HT146" s="5"/>
-      <c r="HU146" s="5"/>
-      <c r="HV146" s="5"/>
-      <c r="HW146" s="5"/>
-      <c r="HX146" s="5"/>
-      <c r="HY146" s="5"/>
-      <c r="HZ146" s="5"/>
-      <c r="IA146" s="5"/>
-      <c r="IB146" s="5"/>
-      <c r="IC146" s="5"/>
-      <c r="ID146" s="5"/>
-      <c r="IE146" s="5"/>
-      <c r="IF146" s="5"/>
-      <c r="IG146" s="5"/>
-      <c r="IH146" s="5"/>
-      <c r="II146" s="5"/>
-      <c r="IJ146" s="5"/>
-      <c r="IK146" s="5"/>
-      <c r="IL146" s="5"/>
-      <c r="IM146" s="5"/>
-      <c r="IN146" s="5"/>
-      <c r="IO146" s="5"/>
-      <c r="IP146" s="5"/>
-      <c r="IQ146" s="5"/>
-      <c r="IR146" s="5"/>
-      <c r="IS146" s="5"/>
-      <c r="IT146" s="5"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:254">
-      <c r="A148" s="7"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="7"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+      <c r="AJ147" s="5"/>
+      <c r="AK147" s="5"/>
+      <c r="AL147" s="5"/>
+      <c r="AM147" s="5"/>
+      <c r="AN147" s="5"/>
+      <c r="AO147" s="5"/>
+      <c r="AP147" s="5"/>
+      <c r="AQ147" s="5"/>
+      <c r="AR147" s="5"/>
+      <c r="AS147" s="5"/>
+      <c r="AT147" s="5"/>
+      <c r="AU147" s="5"/>
+      <c r="AV147" s="5"/>
+      <c r="AW147" s="5"/>
+      <c r="AX147" s="5"/>
+      <c r="AY147" s="5"/>
+      <c r="AZ147" s="5"/>
+      <c r="BA147" s="5"/>
+      <c r="BB147" s="5"/>
+      <c r="BC147" s="5"/>
+      <c r="BD147" s="5"/>
+      <c r="BE147" s="5"/>
+      <c r="BF147" s="5"/>
+      <c r="BG147" s="5"/>
+      <c r="BH147" s="5"/>
+      <c r="BI147" s="5"/>
+      <c r="BJ147" s="5"/>
+      <c r="BK147" s="5"/>
+      <c r="BL147" s="5"/>
+      <c r="BM147" s="5"/>
+      <c r="BN147" s="5"/>
+      <c r="BO147" s="5"/>
+      <c r="BP147" s="5"/>
+      <c r="BQ147" s="5"/>
+      <c r="BR147" s="5"/>
+      <c r="BS147" s="5"/>
+      <c r="BT147" s="5"/>
+      <c r="BU147" s="5"/>
+      <c r="BV147" s="5"/>
+      <c r="BW147" s="5"/>
+      <c r="BX147" s="5"/>
+      <c r="BY147" s="5"/>
+      <c r="BZ147" s="5"/>
+      <c r="CA147" s="5"/>
+      <c r="CB147" s="5"/>
+      <c r="CC147" s="5"/>
+      <c r="CD147" s="5"/>
+      <c r="CE147" s="5"/>
+      <c r="CF147" s="5"/>
+      <c r="CG147" s="5"/>
+      <c r="CH147" s="5"/>
+      <c r="CI147" s="5"/>
+      <c r="CJ147" s="5"/>
+      <c r="CK147" s="5"/>
+      <c r="CL147" s="5"/>
+      <c r="CM147" s="5"/>
+      <c r="CN147" s="5"/>
+      <c r="CO147" s="5"/>
+      <c r="CP147" s="5"/>
+      <c r="CQ147" s="5"/>
+      <c r="CR147" s="5"/>
+      <c r="CS147" s="5"/>
+      <c r="CT147" s="5"/>
+      <c r="CU147" s="5"/>
+      <c r="CV147" s="5"/>
+      <c r="CW147" s="5"/>
+      <c r="CX147" s="5"/>
+      <c r="CY147" s="5"/>
+      <c r="CZ147" s="5"/>
+      <c r="DA147" s="5"/>
+      <c r="DB147" s="5"/>
+      <c r="DC147" s="5"/>
+      <c r="DD147" s="5"/>
+      <c r="DE147" s="5"/>
+      <c r="DF147" s="5"/>
+      <c r="DG147" s="5"/>
+      <c r="DH147" s="5"/>
+      <c r="DI147" s="5"/>
+      <c r="DJ147" s="5"/>
+      <c r="DK147" s="5"/>
+      <c r="DL147" s="5"/>
+      <c r="DM147" s="5"/>
+      <c r="DN147" s="5"/>
+      <c r="DO147" s="5"/>
+      <c r="DP147" s="5"/>
+      <c r="DQ147" s="5"/>
+      <c r="DR147" s="5"/>
+      <c r="DS147" s="5"/>
+      <c r="DT147" s="5"/>
+      <c r="DU147" s="5"/>
+      <c r="DV147" s="5"/>
+      <c r="DW147" s="5"/>
+      <c r="DX147" s="5"/>
+      <c r="DY147" s="5"/>
+      <c r="DZ147" s="5"/>
+      <c r="EA147" s="5"/>
+      <c r="EB147" s="5"/>
+      <c r="EC147" s="5"/>
+      <c r="ED147" s="5"/>
+      <c r="EE147" s="5"/>
+      <c r="EF147" s="5"/>
+      <c r="EG147" s="5"/>
+      <c r="EH147" s="5"/>
+      <c r="EI147" s="5"/>
+      <c r="EJ147" s="5"/>
+      <c r="EK147" s="5"/>
+      <c r="EL147" s="5"/>
+      <c r="EM147" s="5"/>
+      <c r="EN147" s="5"/>
+      <c r="EO147" s="5"/>
+      <c r="EP147" s="5"/>
+      <c r="EQ147" s="5"/>
+      <c r="ER147" s="5"/>
+      <c r="ES147" s="5"/>
+      <c r="ET147" s="5"/>
+      <c r="EU147" s="5"/>
+      <c r="EV147" s="5"/>
+      <c r="EW147" s="5"/>
+      <c r="EX147" s="5"/>
+      <c r="EY147" s="5"/>
+      <c r="EZ147" s="5"/>
+      <c r="FA147" s="5"/>
+      <c r="FB147" s="5"/>
+      <c r="FC147" s="5"/>
+      <c r="FD147" s="5"/>
+      <c r="FE147" s="5"/>
+      <c r="FF147" s="5"/>
+      <c r="FG147" s="5"/>
+      <c r="FH147" s="5"/>
+      <c r="FI147" s="5"/>
+      <c r="FJ147" s="5"/>
+      <c r="FK147" s="5"/>
+      <c r="FL147" s="5"/>
+      <c r="FM147" s="5"/>
+      <c r="FN147" s="5"/>
+      <c r="FO147" s="5"/>
+      <c r="FP147" s="5"/>
+      <c r="FQ147" s="5"/>
+      <c r="FR147" s="5"/>
+      <c r="FS147" s="5"/>
+      <c r="FT147" s="5"/>
+      <c r="FU147" s="5"/>
+      <c r="FV147" s="5"/>
+      <c r="FW147" s="5"/>
+      <c r="FX147" s="5"/>
+      <c r="FY147" s="5"/>
+      <c r="FZ147" s="5"/>
+      <c r="GA147" s="5"/>
+      <c r="GB147" s="5"/>
+      <c r="GC147" s="5"/>
+      <c r="GD147" s="5"/>
+      <c r="GE147" s="5"/>
+      <c r="GF147" s="5"/>
+      <c r="GG147" s="5"/>
+      <c r="GH147" s="5"/>
+      <c r="GI147" s="5"/>
+      <c r="GJ147" s="5"/>
+      <c r="GK147" s="5"/>
+      <c r="GL147" s="5"/>
+      <c r="GM147" s="5"/>
+      <c r="GN147" s="5"/>
+      <c r="GO147" s="5"/>
+      <c r="GP147" s="5"/>
+      <c r="GQ147" s="5"/>
+      <c r="GR147" s="5"/>
+      <c r="GS147" s="5"/>
+      <c r="GT147" s="5"/>
+      <c r="GU147" s="5"/>
+      <c r="GV147" s="5"/>
+      <c r="GW147" s="5"/>
+      <c r="GX147" s="5"/>
+      <c r="GY147" s="5"/>
+      <c r="GZ147" s="5"/>
+      <c r="HA147" s="5"/>
+      <c r="HB147" s="5"/>
+      <c r="HC147" s="5"/>
+      <c r="HD147" s="5"/>
+      <c r="HE147" s="5"/>
+      <c r="HF147" s="5"/>
+      <c r="HG147" s="5"/>
+      <c r="HH147" s="5"/>
+      <c r="HI147" s="5"/>
+      <c r="HJ147" s="5"/>
+      <c r="HK147" s="5"/>
+      <c r="HL147" s="5"/>
+      <c r="HM147" s="5"/>
+      <c r="HN147" s="5"/>
+      <c r="HO147" s="5"/>
+      <c r="HP147" s="5"/>
+      <c r="HQ147" s="5"/>
+      <c r="HR147" s="5"/>
+      <c r="HS147" s="5"/>
+      <c r="HT147" s="5"/>
+      <c r="HU147" s="5"/>
+      <c r="HV147" s="5"/>
+      <c r="HW147" s="5"/>
+      <c r="HX147" s="5"/>
+      <c r="HY147" s="5"/>
+      <c r="HZ147" s="5"/>
+      <c r="IA147" s="5"/>
+      <c r="IB147" s="5"/>
+      <c r="IC147" s="5"/>
+      <c r="ID147" s="5"/>
+      <c r="IE147" s="5"/>
+      <c r="IF147" s="5"/>
+      <c r="IG147" s="5"/>
+      <c r="IH147" s="5"/>
+      <c r="II147" s="5"/>
+      <c r="IJ147" s="5"/>
+      <c r="IK147" s="5"/>
+      <c r="IL147" s="5"/>
+      <c r="IM147" s="5"/>
+      <c r="IN147" s="5"/>
+      <c r="IO147" s="5"/>
+      <c r="IP147" s="5"/>
+      <c r="IQ147" s="5"/>
+      <c r="IR147" s="5"/>
+      <c r="IS147" s="5"/>
+      <c r="IT147" s="5"/>
+    </row>
+    <row r="148" spans="1:254" s="2" customFormat="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -4741,7 +4804,7 @@
     </row>
     <row r="150" spans="1:254">
       <c r="A150" s="7"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -4751,7 +4814,7 @@
     </row>
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -4762,7 +4825,7 @@
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -4802,7 +4865,7 @@
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -4811,7 +4874,7 @@
     </row>
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -4831,7 +4894,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -4841,7 +4904,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -4861,7 +4924,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -4881,7 +4944,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -4900,10 +4963,8 @@
       <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B166" s="7"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -4912,7 +4973,9 @@
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="7"/>
+      <c r="A167" s="45">
+        <v>43011</v>
+      </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
@@ -4923,7 +4986,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -4943,7 +5006,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -4983,7 +5046,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="6"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -4993,8 +5056,8 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -5003,7 +5066,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="19"/>
+      <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -5073,7 +5136,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -5083,7 +5146,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -5093,7 +5156,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="21"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -5113,7 +5176,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="19"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -5154,7 +5217,7 @@
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
       <c r="B191" s="19"/>
-      <c r="C191" s="7"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -5163,7 +5226,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -5183,7 +5246,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="4"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -5243,7 +5306,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="21"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -5283,7 +5346,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -5293,7 +5356,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="6"/>
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -5303,7 +5366,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="6"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -5313,7 +5376,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="19"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5363,7 +5426,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="21"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -5373,7 +5436,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="19"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -5423,7 +5486,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="21"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -5483,7 +5546,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -5493,7 +5556,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="6"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -5503,8 +5566,8 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
@@ -5513,7 +5576,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="19"/>
+      <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -5523,7 +5586,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5533,7 +5596,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5573,7 +5636,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -5583,7 +5646,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -5593,7 +5656,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="23"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -5613,7 +5676,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="23"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5653,7 +5716,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -5663,7 +5726,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -5713,7 +5776,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -5723,8 +5786,8 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
@@ -5733,7 +5796,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -5743,7 +5806,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="7"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -5753,7 +5816,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="23"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -5803,8 +5866,8 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="4"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
@@ -5813,7 +5876,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -5823,7 +5886,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="24"/>
+      <c r="B258" s="23"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -5851,9 +5914,9 @@
       <c r="G260" s="30"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8" ht="11.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="25"/>
+      <c r="B261" s="24"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -5861,9 +5924,9 @@
       <c r="G261" s="30"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" ht="11.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -5903,7 +5966,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -5933,7 +5996,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -5943,7 +6006,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -5951,15 +6014,15 @@
       <c r="G270" s="30"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="1:8" s="2" customFormat="1">
-      <c r="A271" s="4"/>
+    <row r="271" spans="1:8">
+      <c r="A271" s="7"/>
       <c r="B271" s="24"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="34"/>
-      <c r="H271" s="4"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="30"/>
+      <c r="H271" s="7"/>
     </row>
     <row r="272" spans="1:8" s="2" customFormat="1">
       <c r="A272" s="4"/>
@@ -5971,19 +6034,19 @@
       <c r="G272" s="34"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="7"/>
+    <row r="273" spans="1:8" s="2" customFormat="1">
+      <c r="A273" s="4"/>
       <c r="B273" s="24"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="30"/>
-      <c r="H273" s="7"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="34"/>
+      <c r="H273" s="4"/>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -5993,7 +6056,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -6023,7 +6086,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="22"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -6033,7 +6096,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -6053,7 +6116,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="20"/>
+      <c r="B281" s="7"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -6073,7 +6136,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -6104,7 +6167,7 @@
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
-      <c r="C286" s="7"/>
+      <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
@@ -6113,7 +6176,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="6"/>
+      <c r="B287" s="7"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -6123,7 +6186,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="6"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -6203,7 +6266,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="6"/>
+      <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -6213,8 +6276,8 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
@@ -6223,7 +6286,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="19"/>
+      <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -6253,7 +6316,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="4"/>
+      <c r="B301" s="19"/>
       <c r="C301" s="4"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -6313,7 +6376,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="19"/>
+      <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -6333,7 +6396,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="21"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -6343,8 +6406,8 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
-      <c r="C310" s="7"/>
+      <c r="B310" s="21"/>
+      <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
@@ -6353,7 +6416,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -6361,15 +6424,15 @@
       <c r="G311" s="30"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="1:8" s="2" customFormat="1">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="34"/>
-      <c r="H312" s="4"/>
+    <row r="312" spans="1:8">
+      <c r="A312" s="7"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" s="30"/>
+      <c r="H312" s="7"/>
     </row>
     <row r="313" spans="1:8" s="2" customFormat="1">
       <c r="A313" s="4"/>
@@ -6393,7 +6456,7 @@
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="19"/>
+      <c r="B315" s="4"/>
       <c r="C315" s="9"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -6443,8 +6506,8 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="26"/>
-      <c r="C320" s="4"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="9"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -6493,7 +6556,7 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="21"/>
+      <c r="B325" s="26"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -6543,7 +6606,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="19"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -6553,7 +6616,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="21"/>
+      <c r="B331" s="19"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -6563,7 +6626,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="4"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -6571,20 +6634,20 @@
       <c r="G332" s="34"/>
       <c r="H332" s="4"/>
     </row>
-    <row r="333" spans="1:8">
-      <c r="A333" s="7"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="7"/>
-      <c r="F333" s="7"/>
-      <c r="G333" s="30"/>
-      <c r="H333" s="7"/>
+    <row r="333" spans="1:8" s="2" customFormat="1">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="34"/>
+      <c r="H333" s="4"/>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="7"/>
-      <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
@@ -6653,7 +6716,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="4"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6664,7 +6727,7 @@
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="7"/>
+      <c r="C342" s="4"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
@@ -6673,7 +6736,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="6"/>
+      <c r="B343" s="4"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -6683,7 +6746,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -6693,7 +6756,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="22"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -6703,7 +6766,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="22"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6743,7 +6806,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="6"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -6753,7 +6816,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -6763,7 +6826,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="20"/>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -6793,7 +6856,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6803,7 +6866,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6823,7 +6886,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -6833,7 +6896,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -6843,7 +6906,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -6853,7 +6916,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -6883,7 +6946,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -6893,7 +6956,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="27"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -6903,7 +6966,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="22"/>
+      <c r="B366" s="27"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -6913,8 +6976,8 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
-      <c r="C367" s="4"/>
+      <c r="B367" s="22"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
@@ -6923,7 +6986,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="20"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="4"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -6953,7 +7016,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="20"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -6983,7 +7046,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="20"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -7003,8 +7066,8 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
-      <c r="C376" s="7"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
@@ -7013,7 +7076,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="6"/>
+      <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -7023,7 +7086,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="6"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -7083,7 +7146,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="6"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -7093,7 +7156,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="6"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -7114,7 +7177,7 @@
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
-      <c r="C387" s="4"/>
+      <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
@@ -7123,7 +7186,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="20"/>
+      <c r="B388" s="7"/>
       <c r="C388" s="4"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -7134,7 +7197,7 @@
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
       <c r="B389" s="20"/>
-      <c r="C389" s="7"/>
+      <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
@@ -7143,7 +7206,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="27"/>
+      <c r="B390" s="20"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -7153,7 +7216,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="22"/>
+      <c r="B391" s="27"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -7203,7 +7266,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="22"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -7213,7 +7276,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="6"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7223,7 +7286,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7233,7 +7296,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="20"/>
+      <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -7243,7 +7306,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="22"/>
+      <c r="B400" s="20"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -7263,7 +7326,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7303,7 +7366,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7313,7 +7376,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="20"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7333,7 +7396,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="22"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7343,7 +7406,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="22"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7353,7 +7416,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7363,7 +7426,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7383,7 +7446,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7393,7 +7456,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7403,7 +7466,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="20"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7423,7 +7486,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="20"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -7433,7 +7496,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="6"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -7443,7 +7506,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -7493,7 +7556,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="6"/>
+      <c r="B425" s="7"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -7503,7 +7566,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -7563,7 +7626,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -7573,7 +7636,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -7593,7 +7656,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="7"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -7603,7 +7666,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="4"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -7623,7 +7686,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="4"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -7653,7 +7716,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="7"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -7663,8 +7726,8 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
-      <c r="C442" s="4"/>
+      <c r="B442" s="6"/>
+      <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
@@ -7714,7 +7777,7 @@
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
-      <c r="C447" s="7"/>
+      <c r="C447" s="4"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -7723,7 +7786,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="7"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -7733,8 +7796,8 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="7"/>
-      <c r="C449" s="4"/>
+      <c r="B449" s="6"/>
+      <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -7774,7 +7837,7 @@
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
-      <c r="C453" s="7"/>
+      <c r="C453" s="4"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
@@ -7783,7 +7846,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="6"/>
+      <c r="B454" s="7"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -7793,7 +7856,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="22"/>
+      <c r="B455" s="6"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -7853,7 +7916,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
+      <c r="B461" s="22"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -7863,7 +7926,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="6"/>
+      <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -7873,7 +7936,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="22"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -7902,8 +7965,8 @@
       <c r="H465" s="7"/>
     </row>
     <row r="466" spans="1:8">
-      <c r="A466" s="6"/>
-      <c r="B466" s="7"/>
+      <c r="A466" s="7"/>
+      <c r="B466" s="22"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -7912,7 +7975,7 @@
       <c r="H466" s="7"/>
     </row>
     <row r="467" spans="1:8">
-      <c r="A467" s="7"/>
+      <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
@@ -7953,7 +8016,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -7983,7 +8046,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="28"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -7993,7 +8056,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="28"/>
+      <c r="B475" s="7"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -8003,7 +8066,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="28"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -8013,21 +8076,21 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="29"/>
-      <c r="C477" s="30"/>
+      <c r="B477" s="7"/>
+      <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
-      <c r="F477" s="29"/>
+      <c r="F477" s="7"/>
       <c r="G477" s="30"/>
       <c r="H477" s="7"/>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
-      <c r="C478" s="7"/>
+      <c r="B478" s="29"/>
+      <c r="C478" s="30"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
-      <c r="F478" s="7"/>
+      <c r="F478" s="29"/>
       <c r="G478" s="30"/>
       <c r="H478" s="7"/>
     </row>
@@ -11931,6 +11994,16 @@
       <c r="G868" s="30"/>
       <c r="H868" s="7"/>
     </row>
+    <row r="869" spans="1:8">
+      <c r="A869" s="7"/>
+      <c r="B869" s="7"/>
+      <c r="C869" s="7"/>
+      <c r="D869" s="7"/>
+      <c r="E869" s="7"/>
+      <c r="F869" s="7"/>
+      <c r="G869" s="30"/>
+      <c r="H869" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>Feature</t>
   </si>
@@ -331,6 +331,15 @@
   <si>
     <t>0.00.07</t>
   </si>
+  <si>
+    <t>monitor clipboard checkbox</t>
+  </si>
+  <si>
+    <t>paste from clipboard</t>
+  </si>
+  <si>
+    <t>paste button</t>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +594,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095508"/>
+          <c:w val="0.91978071330955091"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -618,9 +627,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -644,16 +653,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04-30-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$55</c:f>
+              <c:f>Progress!$B$48:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -677,6 +689,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,9 +724,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -735,16 +750,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04-30-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$55</c:f>
+              <c:f>Progress!$C$48:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -767,6 +785,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -800,9 +821,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -826,16 +847,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04-30-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$55</c:f>
+              <c:f>Progress!$D$48:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -858,6 +882,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -891,9 +918,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$55</c:f>
+              <c:f>Progress!$A$47:$A$56</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -920,16 +947,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>04-30-2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$55</c:f>
+              <c:f>Progress!$E$48:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -952,17 +982,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125754752"/>
-        <c:axId val="125506688"/>
+        <c:axId val="156360064"/>
+        <c:axId val="138679424"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="125754752"/>
+        <c:axId val="156360064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +1028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125506688"/>
+        <c:crossAx val="138679424"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1005,7 +1038,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125506688"/>
+        <c:axId val="138679424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125754752"/>
+        <c:crossAx val="156360064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,7 +1103,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844503"/>
+          <c:y val="0.37277147487844514"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1137,7 +1170,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001277" r="0.75000000000001277" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1191,7 +1224,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127442E-2"/>
+          <c:x val="4.4510450248127456E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1226,9 +1259,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1252,16 +1285,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04-30-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$55</c:f>
+              <c:f>Progress!$G$48:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1285,16 +1321,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.43661971830985913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125542784"/>
-        <c:axId val="125544320"/>
+        <c:axId val="138715520"/>
+        <c:axId val="138717056"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="125542784"/>
+        <c:axId val="138715520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,14 +1341,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="125544320"/>
+        <c:crossAx val="138717056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125544320"/>
+        <c:axId val="138717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1352,7 +1391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125542784"/>
+        <c:crossAx val="138715520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,7 +1440,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001277" r="0.75000000000001277" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1452,9 +1491,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1478,16 +1517,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04-30-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$55</c:f>
+              <c:f>Progress!$C$48:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1510,6 +1552,9 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -1543,9 +1588,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1569,16 +1614,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>04-30-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$55</c:f>
+              <c:f>Progress!$D$48:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1601,17 +1649,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="125565184"/>
-        <c:axId val="125566976"/>
+        <c:axId val="138737920"/>
+        <c:axId val="138739712"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="125565184"/>
+        <c:axId val="138737920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125566976"/>
+        <c:crossAx val="138739712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1653,7 +1704,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125566976"/>
+        <c:axId val="138739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125565184"/>
+        <c:crossAx val="138737920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,7 +1795,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001277" r="0.75000000000001277" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1794,7 +1845,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2202,10 +2253,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2421,8 +2472,8 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="23" t="s">
-        <v>88</v>
+      <c r="B28" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2431,7 +2482,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="24" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2440,7 +2491,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="23" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2449,25 +2500,25 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="2:4" s="6" customFormat="1">
+      <c r="B32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4" s="6" customFormat="1">
+      <c r="B33" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2475,13 +2526,17 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="27" t="s">
-        <v>46</v>
+      <c r="B35" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -2490,16 +2545,16 @@
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
       <c r="B37" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2507,17 +2562,13 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="20" t="s">
-        <v>82</v>
+      <c r="B39" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2525,22 +2576,26 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="27" t="s">
-        <v>51</v>
+      <c r="B41" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2549,7 +2604,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="20" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2557,35 +2612,31 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="23" t="s">
-        <v>60</v>
+      <c r="B45" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="23" t="s">
-        <v>61</v>
+      <c r="B46" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="23" t="s">
-        <v>62</v>
+      <c r="B47" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2594,34 +2645,34 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -2630,7 +2681,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>2</v>
@@ -2639,7 +2690,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="23" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -2648,30 +2699,34 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="27" t="s">
-        <v>67</v>
+      <c r="B57" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -2679,17 +2734,17 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="20" t="s">
-        <v>68</v>
+      <c r="B58" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2697,41 +2752,49 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" s="6" customFormat="1">
+      <c r="B61" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" s="6" customFormat="1">
+      <c r="B62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4" s="6" customFormat="1">
+      <c r="B63" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" s="6" customFormat="1">
+      <c r="B64" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
@@ -2740,41 +2803,41 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1">
+      <c r="B69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1">
+      <c r="B71" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22" t="s">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="19"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -2787,26 +2850,18 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20" t="s">
-        <v>75</v>
+      <c r="B76" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -2814,17 +2869,13 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
-        <v>77</v>
+      <c r="B78" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2832,13 +2883,17 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22" t="s">
-        <v>54</v>
+      <c r="B80" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -2847,7 +2902,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="20" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -2856,7 +2911,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -2870,7 +2925,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="22" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2878,13 +2933,17 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="22"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22" t="s">
-        <v>99</v>
+      <c r="B86" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -2897,8 +2956,12 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
@@ -2907,224 +2970,248 @@
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20"/>
-      <c r="C90" s="7"/>
+      <c r="B90" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="20"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="7"/>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="22"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" s="6" customFormat="1">
+      <c r="B93" s="22"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="2:4" s="6" customFormat="1">
+      <c r="B94" s="20"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" s="6" customFormat="1">
+      <c r="B95" s="20"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" s="6" customFormat="1">
+      <c r="B96" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22" t="s">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1">
+      <c r="B97" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22" t="s">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="2:4" s="6" customFormat="1">
+      <c r="B98" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" s="6" customFormat="1">
-      <c r="B98" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" s="6" customFormat="1">
+    <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" s="6" customFormat="1">
-      <c r="B100" s="22" t="s">
+    <row r="100" spans="2:4" s="6" customFormat="1">
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="2:4" s="6" customFormat="1">
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1">
+      <c r="B102" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" s="6" customFormat="1">
+      <c r="B103" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" s="6" customFormat="1">
+      <c r="B104" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1">
-      <c r="B101" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" s="6" customFormat="1">
-      <c r="B102" s="43"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" s="6" customFormat="1">
-      <c r="B103" s="21"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" s="6" customFormat="1">
-      <c r="B104" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" s="6" customFormat="1">
+    <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" s="6" customFormat="1">
-      <c r="B106" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="106" spans="2:4" s="6" customFormat="1">
+      <c r="B106" s="43"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" s="6" customFormat="1">
-      <c r="B107" s="22"/>
+    <row r="107" spans="2:4" s="6" customFormat="1">
+      <c r="B107" s="21"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" s="6" customFormat="1">
-      <c r="B108" s="19"/>
-      <c r="C108" s="4"/>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" s="6" customFormat="1">
-      <c r="B109" s="21"/>
-      <c r="C109" s="4"/>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" s="6" customFormat="1">
-      <c r="B110" s="21"/>
-      <c r="C110" s="4"/>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="3"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="3"/>
-      <c r="B112" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="6">
-        <f>COUNTIF(C5:C111,"y")</f>
-        <v>31</v>
-      </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="3"/>
-      <c r="B113" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="6">
-        <f>COUNTIF(C5:C111,"n")</f>
-        <v>40</v>
-      </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="3"/>
-      <c r="B114" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="7">
-        <f>COUNTIF(C5:C111,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="2"/>
+    <row r="111" spans="2:4" s="6" customFormat="1">
+      <c r="B111" s="22"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" s="6" customFormat="1">
+      <c r="B112" s="19"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" s="6" customFormat="1">
+      <c r="B113" s="21"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" s="6" customFormat="1">
+      <c r="B114" s="21"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="3"/>
-      <c r="B115" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115">
-        <f>SUM(C112:C114)</f>
-        <v>71</v>
-      </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" ht="18">
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="3"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="41">
-        <f>C112/(C113+C112 + C114)</f>
-        <v>0.43661971830985913</v>
-      </c>
+      <c r="B116" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="6">
+        <f>COUNTIF(C5:C115,"y")</f>
+        <v>35</v>
+      </c>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="3"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="6">
+        <f>COUNTIF(C5:C115,"n")</f>
+        <v>40</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3"/>
+      <c r="B118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="7">
+        <f>COUNTIF(C5:C115,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3"/>
+      <c r="B119" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <f>SUM(C116:C118)</f>
+        <v>75</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="18">
+      <c r="A120" s="3"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="41">
+        <f>C116/(C117+C116 + C118)</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64865">
+  <conditionalFormatting sqref="C1:C3 C6:C64869">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3146,12 +3233,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT869"/>
+  <dimension ref="A1:IT870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3480,7 +3567,7 @@
         <v>87</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G54" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G55" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -3580,19 +3667,34 @@
         <v>103</v>
       </c>
       <c r="G55" s="30">
-        <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
+        <f t="shared" si="2"/>
         <v>0.43661971830985913</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="12"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="30"/>
+      <c r="A56" s="46">
+        <v>42860</v>
+      </c>
+      <c r="B56" s="4">
+        <v>35</v>
+      </c>
+      <c r="C56" s="4">
+        <v>40</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="30">
+        <f t="shared" ref="G56" si="3">B56/SUM(B56:E56)</f>
+        <v>0.46666666666666667</v>
+      </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11">
@@ -3601,84 +3703,84 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="31"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="38">
-        <f>MIN(G55)</f>
-        <v>0.43661971830985913</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="39">
-        <f>SUM(B59:D59)</f>
-        <v>71</v>
-      </c>
-      <c r="B59" s="15">
-        <f>Features!C112</f>
-        <v>31</v>
-      </c>
-      <c r="C59" s="16">
-        <f>Features!C113</f>
+      <c r="G59" s="38">
+        <f>MIN(G56)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="39">
+        <f>SUM(B60:D60)</f>
+        <v>75</v>
+      </c>
+      <c r="B60" s="15">
+        <f>Features!C116</f>
+        <v>35</v>
+      </c>
+      <c r="C60" s="16">
+        <f>Features!C117</f>
         <v>40</v>
       </c>
-      <c r="D59" s="17">
-        <f>Features!C114</f>
+      <c r="D60" s="17">
+        <f>Features!C118</f>
         <v>0</v>
       </c>
-      <c r="E59" s="18">
-        <f>MIN(E55)</f>
+      <c r="E60" s="18">
+        <f>MIN(E56)</f>
         <v>0</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
-      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
+      <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -3688,7 +3790,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3708,7 +3810,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3728,7 +3830,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3748,7 +3850,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3758,7 +3860,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3777,7 +3879,7 @@
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="7"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="20"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
@@ -3788,7 +3890,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -3919,7 +4021,7 @@
     <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -3928,7 +4030,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7"/>
-      <c r="B87" s="6"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -3936,15 +4038,15 @@
       <c r="G87" s="30"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="4"/>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" s="2" customFormat="1">
       <c r="A89" s="4"/>
@@ -4118,7 +4220,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="6"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -4128,7 +4230,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4158,7 +4260,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4198,7 +4300,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="21"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -4208,7 +4310,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4218,7 +4320,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="6"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4228,7 +4330,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4238,7 +4340,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4258,7 +4360,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4318,7 +4420,7 @@
     </row>
     <row r="126" spans="1:8" s="2" customFormat="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -4418,7 +4520,7 @@
     </row>
     <row r="136" spans="1:8" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -4468,7 +4570,7 @@
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="19"/>
+      <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -4488,7 +4590,7 @@
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -4527,284 +4629,284 @@
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
-      <c r="A147" s="21"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5"/>
-      <c r="V147" s="5"/>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
-      <c r="Z147" s="5"/>
-      <c r="AA147" s="5"/>
-      <c r="AB147" s="5"/>
-      <c r="AC147" s="5"/>
-      <c r="AD147" s="5"/>
-      <c r="AE147" s="5"/>
-      <c r="AF147" s="5"/>
-      <c r="AG147" s="5"/>
-      <c r="AH147" s="5"/>
-      <c r="AI147" s="5"/>
-      <c r="AJ147" s="5"/>
-      <c r="AK147" s="5"/>
-      <c r="AL147" s="5"/>
-      <c r="AM147" s="5"/>
-      <c r="AN147" s="5"/>
-      <c r="AO147" s="5"/>
-      <c r="AP147" s="5"/>
-      <c r="AQ147" s="5"/>
-      <c r="AR147" s="5"/>
-      <c r="AS147" s="5"/>
-      <c r="AT147" s="5"/>
-      <c r="AU147" s="5"/>
-      <c r="AV147" s="5"/>
-      <c r="AW147" s="5"/>
-      <c r="AX147" s="5"/>
-      <c r="AY147" s="5"/>
-      <c r="AZ147" s="5"/>
-      <c r="BA147" s="5"/>
-      <c r="BB147" s="5"/>
-      <c r="BC147" s="5"/>
-      <c r="BD147" s="5"/>
-      <c r="BE147" s="5"/>
-      <c r="BF147" s="5"/>
-      <c r="BG147" s="5"/>
-      <c r="BH147" s="5"/>
-      <c r="BI147" s="5"/>
-      <c r="BJ147" s="5"/>
-      <c r="BK147" s="5"/>
-      <c r="BL147" s="5"/>
-      <c r="BM147" s="5"/>
-      <c r="BN147" s="5"/>
-      <c r="BO147" s="5"/>
-      <c r="BP147" s="5"/>
-      <c r="BQ147" s="5"/>
-      <c r="BR147" s="5"/>
-      <c r="BS147" s="5"/>
-      <c r="BT147" s="5"/>
-      <c r="BU147" s="5"/>
-      <c r="BV147" s="5"/>
-      <c r="BW147" s="5"/>
-      <c r="BX147" s="5"/>
-      <c r="BY147" s="5"/>
-      <c r="BZ147" s="5"/>
-      <c r="CA147" s="5"/>
-      <c r="CB147" s="5"/>
-      <c r="CC147" s="5"/>
-      <c r="CD147" s="5"/>
-      <c r="CE147" s="5"/>
-      <c r="CF147" s="5"/>
-      <c r="CG147" s="5"/>
-      <c r="CH147" s="5"/>
-      <c r="CI147" s="5"/>
-      <c r="CJ147" s="5"/>
-      <c r="CK147" s="5"/>
-      <c r="CL147" s="5"/>
-      <c r="CM147" s="5"/>
-      <c r="CN147" s="5"/>
-      <c r="CO147" s="5"/>
-      <c r="CP147" s="5"/>
-      <c r="CQ147" s="5"/>
-      <c r="CR147" s="5"/>
-      <c r="CS147" s="5"/>
-      <c r="CT147" s="5"/>
-      <c r="CU147" s="5"/>
-      <c r="CV147" s="5"/>
-      <c r="CW147" s="5"/>
-      <c r="CX147" s="5"/>
-      <c r="CY147" s="5"/>
-      <c r="CZ147" s="5"/>
-      <c r="DA147" s="5"/>
-      <c r="DB147" s="5"/>
-      <c r="DC147" s="5"/>
-      <c r="DD147" s="5"/>
-      <c r="DE147" s="5"/>
-      <c r="DF147" s="5"/>
-      <c r="DG147" s="5"/>
-      <c r="DH147" s="5"/>
-      <c r="DI147" s="5"/>
-      <c r="DJ147" s="5"/>
-      <c r="DK147" s="5"/>
-      <c r="DL147" s="5"/>
-      <c r="DM147" s="5"/>
-      <c r="DN147" s="5"/>
-      <c r="DO147" s="5"/>
-      <c r="DP147" s="5"/>
-      <c r="DQ147" s="5"/>
-      <c r="DR147" s="5"/>
-      <c r="DS147" s="5"/>
-      <c r="DT147" s="5"/>
-      <c r="DU147" s="5"/>
-      <c r="DV147" s="5"/>
-      <c r="DW147" s="5"/>
-      <c r="DX147" s="5"/>
-      <c r="DY147" s="5"/>
-      <c r="DZ147" s="5"/>
-      <c r="EA147" s="5"/>
-      <c r="EB147" s="5"/>
-      <c r="EC147" s="5"/>
-      <c r="ED147" s="5"/>
-      <c r="EE147" s="5"/>
-      <c r="EF147" s="5"/>
-      <c r="EG147" s="5"/>
-      <c r="EH147" s="5"/>
-      <c r="EI147" s="5"/>
-      <c r="EJ147" s="5"/>
-      <c r="EK147" s="5"/>
-      <c r="EL147" s="5"/>
-      <c r="EM147" s="5"/>
-      <c r="EN147" s="5"/>
-      <c r="EO147" s="5"/>
-      <c r="EP147" s="5"/>
-      <c r="EQ147" s="5"/>
-      <c r="ER147" s="5"/>
-      <c r="ES147" s="5"/>
-      <c r="ET147" s="5"/>
-      <c r="EU147" s="5"/>
-      <c r="EV147" s="5"/>
-      <c r="EW147" s="5"/>
-      <c r="EX147" s="5"/>
-      <c r="EY147" s="5"/>
-      <c r="EZ147" s="5"/>
-      <c r="FA147" s="5"/>
-      <c r="FB147" s="5"/>
-      <c r="FC147" s="5"/>
-      <c r="FD147" s="5"/>
-      <c r="FE147" s="5"/>
-      <c r="FF147" s="5"/>
-      <c r="FG147" s="5"/>
-      <c r="FH147" s="5"/>
-      <c r="FI147" s="5"/>
-      <c r="FJ147" s="5"/>
-      <c r="FK147" s="5"/>
-      <c r="FL147" s="5"/>
-      <c r="FM147" s="5"/>
-      <c r="FN147" s="5"/>
-      <c r="FO147" s="5"/>
-      <c r="FP147" s="5"/>
-      <c r="FQ147" s="5"/>
-      <c r="FR147" s="5"/>
-      <c r="FS147" s="5"/>
-      <c r="FT147" s="5"/>
-      <c r="FU147" s="5"/>
-      <c r="FV147" s="5"/>
-      <c r="FW147" s="5"/>
-      <c r="FX147" s="5"/>
-      <c r="FY147" s="5"/>
-      <c r="FZ147" s="5"/>
-      <c r="GA147" s="5"/>
-      <c r="GB147" s="5"/>
-      <c r="GC147" s="5"/>
-      <c r="GD147" s="5"/>
-      <c r="GE147" s="5"/>
-      <c r="GF147" s="5"/>
-      <c r="GG147" s="5"/>
-      <c r="GH147" s="5"/>
-      <c r="GI147" s="5"/>
-      <c r="GJ147" s="5"/>
-      <c r="GK147" s="5"/>
-      <c r="GL147" s="5"/>
-      <c r="GM147" s="5"/>
-      <c r="GN147" s="5"/>
-      <c r="GO147" s="5"/>
-      <c r="GP147" s="5"/>
-      <c r="GQ147" s="5"/>
-      <c r="GR147" s="5"/>
-      <c r="GS147" s="5"/>
-      <c r="GT147" s="5"/>
-      <c r="GU147" s="5"/>
-      <c r="GV147" s="5"/>
-      <c r="GW147" s="5"/>
-      <c r="GX147" s="5"/>
-      <c r="GY147" s="5"/>
-      <c r="GZ147" s="5"/>
-      <c r="HA147" s="5"/>
-      <c r="HB147" s="5"/>
-      <c r="HC147" s="5"/>
-      <c r="HD147" s="5"/>
-      <c r="HE147" s="5"/>
-      <c r="HF147" s="5"/>
-      <c r="HG147" s="5"/>
-      <c r="HH147" s="5"/>
-      <c r="HI147" s="5"/>
-      <c r="HJ147" s="5"/>
-      <c r="HK147" s="5"/>
-      <c r="HL147" s="5"/>
-      <c r="HM147" s="5"/>
-      <c r="HN147" s="5"/>
-      <c r="HO147" s="5"/>
-      <c r="HP147" s="5"/>
-      <c r="HQ147" s="5"/>
-      <c r="HR147" s="5"/>
-      <c r="HS147" s="5"/>
-      <c r="HT147" s="5"/>
-      <c r="HU147" s="5"/>
-      <c r="HV147" s="5"/>
-      <c r="HW147" s="5"/>
-      <c r="HX147" s="5"/>
-      <c r="HY147" s="5"/>
-      <c r="HZ147" s="5"/>
-      <c r="IA147" s="5"/>
-      <c r="IB147" s="5"/>
-      <c r="IC147" s="5"/>
-      <c r="ID147" s="5"/>
-      <c r="IE147" s="5"/>
-      <c r="IF147" s="5"/>
-      <c r="IG147" s="5"/>
-      <c r="IH147" s="5"/>
-      <c r="II147" s="5"/>
-      <c r="IJ147" s="5"/>
-      <c r="IK147" s="5"/>
-      <c r="IL147" s="5"/>
-      <c r="IM147" s="5"/>
-      <c r="IN147" s="5"/>
-      <c r="IO147" s="5"/>
-      <c r="IP147" s="5"/>
-      <c r="IQ147" s="5"/>
-      <c r="IR147" s="5"/>
-      <c r="IS147" s="5"/>
-      <c r="IT147" s="5"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:254" s="2" customFormat="1">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="1:254">
-      <c r="A149" s="7"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="7"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+      <c r="AJ148" s="5"/>
+      <c r="AK148" s="5"/>
+      <c r="AL148" s="5"/>
+      <c r="AM148" s="5"/>
+      <c r="AN148" s="5"/>
+      <c r="AO148" s="5"/>
+      <c r="AP148" s="5"/>
+      <c r="AQ148" s="5"/>
+      <c r="AR148" s="5"/>
+      <c r="AS148" s="5"/>
+      <c r="AT148" s="5"/>
+      <c r="AU148" s="5"/>
+      <c r="AV148" s="5"/>
+      <c r="AW148" s="5"/>
+      <c r="AX148" s="5"/>
+      <c r="AY148" s="5"/>
+      <c r="AZ148" s="5"/>
+      <c r="BA148" s="5"/>
+      <c r="BB148" s="5"/>
+      <c r="BC148" s="5"/>
+      <c r="BD148" s="5"/>
+      <c r="BE148" s="5"/>
+      <c r="BF148" s="5"/>
+      <c r="BG148" s="5"/>
+      <c r="BH148" s="5"/>
+      <c r="BI148" s="5"/>
+      <c r="BJ148" s="5"/>
+      <c r="BK148" s="5"/>
+      <c r="BL148" s="5"/>
+      <c r="BM148" s="5"/>
+      <c r="BN148" s="5"/>
+      <c r="BO148" s="5"/>
+      <c r="BP148" s="5"/>
+      <c r="BQ148" s="5"/>
+      <c r="BR148" s="5"/>
+      <c r="BS148" s="5"/>
+      <c r="BT148" s="5"/>
+      <c r="BU148" s="5"/>
+      <c r="BV148" s="5"/>
+      <c r="BW148" s="5"/>
+      <c r="BX148" s="5"/>
+      <c r="BY148" s="5"/>
+      <c r="BZ148" s="5"/>
+      <c r="CA148" s="5"/>
+      <c r="CB148" s="5"/>
+      <c r="CC148" s="5"/>
+      <c r="CD148" s="5"/>
+      <c r="CE148" s="5"/>
+      <c r="CF148" s="5"/>
+      <c r="CG148" s="5"/>
+      <c r="CH148" s="5"/>
+      <c r="CI148" s="5"/>
+      <c r="CJ148" s="5"/>
+      <c r="CK148" s="5"/>
+      <c r="CL148" s="5"/>
+      <c r="CM148" s="5"/>
+      <c r="CN148" s="5"/>
+      <c r="CO148" s="5"/>
+      <c r="CP148" s="5"/>
+      <c r="CQ148" s="5"/>
+      <c r="CR148" s="5"/>
+      <c r="CS148" s="5"/>
+      <c r="CT148" s="5"/>
+      <c r="CU148" s="5"/>
+      <c r="CV148" s="5"/>
+      <c r="CW148" s="5"/>
+      <c r="CX148" s="5"/>
+      <c r="CY148" s="5"/>
+      <c r="CZ148" s="5"/>
+      <c r="DA148" s="5"/>
+      <c r="DB148" s="5"/>
+      <c r="DC148" s="5"/>
+      <c r="DD148" s="5"/>
+      <c r="DE148" s="5"/>
+      <c r="DF148" s="5"/>
+      <c r="DG148" s="5"/>
+      <c r="DH148" s="5"/>
+      <c r="DI148" s="5"/>
+      <c r="DJ148" s="5"/>
+      <c r="DK148" s="5"/>
+      <c r="DL148" s="5"/>
+      <c r="DM148" s="5"/>
+      <c r="DN148" s="5"/>
+      <c r="DO148" s="5"/>
+      <c r="DP148" s="5"/>
+      <c r="DQ148" s="5"/>
+      <c r="DR148" s="5"/>
+      <c r="DS148" s="5"/>
+      <c r="DT148" s="5"/>
+      <c r="DU148" s="5"/>
+      <c r="DV148" s="5"/>
+      <c r="DW148" s="5"/>
+      <c r="DX148" s="5"/>
+      <c r="DY148" s="5"/>
+      <c r="DZ148" s="5"/>
+      <c r="EA148" s="5"/>
+      <c r="EB148" s="5"/>
+      <c r="EC148" s="5"/>
+      <c r="ED148" s="5"/>
+      <c r="EE148" s="5"/>
+      <c r="EF148" s="5"/>
+      <c r="EG148" s="5"/>
+      <c r="EH148" s="5"/>
+      <c r="EI148" s="5"/>
+      <c r="EJ148" s="5"/>
+      <c r="EK148" s="5"/>
+      <c r="EL148" s="5"/>
+      <c r="EM148" s="5"/>
+      <c r="EN148" s="5"/>
+      <c r="EO148" s="5"/>
+      <c r="EP148" s="5"/>
+      <c r="EQ148" s="5"/>
+      <c r="ER148" s="5"/>
+      <c r="ES148" s="5"/>
+      <c r="ET148" s="5"/>
+      <c r="EU148" s="5"/>
+      <c r="EV148" s="5"/>
+      <c r="EW148" s="5"/>
+      <c r="EX148" s="5"/>
+      <c r="EY148" s="5"/>
+      <c r="EZ148" s="5"/>
+      <c r="FA148" s="5"/>
+      <c r="FB148" s="5"/>
+      <c r="FC148" s="5"/>
+      <c r="FD148" s="5"/>
+      <c r="FE148" s="5"/>
+      <c r="FF148" s="5"/>
+      <c r="FG148" s="5"/>
+      <c r="FH148" s="5"/>
+      <c r="FI148" s="5"/>
+      <c r="FJ148" s="5"/>
+      <c r="FK148" s="5"/>
+      <c r="FL148" s="5"/>
+      <c r="FM148" s="5"/>
+      <c r="FN148" s="5"/>
+      <c r="FO148" s="5"/>
+      <c r="FP148" s="5"/>
+      <c r="FQ148" s="5"/>
+      <c r="FR148" s="5"/>
+      <c r="FS148" s="5"/>
+      <c r="FT148" s="5"/>
+      <c r="FU148" s="5"/>
+      <c r="FV148" s="5"/>
+      <c r="FW148" s="5"/>
+      <c r="FX148" s="5"/>
+      <c r="FY148" s="5"/>
+      <c r="FZ148" s="5"/>
+      <c r="GA148" s="5"/>
+      <c r="GB148" s="5"/>
+      <c r="GC148" s="5"/>
+      <c r="GD148" s="5"/>
+      <c r="GE148" s="5"/>
+      <c r="GF148" s="5"/>
+      <c r="GG148" s="5"/>
+      <c r="GH148" s="5"/>
+      <c r="GI148" s="5"/>
+      <c r="GJ148" s="5"/>
+      <c r="GK148" s="5"/>
+      <c r="GL148" s="5"/>
+      <c r="GM148" s="5"/>
+      <c r="GN148" s="5"/>
+      <c r="GO148" s="5"/>
+      <c r="GP148" s="5"/>
+      <c r="GQ148" s="5"/>
+      <c r="GR148" s="5"/>
+      <c r="GS148" s="5"/>
+      <c r="GT148" s="5"/>
+      <c r="GU148" s="5"/>
+      <c r="GV148" s="5"/>
+      <c r="GW148" s="5"/>
+      <c r="GX148" s="5"/>
+      <c r="GY148" s="5"/>
+      <c r="GZ148" s="5"/>
+      <c r="HA148" s="5"/>
+      <c r="HB148" s="5"/>
+      <c r="HC148" s="5"/>
+      <c r="HD148" s="5"/>
+      <c r="HE148" s="5"/>
+      <c r="HF148" s="5"/>
+      <c r="HG148" s="5"/>
+      <c r="HH148" s="5"/>
+      <c r="HI148" s="5"/>
+      <c r="HJ148" s="5"/>
+      <c r="HK148" s="5"/>
+      <c r="HL148" s="5"/>
+      <c r="HM148" s="5"/>
+      <c r="HN148" s="5"/>
+      <c r="HO148" s="5"/>
+      <c r="HP148" s="5"/>
+      <c r="HQ148" s="5"/>
+      <c r="HR148" s="5"/>
+      <c r="HS148" s="5"/>
+      <c r="HT148" s="5"/>
+      <c r="HU148" s="5"/>
+      <c r="HV148" s="5"/>
+      <c r="HW148" s="5"/>
+      <c r="HX148" s="5"/>
+      <c r="HY148" s="5"/>
+      <c r="HZ148" s="5"/>
+      <c r="IA148" s="5"/>
+      <c r="IB148" s="5"/>
+      <c r="IC148" s="5"/>
+      <c r="ID148" s="5"/>
+      <c r="IE148" s="5"/>
+      <c r="IF148" s="5"/>
+      <c r="IG148" s="5"/>
+      <c r="IH148" s="5"/>
+      <c r="II148" s="5"/>
+      <c r="IJ148" s="5"/>
+      <c r="IK148" s="5"/>
+      <c r="IL148" s="5"/>
+      <c r="IM148" s="5"/>
+      <c r="IN148" s="5"/>
+      <c r="IO148" s="5"/>
+      <c r="IP148" s="5"/>
+      <c r="IQ148" s="5"/>
+      <c r="IR148" s="5"/>
+      <c r="IS148" s="5"/>
+      <c r="IT148" s="5"/>
+    </row>
+    <row r="149" spans="1:254" s="2" customFormat="1">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:254">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -4814,7 +4916,7 @@
     </row>
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
-      <c r="B151" s="20"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -4824,7 +4926,7 @@
     </row>
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -4835,7 +4937,7 @@
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -4875,7 +4977,7 @@
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -4884,7 +4986,7 @@
     </row>
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -4904,7 +5006,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -4914,7 +5016,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -4934,7 +5036,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -4954,7 +5056,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -4973,10 +5075,8 @@
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B167" s="7"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -4985,7 +5085,9 @@
       <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="7"/>
+      <c r="A168" s="45">
+        <v>43011</v>
+      </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -4996,7 +5098,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -5016,7 +5118,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -5056,7 +5158,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="6"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -5066,8 +5168,8 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -5076,7 +5178,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="19"/>
+      <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -5146,7 +5248,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="4"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -5156,7 +5258,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -5166,7 +5268,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="21"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -5186,7 +5288,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="19"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -5227,7 +5329,7 @@
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
       <c r="B192" s="19"/>
-      <c r="C192" s="7"/>
+      <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -5236,7 +5338,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="4"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -5256,7 +5358,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="19"/>
+      <c r="B195" s="4"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -5316,7 +5418,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="21"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -5356,7 +5458,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -5366,7 +5468,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="6"/>
+      <c r="B206" s="4"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -5376,7 +5478,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="6"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5386,7 +5488,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="4"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5436,7 +5538,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="21"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -5446,7 +5548,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="19"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -5496,7 +5598,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="21"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -5556,7 +5658,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -5566,7 +5668,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="6"/>
+      <c r="B226" s="4"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -5576,8 +5678,8 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
@@ -5586,7 +5688,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="19"/>
+      <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5596,7 +5698,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5606,7 +5708,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5646,7 +5748,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -5656,7 +5758,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="7"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -5666,7 +5768,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="23"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -5686,7 +5788,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="23"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5726,7 +5828,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -5736,7 +5838,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -5786,7 +5888,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -5796,8 +5898,8 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
@@ -5806,7 +5908,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -5816,7 +5918,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="7"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -5826,7 +5928,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="23"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -5876,8 +5978,8 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="4"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
@@ -5886,7 +5988,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -5896,7 +5998,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="24"/>
+      <c r="B259" s="23"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -5924,9 +6026,9 @@
       <c r="G261" s="30"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8" ht="11.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="25"/>
+      <c r="B262" s="24"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -5934,9 +6036,9 @@
       <c r="G262" s="30"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" ht="11.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="23"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -5976,7 +6078,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -6006,7 +6108,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -6016,7 +6118,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -6024,15 +6126,15 @@
       <c r="G271" s="30"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="1:8" s="2" customFormat="1">
-      <c r="A272" s="4"/>
+    <row r="272" spans="1:8">
+      <c r="A272" s="7"/>
       <c r="B272" s="24"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="34"/>
-      <c r="H272" s="4"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="30"/>
+      <c r="H272" s="7"/>
     </row>
     <row r="273" spans="1:8" s="2" customFormat="1">
       <c r="A273" s="4"/>
@@ -6044,19 +6146,19 @@
       <c r="G273" s="34"/>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="7"/>
+    <row r="274" spans="1:8" s="2" customFormat="1">
+      <c r="A274" s="4"/>
       <c r="B274" s="24"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="7"/>
-      <c r="E274" s="7"/>
-      <c r="F274" s="7"/>
-      <c r="G274" s="30"/>
-      <c r="H274" s="7"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+      <c r="G274" s="34"/>
+      <c r="H274" s="4"/>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="23"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -6066,7 +6168,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="24"/>
+      <c r="B276" s="23"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -6096,7 +6198,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="22"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -6106,7 +6208,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -6126,7 +6228,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="20"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -6146,7 +6248,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -6177,7 +6279,7 @@
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
-      <c r="C287" s="7"/>
+      <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
@@ -6186,7 +6288,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="6"/>
+      <c r="B288" s="7"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -6196,7 +6298,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
+      <c r="B289" s="6"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -6276,7 +6378,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="6"/>
+      <c r="B297" s="7"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -6286,8 +6388,8 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
@@ -6296,7 +6398,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="19"/>
+      <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -6326,7 +6428,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="4"/>
+      <c r="B302" s="19"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -6386,7 +6488,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="19"/>
+      <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -6406,7 +6508,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="21"/>
+      <c r="B310" s="19"/>
       <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -6416,8 +6518,8 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="7"/>
-      <c r="C311" s="7"/>
+      <c r="B311" s="21"/>
+      <c r="C311" s="4"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
@@ -6426,7 +6528,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="6"/>
+      <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -6434,15 +6536,15 @@
       <c r="G312" s="30"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="1:8" s="2" customFormat="1">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="34"/>
-      <c r="H313" s="4"/>
+    <row r="313" spans="1:8">
+      <c r="A313" s="7"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" s="30"/>
+      <c r="H313" s="7"/>
     </row>
     <row r="314" spans="1:8" s="2" customFormat="1">
       <c r="A314" s="4"/>
@@ -6466,7 +6568,7 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="19"/>
+      <c r="B316" s="4"/>
       <c r="C316" s="9"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -6516,8 +6618,8 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="26"/>
-      <c r="C321" s="4"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="9"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -6566,7 +6668,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="21"/>
+      <c r="B326" s="26"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -6616,7 +6718,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="19"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -6626,7 +6728,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="21"/>
+      <c r="B332" s="19"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -6636,7 +6738,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
+      <c r="B333" s="21"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -6644,20 +6746,20 @@
       <c r="G333" s="34"/>
       <c r="H333" s="4"/>
     </row>
-    <row r="334" spans="1:8">
-      <c r="A334" s="7"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="7"/>
-      <c r="E334" s="7"/>
-      <c r="F334" s="7"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="7"/>
+    <row r="334" spans="1:8" s="2" customFormat="1">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+      <c r="G334" s="34"/>
+      <c r="H334" s="4"/>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="7"/>
-      <c r="B335" s="7"/>
-      <c r="C335" s="4"/>
+      <c r="B335" s="6"/>
+      <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
@@ -6726,7 +6828,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="4"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="4"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -6737,7 +6839,7 @@
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
       <c r="B343" s="4"/>
-      <c r="C343" s="7"/>
+      <c r="C343" s="4"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
@@ -6746,7 +6848,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="6"/>
+      <c r="B344" s="4"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -6756,7 +6858,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="B345" s="6"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -6766,7 +6868,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="22"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6776,7 +6878,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="22"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6816,7 +6918,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="6"/>
+      <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -6826,7 +6928,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -6836,7 +6938,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="20"/>
+      <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -6866,7 +6968,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -6876,7 +6978,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -6896,7 +6998,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="22"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -6906,7 +7008,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="20"/>
+      <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -6916,7 +7018,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -6926,7 +7028,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="20"/>
+      <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -6956,7 +7058,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -6966,7 +7068,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="27"/>
+      <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -6976,7 +7078,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="22"/>
+      <c r="B367" s="27"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -6986,8 +7088,8 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
-      <c r="C368" s="4"/>
+      <c r="B368" s="22"/>
+      <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
@@ -6996,7 +7098,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -7026,7 +7128,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
+      <c r="B372" s="20"/>
       <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -7056,7 +7158,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="20"/>
+      <c r="B375" s="7"/>
       <c r="C375" s="4"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -7076,8 +7178,8 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
-      <c r="C377" s="7"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="4"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
@@ -7086,7 +7188,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="6"/>
+      <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -7096,7 +7198,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
+      <c r="B379" s="6"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -7156,7 +7258,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="6"/>
+      <c r="B385" s="7"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -7166,7 +7268,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="6"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -7187,7 +7289,7 @@
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
-      <c r="C388" s="4"/>
+      <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
@@ -7196,7 +7298,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="20"/>
+      <c r="B389" s="7"/>
       <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -7207,7 +7309,7 @@
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
       <c r="B390" s="20"/>
-      <c r="C390" s="7"/>
+      <c r="C390" s="4"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
@@ -7216,7 +7318,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="27"/>
+      <c r="B391" s="20"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -7226,7 +7328,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="22"/>
+      <c r="B392" s="27"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -7276,7 +7378,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="22"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -7286,7 +7388,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="6"/>
+      <c r="B398" s="7"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7296,7 +7398,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="6"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -7306,7 +7408,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="20"/>
+      <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -7316,7 +7418,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="22"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7336,7 +7438,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="22"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7376,7 +7478,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -7386,7 +7488,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="20"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -7406,7 +7508,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="22"/>
+      <c r="B410" s="20"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7416,7 +7518,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="22"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7426,7 +7528,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7436,7 +7538,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7456,7 +7558,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7466,7 +7568,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7476,7 +7578,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="20"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -7496,7 +7598,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="20"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -7506,7 +7608,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -7516,7 +7618,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -7566,7 +7668,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="6"/>
+      <c r="B426" s="7"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -7576,7 +7678,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="B427" s="6"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -7636,7 +7738,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -7646,7 +7748,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -7666,7 +7768,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -7676,7 +7778,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="4"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -7696,7 +7798,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
+      <c r="B439" s="4"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -7726,7 +7828,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="6"/>
+      <c r="B442" s="7"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -7736,8 +7838,8 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
-      <c r="C443" s="4"/>
+      <c r="B443" s="6"/>
+      <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -7787,7 +7889,7 @@
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
-      <c r="C448" s="7"/>
+      <c r="C448" s="4"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -7796,7 +7898,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -7806,8 +7908,8 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
-      <c r="C450" s="4"/>
+      <c r="B450" s="6"/>
+      <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -7847,7 +7949,7 @@
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
-      <c r="C454" s="7"/>
+      <c r="C454" s="4"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
@@ -7856,7 +7958,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="6"/>
+      <c r="B455" s="7"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -7866,7 +7968,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="22"/>
+      <c r="B456" s="6"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -7926,7 +8028,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
+      <c r="B462" s="22"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -7936,7 +8038,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="6"/>
+      <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -7946,7 +8048,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="22"/>
+      <c r="B464" s="6"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -7975,8 +8077,8 @@
       <c r="H466" s="7"/>
     </row>
     <row r="467" spans="1:8">
-      <c r="A467" s="6"/>
-      <c r="B467" s="7"/>
+      <c r="A467" s="7"/>
+      <c r="B467" s="22"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -7985,7 +8087,7 @@
       <c r="H467" s="7"/>
     </row>
     <row r="468" spans="1:8">
-      <c r="A468" s="7"/>
+      <c r="A468" s="6"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
@@ -8026,7 +8128,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="28"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -8056,7 +8158,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
+      <c r="B475" s="28"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -8066,7 +8168,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="28"/>
+      <c r="B476" s="7"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -8076,7 +8178,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
+      <c r="B477" s="28"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -8086,21 +8188,21 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="29"/>
-      <c r="C478" s="30"/>
+      <c r="B478" s="7"/>
+      <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
-      <c r="F478" s="29"/>
+      <c r="F478" s="7"/>
       <c r="G478" s="30"/>
       <c r="H478" s="7"/>
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
-      <c r="C479" s="7"/>
+      <c r="B479" s="29"/>
+      <c r="C479" s="30"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
-      <c r="F479" s="7"/>
+      <c r="F479" s="29"/>
       <c r="G479" s="30"/>
       <c r="H479" s="7"/>
     </row>
@@ -12004,6 +12106,16 @@
       <c r="G869" s="30"/>
       <c r="H869" s="7"/>
     </row>
+    <row r="870" spans="1:8">
+      <c r="A870" s="7"/>
+      <c r="B870" s="7"/>
+      <c r="C870" s="7"/>
+      <c r="D870" s="7"/>
+      <c r="E870" s="7"/>
+      <c r="F870" s="7"/>
+      <c r="G870" s="30"/>
+      <c r="H870" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>Feature</t>
   </si>
@@ -340,6 +340,12 @@
   <si>
     <t>paste button</t>
   </si>
+  <si>
+    <t>0.00.08</t>
+  </si>
+  <si>
+    <t>05-15-2017</t>
+  </si>
 </sst>
 </file>
 
@@ -594,7 +600,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955091"/>
+          <c:w val="0.91978071330955102"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -655,7 +661,7 @@
                   <c:v>04-30-2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>05-15-2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -752,7 +758,7 @@
                   <c:v>04-30-2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>05-15-2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -849,7 +855,7 @@
                   <c:v>04-30-2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>05-15-2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -949,7 +955,7 @@
                   <c:v>04-30-2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>05-05-17</c:v>
+                  <c:v>05-15-2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -991,11 +997,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156360064"/>
-        <c:axId val="138679424"/>
+        <c:axId val="155311488"/>
+        <c:axId val="154997888"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="156360064"/>
+        <c:axId val="155311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138679424"/>
+        <c:crossAx val="154997888"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1038,7 +1044,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="138679424"/>
+        <c:axId val="154997888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156360064"/>
+        <c:crossAx val="155311488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1103,7 +1109,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844514"/>
+          <c:y val="0.37277147487844525"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1170,7 +1176,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1224,7 +1230,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127456E-2"/>
+          <c:x val="4.4510450248127477E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1287,7 +1293,7 @@
                   <c:v>04-30-2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>05-15-2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1329,11 +1335,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="138715520"/>
-        <c:axId val="138717056"/>
+        <c:axId val="155033984"/>
+        <c:axId val="155035520"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="138715520"/>
+        <c:axId val="155033984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,14 +1347,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="138717056"/>
+        <c:crossAx val="155035520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138717056"/>
+        <c:axId val="155035520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1391,7 +1397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138715520"/>
+        <c:crossAx val="155033984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1440,7 +1446,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1519,7 +1525,7 @@
                   <c:v>04-30-2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>05-15-2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1616,7 +1622,7 @@
                   <c:v>04-30-2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>05-05-17</c:v>
+                  <c:v>05-15-2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1658,11 +1664,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="138737920"/>
-        <c:axId val="138739712"/>
+        <c:axId val="155056384"/>
+        <c:axId val="155058176"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="138737920"/>
+        <c:axId val="155056384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138739712"/>
+        <c:crossAx val="155058176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1704,7 +1710,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138739712"/>
+        <c:axId val="155058176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138737920"/>
+        <c:crossAx val="155056384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1795,7 +1801,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3236,9 +3242,9 @@
   <dimension ref="A1:IT870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="10020" topLeftCell="A46"/>
+      <selection activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3673,8 +3679,8 @@
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="46">
-        <v>42860</v>
+      <c r="A56" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="B56" s="4">
         <v>35</v>
@@ -3689,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G56" s="30">
         <f t="shared" ref="G56" si="3">B56/SUM(B56:E56)</f>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>Feature</t>
   </si>
@@ -272,9 +272,6 @@
     <t>format options</t>
   </si>
   <si>
-    <t>masks passwords</t>
-  </si>
-  <si>
     <t>3/21/17</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>05-15-2017</t>
+  </si>
+  <si>
+    <t>0.00.09</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955102"/>
+          <c:w val="0.91978071330955113"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -633,9 +633,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -662,16 +662,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>05-15-2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$56</c:f>
+              <c:f>Progress!$B$48:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -697,6 +700,9 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -730,9 +736,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -759,16 +765,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>05-15-2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$56</c:f>
+              <c:f>Progress!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -795,6 +804,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,9 +839,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -856,16 +868,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>05-15-2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$56</c:f>
+              <c:f>Progress!$D$48:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -891,6 +906,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -924,9 +942,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$56</c:f>
+              <c:f>Progress!$A$47:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -956,16 +974,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>05-15-2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$56</c:f>
+              <c:f>Progress!$E$48:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -991,17 +1012,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155311488"/>
-        <c:axId val="154997888"/>
+        <c:axId val="154262912"/>
+        <c:axId val="153883776"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="155311488"/>
+        <c:axId val="154262912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154997888"/>
+        <c:crossAx val="153883776"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1044,7 +1068,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="154997888"/>
+        <c:axId val="153883776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155311488"/>
+        <c:crossAx val="154262912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1109,7 +1133,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844525"/>
+          <c:y val="0.37277147487844536"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1176,7 +1200,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1230,7 +1254,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127477E-2"/>
+          <c:x val="4.4510450248127491E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1265,9 +1289,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1294,16 +1318,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>05-15-2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$56</c:f>
+              <c:f>Progress!$G$48:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1330,16 +1357,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47297297297297297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155033984"/>
-        <c:axId val="155035520"/>
+        <c:axId val="153919872"/>
+        <c:axId val="153921408"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="155033984"/>
+        <c:axId val="153919872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,14 +1377,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="155035520"/>
+        <c:crossAx val="153921408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155035520"/>
+        <c:axId val="153921408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1397,7 +1427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155033984"/>
+        <c:crossAx val="153919872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1446,7 +1476,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1497,9 +1527,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1526,16 +1556,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>05-15-2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$56</c:f>
+              <c:f>Progress!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1562,6 +1595,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,9 +1630,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1623,16 +1659,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>05-15-2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$56</c:f>
+              <c:f>Progress!$D$48:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1658,17 +1697,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155056384"/>
-        <c:axId val="155058176"/>
+        <c:axId val="153942272"/>
+        <c:axId val="153944064"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="155056384"/>
+        <c:axId val="153942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155058176"/>
+        <c:crossAx val="153944064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1710,7 +1752,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155058176"/>
+        <c:axId val="153944064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155056384"/>
+        <c:crossAx val="153942272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1801,7 +1843,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1851,7 +1893,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2259,10 +2301,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2328,7 +2370,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2337,7 +2379,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
@@ -2359,46 +2401,46 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
-      <c r="B13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
-      <c r="B15" s="19"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" s="6" customFormat="1">
+      <c r="B18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="27" t="s">
-        <v>23</v>
+      <c r="B19" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
@@ -2406,8 +2448,8 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="20" t="s">
-        <v>22</v>
+      <c r="B20" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
@@ -2415,8 +2457,8 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="23" t="s">
-        <v>40</v>
+      <c r="B21" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
@@ -2425,25 +2467,25 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" s="6" customFormat="1">
+      <c r="B23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="23" t="s">
-        <v>33</v>
+      <c r="B24" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>2</v>
@@ -2452,25 +2494,25 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="24" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -2487,8 +2529,8 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="24" t="s">
-        <v>105</v>
+      <c r="B29" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2496,8 +2538,8 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="23" t="s">
-        <v>88</v>
+      <c r="B30" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2505,8 +2547,8 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="24" t="s">
-        <v>95</v>
+      <c r="B31" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2514,26 +2556,26 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="23" t="s">
-        <v>71</v>
+      <c r="B32" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4" s="6" customFormat="1">
+      <c r="B33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2542,16 +2584,16 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="20" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -2559,22 +2601,22 @@
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="27" t="s">
-        <v>46</v>
+      <c r="B39" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2583,25 +2625,25 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="20" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2609,22 +2651,22 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4" s="6" customFormat="1">
+      <c r="B44" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="22"/>
-      <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="27" t="s">
-        <v>51</v>
+      <c r="B45" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2633,7 +2675,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2641,17 +2683,17 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="20" t="s">
-        <v>58</v>
+      <c r="B47" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2660,7 +2702,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2669,16 +2711,16 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="23" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -2687,7 +2729,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="23" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>2</v>
@@ -2696,7 +2738,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="23" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -2705,7 +2747,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -2714,7 +2756,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="23" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2732,16 +2774,16 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="23" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2749,22 +2791,22 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="27" t="s">
-        <v>67</v>
+      <c r="B61" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -2772,17 +2814,17 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="20" t="s">
-        <v>68</v>
+      <c r="B62" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="23" t="s">
-        <v>70</v>
+      <c r="B63" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2790,12 +2832,8 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
@@ -2814,27 +2852,31 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2842,46 +2884,46 @@
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="19"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="B75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1">
+      <c r="B77" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="7"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22" t="s">
-        <v>53</v>
+      <c r="B78" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2890,7 +2932,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2899,7 +2941,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -2908,7 +2950,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -2916,22 +2958,22 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22"/>
-      <c r="C83" s="7"/>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="22" t="s">
-        <v>54</v>
+      <c r="B84" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2940,7 +2982,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2948,40 +2990,36 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="22"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="7"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
@@ -2995,7 +3033,7 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
@@ -3005,13 +3043,17 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="20"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="3" t="s">
-        <v>27</v>
+      <c r="B96" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>14</v>
@@ -3020,7 +3062,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3029,7 +3071,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3037,12 +3079,8 @@
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
@@ -3051,13 +3089,17 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="3" t="s">
-        <v>25</v>
+      <c r="B102" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -3066,7 +3108,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3075,7 +3117,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3083,27 +3125,27 @@
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B105" s="43"/>
+      <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="43"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="21"/>
-      <c r="C107" s="4"/>
+      <c r="B107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="3" t="s">
-        <v>19</v>
+      <c r="B108" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>14</v>
@@ -3112,7 +3154,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3120,21 +3162,17 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="19"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
@@ -3143,81 +3181,76 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" s="6" customFormat="1">
-      <c r="B114" s="21"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="3"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="6">
+        <f>COUNTIF(C5:C114,"y")</f>
+        <v>35</v>
+      </c>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="3"/>
       <c r="B116" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" s="6">
-        <f>COUNTIF(C5:C115,"y")</f>
-        <v>35</v>
+        <f>COUNTIF(C5:C114,"n")</f>
+        <v>39</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="3"/>
       <c r="B117" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="6">
-        <f>COUNTIF(C5:C115,"n")</f>
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="C117" s="7">
+        <f>COUNTIF(C5:C114,"TBD")</f>
+        <v>0</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="7">
-        <f>COUNTIF(C5:C115,"TBD")</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <f>SUM(C115:C117)</f>
+        <v>74</v>
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="18">
       <c r="A119" s="3"/>
-      <c r="B119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119">
-        <f>SUM(C116:C118)</f>
-        <v>75</v>
-      </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4" ht="18">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="41">
+        <f>C115/(C116+C115 + C117)</f>
+        <v>0.47297297297297297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="3"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="41">
-        <f>C116/(C117+C116 + C118)</f>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="3"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="3"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64869">
+  <conditionalFormatting sqref="C1:C3 C6:C64868">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3239,12 +3272,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT870"/>
+  <dimension ref="A1:IT871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10020" topLeftCell="A46"/>
+      <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3530,7 +3563,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="4">
         <v>17</v>
@@ -3555,7 +3588,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4">
         <v>25</v>
@@ -3570,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G55" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G56" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -3595,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="30">
         <f t="shared" si="2"/>
@@ -3620,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G53" s="30">
         <f t="shared" si="2"/>
@@ -3630,7 +3663,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="4">
         <v>31</v>
@@ -3645,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G54" s="30">
         <f t="shared" si="2"/>
@@ -3655,7 +3688,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="4">
         <v>31</v>
@@ -3670,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G55" s="30">
         <f t="shared" si="2"/>
@@ -3680,7 +3713,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="4">
         <v>35</v>
@@ -3695,22 +3728,37 @@
         <v>0</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G56" s="30">
-        <f t="shared" ref="G56" si="3">B56/SUM(B56:E56)</f>
+        <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="12"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="30"/>
+      <c r="A57" s="46">
+        <v>42800</v>
+      </c>
+      <c r="B57" s="4">
+        <v>35</v>
+      </c>
+      <c r="C57" s="4">
+        <v>39</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="30">
+        <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
+        <v>0.47297297297297297</v>
+      </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
@@ -3719,84 +3767,84 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="31"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E60" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="38">
-        <f>MIN(G56)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="39">
-        <f>SUM(B60:D60)</f>
-        <v>75</v>
-      </c>
-      <c r="B60" s="15">
+      <c r="G60" s="38">
+        <f>MIN(G57)</f>
+        <v>0.47297297297297297</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="39">
+        <f>SUM(B61:D61)</f>
+        <v>74</v>
+      </c>
+      <c r="B61" s="15">
+        <f>Features!C115</f>
+        <v>35</v>
+      </c>
+      <c r="C61" s="16">
         <f>Features!C116</f>
-        <v>35</v>
-      </c>
-      <c r="C60" s="16">
+        <v>39</v>
+      </c>
+      <c r="D61" s="17">
         <f>Features!C117</f>
-        <v>40</v>
-      </c>
-      <c r="D60" s="17">
-        <f>Features!C118</f>
         <v>0</v>
       </c>
-      <c r="E60" s="18">
-        <f>MIN(E56)</f>
+      <c r="E61" s="18">
+        <f>MIN(E57)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
-      <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="30"/>
       <c r="H62" s="7"/>
+      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -3806,7 +3854,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3826,7 +3874,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3846,7 +3894,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3866,7 +3914,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3876,7 +3924,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3895,7 +3943,7 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="20"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
@@ -3906,7 +3954,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -4037,7 +4085,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -4046,7 +4094,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -4054,15 +4102,15 @@
       <c r="G88" s="30"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="4"/>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" s="2" customFormat="1">
       <c r="A90" s="4"/>
@@ -4236,7 +4284,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="6"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -4246,7 +4294,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -4276,7 +4324,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -4316,7 +4364,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="21"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -4326,7 +4374,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4336,7 +4384,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="6"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4346,7 +4394,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4356,7 +4404,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="19"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4376,7 +4424,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4436,7 +4484,7 @@
     </row>
     <row r="127" spans="1:8" s="2" customFormat="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="19"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -4536,7 +4584,7 @@
     </row>
     <row r="137" spans="1:8" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -4586,7 +4634,7 @@
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="19"/>
+      <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -4606,7 +4654,7 @@
     </row>
     <row r="144" spans="1:8" s="2" customFormat="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -4645,284 +4693,284 @@
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:254" s="2" customFormat="1">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5"/>
-      <c r="V148" s="5"/>
-      <c r="W148" s="5"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
-      <c r="Z148" s="5"/>
-      <c r="AA148" s="5"/>
-      <c r="AB148" s="5"/>
-      <c r="AC148" s="5"/>
-      <c r="AD148" s="5"/>
-      <c r="AE148" s="5"/>
-      <c r="AF148" s="5"/>
-      <c r="AG148" s="5"/>
-      <c r="AH148" s="5"/>
-      <c r="AI148" s="5"/>
-      <c r="AJ148" s="5"/>
-      <c r="AK148" s="5"/>
-      <c r="AL148" s="5"/>
-      <c r="AM148" s="5"/>
-      <c r="AN148" s="5"/>
-      <c r="AO148" s="5"/>
-      <c r="AP148" s="5"/>
-      <c r="AQ148" s="5"/>
-      <c r="AR148" s="5"/>
-      <c r="AS148" s="5"/>
-      <c r="AT148" s="5"/>
-      <c r="AU148" s="5"/>
-      <c r="AV148" s="5"/>
-      <c r="AW148" s="5"/>
-      <c r="AX148" s="5"/>
-      <c r="AY148" s="5"/>
-      <c r="AZ148" s="5"/>
-      <c r="BA148" s="5"/>
-      <c r="BB148" s="5"/>
-      <c r="BC148" s="5"/>
-      <c r="BD148" s="5"/>
-      <c r="BE148" s="5"/>
-      <c r="BF148" s="5"/>
-      <c r="BG148" s="5"/>
-      <c r="BH148" s="5"/>
-      <c r="BI148" s="5"/>
-      <c r="BJ148" s="5"/>
-      <c r="BK148" s="5"/>
-      <c r="BL148" s="5"/>
-      <c r="BM148" s="5"/>
-      <c r="BN148" s="5"/>
-      <c r="BO148" s="5"/>
-      <c r="BP148" s="5"/>
-      <c r="BQ148" s="5"/>
-      <c r="BR148" s="5"/>
-      <c r="BS148" s="5"/>
-      <c r="BT148" s="5"/>
-      <c r="BU148" s="5"/>
-      <c r="BV148" s="5"/>
-      <c r="BW148" s="5"/>
-      <c r="BX148" s="5"/>
-      <c r="BY148" s="5"/>
-      <c r="BZ148" s="5"/>
-      <c r="CA148" s="5"/>
-      <c r="CB148" s="5"/>
-      <c r="CC148" s="5"/>
-      <c r="CD148" s="5"/>
-      <c r="CE148" s="5"/>
-      <c r="CF148" s="5"/>
-      <c r="CG148" s="5"/>
-      <c r="CH148" s="5"/>
-      <c r="CI148" s="5"/>
-      <c r="CJ148" s="5"/>
-      <c r="CK148" s="5"/>
-      <c r="CL148" s="5"/>
-      <c r="CM148" s="5"/>
-      <c r="CN148" s="5"/>
-      <c r="CO148" s="5"/>
-      <c r="CP148" s="5"/>
-      <c r="CQ148" s="5"/>
-      <c r="CR148" s="5"/>
-      <c r="CS148" s="5"/>
-      <c r="CT148" s="5"/>
-      <c r="CU148" s="5"/>
-      <c r="CV148" s="5"/>
-      <c r="CW148" s="5"/>
-      <c r="CX148" s="5"/>
-      <c r="CY148" s="5"/>
-      <c r="CZ148" s="5"/>
-      <c r="DA148" s="5"/>
-      <c r="DB148" s="5"/>
-      <c r="DC148" s="5"/>
-      <c r="DD148" s="5"/>
-      <c r="DE148" s="5"/>
-      <c r="DF148" s="5"/>
-      <c r="DG148" s="5"/>
-      <c r="DH148" s="5"/>
-      <c r="DI148" s="5"/>
-      <c r="DJ148" s="5"/>
-      <c r="DK148" s="5"/>
-      <c r="DL148" s="5"/>
-      <c r="DM148" s="5"/>
-      <c r="DN148" s="5"/>
-      <c r="DO148" s="5"/>
-      <c r="DP148" s="5"/>
-      <c r="DQ148" s="5"/>
-      <c r="DR148" s="5"/>
-      <c r="DS148" s="5"/>
-      <c r="DT148" s="5"/>
-      <c r="DU148" s="5"/>
-      <c r="DV148" s="5"/>
-      <c r="DW148" s="5"/>
-      <c r="DX148" s="5"/>
-      <c r="DY148" s="5"/>
-      <c r="DZ148" s="5"/>
-      <c r="EA148" s="5"/>
-      <c r="EB148" s="5"/>
-      <c r="EC148" s="5"/>
-      <c r="ED148" s="5"/>
-      <c r="EE148" s="5"/>
-      <c r="EF148" s="5"/>
-      <c r="EG148" s="5"/>
-      <c r="EH148" s="5"/>
-      <c r="EI148" s="5"/>
-      <c r="EJ148" s="5"/>
-      <c r="EK148" s="5"/>
-      <c r="EL148" s="5"/>
-      <c r="EM148" s="5"/>
-      <c r="EN148" s="5"/>
-      <c r="EO148" s="5"/>
-      <c r="EP148" s="5"/>
-      <c r="EQ148" s="5"/>
-      <c r="ER148" s="5"/>
-      <c r="ES148" s="5"/>
-      <c r="ET148" s="5"/>
-      <c r="EU148" s="5"/>
-      <c r="EV148" s="5"/>
-      <c r="EW148" s="5"/>
-      <c r="EX148" s="5"/>
-      <c r="EY148" s="5"/>
-      <c r="EZ148" s="5"/>
-      <c r="FA148" s="5"/>
-      <c r="FB148" s="5"/>
-      <c r="FC148" s="5"/>
-      <c r="FD148" s="5"/>
-      <c r="FE148" s="5"/>
-      <c r="FF148" s="5"/>
-      <c r="FG148" s="5"/>
-      <c r="FH148" s="5"/>
-      <c r="FI148" s="5"/>
-      <c r="FJ148" s="5"/>
-      <c r="FK148" s="5"/>
-      <c r="FL148" s="5"/>
-      <c r="FM148" s="5"/>
-      <c r="FN148" s="5"/>
-      <c r="FO148" s="5"/>
-      <c r="FP148" s="5"/>
-      <c r="FQ148" s="5"/>
-      <c r="FR148" s="5"/>
-      <c r="FS148" s="5"/>
-      <c r="FT148" s="5"/>
-      <c r="FU148" s="5"/>
-      <c r="FV148" s="5"/>
-      <c r="FW148" s="5"/>
-      <c r="FX148" s="5"/>
-      <c r="FY148" s="5"/>
-      <c r="FZ148" s="5"/>
-      <c r="GA148" s="5"/>
-      <c r="GB148" s="5"/>
-      <c r="GC148" s="5"/>
-      <c r="GD148" s="5"/>
-      <c r="GE148" s="5"/>
-      <c r="GF148" s="5"/>
-      <c r="GG148" s="5"/>
-      <c r="GH148" s="5"/>
-      <c r="GI148" s="5"/>
-      <c r="GJ148" s="5"/>
-      <c r="GK148" s="5"/>
-      <c r="GL148" s="5"/>
-      <c r="GM148" s="5"/>
-      <c r="GN148" s="5"/>
-      <c r="GO148" s="5"/>
-      <c r="GP148" s="5"/>
-      <c r="GQ148" s="5"/>
-      <c r="GR148" s="5"/>
-      <c r="GS148" s="5"/>
-      <c r="GT148" s="5"/>
-      <c r="GU148" s="5"/>
-      <c r="GV148" s="5"/>
-      <c r="GW148" s="5"/>
-      <c r="GX148" s="5"/>
-      <c r="GY148" s="5"/>
-      <c r="GZ148" s="5"/>
-      <c r="HA148" s="5"/>
-      <c r="HB148" s="5"/>
-      <c r="HC148" s="5"/>
-      <c r="HD148" s="5"/>
-      <c r="HE148" s="5"/>
-      <c r="HF148" s="5"/>
-      <c r="HG148" s="5"/>
-      <c r="HH148" s="5"/>
-      <c r="HI148" s="5"/>
-      <c r="HJ148" s="5"/>
-      <c r="HK148" s="5"/>
-      <c r="HL148" s="5"/>
-      <c r="HM148" s="5"/>
-      <c r="HN148" s="5"/>
-      <c r="HO148" s="5"/>
-      <c r="HP148" s="5"/>
-      <c r="HQ148" s="5"/>
-      <c r="HR148" s="5"/>
-      <c r="HS148" s="5"/>
-      <c r="HT148" s="5"/>
-      <c r="HU148" s="5"/>
-      <c r="HV148" s="5"/>
-      <c r="HW148" s="5"/>
-      <c r="HX148" s="5"/>
-      <c r="HY148" s="5"/>
-      <c r="HZ148" s="5"/>
-      <c r="IA148" s="5"/>
-      <c r="IB148" s="5"/>
-      <c r="IC148" s="5"/>
-      <c r="ID148" s="5"/>
-      <c r="IE148" s="5"/>
-      <c r="IF148" s="5"/>
-      <c r="IG148" s="5"/>
-      <c r="IH148" s="5"/>
-      <c r="II148" s="5"/>
-      <c r="IJ148" s="5"/>
-      <c r="IK148" s="5"/>
-      <c r="IL148" s="5"/>
-      <c r="IM148" s="5"/>
-      <c r="IN148" s="5"/>
-      <c r="IO148" s="5"/>
-      <c r="IP148" s="5"/>
-      <c r="IQ148" s="5"/>
-      <c r="IR148" s="5"/>
-      <c r="IS148" s="5"/>
-      <c r="IT148" s="5"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:254" s="2" customFormat="1">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="1:254">
-      <c r="A150" s="7"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="7"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+      <c r="AJ149" s="5"/>
+      <c r="AK149" s="5"/>
+      <c r="AL149" s="5"/>
+      <c r="AM149" s="5"/>
+      <c r="AN149" s="5"/>
+      <c r="AO149" s="5"/>
+      <c r="AP149" s="5"/>
+      <c r="AQ149" s="5"/>
+      <c r="AR149" s="5"/>
+      <c r="AS149" s="5"/>
+      <c r="AT149" s="5"/>
+      <c r="AU149" s="5"/>
+      <c r="AV149" s="5"/>
+      <c r="AW149" s="5"/>
+      <c r="AX149" s="5"/>
+      <c r="AY149" s="5"/>
+      <c r="AZ149" s="5"/>
+      <c r="BA149" s="5"/>
+      <c r="BB149" s="5"/>
+      <c r="BC149" s="5"/>
+      <c r="BD149" s="5"/>
+      <c r="BE149" s="5"/>
+      <c r="BF149" s="5"/>
+      <c r="BG149" s="5"/>
+      <c r="BH149" s="5"/>
+      <c r="BI149" s="5"/>
+      <c r="BJ149" s="5"/>
+      <c r="BK149" s="5"/>
+      <c r="BL149" s="5"/>
+      <c r="BM149" s="5"/>
+      <c r="BN149" s="5"/>
+      <c r="BO149" s="5"/>
+      <c r="BP149" s="5"/>
+      <c r="BQ149" s="5"/>
+      <c r="BR149" s="5"/>
+      <c r="BS149" s="5"/>
+      <c r="BT149" s="5"/>
+      <c r="BU149" s="5"/>
+      <c r="BV149" s="5"/>
+      <c r="BW149" s="5"/>
+      <c r="BX149" s="5"/>
+      <c r="BY149" s="5"/>
+      <c r="BZ149" s="5"/>
+      <c r="CA149" s="5"/>
+      <c r="CB149" s="5"/>
+      <c r="CC149" s="5"/>
+      <c r="CD149" s="5"/>
+      <c r="CE149" s="5"/>
+      <c r="CF149" s="5"/>
+      <c r="CG149" s="5"/>
+      <c r="CH149" s="5"/>
+      <c r="CI149" s="5"/>
+      <c r="CJ149" s="5"/>
+      <c r="CK149" s="5"/>
+      <c r="CL149" s="5"/>
+      <c r="CM149" s="5"/>
+      <c r="CN149" s="5"/>
+      <c r="CO149" s="5"/>
+      <c r="CP149" s="5"/>
+      <c r="CQ149" s="5"/>
+      <c r="CR149" s="5"/>
+      <c r="CS149" s="5"/>
+      <c r="CT149" s="5"/>
+      <c r="CU149" s="5"/>
+      <c r="CV149" s="5"/>
+      <c r="CW149" s="5"/>
+      <c r="CX149" s="5"/>
+      <c r="CY149" s="5"/>
+      <c r="CZ149" s="5"/>
+      <c r="DA149" s="5"/>
+      <c r="DB149" s="5"/>
+      <c r="DC149" s="5"/>
+      <c r="DD149" s="5"/>
+      <c r="DE149" s="5"/>
+      <c r="DF149" s="5"/>
+      <c r="DG149" s="5"/>
+      <c r="DH149" s="5"/>
+      <c r="DI149" s="5"/>
+      <c r="DJ149" s="5"/>
+      <c r="DK149" s="5"/>
+      <c r="DL149" s="5"/>
+      <c r="DM149" s="5"/>
+      <c r="DN149" s="5"/>
+      <c r="DO149" s="5"/>
+      <c r="DP149" s="5"/>
+      <c r="DQ149" s="5"/>
+      <c r="DR149" s="5"/>
+      <c r="DS149" s="5"/>
+      <c r="DT149" s="5"/>
+      <c r="DU149" s="5"/>
+      <c r="DV149" s="5"/>
+      <c r="DW149" s="5"/>
+      <c r="DX149" s="5"/>
+      <c r="DY149" s="5"/>
+      <c r="DZ149" s="5"/>
+      <c r="EA149" s="5"/>
+      <c r="EB149" s="5"/>
+      <c r="EC149" s="5"/>
+      <c r="ED149" s="5"/>
+      <c r="EE149" s="5"/>
+      <c r="EF149" s="5"/>
+      <c r="EG149" s="5"/>
+      <c r="EH149" s="5"/>
+      <c r="EI149" s="5"/>
+      <c r="EJ149" s="5"/>
+      <c r="EK149" s="5"/>
+      <c r="EL149" s="5"/>
+      <c r="EM149" s="5"/>
+      <c r="EN149" s="5"/>
+      <c r="EO149" s="5"/>
+      <c r="EP149" s="5"/>
+      <c r="EQ149" s="5"/>
+      <c r="ER149" s="5"/>
+      <c r="ES149" s="5"/>
+      <c r="ET149" s="5"/>
+      <c r="EU149" s="5"/>
+      <c r="EV149" s="5"/>
+      <c r="EW149" s="5"/>
+      <c r="EX149" s="5"/>
+      <c r="EY149" s="5"/>
+      <c r="EZ149" s="5"/>
+      <c r="FA149" s="5"/>
+      <c r="FB149" s="5"/>
+      <c r="FC149" s="5"/>
+      <c r="FD149" s="5"/>
+      <c r="FE149" s="5"/>
+      <c r="FF149" s="5"/>
+      <c r="FG149" s="5"/>
+      <c r="FH149" s="5"/>
+      <c r="FI149" s="5"/>
+      <c r="FJ149" s="5"/>
+      <c r="FK149" s="5"/>
+      <c r="FL149" s="5"/>
+      <c r="FM149" s="5"/>
+      <c r="FN149" s="5"/>
+      <c r="FO149" s="5"/>
+      <c r="FP149" s="5"/>
+      <c r="FQ149" s="5"/>
+      <c r="FR149" s="5"/>
+      <c r="FS149" s="5"/>
+      <c r="FT149" s="5"/>
+      <c r="FU149" s="5"/>
+      <c r="FV149" s="5"/>
+      <c r="FW149" s="5"/>
+      <c r="FX149" s="5"/>
+      <c r="FY149" s="5"/>
+      <c r="FZ149" s="5"/>
+      <c r="GA149" s="5"/>
+      <c r="GB149" s="5"/>
+      <c r="GC149" s="5"/>
+      <c r="GD149" s="5"/>
+      <c r="GE149" s="5"/>
+      <c r="GF149" s="5"/>
+      <c r="GG149" s="5"/>
+      <c r="GH149" s="5"/>
+      <c r="GI149" s="5"/>
+      <c r="GJ149" s="5"/>
+      <c r="GK149" s="5"/>
+      <c r="GL149" s="5"/>
+      <c r="GM149" s="5"/>
+      <c r="GN149" s="5"/>
+      <c r="GO149" s="5"/>
+      <c r="GP149" s="5"/>
+      <c r="GQ149" s="5"/>
+      <c r="GR149" s="5"/>
+      <c r="GS149" s="5"/>
+      <c r="GT149" s="5"/>
+      <c r="GU149" s="5"/>
+      <c r="GV149" s="5"/>
+      <c r="GW149" s="5"/>
+      <c r="GX149" s="5"/>
+      <c r="GY149" s="5"/>
+      <c r="GZ149" s="5"/>
+      <c r="HA149" s="5"/>
+      <c r="HB149" s="5"/>
+      <c r="HC149" s="5"/>
+      <c r="HD149" s="5"/>
+      <c r="HE149" s="5"/>
+      <c r="HF149" s="5"/>
+      <c r="HG149" s="5"/>
+      <c r="HH149" s="5"/>
+      <c r="HI149" s="5"/>
+      <c r="HJ149" s="5"/>
+      <c r="HK149" s="5"/>
+      <c r="HL149" s="5"/>
+      <c r="HM149" s="5"/>
+      <c r="HN149" s="5"/>
+      <c r="HO149" s="5"/>
+      <c r="HP149" s="5"/>
+      <c r="HQ149" s="5"/>
+      <c r="HR149" s="5"/>
+      <c r="HS149" s="5"/>
+      <c r="HT149" s="5"/>
+      <c r="HU149" s="5"/>
+      <c r="HV149" s="5"/>
+      <c r="HW149" s="5"/>
+      <c r="HX149" s="5"/>
+      <c r="HY149" s="5"/>
+      <c r="HZ149" s="5"/>
+      <c r="IA149" s="5"/>
+      <c r="IB149" s="5"/>
+      <c r="IC149" s="5"/>
+      <c r="ID149" s="5"/>
+      <c r="IE149" s="5"/>
+      <c r="IF149" s="5"/>
+      <c r="IG149" s="5"/>
+      <c r="IH149" s="5"/>
+      <c r="II149" s="5"/>
+      <c r="IJ149" s="5"/>
+      <c r="IK149" s="5"/>
+      <c r="IL149" s="5"/>
+      <c r="IM149" s="5"/>
+      <c r="IN149" s="5"/>
+      <c r="IO149" s="5"/>
+      <c r="IP149" s="5"/>
+      <c r="IQ149" s="5"/>
+      <c r="IR149" s="5"/>
+      <c r="IS149" s="5"/>
+      <c r="IT149" s="5"/>
+    </row>
+    <row r="150" spans="1:254" s="2" customFormat="1">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -4932,7 +4980,7 @@
     </row>
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
-      <c r="B152" s="20"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -4942,7 +4990,7 @@
     </row>
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -4953,7 +5001,7 @@
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -4993,7 +5041,7 @@
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
@@ -5002,7 +5050,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -5022,7 +5070,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -5032,7 +5080,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -5052,7 +5100,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -5072,7 +5120,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -5091,10 +5139,8 @@
       <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B168" s="7"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -5103,7 +5149,9 @@
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="7"/>
+      <c r="A169" s="45">
+        <v>43011</v>
+      </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -5114,7 +5162,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -5134,7 +5182,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -5174,7 +5222,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="6"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -5184,8 +5232,8 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -5194,7 +5242,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="19"/>
+      <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -5264,7 +5312,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="4"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -5274,7 +5322,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="19"/>
+      <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -5284,7 +5332,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="21"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -5304,7 +5352,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -5345,7 +5393,7 @@
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
       <c r="B193" s="19"/>
-      <c r="C193" s="7"/>
+      <c r="C193" s="4"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
@@ -5354,7 +5402,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="4"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -5374,7 +5422,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="19"/>
+      <c r="B196" s="4"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -5434,7 +5482,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="21"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -5474,7 +5522,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -5484,7 +5532,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="6"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5494,7 +5542,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="4"/>
+      <c r="B208" s="6"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5504,7 +5552,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="4"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5554,7 +5602,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="21"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -5564,7 +5612,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="19"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -5614,7 +5662,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="21"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -5674,7 +5722,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="4"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -5684,7 +5732,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="6"/>
+      <c r="B227" s="4"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -5694,8 +5742,8 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
@@ -5704,7 +5752,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="19"/>
+      <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5714,7 +5762,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5724,7 +5772,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="7"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5764,7 +5812,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -5774,7 +5822,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="7"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -5784,7 +5832,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="23"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5804,7 +5852,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="23"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -5844,7 +5892,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -5854,7 +5902,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
+      <c r="B244" s="7"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -5904,7 +5952,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -5914,8 +5962,8 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
@@ -5924,7 +5972,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -5934,7 +5982,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
+      <c r="B252" s="7"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -5944,7 +5992,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="23"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -5994,8 +6042,8 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="4"/>
+      <c r="B258" s="23"/>
+      <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
@@ -6004,7 +6052,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -6014,7 +6062,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="24"/>
+      <c r="B260" s="23"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -6042,9 +6090,9 @@
       <c r="G262" s="30"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8" ht="11.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="25"/>
+      <c r="B263" s="24"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -6052,9 +6100,9 @@
       <c r="G263" s="30"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" ht="11.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -6094,7 +6142,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -6124,7 +6172,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -6134,7 +6182,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -6142,15 +6190,15 @@
       <c r="G272" s="30"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="1:8" s="2" customFormat="1">
-      <c r="A273" s="4"/>
+    <row r="273" spans="1:8">
+      <c r="A273" s="7"/>
       <c r="B273" s="24"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="34"/>
-      <c r="H273" s="4"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="30"/>
+      <c r="H273" s="7"/>
     </row>
     <row r="274" spans="1:8" s="2" customFormat="1">
       <c r="A274" s="4"/>
@@ -6162,19 +6210,19 @@
       <c r="G274" s="34"/>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="7"/>
+    <row r="275" spans="1:8" s="2" customFormat="1">
+      <c r="A275" s="4"/>
       <c r="B275" s="24"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="7"/>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="30"/>
-      <c r="H275" s="7"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="34"/>
+      <c r="H275" s="4"/>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="23"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -6184,7 +6232,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="24"/>
+      <c r="B277" s="23"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -6214,7 +6262,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="22"/>
+      <c r="B280" s="24"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -6224,7 +6272,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -6244,7 +6292,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="20"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -6264,7 +6312,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -6295,7 +6343,7 @@
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
-      <c r="C288" s="7"/>
+      <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
@@ -6304,7 +6352,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="6"/>
+      <c r="B289" s="7"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -6314,7 +6362,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
+      <c r="B290" s="6"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -6394,7 +6442,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="6"/>
+      <c r="B298" s="7"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -6404,8 +6452,8 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
@@ -6414,7 +6462,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="19"/>
+      <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -6444,7 +6492,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="4"/>
+      <c r="B303" s="19"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -6504,7 +6552,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="19"/>
+      <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -6524,7 +6572,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="21"/>
+      <c r="B311" s="19"/>
       <c r="C311" s="4"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -6534,8 +6582,8 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="7"/>
-      <c r="C312" s="7"/>
+      <c r="B312" s="21"/>
+      <c r="C312" s="4"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
@@ -6544,7 +6592,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="6"/>
+      <c r="B313" s="7"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -6552,15 +6600,15 @@
       <c r="G313" s="30"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="1:8" s="2" customFormat="1">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="34"/>
-      <c r="H314" s="4"/>
+    <row r="314" spans="1:8">
+      <c r="A314" s="7"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
+      <c r="G314" s="30"/>
+      <c r="H314" s="7"/>
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
@@ -6584,7 +6632,7 @@
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
-      <c r="B317" s="19"/>
+      <c r="B317" s="4"/>
       <c r="C317" s="9"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -6634,8 +6682,8 @@
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="26"/>
-      <c r="C322" s="4"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="9"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -6684,7 +6732,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="21"/>
+      <c r="B327" s="26"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -6734,7 +6782,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="19"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -6744,7 +6792,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="21"/>
+      <c r="B333" s="19"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -6754,7 +6802,7 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="4"/>
+      <c r="B334" s="21"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -6762,20 +6810,20 @@
       <c r="G334" s="34"/>
       <c r="H334" s="4"/>
     </row>
-    <row r="335" spans="1:8">
-      <c r="A335" s="7"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="7"/>
-      <c r="D335" s="7"/>
-      <c r="E335" s="7"/>
-      <c r="F335" s="7"/>
-      <c r="G335" s="30"/>
-      <c r="H335" s="7"/>
+    <row r="335" spans="1:8" s="2" customFormat="1">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="34"/>
+      <c r="H335" s="4"/>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="7"/>
-      <c r="B336" s="7"/>
-      <c r="C336" s="4"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
@@ -6844,7 +6892,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="4"/>
+      <c r="B343" s="7"/>
       <c r="C343" s="4"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -6855,7 +6903,7 @@
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
       <c r="B344" s="4"/>
-      <c r="C344" s="7"/>
+      <c r="C344" s="4"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
@@ -6864,7 +6912,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="6"/>
+      <c r="B345" s="4"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -6874,7 +6922,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6884,7 +6932,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="22"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6894,7 +6942,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="22"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -6934,7 +6982,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="6"/>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -6944,7 +6992,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -6954,7 +7002,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="7"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -6984,7 +7032,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -6994,7 +7042,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -7014,7 +7062,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -7024,7 +7072,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -7034,7 +7082,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -7044,7 +7092,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="22"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -7074,7 +7122,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -7084,7 +7132,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="27"/>
+      <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -7094,7 +7142,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="22"/>
+      <c r="B368" s="27"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -7104,8 +7152,8 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
-      <c r="C369" s="4"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
@@ -7114,7 +7162,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -7144,7 +7192,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="20"/>
       <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -7174,7 +7222,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="20"/>
+      <c r="B376" s="7"/>
       <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -7194,8 +7242,8 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
-      <c r="C378" s="7"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="4"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
@@ -7204,7 +7252,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="6"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -7214,7 +7262,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -7274,7 +7322,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="6"/>
+      <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -7284,7 +7332,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="6"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -7305,7 +7353,7 @@
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
-      <c r="C389" s="4"/>
+      <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
@@ -7314,7 +7362,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="20"/>
+      <c r="B390" s="7"/>
       <c r="C390" s="4"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -7325,7 +7373,7 @@
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
       <c r="B391" s="20"/>
-      <c r="C391" s="7"/>
+      <c r="C391" s="4"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
@@ -7334,7 +7382,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="27"/>
+      <c r="B392" s="20"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -7344,7 +7392,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="22"/>
+      <c r="B393" s="27"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -7394,7 +7442,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -7404,7 +7452,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="6"/>
+      <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -7414,7 +7462,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="6"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -7424,7 +7472,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="20"/>
+      <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7434,7 +7482,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="22"/>
+      <c r="B402" s="20"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7454,7 +7502,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="20"/>
+      <c r="B404" s="22"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7494,7 +7542,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="20"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -7504,7 +7552,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="20"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7524,7 +7572,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="22"/>
+      <c r="B411" s="20"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7534,7 +7582,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="22"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7544,7 +7592,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="6"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7554,7 +7602,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="6"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7574,7 +7622,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7584,7 +7632,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -7594,7 +7642,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="20"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -7614,7 +7662,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="20"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -7624,7 +7672,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -7634,7 +7682,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -7684,7 +7732,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -7694,7 +7742,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -7754,7 +7802,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -7764,7 +7812,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -7784,7 +7832,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -7794,7 +7842,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="4"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -7814,7 +7862,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="B440" s="4"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -7844,7 +7892,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -7854,8 +7902,8 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="4"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -7905,7 +7953,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="4"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -7914,7 +7962,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -7924,8 +7972,8 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
-      <c r="C451" s="4"/>
+      <c r="B451" s="6"/>
+      <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -7965,7 +8013,7 @@
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
-      <c r="C455" s="7"/>
+      <c r="C455" s="4"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
@@ -7974,7 +8022,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="6"/>
+      <c r="B456" s="7"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -7984,7 +8032,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="22"/>
+      <c r="B457" s="6"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -8044,7 +8092,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="7"/>
+      <c r="B463" s="22"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -8054,7 +8102,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="6"/>
+      <c r="B464" s="7"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -8064,7 +8112,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
-      <c r="B465" s="22"/>
+      <c r="B465" s="6"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -8093,8 +8141,8 @@
       <c r="H467" s="7"/>
     </row>
     <row r="468" spans="1:8">
-      <c r="A468" s="6"/>
-      <c r="B468" s="7"/>
+      <c r="A468" s="7"/>
+      <c r="B468" s="22"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -8103,7 +8151,7 @@
       <c r="H468" s="7"/>
     </row>
     <row r="469" spans="1:8">
-      <c r="A469" s="7"/>
+      <c r="A469" s="6"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
@@ -8144,7 +8192,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="28"/>
+      <c r="B473" s="7"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -8174,7 +8222,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="28"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -8184,7 +8232,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="28"/>
+      <c r="B477" s="7"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -8194,7 +8242,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
+      <c r="B478" s="28"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -8204,21 +8252,21 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="29"/>
-      <c r="C479" s="30"/>
+      <c r="B479" s="7"/>
+      <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
-      <c r="F479" s="29"/>
+      <c r="F479" s="7"/>
       <c r="G479" s="30"/>
       <c r="H479" s="7"/>
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
-      <c r="C480" s="7"/>
+      <c r="B480" s="29"/>
+      <c r="C480" s="30"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
-      <c r="F480" s="7"/>
+      <c r="F480" s="29"/>
       <c r="G480" s="30"/>
       <c r="H480" s="7"/>
     </row>
@@ -12122,6 +12170,16 @@
       <c r="G870" s="30"/>
       <c r="H870" s="7"/>
     </row>
+    <row r="871" spans="1:8">
+      <c r="A871" s="7"/>
+      <c r="B871" s="7"/>
+      <c r="C871" s="7"/>
+      <c r="D871" s="7"/>
+      <c r="E871" s="7"/>
+      <c r="F871" s="7"/>
+      <c r="G871" s="30"/>
+      <c r="H871" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>Feature</t>
   </si>
@@ -314,9 +314,6 @@
     <t>select all</t>
   </si>
   <si>
-    <t>show only if contains a valid json</t>
-  </si>
-  <si>
     <t>parses json</t>
   </si>
   <si>
@@ -345,6 +342,21 @@
   </si>
   <si>
     <t>0.00.09</t>
+  </si>
+  <si>
+    <t>xml tag</t>
+  </si>
+  <si>
+    <t>xml attribute</t>
+  </si>
+  <si>
+    <t>xml attribute value</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -600,7 +612,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955113"/>
+          <c:w val="0.91978071330955125"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -703,7 +715,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,7 +818,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,11 +1033,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154262912"/>
-        <c:axId val="153883776"/>
+        <c:axId val="146660736"/>
+        <c:axId val="146281600"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="154262912"/>
+        <c:axId val="146660736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153883776"/>
+        <c:crossAx val="146281600"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1068,7 +1080,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153883776"/>
+        <c:axId val="146281600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154262912"/>
+        <c:crossAx val="146660736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,7 +1145,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844536"/>
+          <c:y val="0.37277147487844542"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1200,7 +1212,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1254,7 +1266,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127491E-2"/>
+          <c:x val="4.4510450248127505E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1359,17 +1371,17 @@
                   <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47297297297297297</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153919872"/>
-        <c:axId val="153921408"/>
+        <c:axId val="146317696"/>
+        <c:axId val="146319232"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="153919872"/>
+        <c:axId val="146317696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,14 +1389,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="153921408"/>
+        <c:crossAx val="146319232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153921408"/>
+        <c:axId val="146319232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1427,7 +1439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153919872"/>
+        <c:crossAx val="146317696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1476,7 +1488,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1597,7 +1609,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,11 +1718,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153942272"/>
-        <c:axId val="153944064"/>
+        <c:axId val="146340096"/>
+        <c:axId val="146341888"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="153942272"/>
+        <c:axId val="146340096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153944064"/>
+        <c:crossAx val="146341888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1764,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153944064"/>
+        <c:axId val="146341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153942272"/>
+        <c:crossAx val="146340096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1843,7 +1855,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2301,10 +2313,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2370,7 +2382,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2379,10 +2391,10 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -2512,7 +2524,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
@@ -2521,7 +2533,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2566,7 +2578,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2575,7 +2587,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2958,13 +2970,17 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22" t="s">
-        <v>54</v>
+      <c r="B83" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -2973,7 +2989,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2982,7 +2998,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -2990,27 +3006,31 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
-        <v>98</v>
+      <c r="B89" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3018,8 +3038,12 @@
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="7"/>
+      <c r="B90" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
@@ -3028,41 +3052,37 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="20"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="20"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="20"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" s="6" customFormat="1">
+      <c r="B96" s="20"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1">
+      <c r="B97" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -3071,7 +3091,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3079,36 +3099,36 @@
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="22"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="22"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1">
+      <c r="B102" s="22"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" s="6" customFormat="1">
+      <c r="B103" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3117,7 +3137,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3125,36 +3145,36 @@
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="43"/>
-      <c r="C105" s="4"/>
+      <c r="B105" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="21"/>
-      <c r="C106" s="4"/>
+      <c r="B106" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="43"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="21"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="22" t="s">
-        <v>21</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3162,95 +3182,113 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="4"/>
+      <c r="B110" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="19"/>
-      <c r="C111" s="4"/>
+      <c r="B111" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="21"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1">
-      <c r="B113" s="21"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="3"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="3"/>
-      <c r="B115" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="6">
-        <f>COUNTIF(C5:C114,"y")</f>
-        <v>35</v>
-      </c>
-      <c r="D115" s="2"/>
+    <row r="114" spans="1:4" s="6" customFormat="1">
+      <c r="B114" s="21"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" s="6" customFormat="1">
+      <c r="B115" s="21"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="3"/>
-      <c r="B116" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="6">
-        <f>COUNTIF(C5:C114,"n")</f>
-        <v>39</v>
-      </c>
-      <c r="D116" s="2"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="3"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="3"/>
       <c r="B117" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="7">
-        <f>COUNTIF(C5:C114,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C117" s="6">
+        <f>COUNTIF(C5:C116,"y")</f>
+        <v>36</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118">
-        <f>SUM(C115:C117)</f>
-        <v>74</v>
+        <v>7</v>
+      </c>
+      <c r="C118" s="6">
+        <f>COUNTIF(C5:C116,"n")</f>
+        <v>42</v>
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" ht="18">
+    <row r="119" spans="1:4">
       <c r="A119" s="3"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="41">
-        <f>C115/(C116+C115 + C117)</f>
-        <v>0.47297297297297297</v>
-      </c>
+      <c r="B119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="7">
+        <f>COUNTIF(C5:C116,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="3"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="3"/>
+      <c r="B120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <f>SUM(C117:C119)</f>
+        <v>78</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" ht="18">
+      <c r="A121" s="3"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="41">
+        <f>C117/(C118+C117 + C119)</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64868">
+  <conditionalFormatting sqref="C1:C3 C6:C64870">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3277,7 +3315,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3688,7 +3726,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="4">
         <v>31</v>
@@ -3703,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G55" s="30">
         <f t="shared" si="2"/>
@@ -3713,7 +3751,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="4">
         <v>35</v>
@@ -3728,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G56" s="30">
         <f t="shared" si="2"/>
@@ -3741,10 +3779,10 @@
         <v>42800</v>
       </c>
       <c r="B57" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -3753,11 +3791,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" s="30">
         <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
-        <v>0.47297297297297297</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -3802,25 +3840,25 @@
       </c>
       <c r="G60" s="38">
         <f>MIN(G57)</f>
-        <v>0.47297297297297297</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="39">
         <f>SUM(B61:D61)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B61" s="15">
-        <f>Features!C115</f>
-        <v>35</v>
+        <f>Features!C117</f>
+        <v>36</v>
       </c>
       <c r="C61" s="16">
-        <f>Features!C116</f>
-        <v>39</v>
+        <f>Features!C118</f>
+        <v>42</v>
       </c>
       <c r="D61" s="17">
-        <f>Features!C117</f>
+        <f>Features!C119</f>
         <v>0</v>
       </c>
       <c r="E61" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
   <si>
     <t>Feature</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>content area</t>
-  </si>
-  <si>
-    <t>invalid json indicator</t>
   </si>
   <si>
     <t>json syntax highlight</t>
@@ -358,6 +355,15 @@
   <si>
     <t>comment</t>
   </si>
+  <si>
+    <t>0.00.10</t>
+  </si>
+  <si>
+    <t>copies plaintext</t>
+  </si>
+  <si>
+    <t>copies html with color</t>
+  </si>
 </sst>
 </file>
 
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,6 +575,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +621,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955125"/>
+          <c:w val="0.91978071330955136"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -645,9 +654,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -676,6 +685,9 @@
                   <c:v>05-15-2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -683,10 +695,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$57</c:f>
+              <c:f>Progress!$B$48:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -716,6 +728,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,9 +763,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -779,6 +794,9 @@
                   <c:v>05-15-2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -786,10 +804,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$57</c:f>
+              <c:f>Progress!$C$48:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -819,6 +837,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,9 +872,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -882,6 +903,9 @@
                   <c:v>05-15-2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -889,10 +913,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$57</c:f>
+              <c:f>Progress!$D$48:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -921,6 +945,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -954,9 +981,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$57</c:f>
+              <c:f>Progress!$A$47:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -988,6 +1015,9 @@
                   <c:v>05-15-2017</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -995,10 +1025,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$57</c:f>
+              <c:f>Progress!$E$48:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1027,17 +1057,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146660736"/>
-        <c:axId val="146281600"/>
+        <c:axId val="154328448"/>
+        <c:axId val="153949312"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="146660736"/>
+        <c:axId val="154328448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146281600"/>
+        <c:crossAx val="153949312"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1080,7 +1113,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146281600"/>
+        <c:axId val="153949312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146660736"/>
+        <c:crossAx val="154328448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,7 +1178,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844542"/>
+          <c:y val="0.37277147487844547"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1212,7 +1245,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1266,7 +1299,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127505E-2"/>
+          <c:x val="4.4510450248127519E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1301,9 +1334,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1332,6 +1365,9 @@
                   <c:v>05-15-2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -1339,10 +1375,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$57</c:f>
+              <c:f>Progress!$G$48:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1372,16 +1408,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49367088607594939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146317696"/>
-        <c:axId val="146319232"/>
+        <c:axId val="153985408"/>
+        <c:axId val="153986944"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="146317696"/>
+        <c:axId val="153985408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,14 +1428,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="146319232"/>
+        <c:crossAx val="153986944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146319232"/>
+        <c:axId val="153986944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1439,7 +1478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146317696"/>
+        <c:crossAx val="153985408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,7 +1527,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1539,9 +1578,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1570,6 +1609,9 @@
                   <c:v>05-15-2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -1577,10 +1619,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$57</c:f>
+              <c:f>Progress!$C$48:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1610,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,9 +1687,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1673,6 +1718,9 @@
                   <c:v>05-15-2017</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>06-03-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -1680,10 +1728,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$57</c:f>
+              <c:f>Progress!$D$48:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1712,17 +1760,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146340096"/>
-        <c:axId val="146341888"/>
+        <c:axId val="154003712"/>
+        <c:axId val="154075136"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="146340096"/>
+        <c:axId val="154003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146341888"/>
+        <c:crossAx val="154075136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1764,7 +1815,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146341888"/>
+        <c:axId val="154075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146340096"/>
+        <c:crossAx val="154003712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1855,7 +1906,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1905,7 +1956,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2313,10 +2364,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2382,7 +2433,7 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="B9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -2391,7 +2442,7 @@
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>2</v>
@@ -2505,17 +2556,17 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="24" t="s">
-        <v>43</v>
+      <c r="B25" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="24" t="s">
-        <v>97</v>
+      <c r="B26" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>2</v>
@@ -2524,16 +2575,16 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="24" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2541,8 +2592,8 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="23" t="s">
-        <v>87</v>
+      <c r="B29" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
@@ -2551,7 +2602,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="24" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>2</v>
@@ -2560,7 +2611,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="23" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2569,16 +2620,16 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="24" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="20" t="s">
-        <v>102</v>
+      <c r="B33" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2586,49 +2637,49 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="20" t="s">
-        <v>104</v>
+      <c r="B34" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="20" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="2:4" s="6" customFormat="1">
+      <c r="B37" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" s="6" customFormat="1">
+      <c r="B39" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2637,10 +2688,10 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -2655,7 +2706,7 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="20" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2663,22 +2714,22 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>57</v>
+      <c r="B45" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2687,7 +2738,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2695,17 +2746,17 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="23" t="s">
-        <v>59</v>
+      <c r="B47" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2714,7 +2765,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2723,16 +2774,16 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="23" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -2741,7 +2792,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="23" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>2</v>
@@ -2750,7 +2801,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="23" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -2759,7 +2810,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -2768,7 +2819,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="23" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2777,7 +2828,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -2786,16 +2837,16 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="23" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2803,22 +2854,22 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="20" t="s">
-        <v>68</v>
+      <c r="B61" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -2826,16 +2877,16 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="23" t="s">
-        <v>70</v>
+      <c r="B62" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -2844,8 +2895,12 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
@@ -2864,31 +2919,27 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1">
+      <c r="B69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="22"/>
-      <c r="C69" s="7"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -2896,46 +2947,46 @@
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="19"/>
-      <c r="C73" s="4"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="4"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="2:4" s="6" customFormat="1">
+      <c r="B77" s="22"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" s="6" customFormat="1">
+      <c r="B78" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
@@ -2944,7 +2995,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>14</v>
@@ -2953,7 +3004,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>14</v>
@@ -2962,7 +3013,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -2971,7 +3022,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>14</v>
@@ -2980,7 +3031,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -2989,7 +3040,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -2998,7 +3049,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -3007,7 +3058,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3015,22 +3066,22 @@
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="20" t="s">
-        <v>55</v>
+      <c r="B89" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3039,7 +3090,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3047,22 +3098,26 @@
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="7"/>
+      <c r="B91" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="22"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" s="6" customFormat="1">
+      <c r="B93" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
@@ -3071,7 +3126,7 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="20"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="7"/>
       <c r="D95" s="4"/>
     </row>
@@ -3081,17 +3136,13 @@
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="20"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="2:4" s="6" customFormat="1">
+      <c r="B98" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3100,7 +3151,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3109,7 +3160,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3117,8 +3168,12 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
@@ -3127,17 +3182,13 @@
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="22"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" s="6" customFormat="1">
+      <c r="B104" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3146,7 +3197,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -3155,7 +3206,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3163,27 +3214,27 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="43"/>
-      <c r="C107" s="4"/>
+      <c r="B107" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="21"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="21"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -3192,7 +3243,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>14</v>
@@ -3200,17 +3251,21 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22"/>
-      <c r="C112" s="4"/>
+      <c r="B112" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1">
-      <c r="B113" s="19"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" s="6" customFormat="1">
-      <c r="B114" s="21"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
@@ -3219,76 +3274,81 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="3"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="3"/>
+    <row r="116" spans="1:4" s="6" customFormat="1">
+      <c r="B116" s="21"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="3"/>
-      <c r="B117" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="6">
-        <f>COUNTIF(C5:C116,"y")</f>
-        <v>36</v>
-      </c>
-      <c r="D117" s="2"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" s="6">
-        <f>COUNTIF(C5:C116,"n")</f>
-        <v>42</v>
+        <f>COUNTIF(C5:C117,"y")</f>
+        <v>39</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="3"/>
       <c r="B119" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="7">
-        <f>COUNTIF(C5:C116,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C119" s="6">
+        <f>COUNTIF(C5:C117,"n")</f>
+        <v>40</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="3"/>
       <c r="B120" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7">
+        <f>COUNTIF(C5:C117,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3"/>
+      <c r="B121" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C120">
-        <f>SUM(C117:C119)</f>
-        <v>78</v>
-      </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" ht="18">
-      <c r="A121" s="3"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10" t="s">
+      <c r="C121">
+        <f>SUM(C118:C120)</f>
+        <v>79</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" ht="18">
+      <c r="A122" s="3"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="41">
-        <f>C117/(C118+C117 + C119)</f>
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="3"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="41">
+        <f>C118/(C119+C118 + C120)</f>
+        <v>0.49367088607594939</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64870">
+  <conditionalFormatting sqref="C1:C3 C6:C64871">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3310,12 +3370,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT871"/>
+  <dimension ref="A1:IT872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3591,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -3601,7 +3661,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="4">
         <v>17</v>
@@ -3616,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -3626,7 +3686,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="4">
         <v>25</v>
@@ -3641,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G56" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G57" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -3666,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" s="30">
         <f t="shared" si="2"/>
@@ -3691,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="30">
         <f t="shared" si="2"/>
@@ -3701,7 +3761,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="4">
         <v>31</v>
@@ -3716,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G54" s="30">
         <f t="shared" si="2"/>
@@ -3726,7 +3786,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="4">
         <v>31</v>
@@ -3741,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G55" s="30">
         <f t="shared" si="2"/>
@@ -3751,7 +3811,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="4">
         <v>35</v>
@@ -3766,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G56" s="30">
         <f t="shared" si="2"/>
@@ -3791,22 +3851,37 @@
         <v>0</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G57" s="30">
-        <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
+        <f t="shared" si="2"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="12"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="30"/>
+      <c r="A58" s="46">
+        <v>42800</v>
+      </c>
+      <c r="B58" s="4">
+        <v>39</v>
+      </c>
+      <c r="C58" s="4">
+        <v>40</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="30">
+        <f t="shared" ref="G58" si="3">B58/SUM(B58:E58)</f>
+        <v>0.49367088607594939</v>
+      </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
@@ -3815,84 +3890,84 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="31"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="38">
-        <f>MIN(G57)</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="39">
-        <f>SUM(B61:D61)</f>
-        <v>78</v>
-      </c>
-      <c r="B61" s="15">
-        <f>Features!C117</f>
-        <v>36</v>
-      </c>
-      <c r="C61" s="16">
+      <c r="G61" s="38">
+        <f>MIN(G58)</f>
+        <v>0.49367088607594939</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="39">
+        <f>SUM(B62:D62)</f>
+        <v>79</v>
+      </c>
+      <c r="B62" s="15">
         <f>Features!C118</f>
-        <v>42</v>
-      </c>
-      <c r="D61" s="17">
+        <v>39</v>
+      </c>
+      <c r="C62" s="16">
         <f>Features!C119</f>
+        <v>40</v>
+      </c>
+      <c r="D62" s="17">
+        <f>Features!C120</f>
         <v>0</v>
       </c>
-      <c r="E61" s="18">
-        <f>MIN(E57)</f>
+      <c r="E62" s="18">
+        <f>MIN(E58)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="30"/>
       <c r="H62" s="7"/>
-      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="30"/>
       <c r="H63" s="7"/>
+      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -3902,7 +3977,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3922,7 +3997,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3942,7 +4017,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3962,7 +4037,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3972,7 +4047,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -3991,7 +4066,7 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="20"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
@@ -4002,7 +4077,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -4133,7 +4208,7 @@
     <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -4142,7 +4217,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -4150,15 +4225,15 @@
       <c r="G89" s="30"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="4"/>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" s="2" customFormat="1">
       <c r="A91" s="4"/>
@@ -4332,7 +4407,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="6"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -4342,7 +4417,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4372,7 +4447,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -4412,7 +4487,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="21"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -4422,7 +4497,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4432,7 +4507,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4442,7 +4517,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4452,7 +4527,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4472,7 +4547,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -4532,7 +4607,7 @@
     </row>
     <row r="128" spans="1:8" s="2" customFormat="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="19"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -4632,7 +4707,7 @@
     </row>
     <row r="138" spans="1:8" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -4682,7 +4757,7 @@
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="19"/>
+      <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -4702,7 +4777,7 @@
     </row>
     <row r="145" spans="1:254" s="2" customFormat="1">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -4741,284 +4816,284 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:254" s="2" customFormat="1">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5"/>
-      <c r="V149" s="5"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
-      <c r="Z149" s="5"/>
-      <c r="AA149" s="5"/>
-      <c r="AB149" s="5"/>
-      <c r="AC149" s="5"/>
-      <c r="AD149" s="5"/>
-      <c r="AE149" s="5"/>
-      <c r="AF149" s="5"/>
-      <c r="AG149" s="5"/>
-      <c r="AH149" s="5"/>
-      <c r="AI149" s="5"/>
-      <c r="AJ149" s="5"/>
-      <c r="AK149" s="5"/>
-      <c r="AL149" s="5"/>
-      <c r="AM149" s="5"/>
-      <c r="AN149" s="5"/>
-      <c r="AO149" s="5"/>
-      <c r="AP149" s="5"/>
-      <c r="AQ149" s="5"/>
-      <c r="AR149" s="5"/>
-      <c r="AS149" s="5"/>
-      <c r="AT149" s="5"/>
-      <c r="AU149" s="5"/>
-      <c r="AV149" s="5"/>
-      <c r="AW149" s="5"/>
-      <c r="AX149" s="5"/>
-      <c r="AY149" s="5"/>
-      <c r="AZ149" s="5"/>
-      <c r="BA149" s="5"/>
-      <c r="BB149" s="5"/>
-      <c r="BC149" s="5"/>
-      <c r="BD149" s="5"/>
-      <c r="BE149" s="5"/>
-      <c r="BF149" s="5"/>
-      <c r="BG149" s="5"/>
-      <c r="BH149" s="5"/>
-      <c r="BI149" s="5"/>
-      <c r="BJ149" s="5"/>
-      <c r="BK149" s="5"/>
-      <c r="BL149" s="5"/>
-      <c r="BM149" s="5"/>
-      <c r="BN149" s="5"/>
-      <c r="BO149" s="5"/>
-      <c r="BP149" s="5"/>
-      <c r="BQ149" s="5"/>
-      <c r="BR149" s="5"/>
-      <c r="BS149" s="5"/>
-      <c r="BT149" s="5"/>
-      <c r="BU149" s="5"/>
-      <c r="BV149" s="5"/>
-      <c r="BW149" s="5"/>
-      <c r="BX149" s="5"/>
-      <c r="BY149" s="5"/>
-      <c r="BZ149" s="5"/>
-      <c r="CA149" s="5"/>
-      <c r="CB149" s="5"/>
-      <c r="CC149" s="5"/>
-      <c r="CD149" s="5"/>
-      <c r="CE149" s="5"/>
-      <c r="CF149" s="5"/>
-      <c r="CG149" s="5"/>
-      <c r="CH149" s="5"/>
-      <c r="CI149" s="5"/>
-      <c r="CJ149" s="5"/>
-      <c r="CK149" s="5"/>
-      <c r="CL149" s="5"/>
-      <c r="CM149" s="5"/>
-      <c r="CN149" s="5"/>
-      <c r="CO149" s="5"/>
-      <c r="CP149" s="5"/>
-      <c r="CQ149" s="5"/>
-      <c r="CR149" s="5"/>
-      <c r="CS149" s="5"/>
-      <c r="CT149" s="5"/>
-      <c r="CU149" s="5"/>
-      <c r="CV149" s="5"/>
-      <c r="CW149" s="5"/>
-      <c r="CX149" s="5"/>
-      <c r="CY149" s="5"/>
-      <c r="CZ149" s="5"/>
-      <c r="DA149" s="5"/>
-      <c r="DB149" s="5"/>
-      <c r="DC149" s="5"/>
-      <c r="DD149" s="5"/>
-      <c r="DE149" s="5"/>
-      <c r="DF149" s="5"/>
-      <c r="DG149" s="5"/>
-      <c r="DH149" s="5"/>
-      <c r="DI149" s="5"/>
-      <c r="DJ149" s="5"/>
-      <c r="DK149" s="5"/>
-      <c r="DL149" s="5"/>
-      <c r="DM149" s="5"/>
-      <c r="DN149" s="5"/>
-      <c r="DO149" s="5"/>
-      <c r="DP149" s="5"/>
-      <c r="DQ149" s="5"/>
-      <c r="DR149" s="5"/>
-      <c r="DS149" s="5"/>
-      <c r="DT149" s="5"/>
-      <c r="DU149" s="5"/>
-      <c r="DV149" s="5"/>
-      <c r="DW149" s="5"/>
-      <c r="DX149" s="5"/>
-      <c r="DY149" s="5"/>
-      <c r="DZ149" s="5"/>
-      <c r="EA149" s="5"/>
-      <c r="EB149" s="5"/>
-      <c r="EC149" s="5"/>
-      <c r="ED149" s="5"/>
-      <c r="EE149" s="5"/>
-      <c r="EF149" s="5"/>
-      <c r="EG149" s="5"/>
-      <c r="EH149" s="5"/>
-      <c r="EI149" s="5"/>
-      <c r="EJ149" s="5"/>
-      <c r="EK149" s="5"/>
-      <c r="EL149" s="5"/>
-      <c r="EM149" s="5"/>
-      <c r="EN149" s="5"/>
-      <c r="EO149" s="5"/>
-      <c r="EP149" s="5"/>
-      <c r="EQ149" s="5"/>
-      <c r="ER149" s="5"/>
-      <c r="ES149" s="5"/>
-      <c r="ET149" s="5"/>
-      <c r="EU149" s="5"/>
-      <c r="EV149" s="5"/>
-      <c r="EW149" s="5"/>
-      <c r="EX149" s="5"/>
-      <c r="EY149" s="5"/>
-      <c r="EZ149" s="5"/>
-      <c r="FA149" s="5"/>
-      <c r="FB149" s="5"/>
-      <c r="FC149" s="5"/>
-      <c r="FD149" s="5"/>
-      <c r="FE149" s="5"/>
-      <c r="FF149" s="5"/>
-      <c r="FG149" s="5"/>
-      <c r="FH149" s="5"/>
-      <c r="FI149" s="5"/>
-      <c r="FJ149" s="5"/>
-      <c r="FK149" s="5"/>
-      <c r="FL149" s="5"/>
-      <c r="FM149" s="5"/>
-      <c r="FN149" s="5"/>
-      <c r="FO149" s="5"/>
-      <c r="FP149" s="5"/>
-      <c r="FQ149" s="5"/>
-      <c r="FR149" s="5"/>
-      <c r="FS149" s="5"/>
-      <c r="FT149" s="5"/>
-      <c r="FU149" s="5"/>
-      <c r="FV149" s="5"/>
-      <c r="FW149" s="5"/>
-      <c r="FX149" s="5"/>
-      <c r="FY149" s="5"/>
-      <c r="FZ149" s="5"/>
-      <c r="GA149" s="5"/>
-      <c r="GB149" s="5"/>
-      <c r="GC149" s="5"/>
-      <c r="GD149" s="5"/>
-      <c r="GE149" s="5"/>
-      <c r="GF149" s="5"/>
-      <c r="GG149" s="5"/>
-      <c r="GH149" s="5"/>
-      <c r="GI149" s="5"/>
-      <c r="GJ149" s="5"/>
-      <c r="GK149" s="5"/>
-      <c r="GL149" s="5"/>
-      <c r="GM149" s="5"/>
-      <c r="GN149" s="5"/>
-      <c r="GO149" s="5"/>
-      <c r="GP149" s="5"/>
-      <c r="GQ149" s="5"/>
-      <c r="GR149" s="5"/>
-      <c r="GS149" s="5"/>
-      <c r="GT149" s="5"/>
-      <c r="GU149" s="5"/>
-      <c r="GV149" s="5"/>
-      <c r="GW149" s="5"/>
-      <c r="GX149" s="5"/>
-      <c r="GY149" s="5"/>
-      <c r="GZ149" s="5"/>
-      <c r="HA149" s="5"/>
-      <c r="HB149" s="5"/>
-      <c r="HC149" s="5"/>
-      <c r="HD149" s="5"/>
-      <c r="HE149" s="5"/>
-      <c r="HF149" s="5"/>
-      <c r="HG149" s="5"/>
-      <c r="HH149" s="5"/>
-      <c r="HI149" s="5"/>
-      <c r="HJ149" s="5"/>
-      <c r="HK149" s="5"/>
-      <c r="HL149" s="5"/>
-      <c r="HM149" s="5"/>
-      <c r="HN149" s="5"/>
-      <c r="HO149" s="5"/>
-      <c r="HP149" s="5"/>
-      <c r="HQ149" s="5"/>
-      <c r="HR149" s="5"/>
-      <c r="HS149" s="5"/>
-      <c r="HT149" s="5"/>
-      <c r="HU149" s="5"/>
-      <c r="HV149" s="5"/>
-      <c r="HW149" s="5"/>
-      <c r="HX149" s="5"/>
-      <c r="HY149" s="5"/>
-      <c r="HZ149" s="5"/>
-      <c r="IA149" s="5"/>
-      <c r="IB149" s="5"/>
-      <c r="IC149" s="5"/>
-      <c r="ID149" s="5"/>
-      <c r="IE149" s="5"/>
-      <c r="IF149" s="5"/>
-      <c r="IG149" s="5"/>
-      <c r="IH149" s="5"/>
-      <c r="II149" s="5"/>
-      <c r="IJ149" s="5"/>
-      <c r="IK149" s="5"/>
-      <c r="IL149" s="5"/>
-      <c r="IM149" s="5"/>
-      <c r="IN149" s="5"/>
-      <c r="IO149" s="5"/>
-      <c r="IP149" s="5"/>
-      <c r="IQ149" s="5"/>
-      <c r="IR149" s="5"/>
-      <c r="IS149" s="5"/>
-      <c r="IT149" s="5"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:254" s="2" customFormat="1">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="1:254">
-      <c r="A151" s="7"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="7"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+      <c r="AJ150" s="5"/>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5"/>
+      <c r="AM150" s="5"/>
+      <c r="AN150" s="5"/>
+      <c r="AO150" s="5"/>
+      <c r="AP150" s="5"/>
+      <c r="AQ150" s="5"/>
+      <c r="AR150" s="5"/>
+      <c r="AS150" s="5"/>
+      <c r="AT150" s="5"/>
+      <c r="AU150" s="5"/>
+      <c r="AV150" s="5"/>
+      <c r="AW150" s="5"/>
+      <c r="AX150" s="5"/>
+      <c r="AY150" s="5"/>
+      <c r="AZ150" s="5"/>
+      <c r="BA150" s="5"/>
+      <c r="BB150" s="5"/>
+      <c r="BC150" s="5"/>
+      <c r="BD150" s="5"/>
+      <c r="BE150" s="5"/>
+      <c r="BF150" s="5"/>
+      <c r="BG150" s="5"/>
+      <c r="BH150" s="5"/>
+      <c r="BI150" s="5"/>
+      <c r="BJ150" s="5"/>
+      <c r="BK150" s="5"/>
+      <c r="BL150" s="5"/>
+      <c r="BM150" s="5"/>
+      <c r="BN150" s="5"/>
+      <c r="BO150" s="5"/>
+      <c r="BP150" s="5"/>
+      <c r="BQ150" s="5"/>
+      <c r="BR150" s="5"/>
+      <c r="BS150" s="5"/>
+      <c r="BT150" s="5"/>
+      <c r="BU150" s="5"/>
+      <c r="BV150" s="5"/>
+      <c r="BW150" s="5"/>
+      <c r="BX150" s="5"/>
+      <c r="BY150" s="5"/>
+      <c r="BZ150" s="5"/>
+      <c r="CA150" s="5"/>
+      <c r="CB150" s="5"/>
+      <c r="CC150" s="5"/>
+      <c r="CD150" s="5"/>
+      <c r="CE150" s="5"/>
+      <c r="CF150" s="5"/>
+      <c r="CG150" s="5"/>
+      <c r="CH150" s="5"/>
+      <c r="CI150" s="5"/>
+      <c r="CJ150" s="5"/>
+      <c r="CK150" s="5"/>
+      <c r="CL150" s="5"/>
+      <c r="CM150" s="5"/>
+      <c r="CN150" s="5"/>
+      <c r="CO150" s="5"/>
+      <c r="CP150" s="5"/>
+      <c r="CQ150" s="5"/>
+      <c r="CR150" s="5"/>
+      <c r="CS150" s="5"/>
+      <c r="CT150" s="5"/>
+      <c r="CU150" s="5"/>
+      <c r="CV150" s="5"/>
+      <c r="CW150" s="5"/>
+      <c r="CX150" s="5"/>
+      <c r="CY150" s="5"/>
+      <c r="CZ150" s="5"/>
+      <c r="DA150" s="5"/>
+      <c r="DB150" s="5"/>
+      <c r="DC150" s="5"/>
+      <c r="DD150" s="5"/>
+      <c r="DE150" s="5"/>
+      <c r="DF150" s="5"/>
+      <c r="DG150" s="5"/>
+      <c r="DH150" s="5"/>
+      <c r="DI150" s="5"/>
+      <c r="DJ150" s="5"/>
+      <c r="DK150" s="5"/>
+      <c r="DL150" s="5"/>
+      <c r="DM150" s="5"/>
+      <c r="DN150" s="5"/>
+      <c r="DO150" s="5"/>
+      <c r="DP150" s="5"/>
+      <c r="DQ150" s="5"/>
+      <c r="DR150" s="5"/>
+      <c r="DS150" s="5"/>
+      <c r="DT150" s="5"/>
+      <c r="DU150" s="5"/>
+      <c r="DV150" s="5"/>
+      <c r="DW150" s="5"/>
+      <c r="DX150" s="5"/>
+      <c r="DY150" s="5"/>
+      <c r="DZ150" s="5"/>
+      <c r="EA150" s="5"/>
+      <c r="EB150" s="5"/>
+      <c r="EC150" s="5"/>
+      <c r="ED150" s="5"/>
+      <c r="EE150" s="5"/>
+      <c r="EF150" s="5"/>
+      <c r="EG150" s="5"/>
+      <c r="EH150" s="5"/>
+      <c r="EI150" s="5"/>
+      <c r="EJ150" s="5"/>
+      <c r="EK150" s="5"/>
+      <c r="EL150" s="5"/>
+      <c r="EM150" s="5"/>
+      <c r="EN150" s="5"/>
+      <c r="EO150" s="5"/>
+      <c r="EP150" s="5"/>
+      <c r="EQ150" s="5"/>
+      <c r="ER150" s="5"/>
+      <c r="ES150" s="5"/>
+      <c r="ET150" s="5"/>
+      <c r="EU150" s="5"/>
+      <c r="EV150" s="5"/>
+      <c r="EW150" s="5"/>
+      <c r="EX150" s="5"/>
+      <c r="EY150" s="5"/>
+      <c r="EZ150" s="5"/>
+      <c r="FA150" s="5"/>
+      <c r="FB150" s="5"/>
+      <c r="FC150" s="5"/>
+      <c r="FD150" s="5"/>
+      <c r="FE150" s="5"/>
+      <c r="FF150" s="5"/>
+      <c r="FG150" s="5"/>
+      <c r="FH150" s="5"/>
+      <c r="FI150" s="5"/>
+      <c r="FJ150" s="5"/>
+      <c r="FK150" s="5"/>
+      <c r="FL150" s="5"/>
+      <c r="FM150" s="5"/>
+      <c r="FN150" s="5"/>
+      <c r="FO150" s="5"/>
+      <c r="FP150" s="5"/>
+      <c r="FQ150" s="5"/>
+      <c r="FR150" s="5"/>
+      <c r="FS150" s="5"/>
+      <c r="FT150" s="5"/>
+      <c r="FU150" s="5"/>
+      <c r="FV150" s="5"/>
+      <c r="FW150" s="5"/>
+      <c r="FX150" s="5"/>
+      <c r="FY150" s="5"/>
+      <c r="FZ150" s="5"/>
+      <c r="GA150" s="5"/>
+      <c r="GB150" s="5"/>
+      <c r="GC150" s="5"/>
+      <c r="GD150" s="5"/>
+      <c r="GE150" s="5"/>
+      <c r="GF150" s="5"/>
+      <c r="GG150" s="5"/>
+      <c r="GH150" s="5"/>
+      <c r="GI150" s="5"/>
+      <c r="GJ150" s="5"/>
+      <c r="GK150" s="5"/>
+      <c r="GL150" s="5"/>
+      <c r="GM150" s="5"/>
+      <c r="GN150" s="5"/>
+      <c r="GO150" s="5"/>
+      <c r="GP150" s="5"/>
+      <c r="GQ150" s="5"/>
+      <c r="GR150" s="5"/>
+      <c r="GS150" s="5"/>
+      <c r="GT150" s="5"/>
+      <c r="GU150" s="5"/>
+      <c r="GV150" s="5"/>
+      <c r="GW150" s="5"/>
+      <c r="GX150" s="5"/>
+      <c r="GY150" s="5"/>
+      <c r="GZ150" s="5"/>
+      <c r="HA150" s="5"/>
+      <c r="HB150" s="5"/>
+      <c r="HC150" s="5"/>
+      <c r="HD150" s="5"/>
+      <c r="HE150" s="5"/>
+      <c r="HF150" s="5"/>
+      <c r="HG150" s="5"/>
+      <c r="HH150" s="5"/>
+      <c r="HI150" s="5"/>
+      <c r="HJ150" s="5"/>
+      <c r="HK150" s="5"/>
+      <c r="HL150" s="5"/>
+      <c r="HM150" s="5"/>
+      <c r="HN150" s="5"/>
+      <c r="HO150" s="5"/>
+      <c r="HP150" s="5"/>
+      <c r="HQ150" s="5"/>
+      <c r="HR150" s="5"/>
+      <c r="HS150" s="5"/>
+      <c r="HT150" s="5"/>
+      <c r="HU150" s="5"/>
+      <c r="HV150" s="5"/>
+      <c r="HW150" s="5"/>
+      <c r="HX150" s="5"/>
+      <c r="HY150" s="5"/>
+      <c r="HZ150" s="5"/>
+      <c r="IA150" s="5"/>
+      <c r="IB150" s="5"/>
+      <c r="IC150" s="5"/>
+      <c r="ID150" s="5"/>
+      <c r="IE150" s="5"/>
+      <c r="IF150" s="5"/>
+      <c r="IG150" s="5"/>
+      <c r="IH150" s="5"/>
+      <c r="II150" s="5"/>
+      <c r="IJ150" s="5"/>
+      <c r="IK150" s="5"/>
+      <c r="IL150" s="5"/>
+      <c r="IM150" s="5"/>
+      <c r="IN150" s="5"/>
+      <c r="IO150" s="5"/>
+      <c r="IP150" s="5"/>
+      <c r="IQ150" s="5"/>
+      <c r="IR150" s="5"/>
+      <c r="IS150" s="5"/>
+      <c r="IT150" s="5"/>
+    </row>
+    <row r="151" spans="1:254" s="2" customFormat="1">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -5028,7 +5103,7 @@
     </row>
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
-      <c r="B153" s="20"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -5038,7 +5113,7 @@
     </row>
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -5049,7 +5124,7 @@
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -5089,7 +5164,7 @@
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
+      <c r="C159" s="4"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -5098,7 +5173,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -5118,7 +5193,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -5128,7 +5203,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -5148,7 +5223,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -5168,7 +5243,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -5187,10 +5262,8 @@
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B169" s="7"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -5199,7 +5272,9 @@
       <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="7"/>
+      <c r="A170" s="45">
+        <v>43011</v>
+      </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -5210,7 +5285,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -5230,7 +5305,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -5270,7 +5345,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="6"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -5280,8 +5355,8 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -5290,7 +5365,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -5360,7 +5435,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="4"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -5370,7 +5445,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="19"/>
+      <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -5380,7 +5455,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="21"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -5400,7 +5475,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -5441,7 +5516,7 @@
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
       <c r="B194" s="19"/>
-      <c r="C194" s="7"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -5450,7 +5525,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="4"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -5470,7 +5545,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="19"/>
+      <c r="B197" s="4"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -5530,7 +5605,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="21"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -5570,7 +5645,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -5580,7 +5655,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="6"/>
+      <c r="B208" s="4"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5590,7 +5665,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="6"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5600,7 +5675,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="4"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -5650,7 +5725,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="21"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -5660,7 +5735,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="19"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -5710,7 +5785,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="21"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -5770,7 +5845,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="4"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -5780,7 +5855,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="6"/>
+      <c r="B228" s="4"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5790,8 +5865,8 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
@@ -5800,7 +5875,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="19"/>
+      <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -5810,7 +5885,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5820,7 +5895,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="7"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5860,7 +5935,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -5870,7 +5945,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5880,7 +5955,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="23"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5900,7 +5975,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="23"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -5940,7 +6015,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -5950,7 +6025,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -6000,7 +6075,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -6010,8 +6085,8 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -6020,7 +6095,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -6030,7 +6105,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
+      <c r="B253" s="7"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -6040,7 +6115,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="23"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -6090,8 +6165,8 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="4"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
@@ -6100,7 +6175,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -6110,7 +6185,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -6138,9 +6213,9 @@
       <c r="G263" s="30"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="1:8" ht="11.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="25"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -6148,9 +6223,9 @@
       <c r="G264" s="30"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" ht="11.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -6190,7 +6265,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -6220,7 +6295,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="23"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -6230,7 +6305,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -6238,15 +6313,15 @@
       <c r="G273" s="30"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="1:8" s="2" customFormat="1">
-      <c r="A274" s="4"/>
+    <row r="274" spans="1:8">
+      <c r="A274" s="7"/>
       <c r="B274" s="24"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="34"/>
-      <c r="H274" s="4"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" s="30"/>
+      <c r="H274" s="7"/>
     </row>
     <row r="275" spans="1:8" s="2" customFormat="1">
       <c r="A275" s="4"/>
@@ -6258,19 +6333,19 @@
       <c r="G275" s="34"/>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="7"/>
+    <row r="276" spans="1:8" s="2" customFormat="1">
+      <c r="A276" s="4"/>
       <c r="B276" s="24"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="7"/>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="30"/>
-      <c r="H276" s="7"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
+      <c r="G276" s="34"/>
+      <c r="H276" s="4"/>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="23"/>
+      <c r="B277" s="24"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -6280,7 +6355,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="24"/>
+      <c r="B278" s="23"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -6310,7 +6385,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="22"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -6320,7 +6395,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="22"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -6340,7 +6415,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="20"/>
+      <c r="B284" s="7"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -6360,7 +6435,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -6391,7 +6466,7 @@
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
-      <c r="C289" s="7"/>
+      <c r="C289" s="4"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
@@ -6400,7 +6475,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
-      <c r="B290" s="6"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -6410,7 +6485,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
+      <c r="B291" s="6"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -6490,7 +6565,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="6"/>
+      <c r="B299" s="7"/>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -6500,8 +6575,8 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
@@ -6510,7 +6585,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="19"/>
+      <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -6540,7 +6615,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="4"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -6600,7 +6675,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="19"/>
+      <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -6620,7 +6695,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="21"/>
+      <c r="B312" s="19"/>
       <c r="C312" s="4"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -6630,8 +6705,8 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="7"/>
-      <c r="C313" s="7"/>
+      <c r="B313" s="21"/>
+      <c r="C313" s="4"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
@@ -6640,7 +6715,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="6"/>
+      <c r="B314" s="7"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -6648,15 +6723,15 @@
       <c r="G314" s="30"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="1:8" s="2" customFormat="1">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="34"/>
-      <c r="H315" s="4"/>
+    <row r="315" spans="1:8">
+      <c r="A315" s="7"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
+      <c r="G315" s="30"/>
+      <c r="H315" s="7"/>
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
@@ -6680,7 +6755,7 @@
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
-      <c r="B318" s="19"/>
+      <c r="B318" s="4"/>
       <c r="C318" s="9"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -6730,8 +6805,8 @@
     </row>
     <row r="323" spans="1:8" s="2" customFormat="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="26"/>
-      <c r="C323" s="4"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="9"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -6780,7 +6855,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="21"/>
+      <c r="B328" s="26"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -6830,7 +6905,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="19"/>
+      <c r="B333" s="21"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -6840,7 +6915,7 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="21"/>
+      <c r="B334" s="19"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -6850,7 +6925,7 @@
     </row>
     <row r="335" spans="1:8" s="2" customFormat="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
+      <c r="B335" s="21"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -6858,20 +6933,20 @@
       <c r="G335" s="34"/>
       <c r="H335" s="4"/>
     </row>
-    <row r="336" spans="1:8">
-      <c r="A336" s="7"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="7"/>
-      <c r="D336" s="7"/>
-      <c r="E336" s="7"/>
-      <c r="F336" s="7"/>
-      <c r="G336" s="30"/>
-      <c r="H336" s="7"/>
+    <row r="336" spans="1:8" s="2" customFormat="1">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="34"/>
+      <c r="H336" s="4"/>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="7"/>
-      <c r="C337" s="4"/>
+      <c r="B337" s="6"/>
+      <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
@@ -6940,7 +7015,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="4"/>
+      <c r="B344" s="7"/>
       <c r="C344" s="4"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -6951,7 +7026,7 @@
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
       <c r="B345" s="4"/>
-      <c r="C345" s="7"/>
+      <c r="C345" s="4"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
@@ -6960,7 +7035,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="4"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -6970,7 +7045,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -6980,7 +7055,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="22"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -6990,7 +7065,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="22"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -7030,7 +7105,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="6"/>
+      <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -7040,7 +7115,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="7"/>
+      <c r="B354" s="6"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -7050,7 +7125,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -7080,7 +7155,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -7090,7 +7165,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -7110,7 +7185,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -7120,7 +7195,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="20"/>
+      <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -7130,7 +7205,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -7140,7 +7215,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="22"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -7170,7 +7245,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -7180,7 +7255,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="27"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -7190,7 +7265,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="22"/>
+      <c r="B369" s="27"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -7200,8 +7275,8 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
-      <c r="C370" s="4"/>
+      <c r="B370" s="22"/>
+      <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
@@ -7210,7 +7285,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="20"/>
+      <c r="B371" s="7"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -7240,7 +7315,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="20"/>
       <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -7270,7 +7345,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="20"/>
+      <c r="B377" s="7"/>
       <c r="C377" s="4"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -7290,8 +7365,8 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
-      <c r="C379" s="7"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="4"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
@@ -7300,7 +7375,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -7310,7 +7385,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -7370,7 +7445,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="6"/>
+      <c r="B387" s="7"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -7380,7 +7455,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="6"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -7401,7 +7476,7 @@
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
-      <c r="C390" s="4"/>
+      <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
@@ -7410,7 +7485,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="20"/>
+      <c r="B391" s="7"/>
       <c r="C391" s="4"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -7421,7 +7496,7 @@
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
       <c r="B392" s="20"/>
-      <c r="C392" s="7"/>
+      <c r="C392" s="4"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
@@ -7430,7 +7505,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="27"/>
+      <c r="B393" s="20"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -7440,7 +7515,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="22"/>
+      <c r="B394" s="27"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -7490,7 +7565,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="22"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -7500,7 +7575,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="6"/>
+      <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -7510,7 +7585,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="6"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7520,7 +7595,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7530,7 +7605,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="22"/>
+      <c r="B403" s="20"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7550,7 +7625,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="20"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -7590,7 +7665,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -7600,7 +7675,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="20"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7620,7 +7695,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="22"/>
+      <c r="B412" s="20"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -7630,7 +7705,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="22"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7640,7 +7715,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7650,7 +7725,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7670,7 +7745,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="6"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -7680,7 +7755,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -7690,7 +7765,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="20"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -7710,7 +7785,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="20"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -7720,7 +7795,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -7730,7 +7805,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -7780,7 +7855,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -7790,7 +7865,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -7850,7 +7925,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="7"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -7860,7 +7935,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -7880,7 +7955,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -7890,7 +7965,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="4"/>
+      <c r="B439" s="6"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -7910,7 +7985,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
+      <c r="B441" s="4"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -7940,7 +8015,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -7950,8 +8025,8 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="4"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -8001,7 +8076,7 @@
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
-      <c r="C450" s="7"/>
+      <c r="C450" s="4"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -8010,7 +8085,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="7"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -8020,8 +8095,8 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
-      <c r="C452" s="4"/>
+      <c r="B452" s="6"/>
+      <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
@@ -8061,7 +8136,7 @@
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
-      <c r="C456" s="7"/>
+      <c r="C456" s="4"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
@@ -8070,7 +8145,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -8080,7 +8155,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="22"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -8140,7 +8215,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="7"/>
+      <c r="B464" s="22"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -8150,7 +8225,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
-      <c r="B465" s="6"/>
+      <c r="B465" s="7"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -8160,7 +8235,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="22"/>
+      <c r="B466" s="6"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -8189,8 +8264,8 @@
       <c r="H468" s="7"/>
     </row>
     <row r="469" spans="1:8">
-      <c r="A469" s="6"/>
-      <c r="B469" s="7"/>
+      <c r="A469" s="7"/>
+      <c r="B469" s="22"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -8199,7 +8274,7 @@
       <c r="H469" s="7"/>
     </row>
     <row r="470" spans="1:8">
-      <c r="A470" s="7"/>
+      <c r="A470" s="6"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
@@ -8240,7 +8315,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="28"/>
+      <c r="B474" s="7"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -8270,7 +8345,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
+      <c r="B477" s="28"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -8280,7 +8355,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="28"/>
+      <c r="B478" s="7"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -8290,7 +8365,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
+      <c r="B479" s="28"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -8300,21 +8375,21 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="29"/>
-      <c r="C480" s="30"/>
+      <c r="B480" s="7"/>
+      <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
-      <c r="F480" s="29"/>
+      <c r="F480" s="7"/>
       <c r="G480" s="30"/>
       <c r="H480" s="7"/>
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
-      <c r="C481" s="7"/>
+      <c r="B481" s="29"/>
+      <c r="C481" s="30"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
-      <c r="F481" s="7"/>
+      <c r="F481" s="29"/>
       <c r="G481" s="30"/>
       <c r="H481" s="7"/>
     </row>
@@ -12218,6 +12293,16 @@
       <c r="G871" s="30"/>
       <c r="H871" s="7"/>
     </row>
+    <row r="872" spans="1:8">
+      <c r="A872" s="7"/>
+      <c r="B872" s="7"/>
+      <c r="C872" s="7"/>
+      <c r="D872" s="7"/>
+      <c r="E872" s="7"/>
+      <c r="F872" s="7"/>
+      <c r="G872" s="30"/>
+      <c r="H872" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="118">
   <si>
     <t>Feature</t>
   </si>
@@ -364,6 +364,15 @@
   <si>
     <t>copies html with color</t>
   </si>
+  <si>
+    <t>shows time zone</t>
+  </si>
+  <si>
+    <t>show tool bar</t>
+  </si>
+  <si>
+    <t>copies rtf with color</t>
+  </si>
 </sst>
 </file>
 
@@ -482,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -575,9 +584,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +627,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955136"/>
+          <c:w val="0.91978071330955158"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -654,9 +660,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -689,16 +695,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06-09-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$58</c:f>
+              <c:f>Progress!$B$48:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -731,6 +740,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,9 +775,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -798,16 +810,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06-09-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$58</c:f>
+              <c:f>Progress!$C$48:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -840,6 +855,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,9 +890,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -907,16 +925,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06-09-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$58</c:f>
+              <c:f>Progress!$D$48:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -948,6 +969,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -981,9 +1005,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$47:$A$58</c:f>
+              <c:f>Progress!$A$47:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
@@ -1019,16 +1043,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>06-09-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$58</c:f>
+              <c:f>Progress!$E$48:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1060,17 +1087,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154328448"/>
-        <c:axId val="153949312"/>
+        <c:axId val="151182720"/>
+        <c:axId val="150934656"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="154328448"/>
+        <c:axId val="151182720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153949312"/>
+        <c:crossAx val="150934656"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1113,7 +1143,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153949312"/>
+        <c:axId val="150934656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154328448"/>
+        <c:crossAx val="151182720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1178,7 +1208,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844547"/>
+          <c:y val="0.37277147487844553"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1245,7 +1275,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1299,7 +1329,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127519E-2"/>
+          <c:x val="4.4510450248127532E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1334,9 +1364,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1369,16 +1399,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06-09-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$58</c:f>
+              <c:f>Progress!$G$48:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1410,17 +1443,20 @@
                   <c:v>0.46153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49367088607594939</c:v>
+                  <c:v>0.46987951807228917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47058823529411764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153985408"/>
-        <c:axId val="153986944"/>
+        <c:axId val="150974848"/>
+        <c:axId val="150976384"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="153985408"/>
+        <c:axId val="150974848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,14 +1464,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="153986944"/>
+        <c:crossAx val="150976384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153986944"/>
+        <c:axId val="150976384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1478,7 +1514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153985408"/>
+        <c:crossAx val="150974848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,7 +1563,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1578,9 +1614,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1613,16 +1649,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06-09-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$58</c:f>
+              <c:f>Progress!$C$48:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1655,6 +1694,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,9 +1729,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>03-10-17</c:v>
                 </c:pt>
@@ -1722,16 +1764,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>06-03-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06-09-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$58</c:f>
+              <c:f>Progress!$D$48:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1763,22 +1808,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154003712"/>
-        <c:axId val="154075136"/>
+        <c:axId val="150997248"/>
+        <c:axId val="150999040"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="154003712"/>
+        <c:axId val="150997248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m\/yyyy" sourceLinked="0"/>
+        <c:numFmt formatCode="m\/d;@" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1806,7 +1854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154075136"/>
+        <c:crossAx val="150999040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1815,7 +1863,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154075136"/>
+        <c:axId val="150999040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154003712"/>
+        <c:crossAx val="150997248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1906,7 +1954,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1956,7 +2004,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1981,15 +2029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2364,10 +2412,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2494,7 +2542,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>2</v>
@@ -2503,7 +2551,7 @@
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
       <c r="B19" s="20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>2</v>
@@ -2512,7 +2560,7 @@
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
       <c r="B20" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>2</v>
@@ -2520,26 +2568,26 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="24" t="s">
-        <v>39</v>
+      <c r="B21" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" s="6" customFormat="1">
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>2</v>
@@ -2548,7 +2596,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="24" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>2</v>
@@ -2556,8 +2604,8 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
-      <c r="B25" s="48" t="s">
-        <v>113</v>
+      <c r="B25" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>2</v>
@@ -2565,16 +2613,16 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
-      <c r="B26" s="48" t="s">
-        <v>114</v>
+      <c r="B26" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2583,7 +2631,7 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2592,7 +2640,7 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -2601,7 +2649,7 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2610,7 +2658,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2619,17 +2667,17 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
-      <c r="B32" s="24" t="s">
-        <v>93</v>
+      <c r="B32" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="23" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2637,35 +2685,31 @@
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4" s="6" customFormat="1">
+      <c r="B35" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="20" t="s">
-        <v>44</v>
+      <c r="B37" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2673,13 +2717,17 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="27" t="s">
-        <v>46</v>
+      <c r="B39" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>2</v>
@@ -2688,25 +2736,21 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="20" t="s">
-        <v>48</v>
+      <c r="B42" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2715,7 +2759,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="20" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -2723,13 +2767,17 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="22"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="27" t="s">
-        <v>50</v>
+      <c r="B45" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2738,7 +2786,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="20" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2746,71 +2794,67 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="2:4" s="6" customFormat="1">
+      <c r="B48" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" s="6" customFormat="1">
+      <c r="B49" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" s="6" customFormat="1">
+      <c r="B50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="23" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -2819,7 +2863,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="23" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2828,7 +2872,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="23" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -2836,8 +2880,8 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="23" t="s">
-        <v>91</v>
+      <c r="B57" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -2846,30 +2890,34 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="23" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="23" t="s">
-        <v>65</v>
+      <c r="B59" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="27" t="s">
-        <v>66</v>
+      <c r="B61" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -2877,8 +2925,8 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="20" t="s">
-        <v>67</v>
+      <c r="B62" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -2887,7 +2935,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -2895,8 +2943,8 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="20" t="s">
-        <v>68</v>
+      <c r="B64" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -2909,23 +2957,35 @@
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="3" t="s">
-        <v>72</v>
+      <c r="B69" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -2938,21 +2998,13 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
@@ -2961,18 +3013,22 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="19"/>
-      <c r="C74" s="4"/>
+      <c r="B74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="3" t="s">
-        <v>51</v>
+      <c r="B76" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>14</v>
@@ -2980,40 +3036,32 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20" t="s">
-        <v>75</v>
+      <c r="B81" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>14</v>
@@ -3021,17 +3069,13 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="20" t="s">
-        <v>107</v>
+      <c r="B83" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3040,7 +3084,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -3049,7 +3093,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -3058,7 +3102,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="20" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3067,7 +3111,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3075,13 +3119,17 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
-        <v>53</v>
+      <c r="B89" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3090,7 +3138,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3099,7 +3147,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3107,42 +3155,54 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="7" t="s">
+      <c r="B93" s="22"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="2:4" s="6" customFormat="1">
+      <c r="B94" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="20"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="20"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="3" t="s">
-        <v>27</v>
+      <c r="B98" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3150,45 +3210,37 @@
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="7"/>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22"/>
-      <c r="C103" s="7"/>
+      <c r="B103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="3" t="s">
-        <v>25</v>
+      <c r="B104" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3197,7 +3249,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -3206,7 +3258,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3214,27 +3266,27 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="7" t="s">
+      <c r="B107" s="22"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="22"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="43"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="21"/>
-      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="3" t="s">
-        <v>19</v>
+      <c r="B110" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -3243,7 +3295,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>14</v>
@@ -3252,7 +3304,7 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3260,95 +3312,132 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1">
-      <c r="B113" s="22"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" s="6" customFormat="1">
-      <c r="B114" s="19"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" s="6" customFormat="1">
-      <c r="B115" s="21"/>
-      <c r="C115" s="4"/>
+      <c r="B115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" s="6" customFormat="1">
-      <c r="B116" s="21"/>
-      <c r="C116" s="4"/>
+      <c r="B116" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="3"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="3"/>
-      <c r="B118" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="6">
-        <f>COUNTIF(C5:C117,"y")</f>
-        <v>39</v>
-      </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="3"/>
-      <c r="B119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="6">
-        <f>COUNTIF(C5:C117,"n")</f>
-        <v>40</v>
-      </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="3"/>
-      <c r="B120" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="7">
-        <f>COUNTIF(C5:C117,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="3"/>
-      <c r="B121" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121">
-        <f>SUM(C118:C120)</f>
-        <v>79</v>
-      </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" ht="18">
+    <row r="117" spans="1:4" s="6" customFormat="1">
+      <c r="B117" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" s="6" customFormat="1">
+      <c r="B118" s="22"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1">
+      <c r="B119" s="19"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" s="6" customFormat="1">
+      <c r="B120" s="21"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" s="6" customFormat="1">
+      <c r="B121" s="21"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="3"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="41">
-        <f>C118/(C119+C118 + C120)</f>
-        <v>0.49367088607594939</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="3"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="3"/>
+      <c r="B123" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="6">
+        <f>COUNTIF(C5:C122,"y")</f>
+        <v>40</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3"/>
+      <c r="B124" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="6">
+        <f>COUNTIF(C5:C122,"n")</f>
+        <v>43</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3"/>
+      <c r="B125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="7">
+        <f>COUNTIF(C5:C122,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3"/>
+      <c r="B126" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <f>SUM(C123:C125)</f>
+        <v>83</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="18">
+      <c r="A127" s="3"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="41">
+        <f>C123/(C124+C123 + C125)</f>
+        <v>0.48192771084337349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64871">
+  <conditionalFormatting sqref="C1:C3 C6:C64876">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3370,12 +3459,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT872"/>
+  <dimension ref="A1:IT873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3704,7 +3793,7 @@
         <v>85</v>
       </c>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G57" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G58" si="2">B51/SUM(B51:E51)</f>
         <v>0.37313432835820898</v>
       </c>
       <c r="H51" s="7"/>
@@ -3873,25 +3962,40 @@
         <v>0</v>
       </c>
       <c r="E58" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>112</v>
       </c>
       <c r="G58" s="30">
-        <f t="shared" ref="G58" si="3">B58/SUM(B58:E58)</f>
-        <v>0.49367088607594939</v>
+        <f t="shared" si="2"/>
+        <v>0.46987951807228917</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="12"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
+      <c r="A59" s="46">
+        <v>42984</v>
+      </c>
+      <c r="B59" s="4">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="30">
+        <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>
+        <v>0.47058823529411764</v>
+      </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
@@ -3900,84 +4004,84 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="31"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="38">
-        <f>MIN(G58)</f>
-        <v>0.49367088607594939</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="39">
-        <f>SUM(B62:D62)</f>
-        <v>79</v>
-      </c>
-      <c r="B62" s="15">
-        <f>Features!C118</f>
-        <v>39</v>
-      </c>
-      <c r="C62" s="16">
-        <f>Features!C119</f>
+      <c r="G62" s="38">
+        <f>MIN(G59)</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="39">
+        <f>SUM(B63:D63)</f>
+        <v>83</v>
+      </c>
+      <c r="B63" s="15">
+        <f>Features!C123</f>
         <v>40</v>
       </c>
-      <c r="D62" s="17">
-        <f>Features!C120</f>
+      <c r="C63" s="16">
+        <f>Features!C124</f>
+        <v>43</v>
+      </c>
+      <c r="D63" s="17">
+        <f>Features!C125</f>
         <v>0</v>
       </c>
-      <c r="E62" s="18">
-        <f>MIN(E58)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="4"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="18">
+        <f>MIN(E59)</f>
+        <v>2</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="30"/>
       <c r="H63" s="7"/>
-      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="30"/>
       <c r="H64" s="7"/>
+      <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -3987,7 +4091,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -4007,7 +4111,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -4027,7 +4131,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -4047,7 +4151,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -4057,7 +4161,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -4076,7 +4180,7 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="20"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
@@ -4087,7 +4191,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -4218,7 +4322,7 @@
     <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -4227,7 +4331,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7"/>
-      <c r="B90" s="6"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -4235,15 +4339,15 @@
       <c r="G90" s="30"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="4"/>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" s="2" customFormat="1">
       <c r="A92" s="4"/>
@@ -4417,7 +4521,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="6"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -4427,7 +4531,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -4457,7 +4561,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4497,7 +4601,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="21"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4507,7 +4611,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4517,7 +4621,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="6"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4527,7 +4631,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -4537,7 +4641,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4557,7 +4661,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4617,7 +4721,7 @@
     </row>
     <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="19"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -4717,7 +4821,7 @@
     </row>
     <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -4767,7 +4871,7 @@
     </row>
     <row r="144" spans="1:8" s="2" customFormat="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="19"/>
+      <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -4787,7 +4891,7 @@
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
       <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -4826,284 +4930,284 @@
       <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:254" s="2" customFormat="1">
-      <c r="A150" s="21"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5"/>
-      <c r="V150" s="5"/>
-      <c r="W150" s="5"/>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
-      <c r="Z150" s="5"/>
-      <c r="AA150" s="5"/>
-      <c r="AB150" s="5"/>
-      <c r="AC150" s="5"/>
-      <c r="AD150" s="5"/>
-      <c r="AE150" s="5"/>
-      <c r="AF150" s="5"/>
-      <c r="AG150" s="5"/>
-      <c r="AH150" s="5"/>
-      <c r="AI150" s="5"/>
-      <c r="AJ150" s="5"/>
-      <c r="AK150" s="5"/>
-      <c r="AL150" s="5"/>
-      <c r="AM150" s="5"/>
-      <c r="AN150" s="5"/>
-      <c r="AO150" s="5"/>
-      <c r="AP150" s="5"/>
-      <c r="AQ150" s="5"/>
-      <c r="AR150" s="5"/>
-      <c r="AS150" s="5"/>
-      <c r="AT150" s="5"/>
-      <c r="AU150" s="5"/>
-      <c r="AV150" s="5"/>
-      <c r="AW150" s="5"/>
-      <c r="AX150" s="5"/>
-      <c r="AY150" s="5"/>
-      <c r="AZ150" s="5"/>
-      <c r="BA150" s="5"/>
-      <c r="BB150" s="5"/>
-      <c r="BC150" s="5"/>
-      <c r="BD150" s="5"/>
-      <c r="BE150" s="5"/>
-      <c r="BF150" s="5"/>
-      <c r="BG150" s="5"/>
-      <c r="BH150" s="5"/>
-      <c r="BI150" s="5"/>
-      <c r="BJ150" s="5"/>
-      <c r="BK150" s="5"/>
-      <c r="BL150" s="5"/>
-      <c r="BM150" s="5"/>
-      <c r="BN150" s="5"/>
-      <c r="BO150" s="5"/>
-      <c r="BP150" s="5"/>
-      <c r="BQ150" s="5"/>
-      <c r="BR150" s="5"/>
-      <c r="BS150" s="5"/>
-      <c r="BT150" s="5"/>
-      <c r="BU150" s="5"/>
-      <c r="BV150" s="5"/>
-      <c r="BW150" s="5"/>
-      <c r="BX150" s="5"/>
-      <c r="BY150" s="5"/>
-      <c r="BZ150" s="5"/>
-      <c r="CA150" s="5"/>
-      <c r="CB150" s="5"/>
-      <c r="CC150" s="5"/>
-      <c r="CD150" s="5"/>
-      <c r="CE150" s="5"/>
-      <c r="CF150" s="5"/>
-      <c r="CG150" s="5"/>
-      <c r="CH150" s="5"/>
-      <c r="CI150" s="5"/>
-      <c r="CJ150" s="5"/>
-      <c r="CK150" s="5"/>
-      <c r="CL150" s="5"/>
-      <c r="CM150" s="5"/>
-      <c r="CN150" s="5"/>
-      <c r="CO150" s="5"/>
-      <c r="CP150" s="5"/>
-      <c r="CQ150" s="5"/>
-      <c r="CR150" s="5"/>
-      <c r="CS150" s="5"/>
-      <c r="CT150" s="5"/>
-      <c r="CU150" s="5"/>
-      <c r="CV150" s="5"/>
-      <c r="CW150" s="5"/>
-      <c r="CX150" s="5"/>
-      <c r="CY150" s="5"/>
-      <c r="CZ150" s="5"/>
-      <c r="DA150" s="5"/>
-      <c r="DB150" s="5"/>
-      <c r="DC150" s="5"/>
-      <c r="DD150" s="5"/>
-      <c r="DE150" s="5"/>
-      <c r="DF150" s="5"/>
-      <c r="DG150" s="5"/>
-      <c r="DH150" s="5"/>
-      <c r="DI150" s="5"/>
-      <c r="DJ150" s="5"/>
-      <c r="DK150" s="5"/>
-      <c r="DL150" s="5"/>
-      <c r="DM150" s="5"/>
-      <c r="DN150" s="5"/>
-      <c r="DO150" s="5"/>
-      <c r="DP150" s="5"/>
-      <c r="DQ150" s="5"/>
-      <c r="DR150" s="5"/>
-      <c r="DS150" s="5"/>
-      <c r="DT150" s="5"/>
-      <c r="DU150" s="5"/>
-      <c r="DV150" s="5"/>
-      <c r="DW150" s="5"/>
-      <c r="DX150" s="5"/>
-      <c r="DY150" s="5"/>
-      <c r="DZ150" s="5"/>
-      <c r="EA150" s="5"/>
-      <c r="EB150" s="5"/>
-      <c r="EC150" s="5"/>
-      <c r="ED150" s="5"/>
-      <c r="EE150" s="5"/>
-      <c r="EF150" s="5"/>
-      <c r="EG150" s="5"/>
-      <c r="EH150" s="5"/>
-      <c r="EI150" s="5"/>
-      <c r="EJ150" s="5"/>
-      <c r="EK150" s="5"/>
-      <c r="EL150" s="5"/>
-      <c r="EM150" s="5"/>
-      <c r="EN150" s="5"/>
-      <c r="EO150" s="5"/>
-      <c r="EP150" s="5"/>
-      <c r="EQ150" s="5"/>
-      <c r="ER150" s="5"/>
-      <c r="ES150" s="5"/>
-      <c r="ET150" s="5"/>
-      <c r="EU150" s="5"/>
-      <c r="EV150" s="5"/>
-      <c r="EW150" s="5"/>
-      <c r="EX150" s="5"/>
-      <c r="EY150" s="5"/>
-      <c r="EZ150" s="5"/>
-      <c r="FA150" s="5"/>
-      <c r="FB150" s="5"/>
-      <c r="FC150" s="5"/>
-      <c r="FD150" s="5"/>
-      <c r="FE150" s="5"/>
-      <c r="FF150" s="5"/>
-      <c r="FG150" s="5"/>
-      <c r="FH150" s="5"/>
-      <c r="FI150" s="5"/>
-      <c r="FJ150" s="5"/>
-      <c r="FK150" s="5"/>
-      <c r="FL150" s="5"/>
-      <c r="FM150" s="5"/>
-      <c r="FN150" s="5"/>
-      <c r="FO150" s="5"/>
-      <c r="FP150" s="5"/>
-      <c r="FQ150" s="5"/>
-      <c r="FR150" s="5"/>
-      <c r="FS150" s="5"/>
-      <c r="FT150" s="5"/>
-      <c r="FU150" s="5"/>
-      <c r="FV150" s="5"/>
-      <c r="FW150" s="5"/>
-      <c r="FX150" s="5"/>
-      <c r="FY150" s="5"/>
-      <c r="FZ150" s="5"/>
-      <c r="GA150" s="5"/>
-      <c r="GB150" s="5"/>
-      <c r="GC150" s="5"/>
-      <c r="GD150" s="5"/>
-      <c r="GE150" s="5"/>
-      <c r="GF150" s="5"/>
-      <c r="GG150" s="5"/>
-      <c r="GH150" s="5"/>
-      <c r="GI150" s="5"/>
-      <c r="GJ150" s="5"/>
-      <c r="GK150" s="5"/>
-      <c r="GL150" s="5"/>
-      <c r="GM150" s="5"/>
-      <c r="GN150" s="5"/>
-      <c r="GO150" s="5"/>
-      <c r="GP150" s="5"/>
-      <c r="GQ150" s="5"/>
-      <c r="GR150" s="5"/>
-      <c r="GS150" s="5"/>
-      <c r="GT150" s="5"/>
-      <c r="GU150" s="5"/>
-      <c r="GV150" s="5"/>
-      <c r="GW150" s="5"/>
-      <c r="GX150" s="5"/>
-      <c r="GY150" s="5"/>
-      <c r="GZ150" s="5"/>
-      <c r="HA150" s="5"/>
-      <c r="HB150" s="5"/>
-      <c r="HC150" s="5"/>
-      <c r="HD150" s="5"/>
-      <c r="HE150" s="5"/>
-      <c r="HF150" s="5"/>
-      <c r="HG150" s="5"/>
-      <c r="HH150" s="5"/>
-      <c r="HI150" s="5"/>
-      <c r="HJ150" s="5"/>
-      <c r="HK150" s="5"/>
-      <c r="HL150" s="5"/>
-      <c r="HM150" s="5"/>
-      <c r="HN150" s="5"/>
-      <c r="HO150" s="5"/>
-      <c r="HP150" s="5"/>
-      <c r="HQ150" s="5"/>
-      <c r="HR150" s="5"/>
-      <c r="HS150" s="5"/>
-      <c r="HT150" s="5"/>
-      <c r="HU150" s="5"/>
-      <c r="HV150" s="5"/>
-      <c r="HW150" s="5"/>
-      <c r="HX150" s="5"/>
-      <c r="HY150" s="5"/>
-      <c r="HZ150" s="5"/>
-      <c r="IA150" s="5"/>
-      <c r="IB150" s="5"/>
-      <c r="IC150" s="5"/>
-      <c r="ID150" s="5"/>
-      <c r="IE150" s="5"/>
-      <c r="IF150" s="5"/>
-      <c r="IG150" s="5"/>
-      <c r="IH150" s="5"/>
-      <c r="II150" s="5"/>
-      <c r="IJ150" s="5"/>
-      <c r="IK150" s="5"/>
-      <c r="IL150" s="5"/>
-      <c r="IM150" s="5"/>
-      <c r="IN150" s="5"/>
-      <c r="IO150" s="5"/>
-      <c r="IP150" s="5"/>
-      <c r="IQ150" s="5"/>
-      <c r="IR150" s="5"/>
-      <c r="IS150" s="5"/>
-      <c r="IT150" s="5"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:254" s="2" customFormat="1">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="1:254">
-      <c r="A152" s="7"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="7"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+      <c r="AJ151" s="5"/>
+      <c r="AK151" s="5"/>
+      <c r="AL151" s="5"/>
+      <c r="AM151" s="5"/>
+      <c r="AN151" s="5"/>
+      <c r="AO151" s="5"/>
+      <c r="AP151" s="5"/>
+      <c r="AQ151" s="5"/>
+      <c r="AR151" s="5"/>
+      <c r="AS151" s="5"/>
+      <c r="AT151" s="5"/>
+      <c r="AU151" s="5"/>
+      <c r="AV151" s="5"/>
+      <c r="AW151" s="5"/>
+      <c r="AX151" s="5"/>
+      <c r="AY151" s="5"/>
+      <c r="AZ151" s="5"/>
+      <c r="BA151" s="5"/>
+      <c r="BB151" s="5"/>
+      <c r="BC151" s="5"/>
+      <c r="BD151" s="5"/>
+      <c r="BE151" s="5"/>
+      <c r="BF151" s="5"/>
+      <c r="BG151" s="5"/>
+      <c r="BH151" s="5"/>
+      <c r="BI151" s="5"/>
+      <c r="BJ151" s="5"/>
+      <c r="BK151" s="5"/>
+      <c r="BL151" s="5"/>
+      <c r="BM151" s="5"/>
+      <c r="BN151" s="5"/>
+      <c r="BO151" s="5"/>
+      <c r="BP151" s="5"/>
+      <c r="BQ151" s="5"/>
+      <c r="BR151" s="5"/>
+      <c r="BS151" s="5"/>
+      <c r="BT151" s="5"/>
+      <c r="BU151" s="5"/>
+      <c r="BV151" s="5"/>
+      <c r="BW151" s="5"/>
+      <c r="BX151" s="5"/>
+      <c r="BY151" s="5"/>
+      <c r="BZ151" s="5"/>
+      <c r="CA151" s="5"/>
+      <c r="CB151" s="5"/>
+      <c r="CC151" s="5"/>
+      <c r="CD151" s="5"/>
+      <c r="CE151" s="5"/>
+      <c r="CF151" s="5"/>
+      <c r="CG151" s="5"/>
+      <c r="CH151" s="5"/>
+      <c r="CI151" s="5"/>
+      <c r="CJ151" s="5"/>
+      <c r="CK151" s="5"/>
+      <c r="CL151" s="5"/>
+      <c r="CM151" s="5"/>
+      <c r="CN151" s="5"/>
+      <c r="CO151" s="5"/>
+      <c r="CP151" s="5"/>
+      <c r="CQ151" s="5"/>
+      <c r="CR151" s="5"/>
+      <c r="CS151" s="5"/>
+      <c r="CT151" s="5"/>
+      <c r="CU151" s="5"/>
+      <c r="CV151" s="5"/>
+      <c r="CW151" s="5"/>
+      <c r="CX151" s="5"/>
+      <c r="CY151" s="5"/>
+      <c r="CZ151" s="5"/>
+      <c r="DA151" s="5"/>
+      <c r="DB151" s="5"/>
+      <c r="DC151" s="5"/>
+      <c r="DD151" s="5"/>
+      <c r="DE151" s="5"/>
+      <c r="DF151" s="5"/>
+      <c r="DG151" s="5"/>
+      <c r="DH151" s="5"/>
+      <c r="DI151" s="5"/>
+      <c r="DJ151" s="5"/>
+      <c r="DK151" s="5"/>
+      <c r="DL151" s="5"/>
+      <c r="DM151" s="5"/>
+      <c r="DN151" s="5"/>
+      <c r="DO151" s="5"/>
+      <c r="DP151" s="5"/>
+      <c r="DQ151" s="5"/>
+      <c r="DR151" s="5"/>
+      <c r="DS151" s="5"/>
+      <c r="DT151" s="5"/>
+      <c r="DU151" s="5"/>
+      <c r="DV151" s="5"/>
+      <c r="DW151" s="5"/>
+      <c r="DX151" s="5"/>
+      <c r="DY151" s="5"/>
+      <c r="DZ151" s="5"/>
+      <c r="EA151" s="5"/>
+      <c r="EB151" s="5"/>
+      <c r="EC151" s="5"/>
+      <c r="ED151" s="5"/>
+      <c r="EE151" s="5"/>
+      <c r="EF151" s="5"/>
+      <c r="EG151" s="5"/>
+      <c r="EH151" s="5"/>
+      <c r="EI151" s="5"/>
+      <c r="EJ151" s="5"/>
+      <c r="EK151" s="5"/>
+      <c r="EL151" s="5"/>
+      <c r="EM151" s="5"/>
+      <c r="EN151" s="5"/>
+      <c r="EO151" s="5"/>
+      <c r="EP151" s="5"/>
+      <c r="EQ151" s="5"/>
+      <c r="ER151" s="5"/>
+      <c r="ES151" s="5"/>
+      <c r="ET151" s="5"/>
+      <c r="EU151" s="5"/>
+      <c r="EV151" s="5"/>
+      <c r="EW151" s="5"/>
+      <c r="EX151" s="5"/>
+      <c r="EY151" s="5"/>
+      <c r="EZ151" s="5"/>
+      <c r="FA151" s="5"/>
+      <c r="FB151" s="5"/>
+      <c r="FC151" s="5"/>
+      <c r="FD151" s="5"/>
+      <c r="FE151" s="5"/>
+      <c r="FF151" s="5"/>
+      <c r="FG151" s="5"/>
+      <c r="FH151" s="5"/>
+      <c r="FI151" s="5"/>
+      <c r="FJ151" s="5"/>
+      <c r="FK151" s="5"/>
+      <c r="FL151" s="5"/>
+      <c r="FM151" s="5"/>
+      <c r="FN151" s="5"/>
+      <c r="FO151" s="5"/>
+      <c r="FP151" s="5"/>
+      <c r="FQ151" s="5"/>
+      <c r="FR151" s="5"/>
+      <c r="FS151" s="5"/>
+      <c r="FT151" s="5"/>
+      <c r="FU151" s="5"/>
+      <c r="FV151" s="5"/>
+      <c r="FW151" s="5"/>
+      <c r="FX151" s="5"/>
+      <c r="FY151" s="5"/>
+      <c r="FZ151" s="5"/>
+      <c r="GA151" s="5"/>
+      <c r="GB151" s="5"/>
+      <c r="GC151" s="5"/>
+      <c r="GD151" s="5"/>
+      <c r="GE151" s="5"/>
+      <c r="GF151" s="5"/>
+      <c r="GG151" s="5"/>
+      <c r="GH151" s="5"/>
+      <c r="GI151" s="5"/>
+      <c r="GJ151" s="5"/>
+      <c r="GK151" s="5"/>
+      <c r="GL151" s="5"/>
+      <c r="GM151" s="5"/>
+      <c r="GN151" s="5"/>
+      <c r="GO151" s="5"/>
+      <c r="GP151" s="5"/>
+      <c r="GQ151" s="5"/>
+      <c r="GR151" s="5"/>
+      <c r="GS151" s="5"/>
+      <c r="GT151" s="5"/>
+      <c r="GU151" s="5"/>
+      <c r="GV151" s="5"/>
+      <c r="GW151" s="5"/>
+      <c r="GX151" s="5"/>
+      <c r="GY151" s="5"/>
+      <c r="GZ151" s="5"/>
+      <c r="HA151" s="5"/>
+      <c r="HB151" s="5"/>
+      <c r="HC151" s="5"/>
+      <c r="HD151" s="5"/>
+      <c r="HE151" s="5"/>
+      <c r="HF151" s="5"/>
+      <c r="HG151" s="5"/>
+      <c r="HH151" s="5"/>
+      <c r="HI151" s="5"/>
+      <c r="HJ151" s="5"/>
+      <c r="HK151" s="5"/>
+      <c r="HL151" s="5"/>
+      <c r="HM151" s="5"/>
+      <c r="HN151" s="5"/>
+      <c r="HO151" s="5"/>
+      <c r="HP151" s="5"/>
+      <c r="HQ151" s="5"/>
+      <c r="HR151" s="5"/>
+      <c r="HS151" s="5"/>
+      <c r="HT151" s="5"/>
+      <c r="HU151" s="5"/>
+      <c r="HV151" s="5"/>
+      <c r="HW151" s="5"/>
+      <c r="HX151" s="5"/>
+      <c r="HY151" s="5"/>
+      <c r="HZ151" s="5"/>
+      <c r="IA151" s="5"/>
+      <c r="IB151" s="5"/>
+      <c r="IC151" s="5"/>
+      <c r="ID151" s="5"/>
+      <c r="IE151" s="5"/>
+      <c r="IF151" s="5"/>
+      <c r="IG151" s="5"/>
+      <c r="IH151" s="5"/>
+      <c r="II151" s="5"/>
+      <c r="IJ151" s="5"/>
+      <c r="IK151" s="5"/>
+      <c r="IL151" s="5"/>
+      <c r="IM151" s="5"/>
+      <c r="IN151" s="5"/>
+      <c r="IO151" s="5"/>
+      <c r="IP151" s="5"/>
+      <c r="IQ151" s="5"/>
+      <c r="IR151" s="5"/>
+      <c r="IS151" s="5"/>
+      <c r="IT151" s="5"/>
+    </row>
+    <row r="152" spans="1:254" s="2" customFormat="1">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -5113,7 +5217,7 @@
     </row>
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -5123,7 +5227,7 @@
     </row>
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -5134,7 +5238,7 @@
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -5174,7 +5278,7 @@
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
+      <c r="C160" s="4"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -5183,7 +5287,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -5203,7 +5307,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -5213,7 +5317,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -5233,7 +5337,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -5253,7 +5357,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -5272,10 +5376,8 @@
       <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="45">
-        <v>43011</v>
-      </c>
-      <c r="B170" s="7"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -5284,7 +5386,9 @@
       <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="7"/>
+      <c r="A171" s="45">
+        <v>43011</v>
+      </c>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -5295,7 +5399,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -5315,7 +5419,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -5355,7 +5459,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="6"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -5365,8 +5469,8 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -5375,7 +5479,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -5445,7 +5549,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -5455,7 +5559,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="19"/>
+      <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -5465,7 +5569,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="21"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -5485,7 +5589,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -5526,7 +5630,7 @@
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
       <c r="B195" s="19"/>
-      <c r="C195" s="7"/>
+      <c r="C195" s="4"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
@@ -5535,7 +5639,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="4"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -5555,7 +5659,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="19"/>
+      <c r="B198" s="4"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -5615,7 +5719,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="21"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -5655,7 +5759,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="4"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -5665,7 +5769,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="6"/>
+      <c r="B209" s="4"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -5675,7 +5779,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="4"/>
+      <c r="B210" s="6"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -5685,7 +5789,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="4"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -5735,7 +5839,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="21"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -5745,7 +5849,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="19"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -5795,7 +5899,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="21"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -5855,7 +5959,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="4"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -5865,7 +5969,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="6"/>
+      <c r="B229" s="4"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5875,8 +5979,8 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
@@ -5885,7 +5989,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="19"/>
+      <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -5895,7 +5999,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5905,7 +6009,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="7"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -5945,7 +6049,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -5955,7 +6059,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5965,7 +6069,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="23"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -5985,7 +6089,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="23"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -6025,7 +6129,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -6035,7 +6139,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -6085,7 +6189,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -6095,8 +6199,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -6105,7 +6209,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -6115,7 +6219,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
+      <c r="B254" s="7"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -6125,7 +6229,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="23"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -6175,8 +6279,8 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="4"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
@@ -6185,7 +6289,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="23"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -6195,7 +6299,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -6223,9 +6327,9 @@
       <c r="G264" s="30"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8" ht="11.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="25"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -6233,9 +6337,9 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" ht="11.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="25"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -6275,7 +6379,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -6305,7 +6409,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="23"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -6315,7 +6419,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -6323,15 +6427,15 @@
       <c r="G274" s="30"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="1:8" s="2" customFormat="1">
-      <c r="A275" s="4"/>
+    <row r="275" spans="1:8">
+      <c r="A275" s="7"/>
       <c r="B275" s="24"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
-      <c r="G275" s="34"/>
-      <c r="H275" s="4"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="7"/>
     </row>
     <row r="276" spans="1:8" s="2" customFormat="1">
       <c r="A276" s="4"/>
@@ -6343,19 +6447,19 @@
       <c r="G276" s="34"/>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="7"/>
+    <row r="277" spans="1:8" s="2" customFormat="1">
+      <c r="A277" s="4"/>
       <c r="B277" s="24"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="7"/>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="30"/>
-      <c r="H277" s="7"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
+      <c r="G277" s="34"/>
+      <c r="H277" s="4"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="23"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -6365,7 +6469,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="24"/>
+      <c r="B279" s="23"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -6395,7 +6499,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="22"/>
+      <c r="B282" s="24"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -6405,7 +6509,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="22"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -6425,7 +6529,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="20"/>
+      <c r="B285" s="7"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -6445,7 +6549,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -6476,7 +6580,7 @@
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
-      <c r="C290" s="7"/>
+      <c r="C290" s="4"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
@@ -6485,7 +6589,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -6495,7 +6599,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="6"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -6575,7 +6679,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="6"/>
+      <c r="B300" s="7"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -6585,8 +6689,8 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
@@ -6595,7 +6699,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="19"/>
+      <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -6625,7 +6729,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="4"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -6685,7 +6789,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="19"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -6705,7 +6809,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="21"/>
+      <c r="B313" s="19"/>
       <c r="C313" s="4"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -6715,8 +6819,8 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
-      <c r="C314" s="7"/>
+      <c r="B314" s="21"/>
+      <c r="C314" s="4"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
@@ -6725,7 +6829,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="6"/>
+      <c r="B315" s="7"/>
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -6733,15 +6837,15 @@
       <c r="G315" s="30"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="1:8" s="2" customFormat="1">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="4"/>
-      <c r="G316" s="34"/>
-      <c r="H316" s="4"/>
+    <row r="316" spans="1:8">
+      <c r="A316" s="7"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" s="30"/>
+      <c r="H316" s="7"/>
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
@@ -6765,7 +6869,7 @@
     </row>
     <row r="319" spans="1:8" s="2" customFormat="1">
       <c r="A319" s="4"/>
-      <c r="B319" s="19"/>
+      <c r="B319" s="4"/>
       <c r="C319" s="9"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -6815,8 +6919,8 @@
     </row>
     <row r="324" spans="1:8" s="2" customFormat="1">
       <c r="A324" s="4"/>
-      <c r="B324" s="26"/>
-      <c r="C324" s="4"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="9"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -6865,7 +6969,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="21"/>
+      <c r="B329" s="26"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -6915,7 +7019,7 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="19"/>
+      <c r="B334" s="21"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -6925,7 +7029,7 @@
     </row>
     <row r="335" spans="1:8" s="2" customFormat="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="21"/>
+      <c r="B335" s="19"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -6935,7 +7039,7 @@
     </row>
     <row r="336" spans="1:8" s="2" customFormat="1">
       <c r="A336" s="4"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="21"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -6943,20 +7047,20 @@
       <c r="G336" s="34"/>
       <c r="H336" s="4"/>
     </row>
-    <row r="337" spans="1:8">
-      <c r="A337" s="7"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="7"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="7"/>
-      <c r="F337" s="7"/>
-      <c r="G337" s="30"/>
-      <c r="H337" s="7"/>
+    <row r="337" spans="1:8" s="2" customFormat="1">
+      <c r="A337" s="4"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+      <c r="G337" s="34"/>
+      <c r="H337" s="4"/>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="7"/>
-      <c r="C338" s="4"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -7025,7 +7129,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="4"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="4"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -7036,7 +7140,7 @@
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
       <c r="B346" s="4"/>
-      <c r="C346" s="7"/>
+      <c r="C346" s="4"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
@@ -7045,7 +7149,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="6"/>
+      <c r="B347" s="4"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -7055,7 +7159,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -7065,7 +7169,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="22"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -7075,7 +7179,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="22"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -7115,7 +7219,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="6"/>
+      <c r="B354" s="7"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -7125,7 +7229,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="7"/>
+      <c r="B355" s="6"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -7135,7 +7239,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -7165,7 +7269,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="22"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -7175,7 +7279,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="20"/>
+      <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -7195,7 +7299,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -7205,7 +7309,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="22"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -7215,7 +7319,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="22"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -7225,7 +7329,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="20"/>
+      <c r="B365" s="22"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -7255,7 +7359,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -7265,7 +7369,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="27"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -7275,7 +7379,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="22"/>
+      <c r="B370" s="27"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -7285,8 +7389,8 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
-      <c r="C371" s="4"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
@@ -7295,7 +7399,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="20"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -7325,7 +7429,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="20"/>
       <c r="C375" s="4"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -7355,7 +7459,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="20"/>
+      <c r="B378" s="7"/>
       <c r="C378" s="4"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -7375,8 +7479,8 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
-      <c r="C380" s="7"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="4"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
@@ -7385,7 +7489,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="6"/>
+      <c r="B381" s="7"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -7395,7 +7499,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -7455,7 +7559,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="6"/>
+      <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -7465,7 +7569,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
+      <c r="B389" s="6"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -7486,7 +7590,7 @@
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
-      <c r="C391" s="4"/>
+      <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
@@ -7495,7 +7599,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="20"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="4"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -7506,7 +7610,7 @@
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
       <c r="B393" s="20"/>
-      <c r="C393" s="7"/>
+      <c r="C393" s="4"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
@@ -7515,7 +7619,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="27"/>
+      <c r="B394" s="20"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -7525,7 +7629,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="22"/>
+      <c r="B395" s="27"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -7575,7 +7679,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="22"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -7585,7 +7689,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="6"/>
+      <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -7595,7 +7699,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="6"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -7605,7 +7709,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -7615,7 +7719,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="22"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -7635,7 +7739,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="20"/>
+      <c r="B406" s="22"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -7675,7 +7779,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="20"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -7685,7 +7789,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -7705,7 +7809,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="22"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -7715,7 +7819,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="22"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -7725,7 +7829,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -7735,7 +7839,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -7755,7 +7859,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -7765,7 +7869,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -7775,7 +7879,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="20"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -7795,7 +7899,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="20"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -7805,7 +7909,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="6"/>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -7815,7 +7919,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -7865,7 +7969,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -7875,7 +7979,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -7935,7 +8039,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -7945,7 +8049,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -7965,7 +8069,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="7"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -7975,7 +8079,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="4"/>
+      <c r="B440" s="6"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -7995,7 +8099,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
+      <c r="B442" s="4"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -8025,7 +8129,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="7"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -8035,8 +8139,8 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
-      <c r="C446" s="4"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -8086,7 +8190,7 @@
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
-      <c r="C451" s="7"/>
+      <c r="C451" s="4"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -8095,7 +8199,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="7"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -8105,8 +8209,8 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="7"/>
-      <c r="C453" s="4"/>
+      <c r="B453" s="6"/>
+      <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
@@ -8146,7 +8250,7 @@
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
-      <c r="C457" s="7"/>
+      <c r="C457" s="4"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
@@ -8155,7 +8259,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="7"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -8165,7 +8269,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="22"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -8225,7 +8329,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
-      <c r="B465" s="7"/>
+      <c r="B465" s="22"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -8235,7 +8339,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="6"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -8245,7 +8349,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="22"/>
+      <c r="B467" s="6"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -8274,8 +8378,8 @@
       <c r="H469" s="7"/>
     </row>
     <row r="470" spans="1:8">
-      <c r="A470" s="6"/>
-      <c r="B470" s="7"/>
+      <c r="A470" s="7"/>
+      <c r="B470" s="22"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -8284,7 +8388,7 @@
       <c r="H470" s="7"/>
     </row>
     <row r="471" spans="1:8">
-      <c r="A471" s="7"/>
+      <c r="A471" s="6"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
@@ -8325,7 +8429,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="28"/>
+      <c r="B475" s="7"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -8355,7 +8459,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
+      <c r="B478" s="28"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -8365,7 +8469,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="28"/>
+      <c r="B479" s="7"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -8375,7 +8479,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
+      <c r="B480" s="28"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -8385,21 +8489,21 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="29"/>
-      <c r="C481" s="30"/>
+      <c r="B481" s="7"/>
+      <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
-      <c r="F481" s="29"/>
+      <c r="F481" s="7"/>
       <c r="G481" s="30"/>
       <c r="H481" s="7"/>
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="7"/>
-      <c r="B482" s="7"/>
-      <c r="C482" s="7"/>
+      <c r="B482" s="29"/>
+      <c r="C482" s="30"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
-      <c r="F482" s="7"/>
+      <c r="F482" s="29"/>
       <c r="G482" s="30"/>
       <c r="H482" s="7"/>
     </row>
@@ -12303,11 +12407,24 @@
       <c r="G872" s="30"/>
       <c r="H872" s="7"/>
     </row>
+    <row r="873" spans="1:8">
+      <c r="A873" s="7"/>
+      <c r="B873" s="7"/>
+      <c r="C873" s="7"/>
+      <c r="D873" s="7"/>
+      <c r="E873" s="7"/>
+      <c r="F873" s="7"/>
+      <c r="G873" s="30"/>
+      <c r="H873" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="69" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="G57:G59 G52:G53" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>Feature</t>
   </si>
@@ -373,6 +373,15 @@
   <si>
     <t>copies rtf with color</t>
   </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rtf</t>
+  </si>
+  <si>
+    <t>plain text</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +636,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955158"/>
+          <c:w val="0.9197807133095518"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -697,7 +706,7 @@
                   <c:v>06-03-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>06-09-17</c:v>
+                  <c:v>06-10-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -742,7 +751,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +821,7 @@
                   <c:v>06-03-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>06-09-17</c:v>
+                  <c:v>06-10-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -857,7 +866,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,7 +936,7 @@
                   <c:v>06-03-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>06-09-17</c:v>
+                  <c:v>06-10-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1045,7 +1054,7 @@
                   <c:v>06-03-17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06-09-17</c:v>
+                  <c:v>06-10-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1096,11 +1105,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151182720"/>
-        <c:axId val="150934656"/>
+        <c:axId val="146267520"/>
+        <c:axId val="128394368"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="151182720"/>
+        <c:axId val="146267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150934656"/>
+        <c:crossAx val="128394368"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1143,7 +1152,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150934656"/>
+        <c:axId val="128394368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151182720"/>
+        <c:crossAx val="146267520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1208,7 +1217,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844553"/>
+          <c:y val="0.37277147487844564"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1275,7 +1284,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001354" r="0.75000000000001354" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1329,7 +1338,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127532E-2"/>
+          <c:x val="4.4510450248127539E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1401,7 +1410,7 @@
                   <c:v>06-03-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>06-09-17</c:v>
+                  <c:v>06-10-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1446,17 +1455,17 @@
                   <c:v>0.46987951807228917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>0.46590909090909088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150974848"/>
-        <c:axId val="150976384"/>
+        <c:axId val="128430464"/>
+        <c:axId val="128432000"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="150974848"/>
+        <c:axId val="128430464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,14 +1473,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="150976384"/>
+        <c:crossAx val="128432000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150976384"/>
+        <c:axId val="128432000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1514,7 +1523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150974848"/>
+        <c:crossAx val="128430464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,7 +1572,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001354" r="0.75000000000001354" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1651,7 +1660,7 @@
                   <c:v>06-03-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>06-09-17</c:v>
+                  <c:v>06-10-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1696,7 +1705,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,7 +1775,7 @@
                   <c:v>06-03-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>06-09-17</c:v>
+                  <c:v>06-10-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1817,11 +1826,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150997248"/>
-        <c:axId val="150999040"/>
+        <c:axId val="146610432"/>
+        <c:axId val="146616320"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="150997248"/>
+        <c:axId val="146610432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150999040"/>
+        <c:crossAx val="146616320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +1872,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150999040"/>
+        <c:axId val="146616320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150997248"/>
+        <c:crossAx val="146610432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,7 +1963,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001354" r="0.75000000000001354" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2412,10 +2421,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2617,7 +2626,7 @@
         <v>117</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -2631,35 +2640,35 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" s="6" customFormat="1">
+      <c r="B29" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4" s="6" customFormat="1">
+      <c r="B30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" s="6" customFormat="1">
+      <c r="B31" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" s="6" customFormat="1">
-      <c r="B30" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
@@ -2668,16 +2677,16 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="23" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
@@ -2686,7 +2695,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="20" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
@@ -2695,7 +2704,7 @@
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
       <c r="B35" s="23" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -2703,40 +2712,40 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="23"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="2:4" s="6" customFormat="1">
+      <c r="B38" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" s="6" customFormat="1">
+      <c r="B39" s="23"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" s="6" customFormat="1">
+      <c r="B40" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2744,13 +2753,17 @@
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="27" t="s">
-        <v>46</v>
+      <c r="B42" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2759,25 +2772,21 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>48</v>
+      <c r="B45" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -2786,7 +2795,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="20" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -2794,13 +2803,17 @@
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="27" t="s">
-        <v>50</v>
+      <c r="B48" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>2</v>
@@ -2809,7 +2822,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="20" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -2817,71 +2830,67 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" s="6" customFormat="1">
+      <c r="B51" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" s="6" customFormat="1">
+      <c r="B52" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="23" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="24" t="s">
-        <v>115</v>
+      <c r="B57" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>2</v>
@@ -2890,7 +2899,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>2</v>
@@ -2898,8 +2907,8 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="24" t="s">
-        <v>115</v>
+      <c r="B59" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>2</v>
@@ -2907,8 +2916,8 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="23" t="s">
-        <v>63</v>
+      <c r="B60" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -2917,7 +2926,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>2</v>
@@ -2925,8 +2934,8 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="23" t="s">
-        <v>91</v>
+      <c r="B62" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>2</v>
@@ -2935,76 +2944,88 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" s="6" customFormat="1">
+      <c r="B65" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" s="6" customFormat="1">
+      <c r="B66" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="2:4" s="6" customFormat="1">
+      <c r="B67" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="27" t="s">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1">
+      <c r="B69" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="20" t="s">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="23" t="s">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1">
+      <c r="B71" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="20" t="s">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="7"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
@@ -3013,12 +3034,8 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
@@ -3027,17 +3044,13 @@
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22" t="s">
-        <v>80</v>
+      <c r="B77" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3050,41 +3063,41 @@
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="19"/>
-      <c r="C79" s="4"/>
+      <c r="B79" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="B80" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1">
+      <c r="B82" s="19"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" s="6" customFormat="1">
+      <c r="B84" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" s="6" customFormat="1">
-      <c r="B84" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -3092,17 +3105,13 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20" t="s">
-        <v>75</v>
+      <c r="B86" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3111,7 +3120,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3120,7 +3129,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="20" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3129,7 +3138,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="20" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3138,7 +3147,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3147,7 +3156,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3156,7 +3165,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3164,13 +3173,17 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22" t="s">
-        <v>53</v>
+      <c r="B94" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3179,7 +3192,7 @@
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="20" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>14</v>
@@ -3187,22 +3200,22 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="7" t="s">
+      <c r="B96" s="22"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="2:4" s="6" customFormat="1">
+      <c r="B97" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22" t="s">
-        <v>82</v>
+      <c r="B98" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3210,8 +3223,12 @@
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="22"/>
-      <c r="C99" s="7"/>
+      <c r="B99" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
@@ -3220,45 +3237,37 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="20"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="20"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="7"/>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="22"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" s="6" customFormat="1">
+      <c r="B104" s="20"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="2:4" s="6" customFormat="1">
+      <c r="B105" s="20"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="2:4" s="6" customFormat="1">
+      <c r="B106" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22" t="s">
-        <v>30</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3266,18 +3275,26 @@
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22"/>
-      <c r="C107" s="7"/>
+      <c r="B107" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="3" t="s">
-        <v>25</v>
+      <c r="B109" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3285,26 +3302,18 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22" t="s">
-        <v>32</v>
+      <c r="B112" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3312,18 +3321,26 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1">
-      <c r="B113" s="43"/>
-      <c r="C113" s="4"/>
+      <c r="B113" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" s="6" customFormat="1">
-      <c r="B114" s="21"/>
-      <c r="C114" s="4"/>
+      <c r="B114" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" s="6" customFormat="1">
-      <c r="B115" s="3" t="s">
-        <v>19</v>
+      <c r="B115" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>14</v>
@@ -3331,113 +3348,132 @@
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" s="6" customFormat="1">
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="43"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" s="6" customFormat="1">
+      <c r="B117" s="21"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" s="6" customFormat="1">
+      <c r="B118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" s="6" customFormat="1">
+      <c r="B119" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" s="6" customFormat="1">
-      <c r="B117" s="22" t="s">
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" s="6" customFormat="1">
+      <c r="B120" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" s="6" customFormat="1">
-      <c r="B118" s="22"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" s="6" customFormat="1">
-      <c r="B119" s="19"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" s="6" customFormat="1">
-      <c r="B120" s="21"/>
-      <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" s="6" customFormat="1">
-      <c r="B121" s="21"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="3"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="3"/>
-      <c r="B123" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" s="6">
-        <f>COUNTIF(C5:C122,"y")</f>
-        <v>40</v>
-      </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="3"/>
-      <c r="B124" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="6">
-        <f>COUNTIF(C5:C122,"n")</f>
-        <v>43</v>
-      </c>
-      <c r="D124" s="2"/>
+    <row r="122" spans="1:4" s="6" customFormat="1">
+      <c r="B122" s="19"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" s="6" customFormat="1">
+      <c r="B123" s="21"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" s="6" customFormat="1">
+      <c r="B124" s="21"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="3"/>
-      <c r="B125" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="7">
-        <f>COUNTIF(C5:C122,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D125" s="2"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="3"/>
       <c r="B126" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126">
-        <f>SUM(C123:C125)</f>
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="C126" s="6">
+        <f>COUNTIF(C5:C125,"y")</f>
+        <v>41</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" ht="18">
+    <row r="127" spans="1:4">
       <c r="A127" s="3"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="41">
-        <f>C123/(C124+C123 + C125)</f>
-        <v>0.48192771084337349</v>
-      </c>
+      <c r="B127" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="6">
+        <f>COUNTIF(C5:C125,"n")</f>
+        <v>45</v>
+      </c>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="3"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="3"/>
+      <c r="B128" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="7">
+        <f>COUNTIF(C5:C125,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3"/>
+      <c r="B129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <f>SUM(C126:C128)</f>
+        <v>86</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" ht="18">
+      <c r="A130" s="3"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="41">
+        <f>C126/(C127+C126 + C128)</f>
+        <v>0.47674418604651164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C64876">
+  <conditionalFormatting sqref="C1:C3 C6:C64879">
     <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -3464,7 +3500,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3975,13 +4011,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="46">
-        <v>42984</v>
+        <v>43014</v>
       </c>
       <c r="B59" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -3994,7 +4030,7 @@
       </c>
       <c r="G59" s="30">
         <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>
-        <v>0.47058823529411764</v>
+        <v>0.46590909090909088</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -4039,25 +4075,25 @@
       </c>
       <c r="G62" s="38">
         <f>MIN(G59)</f>
-        <v>0.47058823529411764</v>
+        <v>0.46590909090909088</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="39">
         <f>SUM(B63:D63)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B63" s="15">
-        <f>Features!C123</f>
-        <v>40</v>
+        <f>Features!C126</f>
+        <v>41</v>
       </c>
       <c r="C63" s="16">
-        <f>Features!C124</f>
-        <v>43</v>
+        <f>Features!C127</f>
+        <v>45</v>
       </c>
       <c r="D63" s="17">
-        <f>Features!C125</f>
+        <f>Features!C128</f>
         <v>0</v>
       </c>
       <c r="E63" s="18">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="122">
   <si>
     <t>Feature</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>plain text</t>
+  </si>
+  <si>
+    <t>0.00.11</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +3503,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4026,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G59" s="30">
         <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -639,7 +639,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.9197807133095518"/>
+          <c:w val="0.91978071330955191"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1102,17 +1102,17 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146267520"/>
-        <c:axId val="128394368"/>
+        <c:axId val="149544320"/>
+        <c:axId val="131802240"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="146267520"/>
+        <c:axId val="149544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128394368"/>
+        <c:crossAx val="131802240"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1155,7 +1155,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128394368"/>
+        <c:axId val="131802240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146267520"/>
+        <c:crossAx val="149544320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1220,7 +1220,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.2637362637362637E-2"/>
-          <c:y val="0.37277147487844564"/>
+          <c:y val="0.37277147487844575"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1287,7 +1287,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001354" r="0.75000000000001354" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,7 +1341,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127539E-2"/>
+          <c:x val="4.4510450248127546E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1458,17 +1458,17 @@
                   <c:v>0.46987951807228917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46590909090909088</c:v>
+                  <c:v>0.45054945054945056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128430464"/>
-        <c:axId val="128432000"/>
+        <c:axId val="131838336"/>
+        <c:axId val="131839872"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="128430464"/>
+        <c:axId val="131838336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,14 +1476,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="128432000"/>
+        <c:crossAx val="131839872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128432000"/>
+        <c:axId val="131839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1526,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128430464"/>
+        <c:crossAx val="131838336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1575,7 +1575,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001354" r="0.75000000000001354" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1829,11 +1829,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146610432"/>
-        <c:axId val="146616320"/>
+        <c:axId val="149887232"/>
+        <c:axId val="149889024"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="146610432"/>
+        <c:axId val="149887232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +1866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146616320"/>
+        <c:crossAx val="149889024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1875,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146616320"/>
+        <c:axId val="149889024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146610432"/>
+        <c:crossAx val="149887232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1966,7 +1966,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001354" r="0.75000000000001354" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3503,7 +3503,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4026,14 +4026,14 @@
         <v>0</v>
       </c>
       <c r="E59" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" s="28" t="s">
         <v>121</v>
       </c>
       <c r="G59" s="30">
         <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>
-        <v>0.46590909090909088</v>
+        <v>0.45054945054945056</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="G62" s="38">
         <f>MIN(G59)</f>
-        <v>0.46590909090909088</v>
+        <v>0.45054945054945056</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -4100,8 +4100,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18">
-        <f>MIN(E59)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="30"/>
